--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2633000</v>
+        <v>2279400</v>
       </c>
       <c r="E8" s="3">
-        <v>2691200</v>
+        <v>2483200</v>
       </c>
       <c r="F8" s="3">
-        <v>2399100</v>
+        <v>2656000</v>
       </c>
       <c r="G8" s="3">
-        <v>2534200</v>
+        <v>2714700</v>
       </c>
       <c r="H8" s="3">
-        <v>2553900</v>
+        <v>2420100</v>
       </c>
       <c r="I8" s="3">
+        <v>2556300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2576300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2685700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2389200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2561500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2714100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2842000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2790100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11073700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1513000</v>
+        <v>1264900</v>
       </c>
       <c r="E9" s="3">
-        <v>1509800</v>
+        <v>1413300</v>
       </c>
       <c r="F9" s="3">
-        <v>1396700</v>
+        <v>1526300</v>
       </c>
       <c r="G9" s="3">
-        <v>1490000</v>
+        <v>1523000</v>
       </c>
       <c r="H9" s="3">
-        <v>1455900</v>
+        <v>1408900</v>
       </c>
       <c r="I9" s="3">
+        <v>1503000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1468700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1526200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1379100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1458600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1539400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1574200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1529500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5984100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1120000</v>
+        <v>1014600</v>
       </c>
       <c r="E10" s="3">
-        <v>1181400</v>
+        <v>1069900</v>
       </c>
       <c r="F10" s="3">
-        <v>1002500</v>
+        <v>1129800</v>
       </c>
       <c r="G10" s="3">
-        <v>1044200</v>
+        <v>1191800</v>
       </c>
       <c r="H10" s="3">
-        <v>1098000</v>
+        <v>1011200</v>
       </c>
       <c r="I10" s="3">
+        <v>1053300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1159500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1010200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1102900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1174700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1267800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1260700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5089600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>29200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2361800</v>
+        <v>2072300</v>
       </c>
       <c r="E17" s="3">
-        <v>2353000</v>
+        <v>2291600</v>
       </c>
       <c r="F17" s="3">
-        <v>2275100</v>
+        <v>2382400</v>
       </c>
       <c r="G17" s="3">
-        <v>2459500</v>
+        <v>2373600</v>
       </c>
       <c r="H17" s="3">
-        <v>2293700</v>
+        <v>2294900</v>
       </c>
       <c r="I17" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2313800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2474900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2270700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2405500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2472900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2546900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2546000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9990300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>271200</v>
+        <v>207100</v>
       </c>
       <c r="E18" s="3">
-        <v>338200</v>
+        <v>191600</v>
       </c>
       <c r="F18" s="3">
-        <v>124100</v>
+        <v>273600</v>
       </c>
       <c r="G18" s="3">
-        <v>74700</v>
+        <v>341100</v>
       </c>
       <c r="H18" s="3">
-        <v>260200</v>
+        <v>125200</v>
       </c>
       <c r="I18" s="3">
+        <v>75300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K18" s="3">
         <v>210800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>118600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>156000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>241200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>295100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>244200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1083400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>7700</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H20" s="3">
-        <v>8800</v>
+        <v>10000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="J20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>49400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>12900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>25800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>366700</v>
+        <v>316800</v>
       </c>
       <c r="E21" s="3">
-        <v>443600</v>
+        <v>305700</v>
       </c>
       <c r="F21" s="3">
-        <v>227300</v>
+        <v>369900</v>
       </c>
       <c r="G21" s="3">
-        <v>147100</v>
+        <v>447500</v>
       </c>
       <c r="H21" s="3">
-        <v>334900</v>
+        <v>229300</v>
       </c>
       <c r="I21" s="3">
+        <v>148400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>337800</v>
+      </c>
+      <c r="K21" s="3">
         <v>276700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>233900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>236700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>313000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>390500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>342800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1820600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23100</v>
+        <v>16600</v>
       </c>
       <c r="E22" s="3">
-        <v>22000</v>
+        <v>19900</v>
       </c>
       <c r="F22" s="3">
-        <v>18700</v>
+        <v>23300</v>
       </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>22200</v>
       </c>
       <c r="H22" s="3">
-        <v>26400</v>
+        <v>18800</v>
       </c>
       <c r="I22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K22" s="3">
         <v>24200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>24200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>25800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>25800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>24700</v>
       </c>
       <c r="N22" s="3">
         <v>25800</v>
       </c>
       <c r="O22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>111500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>248100</v>
+        <v>200500</v>
       </c>
       <c r="E23" s="3">
-        <v>323900</v>
+        <v>176100</v>
       </c>
       <c r="F23" s="3">
-        <v>115300</v>
+        <v>250300</v>
       </c>
       <c r="G23" s="3">
-        <v>56000</v>
+        <v>326700</v>
       </c>
       <c r="H23" s="3">
-        <v>242700</v>
+        <v>116300</v>
       </c>
       <c r="I23" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>244800</v>
+      </c>
+      <c r="K23" s="3">
         <v>186700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>143800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>141400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>209800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>285000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>231200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>997700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56000</v>
+        <v>59800</v>
       </c>
       <c r="E24" s="3">
-        <v>75800</v>
+        <v>87500</v>
       </c>
       <c r="F24" s="3">
-        <v>34000</v>
+        <v>56500</v>
       </c>
       <c r="G24" s="3">
+        <v>76400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
-        <v>72500</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K24" s="3">
         <v>51600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>90900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>64000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>70700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>61000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>274700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>192200</v>
+        <v>140700</v>
       </c>
       <c r="E26" s="3">
-        <v>248100</v>
+        <v>88600</v>
       </c>
       <c r="F26" s="3">
-        <v>81300</v>
+        <v>193800</v>
       </c>
       <c r="G26" s="3">
-        <v>49400</v>
+        <v>250300</v>
       </c>
       <c r="H26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>49800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>171700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>135100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>144900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>50500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>145900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>214300</v>
+      </c>
+      <c r="P26" s="3">
         <v>170200</v>
       </c>
-      <c r="I26" s="3">
-        <v>135100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>144900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>50500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>145900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>214300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>170200</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>723100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177900</v>
+        <v>127400</v>
       </c>
       <c r="E27" s="3">
-        <v>236100</v>
+        <v>83100</v>
       </c>
       <c r="F27" s="3">
-        <v>71400</v>
+        <v>179400</v>
       </c>
       <c r="G27" s="3">
-        <v>38400</v>
+        <v>238100</v>
       </c>
       <c r="H27" s="3">
-        <v>162500</v>
+        <v>72000</v>
       </c>
       <c r="I27" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K27" s="3">
         <v>116400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>121900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>135800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>187400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>145600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>626800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>17600</v>
+        <v>6600</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>6383800</v>
+        <v>17700</v>
       </c>
       <c r="H29" s="3">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>6439600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K29" s="3">
         <v>181200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>155900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>52700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>108800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>150300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>136200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>511800</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7700</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H32" s="3">
-        <v>-8800</v>
+        <v>-10000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="J32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-49400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-12900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-25800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177900</v>
+        <v>126300</v>
       </c>
       <c r="E33" s="3">
-        <v>253600</v>
+        <v>89700</v>
       </c>
       <c r="F33" s="3">
-        <v>71400</v>
+        <v>179400</v>
       </c>
       <c r="G33" s="3">
-        <v>6422200</v>
+        <v>255900</v>
       </c>
       <c r="H33" s="3">
-        <v>330500</v>
+        <v>72000</v>
       </c>
       <c r="I33" s="3">
+        <v>6478400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K33" s="3">
         <v>297600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>277800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>84100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>244600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>337700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>281700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1138600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177900</v>
+        <v>126300</v>
       </c>
       <c r="E35" s="3">
-        <v>253600</v>
+        <v>89700</v>
       </c>
       <c r="F35" s="3">
-        <v>71400</v>
+        <v>179400</v>
       </c>
       <c r="G35" s="3">
-        <v>6422200</v>
+        <v>255900</v>
       </c>
       <c r="H35" s="3">
-        <v>330500</v>
+        <v>72000</v>
       </c>
       <c r="I35" s="3">
+        <v>6478400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K35" s="3">
         <v>297600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>277800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>84100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>244600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>337700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>281700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1138600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,72 +2138,80 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>686300</v>
+        <v>921500</v>
       </c>
       <c r="E41" s="3">
-        <v>1271500</v>
+        <v>1407800</v>
       </c>
       <c r="F41" s="3">
-        <v>1464700</v>
+        <v>692300</v>
       </c>
       <c r="G41" s="3">
-        <v>3073300</v>
+        <v>1282600</v>
       </c>
       <c r="H41" s="3">
-        <v>1141900</v>
+        <v>1477500</v>
       </c>
       <c r="I41" s="3">
+        <v>3100200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1151900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1051900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1258300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1483300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1218500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1169100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1488400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1736100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1730400</v>
+        <v>2200</v>
       </c>
       <c r="E42" s="3">
-        <v>1675500</v>
+        <v>152800</v>
       </c>
       <c r="F42" s="3">
-        <v>2965700</v>
+        <v>1745600</v>
       </c>
       <c r="G42" s="3">
-        <v>5995100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>1690200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2991600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>6047500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2046,325 +2225,373 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2639600</v>
+        <v>2492100</v>
       </c>
       <c r="E43" s="3">
-        <v>2735100</v>
+        <v>2362500</v>
       </c>
       <c r="F43" s="3">
-        <v>2641800</v>
+        <v>2662700</v>
       </c>
       <c r="G43" s="3">
-        <v>2350800</v>
+        <v>2759000</v>
       </c>
       <c r="H43" s="3">
-        <v>2498000</v>
+        <v>2664900</v>
       </c>
       <c r="I43" s="3">
+        <v>2371400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2519800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2661600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2446300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2203600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3470300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3574700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3716300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3271400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1340700</v>
+        <v>1340200</v>
       </c>
       <c r="E44" s="3">
-        <v>1345100</v>
+        <v>1261600</v>
       </c>
       <c r="F44" s="3">
-        <v>1346100</v>
+        <v>1352400</v>
       </c>
       <c r="G44" s="3">
-        <v>1250600</v>
+        <v>1356800</v>
       </c>
       <c r="H44" s="3">
-        <v>1262700</v>
+        <v>1357900</v>
       </c>
       <c r="I44" s="3">
+        <v>1261600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1273700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1286900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1279200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1227500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1826600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1827700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1923900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1798300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>80200</v>
+        <v>72000</v>
       </c>
       <c r="E45" s="3">
-        <v>87800</v>
+        <v>69800</v>
       </c>
       <c r="F45" s="3">
-        <v>88900</v>
+        <v>80900</v>
       </c>
       <c r="G45" s="3">
-        <v>81300</v>
+        <v>88600</v>
       </c>
       <c r="H45" s="3">
-        <v>5571300</v>
+        <v>89700</v>
       </c>
       <c r="I45" s="3">
+        <v>82000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5620000</v>
+      </c>
+      <c r="K45" s="3">
         <v>5451600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5298900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5231800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>75200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>77500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>69300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6477100</v>
+        <v>4828000</v>
       </c>
       <c r="E46" s="3">
-        <v>7115000</v>
+        <v>5254500</v>
       </c>
       <c r="F46" s="3">
-        <v>8507300</v>
+        <v>6533700</v>
       </c>
       <c r="G46" s="3">
-        <v>12751100</v>
+        <v>7177200</v>
       </c>
       <c r="H46" s="3">
-        <v>10473800</v>
+        <v>8581700</v>
       </c>
       <c r="I46" s="3">
+        <v>12862600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10565400</v>
+      </c>
+      <c r="K46" s="3">
         <v>10451900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10282800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10146200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6590600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6633200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7206000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6875000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2969000</v>
+        <v>3597500</v>
       </c>
       <c r="E47" s="3">
-        <v>2750500</v>
+        <v>2228500</v>
       </c>
       <c r="F47" s="3">
-        <v>2875700</v>
+        <v>2995000</v>
       </c>
       <c r="G47" s="3">
-        <v>2157600</v>
+        <v>2774500</v>
       </c>
       <c r="H47" s="3">
-        <v>2274000</v>
+        <v>2900800</v>
       </c>
       <c r="I47" s="3">
+        <v>2176400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2293800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2390300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2310200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1479900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1880500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1952300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2290100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>844000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2238800</v>
+        <v>2215200</v>
       </c>
       <c r="E48" s="3">
-        <v>2252000</v>
+        <v>2297200</v>
       </c>
       <c r="F48" s="3">
-        <v>2357400</v>
+        <v>2258400</v>
       </c>
       <c r="G48" s="3">
-        <v>1919300</v>
+        <v>2271700</v>
       </c>
       <c r="H48" s="3">
-        <v>1864400</v>
+        <v>2378000</v>
       </c>
       <c r="I48" s="3">
+        <v>1936100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1880700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1888600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1903900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2055500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4525000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4558600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4927700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4918300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3736500</v>
+        <v>3947500</v>
       </c>
       <c r="E49" s="3">
-        <v>3729900</v>
+        <v>4015100</v>
       </c>
       <c r="F49" s="3">
-        <v>3784800</v>
+        <v>3769200</v>
       </c>
       <c r="G49" s="3">
-        <v>3796900</v>
+        <v>3762500</v>
       </c>
       <c r="H49" s="3">
-        <v>3682700</v>
+        <v>3817900</v>
       </c>
       <c r="I49" s="3">
+        <v>3830100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3714900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3720000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3711200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3824900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4703400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4747100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5146000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5180000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2684,22 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3">
+        <v>585900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2477,26 +2716,32 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>645100</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>645100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>1193800</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>1193800</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15421400</v>
+        <v>14588200</v>
       </c>
       <c r="E54" s="3">
-        <v>15847400</v>
+        <v>14381100</v>
       </c>
       <c r="F54" s="3">
-        <v>17525200</v>
+        <v>15556200</v>
       </c>
       <c r="G54" s="3">
-        <v>20624800</v>
+        <v>15986000</v>
       </c>
       <c r="H54" s="3">
-        <v>18294900</v>
+        <v>17678400</v>
       </c>
       <c r="I54" s="3">
+        <v>20805200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>18454800</v>
+      </c>
+      <c r="K54" s="3">
         <v>18450800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18208100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18151600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17699400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17891300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>19569800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>19011000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2694500</v>
+        <v>2570700</v>
       </c>
       <c r="E57" s="3">
-        <v>2799900</v>
+        <v>2664900</v>
       </c>
       <c r="F57" s="3">
-        <v>2849300</v>
+        <v>2718100</v>
       </c>
       <c r="G57" s="3">
-        <v>2904200</v>
+        <v>2824400</v>
       </c>
       <c r="H57" s="3">
-        <v>2847100</v>
+        <v>2874200</v>
       </c>
       <c r="I57" s="3">
+        <v>2929600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2939300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2889900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3134800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3987600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3949400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4215200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4079000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>768600</v>
+        <v>326700</v>
       </c>
       <c r="E58" s="3">
-        <v>778500</v>
+        <v>187200</v>
       </c>
       <c r="F58" s="3">
-        <v>779600</v>
+        <v>775300</v>
       </c>
       <c r="G58" s="3">
-        <v>657700</v>
+        <v>785300</v>
       </c>
       <c r="H58" s="3">
-        <v>1584400</v>
+        <v>786400</v>
       </c>
       <c r="I58" s="3">
+        <v>663500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1598300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1698600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1585500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1091700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>151500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>344500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>495300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>102100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>483100</v>
+        <v>436400</v>
       </c>
       <c r="E59" s="3">
-        <v>475400</v>
+        <v>472900</v>
       </c>
       <c r="F59" s="3">
-        <v>472100</v>
+        <v>487300</v>
       </c>
       <c r="G59" s="3">
-        <v>478700</v>
+        <v>479600</v>
       </c>
       <c r="H59" s="3">
-        <v>2763700</v>
+        <v>476300</v>
       </c>
       <c r="I59" s="3">
+        <v>482900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2787800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2813100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2820800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2866700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>570000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>658600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>743000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>764200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3946200</v>
+        <v>3333900</v>
       </c>
       <c r="E60" s="3">
-        <v>4053800</v>
+        <v>3325000</v>
       </c>
       <c r="F60" s="3">
-        <v>4101000</v>
+        <v>3980700</v>
       </c>
       <c r="G60" s="3">
-        <v>4040600</v>
+        <v>4089300</v>
       </c>
       <c r="H60" s="3">
-        <v>7195200</v>
+        <v>4136900</v>
       </c>
       <c r="I60" s="3">
+        <v>4076000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7258100</v>
+      </c>
+      <c r="K60" s="3">
         <v>7451000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7296200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7093200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4709000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4952500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5453500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4945300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2237700</v>
+        <v>2255100</v>
       </c>
       <c r="E61" s="3">
-        <v>2237700</v>
+        <v>2261700</v>
       </c>
       <c r="F61" s="3">
-        <v>2267400</v>
+        <v>2257300</v>
       </c>
       <c r="G61" s="3">
-        <v>1975300</v>
+        <v>2257300</v>
       </c>
       <c r="H61" s="3">
-        <v>2522100</v>
+        <v>2287200</v>
       </c>
       <c r="I61" s="3">
+        <v>1992600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2544200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2524300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2523200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2580600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2964300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2967700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3107100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3103600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1530600</v>
+        <v>1588300</v>
       </c>
       <c r="E62" s="3">
-        <v>1455900</v>
+        <v>1519600</v>
       </c>
       <c r="F62" s="3">
-        <v>1466900</v>
+        <v>1544000</v>
       </c>
       <c r="G62" s="3">
-        <v>1391200</v>
+        <v>1468700</v>
       </c>
       <c r="H62" s="3">
-        <v>1269300</v>
+        <v>1479800</v>
       </c>
       <c r="I62" s="3">
+        <v>1403300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1280400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1300000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1349400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1401400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2330400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2374100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2616400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2705600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7964900</v>
+        <v>7414300</v>
       </c>
       <c r="E66" s="3">
-        <v>7986900</v>
+        <v>7347800</v>
       </c>
       <c r="F66" s="3">
-        <v>8070300</v>
+        <v>8034500</v>
       </c>
       <c r="G66" s="3">
-        <v>7631100</v>
+        <v>8056700</v>
       </c>
       <c r="H66" s="3">
-        <v>11454300</v>
+        <v>8140900</v>
       </c>
       <c r="I66" s="3">
+        <v>7697800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>11554500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11777100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11663000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11571100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10518700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10832800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11756900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11319000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7911100</v>
+        <v>7836300</v>
       </c>
       <c r="E72" s="3">
-        <v>8392000</v>
+        <v>7442000</v>
       </c>
       <c r="F72" s="3">
-        <v>9829300</v>
+        <v>7980300</v>
       </c>
       <c r="G72" s="3">
-        <v>12047300</v>
+        <v>8465400</v>
       </c>
       <c r="H72" s="3">
-        <v>5938000</v>
+        <v>9915200</v>
       </c>
       <c r="I72" s="3">
+        <v>12152600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5989900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5698600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5812800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5750200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6329100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5928600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6400800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6276400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7456500</v>
+        <v>7173900</v>
       </c>
       <c r="E76" s="3">
-        <v>7860600</v>
+        <v>7033300</v>
       </c>
       <c r="F76" s="3">
-        <v>9454900</v>
+        <v>7521700</v>
       </c>
       <c r="G76" s="3">
-        <v>12993700</v>
+        <v>7929300</v>
       </c>
       <c r="H76" s="3">
-        <v>6840500</v>
+        <v>9537500</v>
       </c>
       <c r="I76" s="3">
+        <v>13107300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6900300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6673600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6545200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6580500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7180700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7058400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7812900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7692000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177900</v>
+        <v>126300</v>
       </c>
       <c r="E81" s="3">
-        <v>253600</v>
+        <v>89700</v>
       </c>
       <c r="F81" s="3">
-        <v>71400</v>
+        <v>179400</v>
       </c>
       <c r="G81" s="3">
-        <v>6422200</v>
+        <v>255900</v>
       </c>
       <c r="H81" s="3">
-        <v>330500</v>
+        <v>72000</v>
       </c>
       <c r="I81" s="3">
+        <v>6478400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K81" s="3">
         <v>297600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>277800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>84100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>244600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>337700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>281700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1138600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95500</v>
+        <v>99700</v>
       </c>
       <c r="E83" s="3">
-        <v>97700</v>
+        <v>109700</v>
       </c>
       <c r="F83" s="3">
-        <v>93300</v>
+        <v>96400</v>
       </c>
       <c r="G83" s="3">
-        <v>64800</v>
+        <v>98600</v>
       </c>
       <c r="H83" s="3">
+        <v>94100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>65300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K83" s="3">
         <v>65900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>65900</v>
       </c>
-      <c r="J83" s="3">
-        <v>65900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>154800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>170500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>178400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>185500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>711300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>338200</v>
+        <v>-178300</v>
       </c>
       <c r="E89" s="3">
-        <v>165800</v>
+        <v>319000</v>
       </c>
       <c r="F89" s="3">
-        <v>-795000</v>
+        <v>341100</v>
       </c>
       <c r="G89" s="3">
-        <v>266800</v>
+        <v>167200</v>
       </c>
       <c r="H89" s="3">
-        <v>780700</v>
+        <v>-801900</v>
       </c>
       <c r="I89" s="3">
+        <v>269100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>787500</v>
+      </c>
+      <c r="K89" s="3">
         <v>16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>593500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>466700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>350100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-338100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1515400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57100</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>-50500</v>
+        <v>-87500</v>
       </c>
       <c r="F91" s="3">
-        <v>-40600</v>
+        <v>-57600</v>
       </c>
       <c r="G91" s="3">
-        <v>-59300</v>
+        <v>-50900</v>
       </c>
       <c r="H91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-39500</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-37300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-95400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-66200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-68400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-193700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>577500</v>
+        <v>113000</v>
       </c>
       <c r="E94" s="3">
-        <v>1335200</v>
+        <v>783100</v>
       </c>
       <c r="F94" s="3">
-        <v>2814200</v>
+        <v>582600</v>
       </c>
       <c r="G94" s="3">
-        <v>3734300</v>
+        <v>1346800</v>
       </c>
       <c r="H94" s="3">
-        <v>-362300</v>
+        <v>2838800</v>
       </c>
       <c r="I94" s="3">
+        <v>3766900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-365500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-239000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-362400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-71800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-44600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8800</v>
+        <v>-1100</v>
       </c>
       <c r="E96" s="3">
-        <v>-350300</v>
+        <v>-103000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1126500</v>
+        <v>-8900</v>
       </c>
       <c r="G96" s="3">
-        <v>-148200</v>
+        <v>-353300</v>
       </c>
       <c r="H96" s="3">
-        <v>-25300</v>
+        <v>-1136400</v>
       </c>
       <c r="I96" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-334900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-190000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-14600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-235600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-394400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-827900</v>
+        <v>-437500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1684300</v>
+        <v>-1036700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3683800</v>
+        <v>-835100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2063100</v>
+        <v>-1699100</v>
       </c>
       <c r="H100" s="3">
-        <v>-265700</v>
+        <v>-3716000</v>
       </c>
       <c r="I100" s="3">
+        <v>-2081200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-225100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>241600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-77400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-97600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-325400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>11700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-238300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="P101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>17600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>17600</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>105400</v>
+        <v>-543800</v>
       </c>
       <c r="E102" s="3">
-        <v>-197600</v>
+        <v>60900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1639300</v>
+        <v>106300</v>
       </c>
       <c r="G102" s="3">
-        <v>1954400</v>
+        <v>-199400</v>
       </c>
       <c r="H102" s="3">
-        <v>126300</v>
+        <v>-1653600</v>
       </c>
       <c r="I102" s="3">
+        <v>1971500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>127400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-208600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-275600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>276000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>173900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-194100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-459000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>145600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2279400</v>
+        <v>2350400</v>
       </c>
       <c r="E8" s="3">
-        <v>2483200</v>
+        <v>2434400</v>
       </c>
       <c r="F8" s="3">
-        <v>2656000</v>
+        <v>2652100</v>
       </c>
       <c r="G8" s="3">
-        <v>2714700</v>
+        <v>2836600</v>
       </c>
       <c r="H8" s="3">
-        <v>2420100</v>
+        <v>2899300</v>
       </c>
       <c r="I8" s="3">
-        <v>2556300</v>
+        <v>2584600</v>
       </c>
       <c r="J8" s="3">
+        <v>2730100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2576300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2685700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2389200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2561500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2714100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2842000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2790100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11073700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1264900</v>
+        <v>1313000</v>
       </c>
       <c r="E9" s="3">
-        <v>1413300</v>
+        <v>1350900</v>
       </c>
       <c r="F9" s="3">
-        <v>1526300</v>
+        <v>1509400</v>
       </c>
       <c r="G9" s="3">
-        <v>1523000</v>
+        <v>1630000</v>
       </c>
       <c r="H9" s="3">
-        <v>1408900</v>
+        <v>1626500</v>
       </c>
       <c r="I9" s="3">
-        <v>1503000</v>
+        <v>1504600</v>
       </c>
       <c r="J9" s="3">
+        <v>1605200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1468700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1526200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1379100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1458600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1539400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1574200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1529500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5984100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1014600</v>
+        <v>1037400</v>
       </c>
       <c r="E10" s="3">
-        <v>1069900</v>
+        <v>1083500</v>
       </c>
       <c r="F10" s="3">
-        <v>1129800</v>
+        <v>1142700</v>
       </c>
       <c r="G10" s="3">
-        <v>1191800</v>
+        <v>1206600</v>
       </c>
       <c r="H10" s="3">
-        <v>1011200</v>
+        <v>1272800</v>
       </c>
       <c r="I10" s="3">
-        <v>1053300</v>
+        <v>1080000</v>
       </c>
       <c r="J10" s="3">
+        <v>1124900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1107600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1159500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1010200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1102900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1174700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1267800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1260700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5089600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-3300</v>
+        <v>4700</v>
       </c>
       <c r="G14" s="3">
-        <v>3300</v>
+        <v>-3500</v>
       </c>
       <c r="H14" s="3">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="3">
-        <v>4400</v>
+        <v>1200</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1041,25 +1061,28 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>14100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2072300</v>
+        <v>2105600</v>
       </c>
       <c r="E17" s="3">
-        <v>2291600</v>
+        <v>2213200</v>
       </c>
       <c r="F17" s="3">
-        <v>2382400</v>
+        <v>2447400</v>
       </c>
       <c r="G17" s="3">
-        <v>2373600</v>
+        <v>2544400</v>
       </c>
       <c r="H17" s="3">
-        <v>2294900</v>
+        <v>2535000</v>
       </c>
       <c r="I17" s="3">
-        <v>2481000</v>
+        <v>2451000</v>
       </c>
       <c r="J17" s="3">
+        <v>2649700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2313800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2474900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2270700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2405500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2472900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2546900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2546000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9990300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>207100</v>
+        <v>244900</v>
       </c>
       <c r="E18" s="3">
-        <v>191600</v>
+        <v>221200</v>
       </c>
       <c r="F18" s="3">
-        <v>273600</v>
+        <v>204600</v>
       </c>
       <c r="G18" s="3">
-        <v>341100</v>
+        <v>292200</v>
       </c>
       <c r="H18" s="3">
-        <v>125200</v>
+        <v>364300</v>
       </c>
       <c r="I18" s="3">
-        <v>75300</v>
+        <v>133700</v>
       </c>
       <c r="J18" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K18" s="3">
         <v>262500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>210800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>118600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>156000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>241200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>295100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>244200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1083400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>10600</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>10000</v>
+        <v>8300</v>
       </c>
       <c r="I20" s="3">
-        <v>7800</v>
+        <v>10600</v>
       </c>
       <c r="J20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K20" s="3">
         <v>8900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>49400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>316800</v>
+        <v>347800</v>
       </c>
       <c r="E21" s="3">
-        <v>305700</v>
+        <v>338300</v>
       </c>
       <c r="F21" s="3">
-        <v>369900</v>
+        <v>326500</v>
       </c>
       <c r="G21" s="3">
-        <v>447500</v>
+        <v>395100</v>
       </c>
       <c r="H21" s="3">
-        <v>229300</v>
+        <v>477900</v>
       </c>
       <c r="I21" s="3">
-        <v>148400</v>
+        <v>244900</v>
       </c>
       <c r="J21" s="3">
+        <v>158500</v>
+      </c>
+      <c r="K21" s="3">
         <v>337800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>276700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>233900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>236700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>313000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>390500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>342800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1820600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16600</v>
+        <v>20100</v>
       </c>
       <c r="E22" s="3">
-        <v>19900</v>
+        <v>17700</v>
       </c>
       <c r="F22" s="3">
-        <v>23300</v>
+        <v>21300</v>
       </c>
       <c r="G22" s="3">
-        <v>22200</v>
+        <v>24800</v>
       </c>
       <c r="H22" s="3">
-        <v>18800</v>
+        <v>23700</v>
       </c>
       <c r="I22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K22" s="3">
         <v>26600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>26600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>24200</v>
       </c>
       <c r="L22" s="3">
         <v>24200</v>
       </c>
       <c r="M22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="N22" s="3">
         <v>25800</v>
       </c>
       <c r="O22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="P22" s="3">
         <v>24700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>111500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200500</v>
+        <v>221200</v>
       </c>
       <c r="E23" s="3">
-        <v>176100</v>
+        <v>214100</v>
       </c>
       <c r="F23" s="3">
-        <v>250300</v>
+        <v>188100</v>
       </c>
       <c r="G23" s="3">
-        <v>326700</v>
+        <v>267300</v>
       </c>
       <c r="H23" s="3">
-        <v>116300</v>
+        <v>349000</v>
       </c>
       <c r="I23" s="3">
-        <v>56500</v>
+        <v>124200</v>
       </c>
       <c r="J23" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K23" s="3">
         <v>244800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>186700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>141400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>209800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>285000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>231200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>997700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59800</v>
+        <v>62700</v>
       </c>
       <c r="E24" s="3">
-        <v>87500</v>
+        <v>63900</v>
       </c>
       <c r="F24" s="3">
-        <v>56500</v>
+        <v>93400</v>
       </c>
       <c r="G24" s="3">
-        <v>76400</v>
+        <v>60300</v>
       </c>
       <c r="H24" s="3">
-        <v>34300</v>
+        <v>81600</v>
       </c>
       <c r="I24" s="3">
-        <v>6600</v>
+        <v>36700</v>
       </c>
       <c r="J24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K24" s="3">
         <v>73100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>90900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>70700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>274700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>140700</v>
+        <v>158500</v>
       </c>
       <c r="E26" s="3">
-        <v>88600</v>
+        <v>150200</v>
       </c>
       <c r="F26" s="3">
-        <v>193800</v>
+        <v>94600</v>
       </c>
       <c r="G26" s="3">
-        <v>250300</v>
+        <v>207000</v>
       </c>
       <c r="H26" s="3">
-        <v>82000</v>
+        <v>267300</v>
       </c>
       <c r="I26" s="3">
-        <v>49800</v>
+        <v>87500</v>
       </c>
       <c r="J26" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K26" s="3">
         <v>171700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>144900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>170200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>723100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>127400</v>
+        <v>152600</v>
       </c>
       <c r="E27" s="3">
-        <v>83100</v>
+        <v>136000</v>
       </c>
       <c r="F27" s="3">
-        <v>179400</v>
+        <v>88700</v>
       </c>
       <c r="G27" s="3">
-        <v>238100</v>
+        <v>191600</v>
       </c>
       <c r="H27" s="3">
-        <v>72000</v>
+        <v>254300</v>
       </c>
       <c r="I27" s="3">
-        <v>38800</v>
+        <v>76900</v>
       </c>
       <c r="J27" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K27" s="3">
         <v>163900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>121900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>187400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>145600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>626800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>6600</v>
+        <v>-1200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="G29" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="I29" s="3">
-        <v>6439600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>6877400</v>
+      </c>
+      <c r="K29" s="3">
         <v>169500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>181200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>155900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>52700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>108800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>150300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>136200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>511800</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-10600</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7800</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-10000</v>
+        <v>-8300</v>
       </c>
       <c r="I32" s="3">
-        <v>-7800</v>
+        <v>-10600</v>
       </c>
       <c r="J32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-49400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>126300</v>
+        <v>152600</v>
       </c>
       <c r="E33" s="3">
-        <v>89700</v>
+        <v>134900</v>
       </c>
       <c r="F33" s="3">
-        <v>179400</v>
+        <v>95800</v>
       </c>
       <c r="G33" s="3">
-        <v>255900</v>
+        <v>191600</v>
       </c>
       <c r="H33" s="3">
-        <v>72000</v>
+        <v>273200</v>
       </c>
       <c r="I33" s="3">
-        <v>6478400</v>
+        <v>76900</v>
       </c>
       <c r="J33" s="3">
+        <v>6918800</v>
+      </c>
+      <c r="K33" s="3">
         <v>333400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>297600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>84100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>244600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>337700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>281700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1138600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>126300</v>
+        <v>152600</v>
       </c>
       <c r="E35" s="3">
-        <v>89700</v>
+        <v>134900</v>
       </c>
       <c r="F35" s="3">
-        <v>179400</v>
+        <v>95800</v>
       </c>
       <c r="G35" s="3">
-        <v>255900</v>
+        <v>191600</v>
       </c>
       <c r="H35" s="3">
-        <v>72000</v>
+        <v>273200</v>
       </c>
       <c r="I35" s="3">
-        <v>6478400</v>
+        <v>76900</v>
       </c>
       <c r="J35" s="3">
+        <v>6918800</v>
+      </c>
+      <c r="K35" s="3">
         <v>333400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>297600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>84100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>244600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>337700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>281700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1138600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,81 +2226,85 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>921500</v>
+        <v>1455000</v>
       </c>
       <c r="E41" s="3">
-        <v>1407800</v>
+        <v>984200</v>
       </c>
       <c r="F41" s="3">
-        <v>692300</v>
+        <v>1503500</v>
       </c>
       <c r="G41" s="3">
-        <v>1282600</v>
+        <v>739300</v>
       </c>
       <c r="H41" s="3">
-        <v>1477500</v>
+        <v>1369800</v>
       </c>
       <c r="I41" s="3">
-        <v>3100200</v>
+        <v>1578000</v>
       </c>
       <c r="J41" s="3">
+        <v>3310900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1151900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1051900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1258300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1483300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1218500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1169100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1488400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1736100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2200</v>
+        <v>59100</v>
       </c>
       <c r="E42" s="3">
-        <v>152800</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="3">
-        <v>1745600</v>
+        <v>163200</v>
       </c>
       <c r="G42" s="3">
-        <v>1690200</v>
+        <v>1864300</v>
       </c>
       <c r="H42" s="3">
-        <v>2991600</v>
+        <v>1805100</v>
       </c>
       <c r="I42" s="3">
-        <v>6047500</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>3195000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6458600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2492100</v>
+        <v>2591700</v>
       </c>
       <c r="E43" s="3">
-        <v>2362500</v>
+        <v>2661500</v>
       </c>
       <c r="F43" s="3">
-        <v>2662700</v>
+        <v>2523100</v>
       </c>
       <c r="G43" s="3">
-        <v>2759000</v>
+        <v>2843700</v>
       </c>
       <c r="H43" s="3">
-        <v>2664900</v>
+        <v>2946600</v>
       </c>
       <c r="I43" s="3">
-        <v>2371400</v>
+        <v>2846100</v>
       </c>
       <c r="J43" s="3">
+        <v>2532600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2519800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2661600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2446300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2203600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3470300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3574700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3716300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3271400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1340200</v>
+        <v>1393500</v>
       </c>
       <c r="E44" s="3">
-        <v>1261600</v>
+        <v>1431300</v>
       </c>
       <c r="F44" s="3">
-        <v>1352400</v>
+        <v>1347300</v>
       </c>
       <c r="G44" s="3">
-        <v>1356800</v>
+        <v>1444300</v>
       </c>
       <c r="H44" s="3">
-        <v>1357900</v>
+        <v>1449100</v>
       </c>
       <c r="I44" s="3">
-        <v>1261600</v>
+        <v>1450200</v>
       </c>
       <c r="J44" s="3">
+        <v>1347300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1273700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1286900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1279200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1227500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1826600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1827700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1923900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1798300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72000</v>
+        <v>82800</v>
       </c>
       <c r="E45" s="3">
-        <v>69800</v>
+        <v>76900</v>
       </c>
       <c r="F45" s="3">
-        <v>80900</v>
+        <v>74500</v>
       </c>
       <c r="G45" s="3">
-        <v>88600</v>
+        <v>86400</v>
       </c>
       <c r="H45" s="3">
-        <v>89700</v>
+        <v>94600</v>
       </c>
       <c r="I45" s="3">
-        <v>82000</v>
+        <v>95800</v>
       </c>
       <c r="J45" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K45" s="3">
         <v>5620000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5451600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5298900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5231800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>75200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>77500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4828000</v>
+        <v>5582100</v>
       </c>
       <c r="E46" s="3">
-        <v>5254500</v>
+        <v>5156300</v>
       </c>
       <c r="F46" s="3">
-        <v>6533700</v>
+        <v>5611700</v>
       </c>
       <c r="G46" s="3">
-        <v>7177200</v>
+        <v>6977900</v>
       </c>
       <c r="H46" s="3">
-        <v>8581700</v>
+        <v>7665200</v>
       </c>
       <c r="I46" s="3">
-        <v>12862600</v>
+        <v>9165100</v>
       </c>
       <c r="J46" s="3">
+        <v>13737000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10565400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10451900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10282800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10146200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6590600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6633200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7206000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6875000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3597500</v>
+        <v>3474200</v>
       </c>
       <c r="E47" s="3">
-        <v>2228500</v>
+        <v>3842100</v>
       </c>
       <c r="F47" s="3">
-        <v>2995000</v>
+        <v>2380000</v>
       </c>
       <c r="G47" s="3">
-        <v>2774500</v>
+        <v>3198600</v>
       </c>
       <c r="H47" s="3">
-        <v>2900800</v>
+        <v>2963200</v>
       </c>
       <c r="I47" s="3">
-        <v>2176400</v>
+        <v>3098000</v>
       </c>
       <c r="J47" s="3">
+        <v>2324400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2293800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2390300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2310200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1479900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1880500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1952300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2290100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>844000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2215200</v>
+        <v>2341000</v>
       </c>
       <c r="E48" s="3">
-        <v>2297200</v>
+        <v>2365800</v>
       </c>
       <c r="F48" s="3">
-        <v>2258400</v>
+        <v>2453300</v>
       </c>
       <c r="G48" s="3">
-        <v>2271700</v>
+        <v>2411900</v>
       </c>
       <c r="H48" s="3">
-        <v>2378000</v>
+        <v>2426100</v>
       </c>
       <c r="I48" s="3">
-        <v>1936100</v>
+        <v>2539700</v>
       </c>
       <c r="J48" s="3">
+        <v>2067700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1880700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1888600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1903900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2055500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4525000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4558600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4927700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4918300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3947500</v>
+        <v>4226500</v>
       </c>
       <c r="E49" s="3">
-        <v>4015100</v>
+        <v>4215900</v>
       </c>
       <c r="F49" s="3">
-        <v>3769200</v>
+        <v>4288000</v>
       </c>
       <c r="G49" s="3">
-        <v>3762500</v>
+        <v>4025400</v>
       </c>
       <c r="H49" s="3">
-        <v>3817900</v>
+        <v>4018300</v>
       </c>
       <c r="I49" s="3">
-        <v>3830100</v>
+        <v>4077500</v>
       </c>
       <c r="J49" s="3">
+        <v>4090500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3714900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3720000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3711200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3824900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4703400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4747100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5146000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5180000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,19 +2807,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>585900</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>625800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2722,11 +2842,11 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>645100</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -2734,14 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>1193800</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14588200</v>
+        <v>15623700</v>
       </c>
       <c r="E54" s="3">
-        <v>14381100</v>
+        <v>15580000</v>
       </c>
       <c r="F54" s="3">
-        <v>15556200</v>
+        <v>15358800</v>
       </c>
       <c r="G54" s="3">
-        <v>15986000</v>
+        <v>16613800</v>
       </c>
       <c r="H54" s="3">
-        <v>17678400</v>
+        <v>17072800</v>
       </c>
       <c r="I54" s="3">
-        <v>20805200</v>
+        <v>18880300</v>
       </c>
       <c r="J54" s="3">
+        <v>22219600</v>
+      </c>
+      <c r="K54" s="3">
         <v>18454800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18450800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18208100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18151600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17699400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17891300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19569800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19011000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2570700</v>
+        <v>2733700</v>
       </c>
       <c r="E57" s="3">
-        <v>2664900</v>
+        <v>2745500</v>
       </c>
       <c r="F57" s="3">
-        <v>2718100</v>
+        <v>2846100</v>
       </c>
       <c r="G57" s="3">
-        <v>2824400</v>
+        <v>2902800</v>
       </c>
       <c r="H57" s="3">
-        <v>2874200</v>
+        <v>3016400</v>
       </c>
       <c r="I57" s="3">
-        <v>2929600</v>
+        <v>3069600</v>
       </c>
       <c r="J57" s="3">
+        <v>3128800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2872000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2939300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2889900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3134800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3987600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3949400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4215200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4079000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>326700</v>
+        <v>217700</v>
       </c>
       <c r="E58" s="3">
-        <v>187200</v>
+        <v>349000</v>
       </c>
       <c r="F58" s="3">
-        <v>775300</v>
+        <v>199900</v>
       </c>
       <c r="G58" s="3">
-        <v>785300</v>
+        <v>828000</v>
       </c>
       <c r="H58" s="3">
-        <v>786400</v>
+        <v>838700</v>
       </c>
       <c r="I58" s="3">
-        <v>663500</v>
+        <v>839900</v>
       </c>
       <c r="J58" s="3">
+        <v>708600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1598300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1698600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1585500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1091700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>151500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>344500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>495300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>102100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>436400</v>
+        <v>472000</v>
       </c>
       <c r="E59" s="3">
-        <v>472900</v>
+        <v>466100</v>
       </c>
       <c r="F59" s="3">
-        <v>487300</v>
+        <v>505100</v>
       </c>
       <c r="G59" s="3">
-        <v>479600</v>
+        <v>520500</v>
       </c>
       <c r="H59" s="3">
-        <v>476300</v>
+        <v>512200</v>
       </c>
       <c r="I59" s="3">
-        <v>482900</v>
+        <v>508600</v>
       </c>
       <c r="J59" s="3">
+        <v>515700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2787800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2813100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2820800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2866700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>570000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>658600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>743000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>764200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3333900</v>
+        <v>3423300</v>
       </c>
       <c r="E60" s="3">
-        <v>3325000</v>
+        <v>3560500</v>
       </c>
       <c r="F60" s="3">
-        <v>3980700</v>
+        <v>3551100</v>
       </c>
       <c r="G60" s="3">
-        <v>4089300</v>
+        <v>4251300</v>
       </c>
       <c r="H60" s="3">
-        <v>4136900</v>
+        <v>4367300</v>
       </c>
       <c r="I60" s="3">
-        <v>4076000</v>
+        <v>4418100</v>
       </c>
       <c r="J60" s="3">
+        <v>4353100</v>
+      </c>
+      <c r="K60" s="3">
         <v>7258100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7451000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7296200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7093200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4709000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4952500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5453500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4945300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2255100</v>
+        <v>3287300</v>
       </c>
       <c r="E61" s="3">
-        <v>2261700</v>
+        <v>2408400</v>
       </c>
       <c r="F61" s="3">
-        <v>2257300</v>
+        <v>2415500</v>
       </c>
       <c r="G61" s="3">
-        <v>2257300</v>
+        <v>2410800</v>
       </c>
       <c r="H61" s="3">
-        <v>2287200</v>
+        <v>2410800</v>
       </c>
       <c r="I61" s="3">
-        <v>1992600</v>
+        <v>2442700</v>
       </c>
       <c r="J61" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2544200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2524300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2523200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2580600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2964300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2967700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3107100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3103600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1588300</v>
+        <v>1750700</v>
       </c>
       <c r="E62" s="3">
-        <v>1519600</v>
+        <v>1696300</v>
       </c>
       <c r="F62" s="3">
-        <v>1544000</v>
+        <v>1622900</v>
       </c>
       <c r="G62" s="3">
-        <v>1468700</v>
+        <v>1649000</v>
       </c>
       <c r="H62" s="3">
-        <v>1479800</v>
+        <v>1568500</v>
       </c>
       <c r="I62" s="3">
-        <v>1403300</v>
+        <v>1580400</v>
       </c>
       <c r="J62" s="3">
+        <v>1498700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1280400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1349400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1401400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2330400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2374100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2616400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2705600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7414300</v>
+        <v>8707300</v>
       </c>
       <c r="E66" s="3">
-        <v>7347800</v>
+        <v>7918300</v>
       </c>
       <c r="F66" s="3">
-        <v>8034500</v>
+        <v>7847400</v>
       </c>
       <c r="G66" s="3">
-        <v>8056700</v>
+        <v>8580800</v>
       </c>
       <c r="H66" s="3">
-        <v>8140900</v>
+        <v>8604400</v>
       </c>
       <c r="I66" s="3">
-        <v>7697800</v>
+        <v>8694300</v>
       </c>
       <c r="J66" s="3">
+        <v>8221200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11554500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11777100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11663000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11571100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10518700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10832800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11756900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11319000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7836300</v>
+        <v>7711300</v>
       </c>
       <c r="E72" s="3">
-        <v>7442000</v>
+        <v>8369000</v>
       </c>
       <c r="F72" s="3">
-        <v>7980300</v>
+        <v>7947900</v>
       </c>
       <c r="G72" s="3">
-        <v>8465400</v>
+        <v>8522800</v>
       </c>
       <c r="H72" s="3">
-        <v>9915200</v>
+        <v>9040900</v>
       </c>
       <c r="I72" s="3">
-        <v>12152600</v>
+        <v>10589300</v>
       </c>
       <c r="J72" s="3">
+        <v>12978800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5989900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5698600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5812800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5750200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6329100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5928600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6400800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6276400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7173900</v>
+        <v>6916400</v>
       </c>
       <c r="E76" s="3">
-        <v>7033300</v>
+        <v>7661600</v>
       </c>
       <c r="F76" s="3">
-        <v>7521700</v>
+        <v>7511400</v>
       </c>
       <c r="G76" s="3">
-        <v>7929300</v>
+        <v>8033100</v>
       </c>
       <c r="H76" s="3">
-        <v>9537500</v>
+        <v>8468400</v>
       </c>
       <c r="I76" s="3">
-        <v>13107300</v>
+        <v>10186000</v>
       </c>
       <c r="J76" s="3">
+        <v>13998400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6900300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6673600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6545200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6580500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7180700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7058400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7812900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7692000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>126300</v>
+        <v>152600</v>
       </c>
       <c r="E81" s="3">
-        <v>89700</v>
+        <v>134900</v>
       </c>
       <c r="F81" s="3">
-        <v>179400</v>
+        <v>95800</v>
       </c>
       <c r="G81" s="3">
-        <v>255900</v>
+        <v>191600</v>
       </c>
       <c r="H81" s="3">
-        <v>72000</v>
+        <v>273200</v>
       </c>
       <c r="I81" s="3">
-        <v>6478400</v>
+        <v>76900</v>
       </c>
       <c r="J81" s="3">
+        <v>6918800</v>
+      </c>
+      <c r="K81" s="3">
         <v>333400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>297600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>84100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>244600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>337700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>281700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1138600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99700</v>
+        <v>106500</v>
       </c>
       <c r="E83" s="3">
-        <v>109700</v>
+        <v>106500</v>
       </c>
       <c r="F83" s="3">
-        <v>96400</v>
+        <v>117100</v>
       </c>
       <c r="G83" s="3">
-        <v>98600</v>
+        <v>102900</v>
       </c>
       <c r="H83" s="3">
-        <v>94100</v>
+        <v>105300</v>
       </c>
       <c r="I83" s="3">
-        <v>65300</v>
+        <v>100500</v>
       </c>
       <c r="J83" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K83" s="3">
         <v>66500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>65900</v>
       </c>
       <c r="L83" s="3">
         <v>65900</v>
       </c>
       <c r="M83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="N83" s="3">
         <v>154800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>170500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>178400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>185500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>711300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-178300</v>
+        <v>364300</v>
       </c>
       <c r="E89" s="3">
-        <v>319000</v>
+        <v>-190400</v>
       </c>
       <c r="F89" s="3">
-        <v>341100</v>
+        <v>340700</v>
       </c>
       <c r="G89" s="3">
-        <v>167200</v>
+        <v>364300</v>
       </c>
       <c r="H89" s="3">
-        <v>-801900</v>
+        <v>178600</v>
       </c>
       <c r="I89" s="3">
-        <v>269100</v>
+        <v>-856400</v>
       </c>
       <c r="J89" s="3">
+        <v>287400</v>
+      </c>
+      <c r="K89" s="3">
         <v>787500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>593500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>466700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>350100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-338100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1515400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50900</v>
+        <v>-54400</v>
       </c>
       <c r="E91" s="3">
-        <v>-87500</v>
+        <v>-54400</v>
       </c>
       <c r="F91" s="3">
-        <v>-57600</v>
+        <v>-93400</v>
       </c>
       <c r="G91" s="3">
-        <v>-50900</v>
+        <v>-61500</v>
       </c>
       <c r="H91" s="3">
-        <v>-41000</v>
+        <v>-54400</v>
       </c>
       <c r="I91" s="3">
-        <v>-59800</v>
+        <v>-43800</v>
       </c>
       <c r="J91" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-95400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-68400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-193700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>113000</v>
+        <v>-170300</v>
       </c>
       <c r="E94" s="3">
-        <v>783100</v>
+        <v>120700</v>
       </c>
       <c r="F94" s="3">
-        <v>582600</v>
+        <v>836300</v>
       </c>
       <c r="G94" s="3">
-        <v>1346800</v>
+        <v>622200</v>
       </c>
       <c r="H94" s="3">
-        <v>2838800</v>
+        <v>1438400</v>
       </c>
       <c r="I94" s="3">
-        <v>3766900</v>
+        <v>3031800</v>
       </c>
       <c r="J94" s="3">
+        <v>4023000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-365500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-239000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-362400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1100</v>
+        <v>-335900</v>
       </c>
       <c r="E96" s="3">
-        <v>-103000</v>
+        <v>-1200</v>
       </c>
       <c r="F96" s="3">
-        <v>-8900</v>
+        <v>-110000</v>
       </c>
       <c r="G96" s="3">
-        <v>-353300</v>
+        <v>-9500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1136400</v>
+        <v>-377300</v>
       </c>
       <c r="I96" s="3">
-        <v>-149500</v>
+        <v>-1213700</v>
       </c>
       <c r="J96" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-334900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-190000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-235600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-394400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-437500</v>
+        <v>352500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1036700</v>
+        <v>-467200</v>
       </c>
       <c r="F100" s="3">
-        <v>-835100</v>
+        <v>-1107200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1699100</v>
+        <v>-891900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3716000</v>
+        <v>-1814600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2081200</v>
+        <v>-3968600</v>
       </c>
       <c r="J100" s="3">
+        <v>-2222700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-268000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-225100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>241600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-77400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-97600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-325400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-238300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41000</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M101" s="3">
         <v>-4400</v>
       </c>
-      <c r="F101" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>25500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>16600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-19100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-51600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-543800</v>
+        <v>544100</v>
       </c>
       <c r="E102" s="3">
-        <v>60900</v>
+        <v>-580800</v>
       </c>
       <c r="F102" s="3">
-        <v>106300</v>
+        <v>65100</v>
       </c>
       <c r="G102" s="3">
-        <v>-199400</v>
+        <v>113600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1653600</v>
+        <v>-212900</v>
       </c>
       <c r="I102" s="3">
-        <v>1971500</v>
+        <v>-1766100</v>
       </c>
       <c r="J102" s="3">
+        <v>2105600</v>
+      </c>
+      <c r="K102" s="3">
         <v>127400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-208600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-275600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>276000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>173900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-194100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-459000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>145600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2350400</v>
+        <v>2598700</v>
       </c>
       <c r="E8" s="3">
-        <v>2434400</v>
+        <v>2677500</v>
       </c>
       <c r="F8" s="3">
-        <v>2652100</v>
+        <v>2337500</v>
       </c>
       <c r="G8" s="3">
-        <v>2836600</v>
+        <v>2421000</v>
       </c>
       <c r="H8" s="3">
-        <v>2899300</v>
+        <v>2637500</v>
       </c>
       <c r="I8" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2883400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2584600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2730100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2576300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2685700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2389200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2561500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2714100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2842000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2790100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11073700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1313000</v>
+        <v>1451700</v>
       </c>
       <c r="E9" s="3">
-        <v>1350900</v>
+        <v>1481100</v>
       </c>
       <c r="F9" s="3">
-        <v>1509400</v>
+        <v>1305800</v>
       </c>
       <c r="G9" s="3">
-        <v>1630000</v>
+        <v>1343400</v>
       </c>
       <c r="H9" s="3">
-        <v>1626500</v>
+        <v>1501100</v>
       </c>
       <c r="I9" s="3">
+        <v>1621100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1617600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1504600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1605200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1468700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1526200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1379100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1458600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1539400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1574200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1529500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5984100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1037400</v>
+        <v>1147000</v>
       </c>
       <c r="E10" s="3">
-        <v>1083500</v>
+        <v>1196400</v>
       </c>
       <c r="F10" s="3">
-        <v>1142700</v>
+        <v>1031700</v>
       </c>
       <c r="G10" s="3">
-        <v>1206600</v>
+        <v>1077600</v>
       </c>
       <c r="H10" s="3">
-        <v>1272800</v>
+        <v>1136400</v>
       </c>
       <c r="I10" s="3">
+        <v>1199900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1080000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1124900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1107600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1159500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1010200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1102900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1174700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1267800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1260700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5089600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1061,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>29200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>14100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2105600</v>
+        <v>2312800</v>
       </c>
       <c r="E17" s="3">
-        <v>2213200</v>
+        <v>2294000</v>
       </c>
       <c r="F17" s="3">
-        <v>2447400</v>
+        <v>2094000</v>
       </c>
       <c r="G17" s="3">
-        <v>2544400</v>
+        <v>2201000</v>
       </c>
       <c r="H17" s="3">
-        <v>2535000</v>
+        <v>2434000</v>
       </c>
       <c r="I17" s="3">
+        <v>2530400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2521000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2451000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2649700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2313800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2474900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2270700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2405500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2472900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2546900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2546000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9990300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>244900</v>
+        <v>285900</v>
       </c>
       <c r="E18" s="3">
-        <v>221200</v>
+        <v>383500</v>
       </c>
       <c r="F18" s="3">
-        <v>204600</v>
+        <v>243500</v>
       </c>
       <c r="G18" s="3">
-        <v>292200</v>
+        <v>220000</v>
       </c>
       <c r="H18" s="3">
-        <v>364300</v>
+        <v>203500</v>
       </c>
       <c r="I18" s="3">
+        <v>290600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>362300</v>
+      </c>
+      <c r="K18" s="3">
         <v>133700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>80400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>262500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>210800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>118600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>156000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>241200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>295100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>244200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1083400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1344,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>49400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>11200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>12900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>25800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>347800</v>
+        <v>401200</v>
       </c>
       <c r="E21" s="3">
-        <v>338300</v>
+        <v>500000</v>
       </c>
       <c r="F21" s="3">
-        <v>326500</v>
+        <v>345900</v>
       </c>
       <c r="G21" s="3">
-        <v>395100</v>
+        <v>336500</v>
       </c>
       <c r="H21" s="3">
-        <v>477900</v>
+        <v>324700</v>
       </c>
       <c r="I21" s="3">
+        <v>392900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>475300</v>
+      </c>
+      <c r="K21" s="3">
         <v>244900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>158500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>337800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>276700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>233900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>236700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>313000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>390500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>342800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1820600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K22" s="3">
         <v>20100</v>
       </c>
-      <c r="E22" s="3">
-        <v>17700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>21300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>24800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>23700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>28400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>26600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>24200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>24200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>25800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>25800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>24700</v>
       </c>
       <c r="Q22" s="3">
         <v>25800</v>
       </c>
       <c r="R22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="T22" s="3">
         <v>111500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>221200</v>
+        <v>275300</v>
       </c>
       <c r="E23" s="3">
-        <v>214100</v>
+        <v>372900</v>
       </c>
       <c r="F23" s="3">
-        <v>188100</v>
+        <v>220000</v>
       </c>
       <c r="G23" s="3">
-        <v>267300</v>
+        <v>212900</v>
       </c>
       <c r="H23" s="3">
-        <v>349000</v>
+        <v>187000</v>
       </c>
       <c r="I23" s="3">
+        <v>265900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>347000</v>
+      </c>
+      <c r="K23" s="3">
         <v>124200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>60300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>244800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>186700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>143800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>141400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>209800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>285000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>231200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>997700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62700</v>
+        <v>61200</v>
       </c>
       <c r="E24" s="3">
-        <v>63900</v>
+        <v>96500</v>
       </c>
       <c r="F24" s="3">
-        <v>93400</v>
+        <v>62300</v>
       </c>
       <c r="G24" s="3">
-        <v>60300</v>
+        <v>63500</v>
       </c>
       <c r="H24" s="3">
-        <v>81600</v>
+        <v>92900</v>
       </c>
       <c r="I24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K24" s="3">
         <v>36700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>73100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>51600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>90900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>64000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>70700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>61000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>274700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>158500</v>
+        <v>214100</v>
       </c>
       <c r="E26" s="3">
-        <v>150200</v>
+        <v>276500</v>
       </c>
       <c r="F26" s="3">
-        <v>94600</v>
+        <v>157600</v>
       </c>
       <c r="G26" s="3">
-        <v>207000</v>
+        <v>149400</v>
       </c>
       <c r="H26" s="3">
-        <v>267300</v>
+        <v>94100</v>
       </c>
       <c r="I26" s="3">
+        <v>205900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>265900</v>
+      </c>
+      <c r="K26" s="3">
         <v>87500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>53200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>171700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>135100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>144900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>50500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>145900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>214300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>170200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>723100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>152600</v>
+        <v>197600</v>
       </c>
       <c r="E27" s="3">
-        <v>136000</v>
+        <v>264700</v>
       </c>
       <c r="F27" s="3">
-        <v>88700</v>
+        <v>151800</v>
       </c>
       <c r="G27" s="3">
-        <v>191600</v>
+        <v>135300</v>
       </c>
       <c r="H27" s="3">
-        <v>254300</v>
+        <v>88200</v>
       </c>
       <c r="I27" s="3">
+        <v>190600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K27" s="3">
         <v>76900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>41400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>163900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>116400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>121900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>135800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>187400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>145600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>626800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1871,73 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E29" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>7100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>18900</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>6877400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>169500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>181200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>155900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>52700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>108800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>150300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>136200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>511800</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-49400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-11200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-12900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-25800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>152600</v>
+        <v>196500</v>
       </c>
       <c r="E33" s="3">
-        <v>134900</v>
+        <v>258800</v>
       </c>
       <c r="F33" s="3">
-        <v>95800</v>
+        <v>151800</v>
       </c>
       <c r="G33" s="3">
-        <v>191600</v>
+        <v>134100</v>
       </c>
       <c r="H33" s="3">
-        <v>273200</v>
+        <v>95300</v>
       </c>
       <c r="I33" s="3">
+        <v>190600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K33" s="3">
         <v>76900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>6918800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>333400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>297600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>277800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>84100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>244600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>337700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>281700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1138600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>152600</v>
+        <v>196500</v>
       </c>
       <c r="E35" s="3">
-        <v>134900</v>
+        <v>258800</v>
       </c>
       <c r="F35" s="3">
-        <v>95800</v>
+        <v>151800</v>
       </c>
       <c r="G35" s="3">
-        <v>191600</v>
+        <v>134100</v>
       </c>
       <c r="H35" s="3">
-        <v>273200</v>
+        <v>95300</v>
       </c>
       <c r="I35" s="3">
+        <v>190600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K35" s="3">
         <v>76900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>6918800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>333400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>297600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>277800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>84100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>244600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>337700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>281700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1138600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,90 +2398,98 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1455000</v>
+        <v>1889300</v>
       </c>
       <c r="E41" s="3">
-        <v>984200</v>
+        <v>1767000</v>
       </c>
       <c r="F41" s="3">
-        <v>1503500</v>
+        <v>1447000</v>
       </c>
       <c r="G41" s="3">
-        <v>739300</v>
+        <v>978800</v>
       </c>
       <c r="H41" s="3">
-        <v>1369800</v>
+        <v>1495200</v>
       </c>
       <c r="I41" s="3">
+        <v>735300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1578000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3310900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1151900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1051900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1258300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1483300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1218500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1169100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1488400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1736100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59100</v>
+        <v>294100</v>
       </c>
       <c r="E42" s="3">
+        <v>129400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G42" s="3">
         <v>2400</v>
       </c>
-      <c r="F42" s="3">
-        <v>163200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1864300</v>
-      </c>
       <c r="H42" s="3">
-        <v>1805100</v>
+        <v>162300</v>
       </c>
       <c r="I42" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1795200</v>
+      </c>
+      <c r="K42" s="3">
         <v>3195000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2324,388 +2503,436 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2591700</v>
+        <v>2345700</v>
       </c>
       <c r="E43" s="3">
-        <v>2661500</v>
+        <v>2621000</v>
       </c>
       <c r="F43" s="3">
-        <v>2523100</v>
+        <v>2577500</v>
       </c>
       <c r="G43" s="3">
-        <v>2843700</v>
+        <v>2646900</v>
       </c>
       <c r="H43" s="3">
-        <v>2946600</v>
+        <v>2509300</v>
       </c>
       <c r="I43" s="3">
+        <v>2828100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2930400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2846100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2532600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2519800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2661600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2446300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2203600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3470300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3574700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3716300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3271400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1393500</v>
+        <v>1363400</v>
       </c>
       <c r="E44" s="3">
-        <v>1431300</v>
+        <v>1334000</v>
       </c>
       <c r="F44" s="3">
+        <v>1385800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1423400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1339900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1436400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1441100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1450200</v>
+      </c>
+      <c r="L44" s="3">
         <v>1347300</v>
       </c>
-      <c r="G44" s="3">
-        <v>1444300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1449100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1450200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1347300</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1273700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1286900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1279200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1227500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1826600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1827700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1923900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1798300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82800</v>
+        <v>64700</v>
       </c>
       <c r="E45" s="3">
-        <v>76900</v>
+        <v>78800</v>
       </c>
       <c r="F45" s="3">
-        <v>74500</v>
+        <v>82300</v>
       </c>
       <c r="G45" s="3">
-        <v>86400</v>
+        <v>76500</v>
       </c>
       <c r="H45" s="3">
-        <v>94600</v>
+        <v>74100</v>
       </c>
       <c r="I45" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K45" s="3">
         <v>95800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>87500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5620000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5451600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5298900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5231800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>75200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>61700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>77500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>69300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5582100</v>
+        <v>5957300</v>
       </c>
       <c r="E46" s="3">
-        <v>5156300</v>
+        <v>5930200</v>
       </c>
       <c r="F46" s="3">
-        <v>5611700</v>
+        <v>5551400</v>
       </c>
       <c r="G46" s="3">
-        <v>6977900</v>
+        <v>5127900</v>
       </c>
       <c r="H46" s="3">
-        <v>7665200</v>
+        <v>5580800</v>
       </c>
       <c r="I46" s="3">
+        <v>6939600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7623100</v>
+      </c>
+      <c r="K46" s="3">
         <v>9165100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13737000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10565400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10451900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10282800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10146200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6590600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6633200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7206000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6875000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3474200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3842100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2380000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3198600</v>
+        <v>195300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>2963200</v>
-      </c>
-      <c r="I47" s="3">
+        <v>176500</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>3098000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2324400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2293800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2390300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2310200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1479900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1880500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1952300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2290100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>844000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2341000</v>
+        <v>2288100</v>
       </c>
       <c r="E48" s="3">
-        <v>2365800</v>
+        <v>2251600</v>
       </c>
       <c r="F48" s="3">
-        <v>2453300</v>
+        <v>2328100</v>
       </c>
       <c r="G48" s="3">
-        <v>2411900</v>
+        <v>2352800</v>
       </c>
       <c r="H48" s="3">
-        <v>2426100</v>
+        <v>2439900</v>
       </c>
       <c r="I48" s="3">
+        <v>2398700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2412800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2539700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2067700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1880700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1888600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1903900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2055500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4525000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4558600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4927700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4918300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4226500</v>
+        <v>4180900</v>
       </c>
       <c r="E49" s="3">
-        <v>4215900</v>
+        <v>4144500</v>
       </c>
       <c r="F49" s="3">
-        <v>4288000</v>
+        <v>4203300</v>
       </c>
       <c r="G49" s="3">
-        <v>4025400</v>
+        <v>4192700</v>
       </c>
       <c r="H49" s="3">
-        <v>4018300</v>
+        <v>4264500</v>
       </c>
       <c r="I49" s="3">
+        <v>4003300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3996200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4077500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4090500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3714900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3720000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3711200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3824900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4703400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4747100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5146000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5180000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +3043,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>2879800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3258600</v>
       </c>
       <c r="F52" s="3">
-        <v>625800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+        <v>3455100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3820900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2812800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3181000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2946900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2845,26 +3084,32 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>645100</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>645100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>1193800</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>1193800</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15623700</v>
+        <v>15501400</v>
       </c>
       <c r="E54" s="3">
-        <v>15580000</v>
+        <v>15584900</v>
       </c>
       <c r="F54" s="3">
-        <v>15358800</v>
+        <v>15537900</v>
       </c>
       <c r="G54" s="3">
-        <v>16613800</v>
+        <v>15494400</v>
       </c>
       <c r="H54" s="3">
-        <v>17072800</v>
+        <v>15274400</v>
       </c>
       <c r="I54" s="3">
+        <v>16522500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16979000</v>
+      </c>
+      <c r="K54" s="3">
         <v>18880300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22219600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18454800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18450800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18208100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>18151600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17699400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17891300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>19569800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>19011000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2733700</v>
+        <v>3035100</v>
       </c>
       <c r="E57" s="3">
-        <v>2745500</v>
+        <v>2850400</v>
       </c>
       <c r="F57" s="3">
-        <v>2846100</v>
+        <v>2718700</v>
       </c>
       <c r="G57" s="3">
-        <v>2902800</v>
+        <v>2730400</v>
       </c>
       <c r="H57" s="3">
-        <v>3016400</v>
+        <v>2830400</v>
       </c>
       <c r="I57" s="3">
+        <v>2886900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2999800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3069600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3128800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2872000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2939300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2889900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3134800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3987600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3949400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4215200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4079000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>217700</v>
+        <v>140000</v>
       </c>
       <c r="E58" s="3">
-        <v>349000</v>
+        <v>196500</v>
       </c>
       <c r="F58" s="3">
-        <v>199900</v>
+        <v>216500</v>
       </c>
       <c r="G58" s="3">
-        <v>828000</v>
+        <v>347000</v>
       </c>
       <c r="H58" s="3">
-        <v>838700</v>
+        <v>198800</v>
       </c>
       <c r="I58" s="3">
+        <v>823500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>834100</v>
+      </c>
+      <c r="K58" s="3">
         <v>839900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>708600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1598300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1698600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1585500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1091700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>151500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>344500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>495300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>102100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>472000</v>
+        <v>463500</v>
       </c>
       <c r="E59" s="3">
-        <v>466100</v>
+        <v>480000</v>
       </c>
       <c r="F59" s="3">
-        <v>505100</v>
+        <v>469400</v>
       </c>
       <c r="G59" s="3">
-        <v>520500</v>
+        <v>463500</v>
       </c>
       <c r="H59" s="3">
-        <v>512200</v>
+        <v>502300</v>
       </c>
       <c r="I59" s="3">
+        <v>517600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K59" s="3">
         <v>508600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>515700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2787800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2813100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2820800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2866700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>570000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>658600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>743000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>764200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3423300</v>
+        <v>3638600</v>
       </c>
       <c r="E60" s="3">
-        <v>3560500</v>
+        <v>3526800</v>
       </c>
       <c r="F60" s="3">
-        <v>3551100</v>
+        <v>3404500</v>
       </c>
       <c r="G60" s="3">
-        <v>4251300</v>
+        <v>3541000</v>
       </c>
       <c r="H60" s="3">
-        <v>4367300</v>
+        <v>3531600</v>
       </c>
       <c r="I60" s="3">
+        <v>4228000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4343300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4418100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4353100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7258100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7451000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7296200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7093200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4709000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4952500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5453500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4945300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3287300</v>
+        <v>3259800</v>
       </c>
       <c r="E61" s="3">
-        <v>2408400</v>
+        <v>3248000</v>
       </c>
       <c r="F61" s="3">
-        <v>2415500</v>
+        <v>3269200</v>
       </c>
       <c r="G61" s="3">
-        <v>2410800</v>
+        <v>2395200</v>
       </c>
       <c r="H61" s="3">
-        <v>2410800</v>
+        <v>2402200</v>
       </c>
       <c r="I61" s="3">
+        <v>2397500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2397500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2442700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2128000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2544200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2524300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2523200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2580600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2964300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2967700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3107100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3103600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1750700</v>
+        <v>1603400</v>
       </c>
       <c r="E62" s="3">
-        <v>1696300</v>
+        <v>1691700</v>
       </c>
       <c r="F62" s="3">
-        <v>1622900</v>
+        <v>1741100</v>
       </c>
       <c r="G62" s="3">
-        <v>1649000</v>
+        <v>1687000</v>
       </c>
       <c r="H62" s="3">
-        <v>1568500</v>
+        <v>1614000</v>
       </c>
       <c r="I62" s="3">
+        <v>1639900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1559900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1580400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1498700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1280400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1300000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1349400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1401400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2330400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2374100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2616400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2705600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8707300</v>
+        <v>8741800</v>
       </c>
       <c r="E66" s="3">
-        <v>7918300</v>
+        <v>8706500</v>
       </c>
       <c r="F66" s="3">
-        <v>7847400</v>
+        <v>8659500</v>
       </c>
       <c r="G66" s="3">
-        <v>8580800</v>
+        <v>7874800</v>
       </c>
       <c r="H66" s="3">
-        <v>8604400</v>
+        <v>7804200</v>
       </c>
       <c r="I66" s="3">
+        <v>8533600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8557100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8694300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8221200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11554500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11777100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11663000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11571100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10518700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10832800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11756900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>11319000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7711300</v>
+        <v>7674800</v>
       </c>
       <c r="E72" s="3">
-        <v>8369000</v>
+        <v>7804200</v>
       </c>
       <c r="F72" s="3">
-        <v>7947900</v>
+        <v>7669000</v>
       </c>
       <c r="G72" s="3">
-        <v>8522800</v>
+        <v>8323000</v>
       </c>
       <c r="H72" s="3">
-        <v>9040900</v>
+        <v>7904200</v>
       </c>
       <c r="I72" s="3">
+        <v>8476000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8991200</v>
+      </c>
+      <c r="K72" s="3">
         <v>10589300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12978800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5989900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5698600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5812800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5750200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6329100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5928600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6400800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>6276400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6916400</v>
+        <v>6759600</v>
       </c>
       <c r="E76" s="3">
-        <v>7661600</v>
+        <v>6878400</v>
       </c>
       <c r="F76" s="3">
-        <v>7511400</v>
+        <v>6878400</v>
       </c>
       <c r="G76" s="3">
-        <v>8033100</v>
+        <v>7619500</v>
       </c>
       <c r="H76" s="3">
-        <v>8468400</v>
+        <v>7470100</v>
       </c>
       <c r="I76" s="3">
+        <v>7988900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8421800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10186000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13998400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6900300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6673600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6545200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6580500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7180700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7058400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7812900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7692000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>152600</v>
+        <v>196500</v>
       </c>
       <c r="E81" s="3">
-        <v>134900</v>
+        <v>258800</v>
       </c>
       <c r="F81" s="3">
-        <v>95800</v>
+        <v>151800</v>
       </c>
       <c r="G81" s="3">
-        <v>191600</v>
+        <v>134100</v>
       </c>
       <c r="H81" s="3">
-        <v>273200</v>
+        <v>95300</v>
       </c>
       <c r="I81" s="3">
+        <v>190600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K81" s="3">
         <v>76900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>6918800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>333400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>297600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>277800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>84100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>244600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>337700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>281700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1138600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>106500</v>
+        <v>105900</v>
       </c>
       <c r="E83" s="3">
-        <v>106500</v>
+        <v>107100</v>
       </c>
       <c r="F83" s="3">
-        <v>117100</v>
+        <v>105900</v>
       </c>
       <c r="G83" s="3">
-        <v>102900</v>
+        <v>105900</v>
       </c>
       <c r="H83" s="3">
-        <v>105300</v>
+        <v>116500</v>
       </c>
       <c r="I83" s="3">
+        <v>102300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K83" s="3">
         <v>100500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>69800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>66500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>65900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>65900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>154800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>170500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>178400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>185500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>711300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>364300</v>
+        <v>722300</v>
       </c>
       <c r="E89" s="3">
-        <v>-190400</v>
+        <v>536400</v>
       </c>
       <c r="F89" s="3">
-        <v>340700</v>
+        <v>362300</v>
       </c>
       <c r="G89" s="3">
-        <v>364300</v>
+        <v>-189400</v>
       </c>
       <c r="H89" s="3">
-        <v>178600</v>
+        <v>338800</v>
       </c>
       <c r="I89" s="3">
+        <v>362300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-856400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>287400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>787500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>593500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>466700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>350100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-338100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1515400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54400</v>
+        <v>-120000</v>
       </c>
       <c r="E91" s="3">
-        <v>-54400</v>
+        <v>-75300</v>
       </c>
       <c r="F91" s="3">
-        <v>-93400</v>
+        <v>-54100</v>
       </c>
       <c r="G91" s="3">
-        <v>-61500</v>
+        <v>-54100</v>
       </c>
       <c r="H91" s="3">
-        <v>-54400</v>
+        <v>-92900</v>
       </c>
       <c r="I91" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-43800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-63900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-39900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-39500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-37300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-95400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-66200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-193700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170300</v>
+        <v>-315300</v>
       </c>
       <c r="E94" s="3">
-        <v>120700</v>
+        <v>-137600</v>
       </c>
       <c r="F94" s="3">
-        <v>836300</v>
+        <v>-169400</v>
       </c>
       <c r="G94" s="3">
-        <v>622200</v>
+        <v>120000</v>
       </c>
       <c r="H94" s="3">
-        <v>1438400</v>
+        <v>642300</v>
       </c>
       <c r="I94" s="3">
+        <v>808200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1430500</v>
+      </c>
+      <c r="K94" s="3">
         <v>3031800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4023000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-365500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-239000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-362400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-44600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5314,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-335900</v>
+        <v>-109400</v>
       </c>
       <c r="E96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-334100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-110000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H96" s="3">
-        <v>-377300</v>
+        <v>-109400</v>
       </c>
       <c r="I96" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-375300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-159700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-25500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-334900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-190000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-14600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-235600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-394400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>352500</v>
+        <v>-260000</v>
       </c>
       <c r="E100" s="3">
-        <v>-467200</v>
+        <v>-41200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1107200</v>
+        <v>350600</v>
       </c>
       <c r="G100" s="3">
-        <v>-891900</v>
+        <v>-464700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1814600</v>
+        <v>-1101100</v>
       </c>
       <c r="I100" s="3">
+        <v>-887000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1804600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-268000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-225100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>241600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-77400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-97600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-325400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>11700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-238300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-15400</v>
-      </c>
       <c r="I101" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K101" s="3">
         <v>27200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>17700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-26600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-19100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-51600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>17600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>544100</v>
+        <v>142300</v>
       </c>
       <c r="E102" s="3">
-        <v>-580800</v>
+        <v>330600</v>
       </c>
       <c r="F102" s="3">
-        <v>65100</v>
+        <v>541100</v>
       </c>
       <c r="G102" s="3">
-        <v>113600</v>
+        <v>-577600</v>
       </c>
       <c r="H102" s="3">
-        <v>-212900</v>
+        <v>64700</v>
       </c>
       <c r="I102" s="3">
+        <v>112900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2105600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>127400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-208600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-275600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>276000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>173900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-194100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-459000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>145600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2598700</v>
+        <v>2772200</v>
       </c>
       <c r="E8" s="3">
-        <v>2677500</v>
+        <v>2706000</v>
       </c>
       <c r="F8" s="3">
-        <v>2337500</v>
+        <v>2788100</v>
       </c>
       <c r="G8" s="3">
-        <v>2421000</v>
+        <v>2434100</v>
       </c>
       <c r="H8" s="3">
-        <v>2637500</v>
+        <v>2521000</v>
       </c>
       <c r="I8" s="3">
-        <v>2821000</v>
+        <v>2746400</v>
       </c>
       <c r="J8" s="3">
+        <v>2937500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2883400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2584600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2730100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2576300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2685700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2389200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2561500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2714100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2842000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2790100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11073700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1451700</v>
+        <v>1565500</v>
       </c>
       <c r="E9" s="3">
-        <v>1481100</v>
+        <v>1511600</v>
       </c>
       <c r="F9" s="3">
-        <v>1305800</v>
+        <v>1542300</v>
       </c>
       <c r="G9" s="3">
-        <v>1343400</v>
+        <v>1359700</v>
       </c>
       <c r="H9" s="3">
-        <v>1501100</v>
+        <v>1398900</v>
       </c>
       <c r="I9" s="3">
-        <v>1621100</v>
+        <v>1563100</v>
       </c>
       <c r="J9" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1617600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1504600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1605200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1468700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1526200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1379100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1458600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1539400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1574200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1529500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5984100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1147000</v>
+        <v>1206600</v>
       </c>
       <c r="E10" s="3">
-        <v>1196400</v>
+        <v>1194400</v>
       </c>
       <c r="F10" s="3">
-        <v>1031700</v>
+        <v>1245800</v>
       </c>
       <c r="G10" s="3">
-        <v>1077600</v>
+        <v>1074300</v>
       </c>
       <c r="H10" s="3">
-        <v>1136400</v>
+        <v>1122100</v>
       </c>
       <c r="I10" s="3">
-        <v>1199900</v>
+        <v>1183300</v>
       </c>
       <c r="J10" s="3">
+        <v>1249500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1265800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1080000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1124900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1107600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1159500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1010200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1102900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1174700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1267800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1260700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5089600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,41 +1084,44 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>-3500</v>
+        <v>6100</v>
       </c>
       <c r="F14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L14" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1109,25 +1129,28 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>14100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2312800</v>
+        <v>2401000</v>
       </c>
       <c r="E17" s="3">
-        <v>2294000</v>
+        <v>2408300</v>
       </c>
       <c r="F17" s="3">
-        <v>2094000</v>
+        <v>2388700</v>
       </c>
       <c r="G17" s="3">
-        <v>2201000</v>
+        <v>2180500</v>
       </c>
       <c r="H17" s="3">
-        <v>2434000</v>
+        <v>2292000</v>
       </c>
       <c r="I17" s="3">
-        <v>2530400</v>
+        <v>2534500</v>
       </c>
       <c r="J17" s="3">
+        <v>2635000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2521000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2451000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2649700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2313800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2474900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2270700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2405500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2472900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2546900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2546000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9990300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>285900</v>
+        <v>371200</v>
       </c>
       <c r="E18" s="3">
-        <v>383500</v>
+        <v>297700</v>
       </c>
       <c r="F18" s="3">
-        <v>243500</v>
+        <v>399300</v>
       </c>
       <c r="G18" s="3">
-        <v>220000</v>
+        <v>253600</v>
       </c>
       <c r="H18" s="3">
-        <v>203500</v>
+        <v>229100</v>
       </c>
       <c r="I18" s="3">
-        <v>290600</v>
+        <v>211900</v>
       </c>
       <c r="J18" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K18" s="3">
         <v>362300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>262500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>210800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>118600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>156000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>241200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>295100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>244200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1083400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9400</v>
+        <v>19600</v>
       </c>
       <c r="E20" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3500</v>
+        <v>9800</v>
       </c>
       <c r="G20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L20" s="3">
         <v>10600</v>
       </c>
-      <c r="H20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10600</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>49400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>401200</v>
+        <v>494900</v>
       </c>
       <c r="E21" s="3">
-        <v>500000</v>
+        <v>417700</v>
       </c>
       <c r="F21" s="3">
-        <v>345900</v>
+        <v>520600</v>
       </c>
       <c r="G21" s="3">
-        <v>336500</v>
+        <v>360100</v>
       </c>
       <c r="H21" s="3">
-        <v>324700</v>
+        <v>350300</v>
       </c>
       <c r="I21" s="3">
-        <v>392900</v>
+        <v>338100</v>
       </c>
       <c r="J21" s="3">
+        <v>409100</v>
+      </c>
+      <c r="K21" s="3">
         <v>475300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>244900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>158500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>337800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>276700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>233900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>236700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>313000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>390500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>342800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1820600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="E22" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="F22" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="G22" s="3">
-        <v>17600</v>
+        <v>20800</v>
       </c>
       <c r="H22" s="3">
-        <v>21200</v>
+        <v>18400</v>
       </c>
       <c r="I22" s="3">
-        <v>24700</v>
+        <v>22000</v>
       </c>
       <c r="J22" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K22" s="3">
         <v>23500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>24200</v>
       </c>
       <c r="O22" s="3">
         <v>24200</v>
       </c>
       <c r="P22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="Q22" s="3">
         <v>25800</v>
       </c>
       <c r="R22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="S22" s="3">
         <v>24700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>111500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>275300</v>
+        <v>369900</v>
       </c>
       <c r="E23" s="3">
-        <v>372900</v>
+        <v>286600</v>
       </c>
       <c r="F23" s="3">
-        <v>220000</v>
+        <v>388300</v>
       </c>
       <c r="G23" s="3">
-        <v>212900</v>
+        <v>229100</v>
       </c>
       <c r="H23" s="3">
-        <v>187000</v>
+        <v>221700</v>
       </c>
       <c r="I23" s="3">
-        <v>265900</v>
+        <v>194800</v>
       </c>
       <c r="J23" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K23" s="3">
         <v>347000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>124200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>244800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>186700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>143800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>141400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>209800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>285000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>231200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>997700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61200</v>
+        <v>89400</v>
       </c>
       <c r="E24" s="3">
-        <v>96500</v>
+        <v>63700</v>
       </c>
       <c r="F24" s="3">
-        <v>62300</v>
+        <v>100400</v>
       </c>
       <c r="G24" s="3">
-        <v>63500</v>
+        <v>64900</v>
       </c>
       <c r="H24" s="3">
-        <v>92900</v>
+        <v>66100</v>
       </c>
       <c r="I24" s="3">
-        <v>60000</v>
+        <v>96800</v>
       </c>
       <c r="J24" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K24" s="3">
         <v>81200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>73100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>90900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>70700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>61000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>274700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>214100</v>
+        <v>280500</v>
       </c>
       <c r="E26" s="3">
-        <v>276500</v>
+        <v>222900</v>
       </c>
       <c r="F26" s="3">
-        <v>157600</v>
+        <v>287900</v>
       </c>
       <c r="G26" s="3">
-        <v>149400</v>
+        <v>164100</v>
       </c>
       <c r="H26" s="3">
-        <v>94100</v>
+        <v>155600</v>
       </c>
       <c r="I26" s="3">
-        <v>205900</v>
+        <v>98000</v>
       </c>
       <c r="J26" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K26" s="3">
         <v>265900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>171700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>135100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>144900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>214300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>170200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>723100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>197600</v>
+        <v>268300</v>
       </c>
       <c r="E27" s="3">
-        <v>264700</v>
+        <v>205800</v>
       </c>
       <c r="F27" s="3">
-        <v>151800</v>
+        <v>275600</v>
       </c>
       <c r="G27" s="3">
-        <v>135300</v>
+        <v>158000</v>
       </c>
       <c r="H27" s="3">
-        <v>88200</v>
+        <v>140900</v>
       </c>
       <c r="I27" s="3">
-        <v>190600</v>
+        <v>91900</v>
       </c>
       <c r="J27" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K27" s="3">
         <v>252900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>121900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>135800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>187400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>626800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1200</v>
       </c>
-      <c r="E29" s="3">
-        <v>-5900</v>
-      </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1200</v>
       </c>
-      <c r="H29" s="3">
-        <v>7100</v>
-      </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>18800</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>6877400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>169500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>181200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>155900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>52700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>108800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>150300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>136200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>511800</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9400</v>
+        <v>-19600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9400</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
-        <v>3500</v>
+        <v>-9800</v>
       </c>
       <c r="G32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-10600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-49400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>196500</v>
+        <v>265800</v>
       </c>
       <c r="E33" s="3">
-        <v>258800</v>
+        <v>204600</v>
       </c>
       <c r="F33" s="3">
-        <v>151800</v>
+        <v>269500</v>
       </c>
       <c r="G33" s="3">
-        <v>134100</v>
+        <v>158000</v>
       </c>
       <c r="H33" s="3">
-        <v>95300</v>
+        <v>139600</v>
       </c>
       <c r="I33" s="3">
-        <v>190600</v>
+        <v>99200</v>
       </c>
       <c r="J33" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K33" s="3">
         <v>271700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6918800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>333400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>297600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>277800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>84100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>244600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>337700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>281700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1138600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>196500</v>
+        <v>265800</v>
       </c>
       <c r="E35" s="3">
-        <v>258800</v>
+        <v>204600</v>
       </c>
       <c r="F35" s="3">
-        <v>151800</v>
+        <v>269500</v>
       </c>
       <c r="G35" s="3">
-        <v>134100</v>
+        <v>158000</v>
       </c>
       <c r="H35" s="3">
-        <v>95300</v>
+        <v>139600</v>
       </c>
       <c r="I35" s="3">
-        <v>190600</v>
+        <v>99200</v>
       </c>
       <c r="J35" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K35" s="3">
         <v>271700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6918800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>333400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>297600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>277800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>84100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>244600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>337700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>281700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1138600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,99 +2486,103 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1889300</v>
+        <v>1466300</v>
       </c>
       <c r="E41" s="3">
-        <v>1767000</v>
+        <v>1967300</v>
       </c>
       <c r="F41" s="3">
-        <v>1447000</v>
+        <v>1839900</v>
       </c>
       <c r="G41" s="3">
-        <v>978800</v>
+        <v>1506700</v>
       </c>
       <c r="H41" s="3">
-        <v>1495200</v>
+        <v>1019200</v>
       </c>
       <c r="I41" s="3">
-        <v>735300</v>
+        <v>1557000</v>
       </c>
       <c r="J41" s="3">
+        <v>765600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1362300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1578000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3310900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1151900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1051900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1258300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1483300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1218500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1169100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1488400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1736100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>294100</v>
+        <v>368700</v>
       </c>
       <c r="E42" s="3">
-        <v>129400</v>
+        <v>306200</v>
       </c>
       <c r="F42" s="3">
-        <v>58800</v>
+        <v>134700</v>
       </c>
       <c r="G42" s="3">
+        <v>61200</v>
+      </c>
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="H42" s="3">
-        <v>162300</v>
-      </c>
       <c r="I42" s="3">
-        <v>1854000</v>
+        <v>169000</v>
       </c>
       <c r="J42" s="3">
+        <v>1930600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1795200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3195000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2509,8 +2599,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2518,252 +2608,267 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2345700</v>
+        <v>2822400</v>
       </c>
       <c r="E43" s="3">
-        <v>2621000</v>
+        <v>2442600</v>
       </c>
       <c r="F43" s="3">
-        <v>2577500</v>
+        <v>2729300</v>
       </c>
       <c r="G43" s="3">
-        <v>2646900</v>
+        <v>2684000</v>
       </c>
       <c r="H43" s="3">
-        <v>2509300</v>
+        <v>2756200</v>
       </c>
       <c r="I43" s="3">
-        <v>2828100</v>
+        <v>2612900</v>
       </c>
       <c r="J43" s="3">
+        <v>2944900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2930400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2846100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2532600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2519800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2661600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2446300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2203600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3470300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3574700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3716300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3271400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1363400</v>
+        <v>1596200</v>
       </c>
       <c r="E44" s="3">
-        <v>1334000</v>
+        <v>1419800</v>
       </c>
       <c r="F44" s="3">
-        <v>1385800</v>
+        <v>1389100</v>
       </c>
       <c r="G44" s="3">
-        <v>1423400</v>
+        <v>1443000</v>
       </c>
       <c r="H44" s="3">
-        <v>1339900</v>
+        <v>1482200</v>
       </c>
       <c r="I44" s="3">
-        <v>1436400</v>
+        <v>1395300</v>
       </c>
       <c r="J44" s="3">
+        <v>1495700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1441100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1450200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1347300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1273700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1286900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1279200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1227500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1826600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1827700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1923900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1798300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64700</v>
+        <v>78400</v>
       </c>
       <c r="E45" s="3">
-        <v>78800</v>
+        <v>67400</v>
       </c>
       <c r="F45" s="3">
-        <v>82300</v>
+        <v>82100</v>
       </c>
       <c r="G45" s="3">
-        <v>76500</v>
+        <v>85700</v>
       </c>
       <c r="H45" s="3">
-        <v>74100</v>
+        <v>79600</v>
       </c>
       <c r="I45" s="3">
-        <v>85900</v>
+        <v>77200</v>
       </c>
       <c r="J45" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K45" s="3">
         <v>94100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>95800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5620000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5451600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5298900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5231800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>75200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>77500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5957300</v>
+        <v>6332000</v>
       </c>
       <c r="E46" s="3">
-        <v>5930200</v>
+        <v>6203300</v>
       </c>
       <c r="F46" s="3">
-        <v>5551400</v>
+        <v>6175200</v>
       </c>
       <c r="G46" s="3">
-        <v>5127900</v>
+        <v>5780700</v>
       </c>
       <c r="H46" s="3">
-        <v>5580800</v>
+        <v>5339700</v>
       </c>
       <c r="I46" s="3">
-        <v>6939600</v>
+        <v>5811400</v>
       </c>
       <c r="J46" s="3">
+        <v>7226200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7623100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9165100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13737000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10565400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10451900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10282800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10146200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6590600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6633200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7206000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6875000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>195300</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>203300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2771,168 +2876,177 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>176500</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>183700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>3098000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2324400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2293800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2390300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2310200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1479900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1880500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1952300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2290100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>844000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2288100</v>
+        <v>2479400</v>
       </c>
       <c r="E48" s="3">
-        <v>2251600</v>
+        <v>2382600</v>
       </c>
       <c r="F48" s="3">
-        <v>2328100</v>
+        <v>2344600</v>
       </c>
       <c r="G48" s="3">
-        <v>2352800</v>
+        <v>2424300</v>
       </c>
       <c r="H48" s="3">
-        <v>2439900</v>
+        <v>2450000</v>
       </c>
       <c r="I48" s="3">
-        <v>2398700</v>
+        <v>2540600</v>
       </c>
       <c r="J48" s="3">
+        <v>2497800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2412800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2539700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2067700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1880700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1888600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1903900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2055500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4525000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4558600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4927700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4918300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4180900</v>
+        <v>4444300</v>
       </c>
       <c r="E49" s="3">
-        <v>4144500</v>
+        <v>4353600</v>
       </c>
       <c r="F49" s="3">
-        <v>4203300</v>
+        <v>4315600</v>
       </c>
       <c r="G49" s="3">
-        <v>4192700</v>
+        <v>4376900</v>
       </c>
       <c r="H49" s="3">
-        <v>4264500</v>
+        <v>4365900</v>
       </c>
       <c r="I49" s="3">
-        <v>4003300</v>
+        <v>4440600</v>
       </c>
       <c r="J49" s="3">
+        <v>4168600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3996200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4077500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4090500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3714900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3720000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3711200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3824900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4703400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4747100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5146000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5180000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,34 +3166,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2879800</v>
+        <v>3151900</v>
       </c>
       <c r="E52" s="3">
-        <v>3258600</v>
+        <v>2998800</v>
       </c>
       <c r="F52" s="3">
-        <v>3455100</v>
+        <v>3393200</v>
       </c>
       <c r="G52" s="3">
-        <v>3820900</v>
+        <v>3597800</v>
       </c>
       <c r="H52" s="3">
-        <v>2812800</v>
+        <v>3978800</v>
       </c>
       <c r="I52" s="3">
-        <v>3181000</v>
+        <v>2929000</v>
       </c>
       <c r="J52" s="3">
+        <v>3312400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3090,11 +3210,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>645100</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
@@ -3102,14 +3222,17 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>1193800</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15501400</v>
+        <v>16407500</v>
       </c>
       <c r="E54" s="3">
-        <v>15584900</v>
+        <v>16141700</v>
       </c>
       <c r="F54" s="3">
-        <v>15537900</v>
+        <v>16228700</v>
       </c>
       <c r="G54" s="3">
-        <v>15494400</v>
+        <v>16179700</v>
       </c>
       <c r="H54" s="3">
-        <v>15274400</v>
+        <v>16134300</v>
       </c>
       <c r="I54" s="3">
-        <v>16522500</v>
+        <v>15905300</v>
       </c>
       <c r="J54" s="3">
+        <v>17205000</v>
+      </c>
+      <c r="K54" s="3">
         <v>16979000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18880300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22219600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18454800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18450800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18208100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18151600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17699400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17891300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19569800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19011000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3035100</v>
+        <v>3350300</v>
       </c>
       <c r="E57" s="3">
-        <v>2850400</v>
+        <v>3160500</v>
       </c>
       <c r="F57" s="3">
-        <v>2718700</v>
+        <v>2968200</v>
       </c>
       <c r="G57" s="3">
-        <v>2730400</v>
+        <v>2831000</v>
       </c>
       <c r="H57" s="3">
-        <v>2830400</v>
+        <v>2843200</v>
       </c>
       <c r="I57" s="3">
-        <v>2886900</v>
+        <v>2947300</v>
       </c>
       <c r="J57" s="3">
+        <v>3006100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2999800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3069600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3128800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2872000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2939300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2889900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3134800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3987600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3949400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4215200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4079000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>140000</v>
+        <v>172700</v>
       </c>
       <c r="E58" s="3">
-        <v>196500</v>
+        <v>145800</v>
       </c>
       <c r="F58" s="3">
-        <v>216500</v>
+        <v>204600</v>
       </c>
       <c r="G58" s="3">
-        <v>347000</v>
+        <v>225400</v>
       </c>
       <c r="H58" s="3">
-        <v>198800</v>
+        <v>361400</v>
       </c>
       <c r="I58" s="3">
-        <v>823500</v>
+        <v>207000</v>
       </c>
       <c r="J58" s="3">
+        <v>857500</v>
+      </c>
+      <c r="K58" s="3">
         <v>834100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>839900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>708600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1598300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1698600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1585500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1091700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>151500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>344500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>495300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>102100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>463500</v>
+        <v>434900</v>
       </c>
       <c r="E59" s="3">
-        <v>480000</v>
+        <v>482600</v>
       </c>
       <c r="F59" s="3">
-        <v>469400</v>
+        <v>499800</v>
       </c>
       <c r="G59" s="3">
-        <v>463500</v>
+        <v>488800</v>
       </c>
       <c r="H59" s="3">
-        <v>502300</v>
+        <v>482600</v>
       </c>
       <c r="I59" s="3">
-        <v>517600</v>
+        <v>523100</v>
       </c>
       <c r="J59" s="3">
+        <v>539000</v>
+      </c>
+      <c r="K59" s="3">
         <v>509400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>508600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>515700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2787800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2813100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2820800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2866700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>570000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>658600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>743000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>764200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3638600</v>
+        <v>3957900</v>
       </c>
       <c r="E60" s="3">
-        <v>3526800</v>
+        <v>3788900</v>
       </c>
       <c r="F60" s="3">
-        <v>3404500</v>
+        <v>3672500</v>
       </c>
       <c r="G60" s="3">
-        <v>3541000</v>
+        <v>3545100</v>
       </c>
       <c r="H60" s="3">
-        <v>3531600</v>
+        <v>3687200</v>
       </c>
       <c r="I60" s="3">
-        <v>4228000</v>
+        <v>3677400</v>
       </c>
       <c r="J60" s="3">
+        <v>4402600</v>
+      </c>
+      <c r="K60" s="3">
         <v>4343300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4418100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4353100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7258100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7451000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7296200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7093200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4709000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4952500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5453500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4945300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3259800</v>
+        <v>3387100</v>
       </c>
       <c r="E61" s="3">
-        <v>3248000</v>
+        <v>3394400</v>
       </c>
       <c r="F61" s="3">
-        <v>3269200</v>
+        <v>3382200</v>
       </c>
       <c r="G61" s="3">
-        <v>2395200</v>
+        <v>3404200</v>
       </c>
       <c r="H61" s="3">
-        <v>2402200</v>
+        <v>2494100</v>
       </c>
       <c r="I61" s="3">
+        <v>2501400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2496500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2397500</v>
       </c>
-      <c r="J61" s="3">
-        <v>2397500</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2442700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2128000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2544200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2524300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2523200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2580600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2964300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2967700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3107100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3103600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1603400</v>
+        <v>1585100</v>
       </c>
       <c r="E62" s="3">
-        <v>1691700</v>
+        <v>1669700</v>
       </c>
       <c r="F62" s="3">
-        <v>1741100</v>
+        <v>1761500</v>
       </c>
       <c r="G62" s="3">
-        <v>1687000</v>
+        <v>1813000</v>
       </c>
       <c r="H62" s="3">
-        <v>1614000</v>
+        <v>1756600</v>
       </c>
       <c r="I62" s="3">
-        <v>1639900</v>
+        <v>1680700</v>
       </c>
       <c r="J62" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1559900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1580400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1498700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1280400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1349400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1401400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2330400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2374100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2616400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2705600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8741800</v>
+        <v>9193500</v>
       </c>
       <c r="E66" s="3">
-        <v>8706500</v>
+        <v>9102900</v>
       </c>
       <c r="F66" s="3">
-        <v>8659500</v>
+        <v>9066200</v>
       </c>
       <c r="G66" s="3">
-        <v>7874800</v>
+        <v>9017200</v>
       </c>
       <c r="H66" s="3">
-        <v>7804200</v>
+        <v>8200100</v>
       </c>
       <c r="I66" s="3">
-        <v>8533600</v>
+        <v>8126600</v>
       </c>
       <c r="J66" s="3">
+        <v>8886100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8557100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8694300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8221200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11554500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11777100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11663000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11571100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10518700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10832800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11756900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11319000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7674800</v>
+        <v>7909800</v>
       </c>
       <c r="E72" s="3">
-        <v>7804200</v>
+        <v>7991800</v>
       </c>
       <c r="F72" s="3">
-        <v>7669000</v>
+        <v>8126600</v>
       </c>
       <c r="G72" s="3">
-        <v>8323000</v>
+        <v>7985700</v>
       </c>
       <c r="H72" s="3">
-        <v>7904200</v>
+        <v>8666800</v>
       </c>
       <c r="I72" s="3">
-        <v>8476000</v>
+        <v>8230700</v>
       </c>
       <c r="J72" s="3">
+        <v>8826100</v>
+      </c>
+      <c r="K72" s="3">
         <v>8991200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10589300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12978800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5989900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5698600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5812800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5750200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6329100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5928600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6400800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6276400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6759600</v>
+        <v>7214000</v>
       </c>
       <c r="E76" s="3">
-        <v>6878400</v>
+        <v>7038800</v>
       </c>
       <c r="F76" s="3">
-        <v>6878400</v>
+        <v>7162500</v>
       </c>
       <c r="G76" s="3">
-        <v>7619500</v>
+        <v>7162500</v>
       </c>
       <c r="H76" s="3">
-        <v>7470100</v>
+        <v>7934300</v>
       </c>
       <c r="I76" s="3">
-        <v>7988900</v>
+        <v>7778700</v>
       </c>
       <c r="J76" s="3">
+        <v>8318900</v>
+      </c>
+      <c r="K76" s="3">
         <v>8421800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10186000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13998400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6900300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6673600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6545200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6580500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7180700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7058400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7812900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7692000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>196500</v>
+        <v>265800</v>
       </c>
       <c r="E81" s="3">
-        <v>258800</v>
+        <v>204600</v>
       </c>
       <c r="F81" s="3">
-        <v>151800</v>
+        <v>269500</v>
       </c>
       <c r="G81" s="3">
-        <v>134100</v>
+        <v>158000</v>
       </c>
       <c r="H81" s="3">
-        <v>95300</v>
+        <v>139600</v>
       </c>
       <c r="I81" s="3">
-        <v>190600</v>
+        <v>99200</v>
       </c>
       <c r="J81" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K81" s="3">
         <v>271700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6918800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>333400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>297600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>277800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>84100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>244600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>337700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>281700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1138600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>105900</v>
+        <v>104100</v>
       </c>
       <c r="E83" s="3">
-        <v>107100</v>
+        <v>110200</v>
       </c>
       <c r="F83" s="3">
-        <v>105900</v>
+        <v>111500</v>
       </c>
       <c r="G83" s="3">
-        <v>105900</v>
+        <v>110200</v>
       </c>
       <c r="H83" s="3">
-        <v>116500</v>
+        <v>110200</v>
       </c>
       <c r="I83" s="3">
-        <v>102300</v>
+        <v>121300</v>
       </c>
       <c r="J83" s="3">
+        <v>106600</v>
+      </c>
+      <c r="K83" s="3">
         <v>104700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>66500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>65900</v>
       </c>
       <c r="O83" s="3">
         <v>65900</v>
       </c>
       <c r="P83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>154800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>170500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>178400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>185500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>711300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>722300</v>
+        <v>-38000</v>
       </c>
       <c r="E89" s="3">
-        <v>536400</v>
+        <v>752100</v>
       </c>
       <c r="F89" s="3">
-        <v>362300</v>
+        <v>558600</v>
       </c>
       <c r="G89" s="3">
-        <v>-189400</v>
+        <v>377300</v>
       </c>
       <c r="H89" s="3">
-        <v>338800</v>
+        <v>-197200</v>
       </c>
       <c r="I89" s="3">
-        <v>362300</v>
+        <v>352800</v>
       </c>
       <c r="J89" s="3">
+        <v>377300</v>
+      </c>
+      <c r="K89" s="3">
         <v>177600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-856400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>287400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>787500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>593500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>466700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>350100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-338100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1515400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-120000</v>
+        <v>-69800</v>
       </c>
       <c r="E91" s="3">
-        <v>-75300</v>
+        <v>-124900</v>
       </c>
       <c r="F91" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-54100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-61200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-193700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-315300</v>
+        <v>-208200</v>
       </c>
       <c r="E94" s="3">
-        <v>-137600</v>
+        <v>-328300</v>
       </c>
       <c r="F94" s="3">
-        <v>-169400</v>
+        <v>-143300</v>
       </c>
       <c r="G94" s="3">
-        <v>120000</v>
+        <v>-176400</v>
       </c>
       <c r="H94" s="3">
-        <v>642300</v>
+        <v>124900</v>
       </c>
       <c r="I94" s="3">
-        <v>808200</v>
+        <v>668800</v>
       </c>
       <c r="J94" s="3">
+        <v>841600</v>
+      </c>
+      <c r="K94" s="3">
         <v>1430500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3031800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4023000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-365500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-239000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-362400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-44600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109400</v>
+        <v>-3700</v>
       </c>
       <c r="E96" s="3">
-        <v>-8200</v>
+        <v>-113900</v>
       </c>
       <c r="F96" s="3">
-        <v>-334100</v>
+        <v>-8600</v>
       </c>
       <c r="G96" s="3">
+        <v>-347900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-109400</v>
-      </c>
       <c r="I96" s="3">
-        <v>-9400</v>
+        <v>-113900</v>
       </c>
       <c r="J96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-375300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-159700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-334900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-190000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-235600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-394400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-260000</v>
+        <v>-294000</v>
       </c>
       <c r="E100" s="3">
-        <v>-41200</v>
+        <v>-270700</v>
       </c>
       <c r="F100" s="3">
-        <v>350600</v>
+        <v>-42900</v>
       </c>
       <c r="G100" s="3">
-        <v>-464700</v>
+        <v>365000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1101100</v>
+        <v>-483900</v>
       </c>
       <c r="I100" s="3">
-        <v>-887000</v>
+        <v>-1146600</v>
       </c>
       <c r="J100" s="3">
+        <v>-923600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-268000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-225100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>241600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-77400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-97600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-325400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-238300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>19600</v>
       </c>
       <c r="E101" s="3">
-        <v>-27100</v>
+        <v>-4900</v>
       </c>
       <c r="F101" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-43500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>-45300</v>
       </c>
       <c r="I101" s="3">
-        <v>18800</v>
+        <v>-4900</v>
       </c>
       <c r="J101" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-19100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-51600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>142300</v>
+        <v>-520600</v>
       </c>
       <c r="E102" s="3">
-        <v>330600</v>
+        <v>148200</v>
       </c>
       <c r="F102" s="3">
-        <v>541100</v>
+        <v>344200</v>
       </c>
       <c r="G102" s="3">
-        <v>-577600</v>
+        <v>563500</v>
       </c>
       <c r="H102" s="3">
-        <v>64700</v>
+        <v>-601500</v>
       </c>
       <c r="I102" s="3">
-        <v>112900</v>
+        <v>67400</v>
       </c>
       <c r="J102" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-211800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2105600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>127400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-208600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-275600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>276000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>173900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-194100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-459000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>145600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2772200</v>
+        <v>2931400</v>
       </c>
       <c r="E8" s="3">
-        <v>2706000</v>
+        <v>2641800</v>
       </c>
       <c r="F8" s="3">
-        <v>2788100</v>
+        <v>2578800</v>
       </c>
       <c r="G8" s="3">
-        <v>2434100</v>
+        <v>2657000</v>
       </c>
       <c r="H8" s="3">
-        <v>2521000</v>
+        <v>2319600</v>
       </c>
       <c r="I8" s="3">
-        <v>2746400</v>
+        <v>2402500</v>
       </c>
       <c r="J8" s="3">
+        <v>2617300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2937500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2883400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2584600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2730100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2576300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2685700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2389200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2561500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2714100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2842000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2790100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11073700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1565500</v>
+        <v>1724300</v>
       </c>
       <c r="E9" s="3">
-        <v>1511600</v>
+        <v>1491900</v>
       </c>
       <c r="F9" s="3">
-        <v>1542300</v>
+        <v>1440600</v>
       </c>
       <c r="G9" s="3">
-        <v>1359700</v>
+        <v>1469800</v>
       </c>
       <c r="H9" s="3">
-        <v>1398900</v>
+        <v>1295800</v>
       </c>
       <c r="I9" s="3">
-        <v>1563100</v>
+        <v>1333200</v>
       </c>
       <c r="J9" s="3">
+        <v>1489600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1688000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1617600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1504600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1605200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1468700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1526200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1379100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1458600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1539400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1574200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1529500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5984100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1206600</v>
+        <v>1207100</v>
       </c>
       <c r="E10" s="3">
-        <v>1194400</v>
+        <v>1149900</v>
       </c>
       <c r="F10" s="3">
-        <v>1245800</v>
+        <v>1138200</v>
       </c>
       <c r="G10" s="3">
-        <v>1074300</v>
+        <v>1187300</v>
       </c>
       <c r="H10" s="3">
-        <v>1122100</v>
+        <v>1023800</v>
       </c>
       <c r="I10" s="3">
-        <v>1183300</v>
+        <v>1069300</v>
       </c>
       <c r="J10" s="3">
+        <v>1127700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1249500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1265800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1080000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1124900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1107600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1159500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1010200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1102900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1174700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1267800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1260700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5089600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,44 +1104,47 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1132,25 +1152,28 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>14100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2401000</v>
+        <v>2483100</v>
       </c>
       <c r="E17" s="3">
-        <v>2408300</v>
+        <v>2288100</v>
       </c>
       <c r="F17" s="3">
-        <v>2388700</v>
+        <v>2295100</v>
       </c>
       <c r="G17" s="3">
-        <v>2180500</v>
+        <v>2276400</v>
       </c>
       <c r="H17" s="3">
-        <v>2292000</v>
+        <v>2078000</v>
       </c>
       <c r="I17" s="3">
-        <v>2534500</v>
+        <v>2184200</v>
       </c>
       <c r="J17" s="3">
+        <v>2415400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2635000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2521000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2451000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2649700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2313800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2474900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2405500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2472900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2546900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2546000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9990300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>371200</v>
+        <v>448300</v>
       </c>
       <c r="E18" s="3">
-        <v>297700</v>
+        <v>353700</v>
       </c>
       <c r="F18" s="3">
-        <v>399300</v>
+        <v>283700</v>
       </c>
       <c r="G18" s="3">
-        <v>253600</v>
+        <v>380600</v>
       </c>
       <c r="H18" s="3">
-        <v>229100</v>
+        <v>241700</v>
       </c>
       <c r="I18" s="3">
-        <v>211900</v>
+        <v>218300</v>
       </c>
       <c r="J18" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K18" s="3">
         <v>302600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>362300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>262500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>210800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>118600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>156000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>241200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>295100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>244200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1083400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19600</v>
+        <v>25700</v>
       </c>
       <c r="E20" s="3">
-        <v>9800</v>
+        <v>18700</v>
       </c>
       <c r="F20" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3700</v>
+        <v>9300</v>
       </c>
       <c r="H20" s="3">
-        <v>11000</v>
+        <v>-3500</v>
       </c>
       <c r="I20" s="3">
-        <v>4900</v>
+        <v>10500</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>49400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>494900</v>
+        <v>573200</v>
       </c>
       <c r="E21" s="3">
-        <v>417700</v>
+        <v>471600</v>
       </c>
       <c r="F21" s="3">
-        <v>520600</v>
+        <v>398100</v>
       </c>
       <c r="G21" s="3">
-        <v>360100</v>
+        <v>496100</v>
       </c>
       <c r="H21" s="3">
-        <v>350300</v>
+        <v>343200</v>
       </c>
       <c r="I21" s="3">
-        <v>338100</v>
+        <v>333900</v>
       </c>
       <c r="J21" s="3">
+        <v>322200</v>
+      </c>
+      <c r="K21" s="3">
         <v>409100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>475300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>244900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>337800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>276700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>233900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>236700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>313000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>390500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>342800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1820600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="E22" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="F22" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="G22" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="H22" s="3">
-        <v>18400</v>
+        <v>19800</v>
       </c>
       <c r="I22" s="3">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="J22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K22" s="3">
         <v>25700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>24200</v>
       </c>
       <c r="P22" s="3">
         <v>24200</v>
       </c>
       <c r="Q22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="R22" s="3">
         <v>25800</v>
       </c>
       <c r="S22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="T22" s="3">
         <v>24700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>111500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>369900</v>
+        <v>453000</v>
       </c>
       <c r="E23" s="3">
-        <v>286600</v>
+        <v>352600</v>
       </c>
       <c r="F23" s="3">
-        <v>388300</v>
+        <v>273200</v>
       </c>
       <c r="G23" s="3">
-        <v>229100</v>
+        <v>370100</v>
       </c>
       <c r="H23" s="3">
-        <v>221700</v>
+        <v>218300</v>
       </c>
       <c r="I23" s="3">
-        <v>194800</v>
+        <v>211300</v>
       </c>
       <c r="J23" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K23" s="3">
         <v>276800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>347000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>124200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>60300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>244800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>186700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>143800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>141400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>209800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>285000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>231200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>997700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89400</v>
+        <v>143600</v>
       </c>
       <c r="E24" s="3">
-        <v>63700</v>
+        <v>85200</v>
       </c>
       <c r="F24" s="3">
-        <v>100400</v>
+        <v>60700</v>
       </c>
       <c r="G24" s="3">
-        <v>64900</v>
+        <v>95700</v>
       </c>
       <c r="H24" s="3">
-        <v>66100</v>
+        <v>61900</v>
       </c>
       <c r="I24" s="3">
-        <v>96800</v>
+        <v>63000</v>
       </c>
       <c r="J24" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K24" s="3">
         <v>62500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>73100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>90900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>64000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>70700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>61000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>274700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>280500</v>
+        <v>309400</v>
       </c>
       <c r="E26" s="3">
-        <v>222900</v>
+        <v>267300</v>
       </c>
       <c r="F26" s="3">
-        <v>287900</v>
+        <v>212500</v>
       </c>
       <c r="G26" s="3">
-        <v>164100</v>
+        <v>274300</v>
       </c>
       <c r="H26" s="3">
-        <v>155600</v>
+        <v>156400</v>
       </c>
       <c r="I26" s="3">
-        <v>98000</v>
+        <v>148300</v>
       </c>
       <c r="J26" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K26" s="3">
         <v>214400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>265900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>171700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>135100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>144900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>145900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>214300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>170200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>723100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>268300</v>
+        <v>296500</v>
       </c>
       <c r="E27" s="3">
-        <v>205800</v>
+        <v>255700</v>
       </c>
       <c r="F27" s="3">
-        <v>275600</v>
+        <v>196100</v>
       </c>
       <c r="G27" s="3">
-        <v>158000</v>
+        <v>262700</v>
       </c>
       <c r="H27" s="3">
-        <v>140900</v>
+        <v>150600</v>
       </c>
       <c r="I27" s="3">
-        <v>91900</v>
+        <v>134300</v>
       </c>
       <c r="J27" s="3">
+        <v>87600</v>
+      </c>
+      <c r="K27" s="3">
         <v>198400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>252900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>121900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>135800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>187400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>145600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>626800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2400</v>
+        <v>8200</v>
       </c>
       <c r="E29" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1200</v>
       </c>
-      <c r="F29" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-5800</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1200</v>
       </c>
-      <c r="I29" s="3">
-        <v>7300</v>
-      </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>18800</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>6877400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>169500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>181200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>155900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>52700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>108800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>150300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>136200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>511800</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19600</v>
+        <v>-25700</v>
       </c>
       <c r="E32" s="3">
-        <v>-9800</v>
+        <v>-18700</v>
       </c>
       <c r="F32" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="G32" s="3">
-        <v>3700</v>
+        <v>-9300</v>
       </c>
       <c r="H32" s="3">
-        <v>-11000</v>
+        <v>3500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4900</v>
+        <v>-10500</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-4700</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-49400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>265800</v>
+        <v>304700</v>
       </c>
       <c r="E33" s="3">
-        <v>204600</v>
+        <v>253300</v>
       </c>
       <c r="F33" s="3">
-        <v>269500</v>
+        <v>195000</v>
       </c>
       <c r="G33" s="3">
-        <v>158000</v>
+        <v>256800</v>
       </c>
       <c r="H33" s="3">
-        <v>139600</v>
+        <v>150600</v>
       </c>
       <c r="I33" s="3">
-        <v>99200</v>
+        <v>133100</v>
       </c>
       <c r="J33" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K33" s="3">
         <v>198400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>271700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6918800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>333400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>297600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>277800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>84100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>244600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>337700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>281700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1138600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>265800</v>
+        <v>304700</v>
       </c>
       <c r="E35" s="3">
-        <v>204600</v>
+        <v>253300</v>
       </c>
       <c r="F35" s="3">
-        <v>269500</v>
+        <v>195000</v>
       </c>
       <c r="G35" s="3">
-        <v>158000</v>
+        <v>256800</v>
       </c>
       <c r="H35" s="3">
-        <v>139600</v>
+        <v>150600</v>
       </c>
       <c r="I35" s="3">
-        <v>99200</v>
+        <v>133100</v>
       </c>
       <c r="J35" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K35" s="3">
         <v>198400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>271700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6918800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>333400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>297600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>277800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>84100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>244600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>337700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>281700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1138600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,105 +2573,109 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1466300</v>
+        <v>1419600</v>
       </c>
       <c r="E41" s="3">
-        <v>1967300</v>
+        <v>1397400</v>
       </c>
       <c r="F41" s="3">
-        <v>1839900</v>
+        <v>1874900</v>
       </c>
       <c r="G41" s="3">
-        <v>1506700</v>
+        <v>1753400</v>
       </c>
       <c r="H41" s="3">
-        <v>1019200</v>
+        <v>1435900</v>
       </c>
       <c r="I41" s="3">
-        <v>1557000</v>
+        <v>971300</v>
       </c>
       <c r="J41" s="3">
+        <v>1483800</v>
+      </c>
+      <c r="K41" s="3">
         <v>765600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1362300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1578000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3310900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1151900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1051900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1258300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1483300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1218500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1169100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1488400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1736100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>368700</v>
+        <v>344400</v>
       </c>
       <c r="E42" s="3">
-        <v>306200</v>
+        <v>351400</v>
       </c>
       <c r="F42" s="3">
-        <v>134700</v>
+        <v>291900</v>
       </c>
       <c r="G42" s="3">
-        <v>61200</v>
+        <v>128400</v>
       </c>
       <c r="H42" s="3">
-        <v>2400</v>
+        <v>58400</v>
       </c>
       <c r="I42" s="3">
-        <v>169000</v>
+        <v>2300</v>
       </c>
       <c r="J42" s="3">
+        <v>161100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1930600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1795200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3195000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2602,8 +2692,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2611,267 +2701,282 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2822400</v>
+        <v>2925500</v>
       </c>
       <c r="E43" s="3">
-        <v>2442600</v>
+        <v>2689700</v>
       </c>
       <c r="F43" s="3">
-        <v>2729300</v>
+        <v>2327800</v>
       </c>
       <c r="G43" s="3">
-        <v>2684000</v>
+        <v>2601000</v>
       </c>
       <c r="H43" s="3">
-        <v>2756200</v>
+        <v>2557800</v>
       </c>
       <c r="I43" s="3">
-        <v>2612900</v>
+        <v>2626700</v>
       </c>
       <c r="J43" s="3">
+        <v>2490100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2944900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2930400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2846100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2532600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2519800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2661600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2446300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2203600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3470300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3574700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3716300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3271400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1596200</v>
+        <v>1634400</v>
       </c>
       <c r="E44" s="3">
-        <v>1419800</v>
+        <v>1521100</v>
       </c>
       <c r="F44" s="3">
-        <v>1389100</v>
+        <v>1353000</v>
       </c>
       <c r="G44" s="3">
-        <v>1443000</v>
+        <v>1323800</v>
       </c>
       <c r="H44" s="3">
-        <v>1482200</v>
+        <v>1375200</v>
       </c>
       <c r="I44" s="3">
-        <v>1395300</v>
+        <v>1412600</v>
       </c>
       <c r="J44" s="3">
+        <v>1329700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1495700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1441100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1450200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1347300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1273700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1286900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1279200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1227500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1826600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1827700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1923900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1798300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78400</v>
+        <v>81700</v>
       </c>
       <c r="E45" s="3">
-        <v>67400</v>
+        <v>74700</v>
       </c>
       <c r="F45" s="3">
-        <v>82100</v>
+        <v>64200</v>
       </c>
       <c r="G45" s="3">
-        <v>85700</v>
+        <v>78200</v>
       </c>
       <c r="H45" s="3">
-        <v>79600</v>
+        <v>81700</v>
       </c>
       <c r="I45" s="3">
-        <v>77200</v>
+        <v>75900</v>
       </c>
       <c r="J45" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K45" s="3">
         <v>89400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>94100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>95800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>87500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5620000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5451600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5298900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5231800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>75200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>61700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>77500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>69300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6332000</v>
+        <v>6405600</v>
       </c>
       <c r="E46" s="3">
-        <v>6203300</v>
+        <v>6034300</v>
       </c>
       <c r="F46" s="3">
-        <v>6175200</v>
+        <v>5911800</v>
       </c>
       <c r="G46" s="3">
-        <v>5780700</v>
+        <v>5884900</v>
       </c>
       <c r="H46" s="3">
-        <v>5339700</v>
+        <v>5509000</v>
       </c>
       <c r="I46" s="3">
-        <v>5811400</v>
+        <v>5088700</v>
       </c>
       <c r="J46" s="3">
+        <v>5538200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7226200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7623100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9165100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13737000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10565400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10451900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10282800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10146200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6590600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6633200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7206000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6875000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>203300</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>193800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2879,174 +2984,183 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>183700</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>175100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>3098000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2324400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2293800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2390300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2310200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1479900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1880500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1952300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2290100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>844000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2479400</v>
+        <v>2355800</v>
       </c>
       <c r="E48" s="3">
-        <v>2382600</v>
+        <v>2362800</v>
       </c>
       <c r="F48" s="3">
-        <v>2344600</v>
+        <v>2270600</v>
       </c>
       <c r="G48" s="3">
-        <v>2424300</v>
+        <v>2234400</v>
       </c>
       <c r="H48" s="3">
-        <v>2450000</v>
+        <v>2310300</v>
       </c>
       <c r="I48" s="3">
-        <v>2540600</v>
+        <v>2334800</v>
       </c>
       <c r="J48" s="3">
+        <v>2421200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2497800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2412800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2539700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2067700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1880700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1888600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1903900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2055500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4525000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4558600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4927700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4918300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4444300</v>
+        <v>4235400</v>
       </c>
       <c r="E49" s="3">
-        <v>4353600</v>
+        <v>4235400</v>
       </c>
       <c r="F49" s="3">
-        <v>4315600</v>
+        <v>4149000</v>
       </c>
       <c r="G49" s="3">
-        <v>4376900</v>
+        <v>4112800</v>
       </c>
       <c r="H49" s="3">
-        <v>4365900</v>
+        <v>4171200</v>
       </c>
       <c r="I49" s="3">
-        <v>4440600</v>
+        <v>4160600</v>
       </c>
       <c r="J49" s="3">
+        <v>4231900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4168600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3996200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4077500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4090500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3714900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3720000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3711200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3824900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4703400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4747100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5146000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5180000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,37 +3286,40 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3151900</v>
+        <v>3227900</v>
       </c>
       <c r="E52" s="3">
-        <v>2998800</v>
+        <v>3003700</v>
       </c>
       <c r="F52" s="3">
-        <v>3393200</v>
+        <v>2857800</v>
       </c>
       <c r="G52" s="3">
-        <v>3597800</v>
+        <v>3233700</v>
       </c>
       <c r="H52" s="3">
-        <v>3978800</v>
+        <v>3428700</v>
       </c>
       <c r="I52" s="3">
-        <v>2929000</v>
+        <v>3791700</v>
       </c>
       <c r="J52" s="3">
+        <v>2791300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3312400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -3213,11 +3333,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>645100</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3225,14 +3345,17 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>1193800</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16407500</v>
+        <v>16224700</v>
       </c>
       <c r="E54" s="3">
-        <v>16141700</v>
+        <v>15636300</v>
       </c>
       <c r="F54" s="3">
-        <v>16228700</v>
+        <v>15383000</v>
       </c>
       <c r="G54" s="3">
-        <v>16179700</v>
+        <v>15465800</v>
       </c>
       <c r="H54" s="3">
-        <v>16134300</v>
+        <v>15419200</v>
       </c>
       <c r="I54" s="3">
-        <v>15905300</v>
+        <v>15376000</v>
       </c>
       <c r="J54" s="3">
+        <v>15157700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17205000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16979000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18880300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22219600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18454800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18450800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18208100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18151600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17699400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17891300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19569800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19011000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3350300</v>
+        <v>3352800</v>
       </c>
       <c r="E57" s="3">
-        <v>3160500</v>
+        <v>3192900</v>
       </c>
       <c r="F57" s="3">
-        <v>2968200</v>
+        <v>3011900</v>
       </c>
       <c r="G57" s="3">
-        <v>2831000</v>
+        <v>2828600</v>
       </c>
       <c r="H57" s="3">
-        <v>2843200</v>
+        <v>2697900</v>
       </c>
       <c r="I57" s="3">
-        <v>2947300</v>
+        <v>2709600</v>
       </c>
       <c r="J57" s="3">
+        <v>2808800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3006100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2999800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3069600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3128800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2872000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2939300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2889900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3134800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3987600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3949400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4215200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4079000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>172700</v>
+        <v>708600</v>
       </c>
       <c r="E58" s="3">
-        <v>145800</v>
+        <v>164600</v>
       </c>
       <c r="F58" s="3">
-        <v>204600</v>
+        <v>138900</v>
       </c>
       <c r="G58" s="3">
-        <v>225400</v>
+        <v>195000</v>
       </c>
       <c r="H58" s="3">
-        <v>361400</v>
+        <v>214800</v>
       </c>
       <c r="I58" s="3">
-        <v>207000</v>
+        <v>344400</v>
       </c>
       <c r="J58" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K58" s="3">
         <v>857500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>834100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>839900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>708600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1598300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1698600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1585500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1091700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>151500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>344500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>495300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>102100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>434900</v>
+        <v>433100</v>
       </c>
       <c r="E59" s="3">
-        <v>482600</v>
+        <v>414400</v>
       </c>
       <c r="F59" s="3">
-        <v>499800</v>
+        <v>460000</v>
       </c>
       <c r="G59" s="3">
-        <v>488800</v>
+        <v>476300</v>
       </c>
       <c r="H59" s="3">
-        <v>482600</v>
+        <v>465800</v>
       </c>
       <c r="I59" s="3">
-        <v>523100</v>
+        <v>460000</v>
       </c>
       <c r="J59" s="3">
+        <v>498500</v>
+      </c>
+      <c r="K59" s="3">
         <v>539000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>509400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>508600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>515700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2787800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2813100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2820800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2866700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>570000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>658600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>743000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>764200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3957900</v>
+        <v>4494500</v>
       </c>
       <c r="E60" s="3">
-        <v>3788900</v>
+        <v>3771900</v>
       </c>
       <c r="F60" s="3">
-        <v>3672500</v>
+        <v>3610800</v>
       </c>
       <c r="G60" s="3">
-        <v>3545100</v>
+        <v>3499900</v>
       </c>
       <c r="H60" s="3">
-        <v>3687200</v>
+        <v>3378500</v>
       </c>
       <c r="I60" s="3">
-        <v>3677400</v>
+        <v>3513900</v>
       </c>
       <c r="J60" s="3">
+        <v>3504600</v>
+      </c>
+      <c r="K60" s="3">
         <v>4402600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4343300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4418100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4353100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7258100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7451000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7296200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7093200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4709000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4952500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5453500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4945300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3387100</v>
+        <v>3223200</v>
       </c>
       <c r="E61" s="3">
-        <v>3394400</v>
+        <v>3227900</v>
       </c>
       <c r="F61" s="3">
-        <v>3382200</v>
+        <v>3234900</v>
       </c>
       <c r="G61" s="3">
-        <v>3404200</v>
+        <v>3223200</v>
       </c>
       <c r="H61" s="3">
-        <v>2494100</v>
+        <v>3244200</v>
       </c>
       <c r="I61" s="3">
-        <v>2501400</v>
+        <v>2376800</v>
       </c>
       <c r="J61" s="3">
+        <v>2383900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2496500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2397500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2442700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2128000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2544200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2524300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2523200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2580600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2964300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2967700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3107100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3103600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1585100</v>
+        <v>1590000</v>
       </c>
       <c r="E62" s="3">
-        <v>1669700</v>
+        <v>1510600</v>
       </c>
       <c r="F62" s="3">
-        <v>1761500</v>
+        <v>1591200</v>
       </c>
       <c r="G62" s="3">
-        <v>1813000</v>
+        <v>1678700</v>
       </c>
       <c r="H62" s="3">
-        <v>1756600</v>
+        <v>1727800</v>
       </c>
       <c r="I62" s="3">
-        <v>1680700</v>
+        <v>1674100</v>
       </c>
       <c r="J62" s="3">
+        <v>1601700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1707600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1559900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1580400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1498700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1280400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1349400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1401400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2330400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2374100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2616400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2705600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9193500</v>
+        <v>9561100</v>
       </c>
       <c r="E66" s="3">
-        <v>9102900</v>
+        <v>8761400</v>
       </c>
       <c r="F66" s="3">
-        <v>9066200</v>
+        <v>8675000</v>
       </c>
       <c r="G66" s="3">
-        <v>9017200</v>
+        <v>8640000</v>
       </c>
       <c r="H66" s="3">
-        <v>8200100</v>
+        <v>8593300</v>
       </c>
       <c r="I66" s="3">
-        <v>8126600</v>
+        <v>7814600</v>
       </c>
       <c r="J66" s="3">
+        <v>7744600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8886100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8557100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8694300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8221200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11554500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11777100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11663000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11571100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10518700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10832800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11756900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11319000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7909800</v>
+        <v>7340700</v>
       </c>
       <c r="E72" s="3">
-        <v>7991800</v>
+        <v>7538000</v>
       </c>
       <c r="F72" s="3">
-        <v>8126600</v>
+        <v>7616200</v>
       </c>
       <c r="G72" s="3">
-        <v>7985700</v>
+        <v>7744600</v>
       </c>
       <c r="H72" s="3">
-        <v>8666800</v>
+        <v>7610300</v>
       </c>
       <c r="I72" s="3">
-        <v>8230700</v>
+        <v>8259400</v>
       </c>
       <c r="J72" s="3">
+        <v>7843800</v>
+      </c>
+      <c r="K72" s="3">
         <v>8826100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8991200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10589300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12978800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5989900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5698600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5812800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5750200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6329100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5928600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6400800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6276400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7214000</v>
+        <v>6663600</v>
       </c>
       <c r="E76" s="3">
-        <v>7038800</v>
+        <v>6874900</v>
       </c>
       <c r="F76" s="3">
-        <v>7162500</v>
+        <v>6707900</v>
       </c>
       <c r="G76" s="3">
-        <v>7162500</v>
+        <v>6825800</v>
       </c>
       <c r="H76" s="3">
-        <v>7934300</v>
+        <v>6825800</v>
       </c>
       <c r="I76" s="3">
-        <v>7778700</v>
+        <v>7561300</v>
       </c>
       <c r="J76" s="3">
+        <v>7413100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8318900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8421800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10186000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13998400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6900300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6673600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6545200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6580500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7180700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7058400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7812900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7692000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>265800</v>
+        <v>304700</v>
       </c>
       <c r="E81" s="3">
-        <v>204600</v>
+        <v>253300</v>
       </c>
       <c r="F81" s="3">
-        <v>269500</v>
+        <v>195000</v>
       </c>
       <c r="G81" s="3">
-        <v>158000</v>
+        <v>256800</v>
       </c>
       <c r="H81" s="3">
-        <v>139600</v>
+        <v>150600</v>
       </c>
       <c r="I81" s="3">
-        <v>99200</v>
+        <v>133100</v>
       </c>
       <c r="J81" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K81" s="3">
         <v>198400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>271700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6918800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>333400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>297600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>277800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>84100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>244600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>337700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>281700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1138600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>104100</v>
+        <v>99200</v>
       </c>
       <c r="E83" s="3">
-        <v>110200</v>
+        <v>99200</v>
       </c>
       <c r="F83" s="3">
-        <v>111500</v>
+        <v>105100</v>
       </c>
       <c r="G83" s="3">
-        <v>110200</v>
+        <v>106200</v>
       </c>
       <c r="H83" s="3">
-        <v>110200</v>
+        <v>105100</v>
       </c>
       <c r="I83" s="3">
-        <v>121300</v>
+        <v>105100</v>
       </c>
       <c r="J83" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K83" s="3">
         <v>106600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>66500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>65900</v>
       </c>
       <c r="P83" s="3">
         <v>65900</v>
       </c>
       <c r="Q83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="R83" s="3">
         <v>154800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>170500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>178400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>185500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>711300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-38000</v>
+        <v>196100</v>
       </c>
       <c r="E89" s="3">
-        <v>752100</v>
+        <v>-36200</v>
       </c>
       <c r="F89" s="3">
-        <v>558600</v>
+        <v>716800</v>
       </c>
       <c r="G89" s="3">
+        <v>532300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>359600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>336200</v>
+      </c>
+      <c r="K89" s="3">
         <v>377300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-197200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>352800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>377300</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-856400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>287400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>787500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>593500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>466700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>350100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-338100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1515400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69800</v>
+        <v>-72400</v>
       </c>
       <c r="E91" s="3">
-        <v>-124900</v>
+        <v>-66500</v>
       </c>
       <c r="F91" s="3">
-        <v>-78400</v>
+        <v>-119100</v>
       </c>
       <c r="G91" s="3">
-        <v>-56300</v>
+        <v>-74700</v>
       </c>
       <c r="H91" s="3">
-        <v>-56300</v>
+        <v>-53700</v>
       </c>
       <c r="I91" s="3">
-        <v>-96800</v>
+        <v>-53700</v>
       </c>
       <c r="J91" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-63700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-95400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-68400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-193700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-208200</v>
+        <v>-63000</v>
       </c>
       <c r="E94" s="3">
-        <v>-328300</v>
+        <v>-198500</v>
       </c>
       <c r="F94" s="3">
-        <v>-143300</v>
+        <v>-312900</v>
       </c>
       <c r="G94" s="3">
-        <v>-176400</v>
+        <v>-136600</v>
       </c>
       <c r="H94" s="3">
-        <v>124900</v>
+        <v>-168100</v>
       </c>
       <c r="I94" s="3">
-        <v>668800</v>
+        <v>119100</v>
       </c>
       <c r="J94" s="3">
+        <v>637400</v>
+      </c>
+      <c r="K94" s="3">
         <v>841600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1430500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3031800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4023000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-365500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-239000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-362400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-44600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3700</v>
+        <v>-336200</v>
       </c>
       <c r="E96" s="3">
-        <v>-113900</v>
+        <v>-3500</v>
       </c>
       <c r="F96" s="3">
-        <v>-8600</v>
+        <v>-95700</v>
       </c>
       <c r="G96" s="3">
-        <v>-347900</v>
+        <v>1200</v>
       </c>
       <c r="H96" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-375300</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-1213700</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-334900</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-1077100</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-235600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-113900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-375300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1213700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-159700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-334900</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-190000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1077100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-235600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-394400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-294000</v>
+        <v>-126100</v>
       </c>
       <c r="E100" s="3">
-        <v>-270700</v>
+        <v>-280200</v>
       </c>
       <c r="F100" s="3">
-        <v>-42900</v>
+        <v>-258000</v>
       </c>
       <c r="G100" s="3">
-        <v>365000</v>
+        <v>-40900</v>
       </c>
       <c r="H100" s="3">
-        <v>-483900</v>
+        <v>347900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1146600</v>
+        <v>-461100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1092700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-923600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-268000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-225100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>241600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-77400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-97600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-325400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-238300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>19600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-28200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>19600</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-19100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-51600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-520600</v>
+        <v>7000</v>
       </c>
       <c r="E102" s="3">
-        <v>148200</v>
+        <v>-496100</v>
       </c>
       <c r="F102" s="3">
-        <v>344200</v>
+        <v>141300</v>
       </c>
       <c r="G102" s="3">
-        <v>563500</v>
+        <v>328000</v>
       </c>
       <c r="H102" s="3">
-        <v>-601500</v>
+        <v>537000</v>
       </c>
       <c r="I102" s="3">
-        <v>67400</v>
+        <v>-573200</v>
       </c>
       <c r="J102" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K102" s="3">
         <v>117600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-211800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2105600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>127400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-208600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-275600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>276000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>173900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-194100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-459000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>145600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2931400</v>
+        <v>2721100</v>
       </c>
       <c r="E8" s="3">
-        <v>2641800</v>
+        <v>2835200</v>
       </c>
       <c r="F8" s="3">
-        <v>2578800</v>
+        <v>2555200</v>
       </c>
       <c r="G8" s="3">
-        <v>2657000</v>
+        <v>2494200</v>
       </c>
       <c r="H8" s="3">
-        <v>2319600</v>
+        <v>2569800</v>
       </c>
       <c r="I8" s="3">
-        <v>2402500</v>
+        <v>2243500</v>
       </c>
       <c r="J8" s="3">
+        <v>2323700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2617300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2937500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2883400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2584600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2730100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2576300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2685700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2389200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2561500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2714100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2842000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2790100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11073700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1724300</v>
+        <v>1674500</v>
       </c>
       <c r="E9" s="3">
-        <v>1491900</v>
+        <v>1667700</v>
       </c>
       <c r="F9" s="3">
-        <v>1440600</v>
+        <v>1443000</v>
       </c>
       <c r="G9" s="3">
-        <v>1469800</v>
+        <v>1393300</v>
       </c>
       <c r="H9" s="3">
-        <v>1295800</v>
+        <v>1421500</v>
       </c>
       <c r="I9" s="3">
-        <v>1333200</v>
+        <v>1253300</v>
       </c>
       <c r="J9" s="3">
+        <v>1289400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1489600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1688000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1617600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1504600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1605200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1468700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1526200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1379100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1458600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1539400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1574200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1529500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5984100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1207100</v>
+        <v>1046700</v>
       </c>
       <c r="E10" s="3">
-        <v>1149900</v>
+        <v>1167500</v>
       </c>
       <c r="F10" s="3">
-        <v>1138200</v>
+        <v>1112200</v>
       </c>
       <c r="G10" s="3">
-        <v>1187300</v>
+        <v>1100900</v>
       </c>
       <c r="H10" s="3">
-        <v>1023800</v>
+        <v>1148300</v>
       </c>
       <c r="I10" s="3">
-        <v>1069300</v>
+        <v>990200</v>
       </c>
       <c r="J10" s="3">
+        <v>1034300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1127700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1249500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1265800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1080000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1124900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1107600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1159500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1010200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1102900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1174700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1267800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1260700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5089600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,47 +1124,50 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-67700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1155,25 +1175,28 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>14100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2483100</v>
+        <v>2466000</v>
       </c>
       <c r="E17" s="3">
-        <v>2288100</v>
+        <v>2401600</v>
       </c>
       <c r="F17" s="3">
-        <v>2295100</v>
+        <v>2213000</v>
       </c>
       <c r="G17" s="3">
-        <v>2276400</v>
+        <v>2219800</v>
       </c>
       <c r="H17" s="3">
-        <v>2078000</v>
+        <v>2201700</v>
       </c>
       <c r="I17" s="3">
-        <v>2184200</v>
+        <v>2009800</v>
       </c>
       <c r="J17" s="3">
+        <v>2112500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2415400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2635000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2521000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2451000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2649700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2313800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2474900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2270700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2405500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2472900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2546900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2546000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9990300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>448300</v>
+        <v>255200</v>
       </c>
       <c r="E18" s="3">
-        <v>353700</v>
+        <v>433600</v>
       </c>
       <c r="F18" s="3">
-        <v>283700</v>
+        <v>342100</v>
       </c>
       <c r="G18" s="3">
-        <v>380600</v>
+        <v>274400</v>
       </c>
       <c r="H18" s="3">
-        <v>241700</v>
+        <v>368100</v>
       </c>
       <c r="I18" s="3">
-        <v>218300</v>
+        <v>233700</v>
       </c>
       <c r="J18" s="3">
+        <v>211100</v>
+      </c>
+      <c r="K18" s="3">
         <v>202000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>302600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>362300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>133700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>262500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>210800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>118600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>156000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>241200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>295100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>244200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1083400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25700</v>
+        <v>7900</v>
       </c>
       <c r="E20" s="3">
-        <v>18700</v>
+        <v>24800</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>18100</v>
       </c>
       <c r="G20" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H20" s="3">
-        <v>-3500</v>
+        <v>9000</v>
       </c>
       <c r="I20" s="3">
-        <v>10500</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>49400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>573200</v>
+        <v>361300</v>
       </c>
       <c r="E21" s="3">
-        <v>471600</v>
+        <v>554400</v>
       </c>
       <c r="F21" s="3">
-        <v>398100</v>
+        <v>456200</v>
       </c>
       <c r="G21" s="3">
-        <v>496100</v>
+        <v>385000</v>
       </c>
       <c r="H21" s="3">
-        <v>343200</v>
+        <v>479900</v>
       </c>
       <c r="I21" s="3">
-        <v>333900</v>
+        <v>332000</v>
       </c>
       <c r="J21" s="3">
+        <v>322900</v>
+      </c>
+      <c r="K21" s="3">
         <v>322200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>409100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>475300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>244900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>158500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>337800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>276700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>233900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>236700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>313000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>390500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>342800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1820600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="E22" s="3">
-        <v>19800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>19800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>21000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>24200</v>
       </c>
       <c r="Q22" s="3">
         <v>24200</v>
       </c>
       <c r="R22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="S22" s="3">
         <v>25800</v>
       </c>
       <c r="T22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="U22" s="3">
         <v>24700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>111500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>453000</v>
+        <v>240500</v>
       </c>
       <c r="E23" s="3">
-        <v>352600</v>
+        <v>438100</v>
       </c>
       <c r="F23" s="3">
-        <v>273200</v>
+        <v>341000</v>
       </c>
       <c r="G23" s="3">
-        <v>370100</v>
+        <v>264200</v>
       </c>
       <c r="H23" s="3">
-        <v>218300</v>
+        <v>357900</v>
       </c>
       <c r="I23" s="3">
-        <v>211300</v>
+        <v>211100</v>
       </c>
       <c r="J23" s="3">
+        <v>204400</v>
+      </c>
+      <c r="K23" s="3">
         <v>185600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>347000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>124200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>244800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>186700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>143800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>209800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>285000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>231200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>997700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>143600</v>
+        <v>54200</v>
       </c>
       <c r="E24" s="3">
-        <v>85200</v>
+        <v>138900</v>
       </c>
       <c r="F24" s="3">
-        <v>60700</v>
+        <v>82400</v>
       </c>
       <c r="G24" s="3">
-        <v>95700</v>
+        <v>58700</v>
       </c>
       <c r="H24" s="3">
-        <v>61900</v>
+        <v>92600</v>
       </c>
       <c r="I24" s="3">
-        <v>63000</v>
+        <v>59800</v>
       </c>
       <c r="J24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K24" s="3">
         <v>92200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>73100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>90900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>64000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>70700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>61000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>274700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>309400</v>
+        <v>186300</v>
       </c>
       <c r="E26" s="3">
-        <v>267300</v>
+        <v>299200</v>
       </c>
       <c r="F26" s="3">
-        <v>212500</v>
+        <v>258600</v>
       </c>
       <c r="G26" s="3">
-        <v>274300</v>
+        <v>205500</v>
       </c>
       <c r="H26" s="3">
-        <v>156400</v>
+        <v>265300</v>
       </c>
       <c r="I26" s="3">
-        <v>148300</v>
+        <v>151300</v>
       </c>
       <c r="J26" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K26" s="3">
         <v>93400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>214400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>265900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>87500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>171700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>135100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>144900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>145900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>214300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>170200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>723100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>296500</v>
+        <v>185200</v>
       </c>
       <c r="E27" s="3">
-        <v>255700</v>
+        <v>286800</v>
       </c>
       <c r="F27" s="3">
-        <v>196100</v>
+        <v>247300</v>
       </c>
       <c r="G27" s="3">
-        <v>262700</v>
+        <v>189700</v>
       </c>
       <c r="H27" s="3">
-        <v>150600</v>
+        <v>254000</v>
       </c>
       <c r="I27" s="3">
-        <v>134300</v>
+        <v>145700</v>
       </c>
       <c r="J27" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K27" s="3">
         <v>87600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>252900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>163900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>116400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>121900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>135800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>187400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>145600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>626800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2300</v>
       </c>
-      <c r="F29" s="3">
-        <v>-1200</v>
-      </c>
       <c r="G29" s="3">
-        <v>-5800</v>
+        <v>-1100</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="I29" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K29" s="3">
         <v>7000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>18800</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>6877400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>169500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>181200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>155900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>52700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>108800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>150300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>136200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>511800</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25700</v>
+        <v>-7900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18700</v>
+        <v>-24800</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-18100</v>
       </c>
       <c r="G32" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="H32" s="3">
-        <v>3500</v>
+        <v>-9000</v>
       </c>
       <c r="I32" s="3">
-        <v>-10500</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-49400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>304700</v>
+        <v>185200</v>
       </c>
       <c r="E33" s="3">
-        <v>253300</v>
+        <v>294700</v>
       </c>
       <c r="F33" s="3">
-        <v>195000</v>
+        <v>245000</v>
       </c>
       <c r="G33" s="3">
-        <v>256800</v>
+        <v>188600</v>
       </c>
       <c r="H33" s="3">
-        <v>150600</v>
+        <v>248400</v>
       </c>
       <c r="I33" s="3">
-        <v>133100</v>
+        <v>145700</v>
       </c>
       <c r="J33" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K33" s="3">
         <v>94600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>271700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6918800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>333400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>297600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>277800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>84100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>244600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>337700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>281700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1138600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>304700</v>
+        <v>185200</v>
       </c>
       <c r="E35" s="3">
-        <v>253300</v>
+        <v>294700</v>
       </c>
       <c r="F35" s="3">
-        <v>195000</v>
+        <v>245000</v>
       </c>
       <c r="G35" s="3">
-        <v>256800</v>
+        <v>188600</v>
       </c>
       <c r="H35" s="3">
-        <v>150600</v>
+        <v>248400</v>
       </c>
       <c r="I35" s="3">
-        <v>133100</v>
+        <v>145700</v>
       </c>
       <c r="J35" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K35" s="3">
         <v>94600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>271700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6918800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>333400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>297600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>277800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>84100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>244600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>337700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>281700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1138600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,111 +2660,115 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1419600</v>
+        <v>1227300</v>
       </c>
       <c r="E41" s="3">
-        <v>1397400</v>
+        <v>1373000</v>
       </c>
       <c r="F41" s="3">
-        <v>1874900</v>
+        <v>1351500</v>
       </c>
       <c r="G41" s="3">
-        <v>1753400</v>
+        <v>1813300</v>
       </c>
       <c r="H41" s="3">
-        <v>1435900</v>
+        <v>1695900</v>
       </c>
       <c r="I41" s="3">
-        <v>971300</v>
+        <v>1388800</v>
       </c>
       <c r="J41" s="3">
+        <v>939400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1483800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>765600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1362300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1578000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3310900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1151900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1051900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1258300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1483300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1218500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1169100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1488400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1736100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>344400</v>
+        <v>14700</v>
       </c>
       <c r="E42" s="3">
-        <v>351400</v>
+        <v>333100</v>
       </c>
       <c r="F42" s="3">
-        <v>291900</v>
+        <v>339900</v>
       </c>
       <c r="G42" s="3">
-        <v>128400</v>
+        <v>282300</v>
       </c>
       <c r="H42" s="3">
-        <v>58400</v>
+        <v>124200</v>
       </c>
       <c r="I42" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J42" s="3">
         <v>2300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>161100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1930600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1795200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3195000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2695,8 +2785,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2925500</v>
+        <v>2687300</v>
       </c>
       <c r="E43" s="3">
-        <v>2689700</v>
+        <v>2829500</v>
       </c>
       <c r="F43" s="3">
-        <v>2327800</v>
+        <v>2601400</v>
       </c>
       <c r="G43" s="3">
-        <v>2601000</v>
+        <v>2251400</v>
       </c>
       <c r="H43" s="3">
-        <v>2557800</v>
+        <v>2515600</v>
       </c>
       <c r="I43" s="3">
-        <v>2626700</v>
+        <v>2473900</v>
       </c>
       <c r="J43" s="3">
+        <v>2540500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2490100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2944900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2930400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2846100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2532600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2519800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2661600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2446300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2203600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3470300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3574700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3716300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3271400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1634400</v>
+        <v>1765900</v>
       </c>
       <c r="E44" s="3">
-        <v>1521100</v>
+        <v>1580700</v>
       </c>
       <c r="F44" s="3">
-        <v>1353000</v>
+        <v>1471200</v>
       </c>
       <c r="G44" s="3">
-        <v>1323800</v>
+        <v>1308600</v>
       </c>
       <c r="H44" s="3">
-        <v>1375200</v>
+        <v>1280400</v>
       </c>
       <c r="I44" s="3">
-        <v>1412600</v>
+        <v>1330100</v>
       </c>
       <c r="J44" s="3">
+        <v>1366200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1329700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1495700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1441100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1450200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1347300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1273700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1286900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1279200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1227500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1826600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1827700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1923900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1798300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81700</v>
+        <v>111800</v>
       </c>
       <c r="E45" s="3">
-        <v>74700</v>
+        <v>79000</v>
       </c>
       <c r="F45" s="3">
-        <v>64200</v>
+        <v>72300</v>
       </c>
       <c r="G45" s="3">
-        <v>78200</v>
+        <v>62100</v>
       </c>
       <c r="H45" s="3">
-        <v>81700</v>
+        <v>75600</v>
       </c>
       <c r="I45" s="3">
-        <v>75900</v>
+        <v>79000</v>
       </c>
       <c r="J45" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K45" s="3">
         <v>73500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>94100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>87500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5620000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5451600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5298900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5231800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>75200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>77500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>69300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6405600</v>
+        <v>5807000</v>
       </c>
       <c r="E46" s="3">
-        <v>6034300</v>
+        <v>6195400</v>
       </c>
       <c r="F46" s="3">
-        <v>5911800</v>
+        <v>5836300</v>
       </c>
       <c r="G46" s="3">
-        <v>5884900</v>
+        <v>5717800</v>
       </c>
       <c r="H46" s="3">
-        <v>5509000</v>
+        <v>5691800</v>
       </c>
       <c r="I46" s="3">
-        <v>5088700</v>
+        <v>5328200</v>
       </c>
       <c r="J46" s="3">
+        <v>4921700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5538200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7226200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7623100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9165100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13737000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10565400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10451900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10282800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10146200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6590600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6633200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7206000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6875000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,11 +3080,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>193800</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>187400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2987,180 +3092,189 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>175100</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>3098000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2324400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2293800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2390300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2310200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1479900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1880500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1952300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2290100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>844000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2355800</v>
+        <v>2284200</v>
       </c>
       <c r="E48" s="3">
-        <v>2362800</v>
+        <v>2278500</v>
       </c>
       <c r="F48" s="3">
-        <v>2270600</v>
+        <v>2285300</v>
       </c>
       <c r="G48" s="3">
-        <v>2234400</v>
+        <v>2196100</v>
       </c>
       <c r="H48" s="3">
-        <v>2310300</v>
+        <v>2161100</v>
       </c>
       <c r="I48" s="3">
-        <v>2334800</v>
+        <v>2234500</v>
       </c>
       <c r="J48" s="3">
+        <v>2258200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2421200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2497800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2412800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2539700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2067700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1880700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1888600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1903900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2055500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4525000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4558600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4927700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4918300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4235400</v>
+        <v>4115600</v>
       </c>
       <c r="E49" s="3">
-        <v>4235400</v>
+        <v>4096400</v>
       </c>
       <c r="F49" s="3">
-        <v>4149000</v>
+        <v>4096400</v>
       </c>
       <c r="G49" s="3">
-        <v>4112800</v>
+        <v>4012800</v>
       </c>
       <c r="H49" s="3">
-        <v>4171200</v>
+        <v>3977800</v>
       </c>
       <c r="I49" s="3">
-        <v>4160600</v>
+        <v>4034300</v>
       </c>
       <c r="J49" s="3">
+        <v>4024100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4231900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4168600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3996200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4077500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4090500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3714900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3720000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3711200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3824900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4703400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4747100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5146000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5180000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,40 +3406,43 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3227900</v>
+        <v>2987600</v>
       </c>
       <c r="E52" s="3">
-        <v>3003700</v>
+        <v>3122000</v>
       </c>
       <c r="F52" s="3">
-        <v>2857800</v>
+        <v>2905200</v>
       </c>
       <c r="G52" s="3">
-        <v>3233700</v>
+        <v>2764000</v>
       </c>
       <c r="H52" s="3">
-        <v>3428700</v>
+        <v>3127600</v>
       </c>
       <c r="I52" s="3">
-        <v>3791700</v>
+        <v>3316200</v>
       </c>
       <c r="J52" s="3">
+        <v>3667300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2791300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3312400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -3336,11 +3456,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>645100</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3348,14 +3468,17 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>1193800</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16224700</v>
+        <v>15194300</v>
       </c>
       <c r="E54" s="3">
-        <v>15636300</v>
+        <v>15692200</v>
       </c>
       <c r="F54" s="3">
-        <v>15383000</v>
+        <v>15123200</v>
       </c>
       <c r="G54" s="3">
-        <v>15465800</v>
+        <v>14878200</v>
       </c>
       <c r="H54" s="3">
-        <v>15419200</v>
+        <v>14958300</v>
       </c>
       <c r="I54" s="3">
-        <v>15376000</v>
+        <v>14913200</v>
       </c>
       <c r="J54" s="3">
+        <v>14871400</v>
+      </c>
+      <c r="K54" s="3">
         <v>15157700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17205000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16979000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18880300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22219600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18454800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18450800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18208100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18151600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17699400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17891300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19569800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19011000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3352800</v>
+        <v>3362500</v>
       </c>
       <c r="E57" s="3">
-        <v>3192900</v>
+        <v>3242800</v>
       </c>
       <c r="F57" s="3">
-        <v>3011900</v>
+        <v>3088100</v>
       </c>
       <c r="G57" s="3">
-        <v>2828600</v>
+        <v>2913100</v>
       </c>
       <c r="H57" s="3">
-        <v>2697900</v>
+        <v>2735800</v>
       </c>
       <c r="I57" s="3">
-        <v>2709600</v>
+        <v>2609400</v>
       </c>
       <c r="J57" s="3">
+        <v>2620600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2808800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3006100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2999800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3069600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3128800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2872000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2939300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2889900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3134800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3987600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3949400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4215200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4079000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1222800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>685400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>159200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>134400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>188600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>207800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>333100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>197300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>857500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>834100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>839900</v>
+      </c>
+      <c r="O58" s="3">
         <v>708600</v>
       </c>
-      <c r="E58" s="3">
-        <v>164600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>138900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>195000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>214800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>344400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>197300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>857500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>834100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>839900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>708600</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1598300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1698600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1585500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1091700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>151500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>344500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>495300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>102100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>433100</v>
+        <v>390700</v>
       </c>
       <c r="E59" s="3">
-        <v>414400</v>
+        <v>418900</v>
       </c>
       <c r="F59" s="3">
-        <v>460000</v>
+        <v>400800</v>
       </c>
       <c r="G59" s="3">
-        <v>476300</v>
+        <v>444900</v>
       </c>
       <c r="H59" s="3">
-        <v>465800</v>
+        <v>460700</v>
       </c>
       <c r="I59" s="3">
-        <v>460000</v>
+        <v>450500</v>
       </c>
       <c r="J59" s="3">
+        <v>444900</v>
+      </c>
+      <c r="K59" s="3">
         <v>498500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>539000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>509400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>508600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>515700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2787800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2813100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2820800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2866700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>570000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>658600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>743000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>764200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4494500</v>
+        <v>4975900</v>
       </c>
       <c r="E60" s="3">
-        <v>3771900</v>
+        <v>4347000</v>
       </c>
       <c r="F60" s="3">
-        <v>3610800</v>
+        <v>3648100</v>
       </c>
       <c r="G60" s="3">
-        <v>3499900</v>
+        <v>3492300</v>
       </c>
       <c r="H60" s="3">
-        <v>3378500</v>
+        <v>3385000</v>
       </c>
       <c r="I60" s="3">
-        <v>3513900</v>
+        <v>3267600</v>
       </c>
       <c r="J60" s="3">
+        <v>3398600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3504600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4402600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4343300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4418100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4353100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7258100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7451000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7296200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7093200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4709000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4952500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5453500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4945300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3223200</v>
+        <v>2258200</v>
       </c>
       <c r="E61" s="3">
-        <v>3227900</v>
+        <v>3117400</v>
       </c>
       <c r="F61" s="3">
-        <v>3234900</v>
+        <v>3122000</v>
       </c>
       <c r="G61" s="3">
-        <v>3223200</v>
+        <v>3128700</v>
       </c>
       <c r="H61" s="3">
-        <v>3244200</v>
+        <v>3117400</v>
       </c>
       <c r="I61" s="3">
-        <v>2376800</v>
+        <v>3137800</v>
       </c>
       <c r="J61" s="3">
+        <v>2298800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2383900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2496500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2397500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2442700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2128000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2544200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2524300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2523200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2580600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2964300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2967700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3107100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3103600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1590000</v>
+        <v>1496100</v>
       </c>
       <c r="E62" s="3">
-        <v>1510600</v>
+        <v>1537800</v>
       </c>
       <c r="F62" s="3">
-        <v>1591200</v>
+        <v>1461100</v>
       </c>
       <c r="G62" s="3">
-        <v>1678700</v>
+        <v>1539000</v>
       </c>
       <c r="H62" s="3">
-        <v>1727800</v>
+        <v>1623600</v>
       </c>
       <c r="I62" s="3">
-        <v>1674100</v>
+        <v>1671100</v>
       </c>
       <c r="J62" s="3">
+        <v>1619100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1601700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1707600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1559900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1580400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1498700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1280400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1349400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1401400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2330400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2374100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2616400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2705600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9561100</v>
+        <v>8974100</v>
       </c>
       <c r="E66" s="3">
-        <v>8761400</v>
+        <v>9247300</v>
       </c>
       <c r="F66" s="3">
-        <v>8675000</v>
+        <v>8473900</v>
       </c>
       <c r="G66" s="3">
-        <v>8640000</v>
+        <v>8390300</v>
       </c>
       <c r="H66" s="3">
-        <v>8593300</v>
+        <v>8356500</v>
       </c>
       <c r="I66" s="3">
-        <v>7814600</v>
+        <v>8311300</v>
       </c>
       <c r="J66" s="3">
+        <v>7558200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7744600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8886100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8557100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8694300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8221200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11554500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11777100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11663000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11571100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10518700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10832800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11756900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11319000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7340700</v>
+        <v>6849100</v>
       </c>
       <c r="E72" s="3">
-        <v>7538000</v>
+        <v>7099800</v>
       </c>
       <c r="F72" s="3">
-        <v>7616200</v>
+        <v>7290600</v>
       </c>
       <c r="G72" s="3">
-        <v>7744600</v>
+        <v>7366200</v>
       </c>
       <c r="H72" s="3">
-        <v>7610300</v>
+        <v>7490400</v>
       </c>
       <c r="I72" s="3">
-        <v>8259400</v>
+        <v>7360600</v>
       </c>
       <c r="J72" s="3">
+        <v>7988400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7843800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8826100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8991200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10589300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12978800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5989900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5698600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5812800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5750200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6329100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5928600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6400800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6276400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6663600</v>
+        <v>6220200</v>
       </c>
       <c r="E76" s="3">
-        <v>6874900</v>
+        <v>6444900</v>
       </c>
       <c r="F76" s="3">
-        <v>6707900</v>
+        <v>6649300</v>
       </c>
       <c r="G76" s="3">
-        <v>6825800</v>
+        <v>6487800</v>
       </c>
       <c r="H76" s="3">
-        <v>6825800</v>
+        <v>6601800</v>
       </c>
       <c r="I76" s="3">
-        <v>7561300</v>
+        <v>6601800</v>
       </c>
       <c r="J76" s="3">
+        <v>7313200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7413100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8318900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8421800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10186000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13998400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6900300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6673600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6545200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6580500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7180700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7058400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7812900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7692000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>304700</v>
+        <v>185200</v>
       </c>
       <c r="E81" s="3">
-        <v>253300</v>
+        <v>294700</v>
       </c>
       <c r="F81" s="3">
-        <v>195000</v>
+        <v>245000</v>
       </c>
       <c r="G81" s="3">
-        <v>256800</v>
+        <v>188600</v>
       </c>
       <c r="H81" s="3">
-        <v>150600</v>
+        <v>248400</v>
       </c>
       <c r="I81" s="3">
-        <v>133100</v>
+        <v>145700</v>
       </c>
       <c r="J81" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K81" s="3">
         <v>94600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>271700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6918800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>333400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>297600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>277800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>84100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>244600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>337700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>281700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1138600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99200</v>
+        <v>98200</v>
       </c>
       <c r="E83" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="F83" s="3">
-        <v>105100</v>
+        <v>96000</v>
       </c>
       <c r="G83" s="3">
-        <v>106200</v>
+        <v>101600</v>
       </c>
       <c r="H83" s="3">
-        <v>105100</v>
+        <v>102700</v>
       </c>
       <c r="I83" s="3">
-        <v>105100</v>
+        <v>101600</v>
       </c>
       <c r="J83" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K83" s="3">
         <v>115600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>104700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>65900</v>
       </c>
       <c r="Q83" s="3">
         <v>65900</v>
       </c>
       <c r="R83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="S83" s="3">
         <v>154800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>170500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>178400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>185500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>711300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>196100</v>
+        <v>327400</v>
       </c>
       <c r="E89" s="3">
-        <v>-36200</v>
+        <v>189700</v>
       </c>
       <c r="F89" s="3">
-        <v>716800</v>
+        <v>-35000</v>
       </c>
       <c r="G89" s="3">
-        <v>532300</v>
+        <v>693300</v>
       </c>
       <c r="H89" s="3">
-        <v>359600</v>
+        <v>514900</v>
       </c>
       <c r="I89" s="3">
-        <v>-188000</v>
+        <v>347800</v>
       </c>
       <c r="J89" s="3">
+        <v>-181800</v>
+      </c>
+      <c r="K89" s="3">
         <v>336200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>377300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-856400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>287400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>787500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>593500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>466700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>350100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-338100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1515400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-72400</v>
+        <v>-79000</v>
       </c>
       <c r="E91" s="3">
-        <v>-66500</v>
+        <v>-70000</v>
       </c>
       <c r="F91" s="3">
-        <v>-119100</v>
+        <v>-64400</v>
       </c>
       <c r="G91" s="3">
-        <v>-74700</v>
+        <v>-115200</v>
       </c>
       <c r="H91" s="3">
-        <v>-53700</v>
+        <v>-72300</v>
       </c>
       <c r="I91" s="3">
-        <v>-53700</v>
+        <v>-51900</v>
       </c>
       <c r="J91" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-92200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-95400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-68400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-193700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-63000</v>
+        <v>247300</v>
       </c>
       <c r="E94" s="3">
-        <v>-198500</v>
+        <v>-61000</v>
       </c>
       <c r="F94" s="3">
-        <v>-312900</v>
+        <v>-191900</v>
       </c>
       <c r="G94" s="3">
-        <v>-136600</v>
+        <v>-302600</v>
       </c>
       <c r="H94" s="3">
-        <v>-168100</v>
+        <v>-132100</v>
       </c>
       <c r="I94" s="3">
-        <v>119100</v>
+        <v>-162600</v>
       </c>
       <c r="J94" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K94" s="3">
         <v>637400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>841600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1430500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3031800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4023000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-365500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-239000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-362400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-336200</v>
+        <v>-11300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3500</v>
+        <v>-325200</v>
       </c>
       <c r="F96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-321800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-95700</v>
       </c>
-      <c r="G96" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-332700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-95700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-375300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-159700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-334900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-190000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-235600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-394400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-126100</v>
+        <v>-741800</v>
       </c>
       <c r="E100" s="3">
-        <v>-280200</v>
+        <v>-121900</v>
       </c>
       <c r="F100" s="3">
-        <v>-258000</v>
+        <v>-271000</v>
       </c>
       <c r="G100" s="3">
-        <v>-40900</v>
+        <v>-249500</v>
       </c>
       <c r="H100" s="3">
-        <v>347900</v>
+        <v>-39500</v>
       </c>
       <c r="I100" s="3">
-        <v>-461100</v>
+        <v>336500</v>
       </c>
       <c r="J100" s="3">
+        <v>-446000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-923600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-268000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-225100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>241600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-77400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-97600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-325400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>11700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-238300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="E101" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
+        <v>19600</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="N101" s="3">
+        <v>27200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="V101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="X101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>19600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>27200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>17700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="U101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>17600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7000</v>
+        <v>-160300</v>
       </c>
       <c r="E102" s="3">
-        <v>-496100</v>
+        <v>6800</v>
       </c>
       <c r="F102" s="3">
-        <v>141300</v>
+        <v>-479900</v>
       </c>
       <c r="G102" s="3">
-        <v>328000</v>
+        <v>136600</v>
       </c>
       <c r="H102" s="3">
-        <v>537000</v>
+        <v>317300</v>
       </c>
       <c r="I102" s="3">
-        <v>-573200</v>
+        <v>519400</v>
       </c>
       <c r="J102" s="3">
+        <v>-554400</v>
+      </c>
+      <c r="K102" s="3">
         <v>64200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>117600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-211800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2105600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>127400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-208600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-275600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>276000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>173900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-194100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-459000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>145600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2721100</v>
+        <v>2621500</v>
       </c>
       <c r="E8" s="3">
-        <v>2835200</v>
+        <v>2629100</v>
       </c>
       <c r="F8" s="3">
-        <v>2555200</v>
+        <v>2739300</v>
       </c>
       <c r="G8" s="3">
-        <v>2494200</v>
+        <v>2468700</v>
       </c>
       <c r="H8" s="3">
-        <v>2569800</v>
+        <v>2409800</v>
       </c>
       <c r="I8" s="3">
-        <v>2243500</v>
+        <v>2482900</v>
       </c>
       <c r="J8" s="3">
+        <v>2167600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2323700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2617300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2937500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2883400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2584600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2730100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2576300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2685700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2389200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2561500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2714100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2842000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2790100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11073700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1674500</v>
+        <v>1629800</v>
       </c>
       <c r="E9" s="3">
-        <v>1667700</v>
+        <v>1617800</v>
       </c>
       <c r="F9" s="3">
-        <v>1443000</v>
+        <v>1611300</v>
       </c>
       <c r="G9" s="3">
-        <v>1393300</v>
+        <v>1394200</v>
       </c>
       <c r="H9" s="3">
-        <v>1421500</v>
+        <v>1346200</v>
       </c>
       <c r="I9" s="3">
-        <v>1253300</v>
+        <v>1373500</v>
       </c>
       <c r="J9" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1289400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1489600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1688000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1617600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1504600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1605200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1468700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1526200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1379100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1458600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1539400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1574200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1529500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5984100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1046700</v>
+        <v>991600</v>
       </c>
       <c r="E10" s="3">
-        <v>1167500</v>
+        <v>1011300</v>
       </c>
       <c r="F10" s="3">
-        <v>1112200</v>
+        <v>1128000</v>
       </c>
       <c r="G10" s="3">
-        <v>1100900</v>
+        <v>1074500</v>
       </c>
       <c r="H10" s="3">
-        <v>1148300</v>
+        <v>1063600</v>
       </c>
       <c r="I10" s="3">
-        <v>990200</v>
+        <v>1109500</v>
       </c>
       <c r="J10" s="3">
+        <v>956700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1034300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1127700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1249500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1265800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1080000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1124900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1107600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1159500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1010200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1102900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1174700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1267800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1260700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5089600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,23 +1173,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1178,25 +1197,28 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>14100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2466000</v>
+        <v>2397800</v>
       </c>
       <c r="E17" s="3">
-        <v>2401600</v>
+        <v>2382500</v>
       </c>
       <c r="F17" s="3">
-        <v>2213000</v>
+        <v>2320400</v>
       </c>
       <c r="G17" s="3">
-        <v>2219800</v>
+        <v>2138200</v>
       </c>
       <c r="H17" s="3">
-        <v>2201700</v>
+        <v>2144700</v>
       </c>
       <c r="I17" s="3">
-        <v>2009800</v>
+        <v>2127300</v>
       </c>
       <c r="J17" s="3">
+        <v>1941800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2112500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2415400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2635000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2521000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2451000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2649700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2313800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2474900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2270700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2405500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2472900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2546900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2546000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9990300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>255200</v>
+        <v>223600</v>
       </c>
       <c r="E18" s="3">
-        <v>433600</v>
+        <v>246500</v>
       </c>
       <c r="F18" s="3">
-        <v>342100</v>
+        <v>418900</v>
       </c>
       <c r="G18" s="3">
-        <v>274400</v>
+        <v>330500</v>
       </c>
       <c r="H18" s="3">
-        <v>368100</v>
+        <v>265100</v>
       </c>
       <c r="I18" s="3">
-        <v>233700</v>
+        <v>355600</v>
       </c>
       <c r="J18" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K18" s="3">
         <v>211100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>202000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>302600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>362300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>133700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>262500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>210800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>118600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>156000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>241200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>295100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>244200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1083400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>17500</v>
       </c>
       <c r="E20" s="3">
-        <v>24800</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
-        <v>18100</v>
+        <v>24000</v>
       </c>
       <c r="G20" s="3">
-        <v>9000</v>
+        <v>17500</v>
       </c>
       <c r="H20" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3400</v>
+        <v>8700</v>
       </c>
       <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8900</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>49400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>361300</v>
+        <v>343600</v>
       </c>
       <c r="E21" s="3">
-        <v>554400</v>
+        <v>349100</v>
       </c>
       <c r="F21" s="3">
-        <v>456200</v>
+        <v>535600</v>
       </c>
       <c r="G21" s="3">
-        <v>385000</v>
+        <v>440700</v>
       </c>
       <c r="H21" s="3">
-        <v>479900</v>
+        <v>372000</v>
       </c>
       <c r="I21" s="3">
-        <v>332000</v>
+        <v>463600</v>
       </c>
       <c r="J21" s="3">
+        <v>320700</v>
+      </c>
+      <c r="K21" s="3">
         <v>322900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>322200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>409100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>475300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>244900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>158500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>337800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>276700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>233900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>236700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>313000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>390500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>342800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1820600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22600</v>
+        <v>20700</v>
       </c>
       <c r="E22" s="3">
-        <v>20300</v>
+        <v>21800</v>
       </c>
       <c r="F22" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="G22" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="H22" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="I22" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="J22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>24200</v>
       </c>
       <c r="R22" s="3">
         <v>24200</v>
       </c>
       <c r="S22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="T22" s="3">
         <v>25800</v>
       </c>
       <c r="U22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="V22" s="3">
         <v>24700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>25800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>111500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>240500</v>
+        <v>220400</v>
       </c>
       <c r="E23" s="3">
-        <v>438100</v>
+        <v>232400</v>
       </c>
       <c r="F23" s="3">
-        <v>341000</v>
+        <v>423300</v>
       </c>
       <c r="G23" s="3">
-        <v>264200</v>
+        <v>329500</v>
       </c>
       <c r="H23" s="3">
-        <v>357900</v>
+        <v>255300</v>
       </c>
       <c r="I23" s="3">
-        <v>211100</v>
+        <v>345800</v>
       </c>
       <c r="J23" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K23" s="3">
         <v>204400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>185600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>347000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>124200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>244800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>186700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>143800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>209800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>285000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>231200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>997700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54200</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="3">
-        <v>138900</v>
+        <v>52400</v>
       </c>
       <c r="F24" s="3">
-        <v>82400</v>
+        <v>134200</v>
       </c>
       <c r="G24" s="3">
-        <v>58700</v>
+        <v>79600</v>
       </c>
       <c r="H24" s="3">
-        <v>92600</v>
+        <v>56700</v>
       </c>
       <c r="I24" s="3">
-        <v>59800</v>
+        <v>89500</v>
       </c>
       <c r="J24" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K24" s="3">
         <v>61000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>92200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>81200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>73100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>90900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>70700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>61000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>274700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>186300</v>
+        <v>218200</v>
       </c>
       <c r="E26" s="3">
-        <v>299200</v>
+        <v>180000</v>
       </c>
       <c r="F26" s="3">
-        <v>258600</v>
+        <v>289100</v>
       </c>
       <c r="G26" s="3">
-        <v>205500</v>
+        <v>249800</v>
       </c>
       <c r="H26" s="3">
-        <v>265300</v>
+        <v>198500</v>
       </c>
       <c r="I26" s="3">
-        <v>151300</v>
+        <v>256400</v>
       </c>
       <c r="J26" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K26" s="3">
         <v>143400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>214400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>265900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>87500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>171700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>135100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>144900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>145900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>214300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>170200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>723100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>185200</v>
+        <v>202900</v>
       </c>
       <c r="E27" s="3">
-        <v>286800</v>
+        <v>178900</v>
       </c>
       <c r="F27" s="3">
-        <v>247300</v>
+        <v>277100</v>
       </c>
       <c r="G27" s="3">
-        <v>189700</v>
+        <v>238900</v>
       </c>
       <c r="H27" s="3">
-        <v>254000</v>
+        <v>183300</v>
       </c>
       <c r="I27" s="3">
-        <v>145700</v>
+        <v>245500</v>
       </c>
       <c r="J27" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K27" s="3">
         <v>129800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>87600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>198400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>252900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>163900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>121900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>135800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>187400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>145600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>626800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,76 +2117,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E29" s="3">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-2300</v>
+        <v>7600</v>
       </c>
       <c r="G29" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1100</v>
       </c>
-      <c r="H29" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>18800</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>6877400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>169500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>181200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>155900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>52700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>108800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>150300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>136200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>511800</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>-17500</v>
       </c>
       <c r="E32" s="3">
-        <v>-24800</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
-        <v>-18100</v>
+        <v>-24000</v>
       </c>
       <c r="G32" s="3">
-        <v>-9000</v>
+        <v>-17500</v>
       </c>
       <c r="H32" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="I32" s="3">
-        <v>3400</v>
+        <v>-8700</v>
       </c>
       <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-49400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>185200</v>
+        <v>204000</v>
       </c>
       <c r="E33" s="3">
-        <v>294700</v>
+        <v>178900</v>
       </c>
       <c r="F33" s="3">
-        <v>245000</v>
+        <v>284700</v>
       </c>
       <c r="G33" s="3">
-        <v>188600</v>
+        <v>236700</v>
       </c>
       <c r="H33" s="3">
-        <v>248400</v>
+        <v>182200</v>
       </c>
       <c r="I33" s="3">
-        <v>145700</v>
+        <v>240000</v>
       </c>
       <c r="J33" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K33" s="3">
         <v>128700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>94600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>198400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>271700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6918800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>333400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>297600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>277800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>84100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>244600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>337700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>281700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1138600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>185200</v>
+        <v>204000</v>
       </c>
       <c r="E35" s="3">
-        <v>294700</v>
+        <v>178900</v>
       </c>
       <c r="F35" s="3">
-        <v>245000</v>
+        <v>284700</v>
       </c>
       <c r="G35" s="3">
-        <v>188600</v>
+        <v>236700</v>
       </c>
       <c r="H35" s="3">
-        <v>248400</v>
+        <v>182200</v>
       </c>
       <c r="I35" s="3">
-        <v>145700</v>
+        <v>240000</v>
       </c>
       <c r="J35" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K35" s="3">
         <v>128700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>94600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>198400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>271700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6918800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>333400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>297600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>277800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>84100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>244600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>337700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>281700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1138600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,117 +2746,121 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1227300</v>
+        <v>1256700</v>
       </c>
       <c r="E41" s="3">
-        <v>1373000</v>
+        <v>1185800</v>
       </c>
       <c r="F41" s="3">
-        <v>1351500</v>
+        <v>1326500</v>
       </c>
       <c r="G41" s="3">
-        <v>1813300</v>
+        <v>1305800</v>
       </c>
       <c r="H41" s="3">
-        <v>1695900</v>
+        <v>1752000</v>
       </c>
       <c r="I41" s="3">
-        <v>1388800</v>
+        <v>1638500</v>
       </c>
       <c r="J41" s="3">
+        <v>1341800</v>
+      </c>
+      <c r="K41" s="3">
         <v>939400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1483800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>765600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1362300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1578000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3310900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1151900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1051900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1258300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1483300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1218500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1169100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1488400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1736100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14700</v>
+        <v>63300</v>
       </c>
       <c r="E42" s="3">
-        <v>333100</v>
+        <v>14200</v>
       </c>
       <c r="F42" s="3">
-        <v>339900</v>
+        <v>321800</v>
       </c>
       <c r="G42" s="3">
-        <v>282300</v>
+        <v>328400</v>
       </c>
       <c r="H42" s="3">
-        <v>124200</v>
+        <v>272700</v>
       </c>
       <c r="I42" s="3">
-        <v>56500</v>
+        <v>120000</v>
       </c>
       <c r="J42" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>161100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1930600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1795200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3195000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2788,8 +2877,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2797,285 +2886,300 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2687300</v>
+        <v>2551600</v>
       </c>
       <c r="E43" s="3">
-        <v>2829500</v>
+        <v>2596400</v>
       </c>
       <c r="F43" s="3">
-        <v>2601400</v>
+        <v>2733800</v>
       </c>
       <c r="G43" s="3">
-        <v>2251400</v>
+        <v>2513500</v>
       </c>
       <c r="H43" s="3">
-        <v>2515600</v>
+        <v>2175300</v>
       </c>
       <c r="I43" s="3">
-        <v>2473900</v>
+        <v>2430500</v>
       </c>
       <c r="J43" s="3">
+        <v>2390200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2540500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2490100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2944900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2930400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2846100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2532600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2519800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2661600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2446300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2203600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3470300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3574700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3716300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3271400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1765900</v>
+        <v>1800000</v>
       </c>
       <c r="E44" s="3">
-        <v>1580700</v>
+        <v>1706200</v>
       </c>
       <c r="F44" s="3">
-        <v>1471200</v>
+        <v>1527300</v>
       </c>
       <c r="G44" s="3">
-        <v>1308600</v>
+        <v>1421500</v>
       </c>
       <c r="H44" s="3">
-        <v>1280400</v>
+        <v>1264400</v>
       </c>
       <c r="I44" s="3">
-        <v>1330100</v>
+        <v>1237100</v>
       </c>
       <c r="J44" s="3">
+        <v>1285100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1366200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1329700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1495700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1441100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1450200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1347300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1273700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1286900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1279200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1227500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1826600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1827700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1923900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1798300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>111800</v>
+        <v>162500</v>
       </c>
       <c r="E45" s="3">
-        <v>79000</v>
+        <v>108000</v>
       </c>
       <c r="F45" s="3">
-        <v>72300</v>
+        <v>76400</v>
       </c>
       <c r="G45" s="3">
-        <v>62100</v>
+        <v>69800</v>
       </c>
       <c r="H45" s="3">
-        <v>75600</v>
+        <v>60000</v>
       </c>
       <c r="I45" s="3">
-        <v>79000</v>
+        <v>73100</v>
       </c>
       <c r="J45" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K45" s="3">
         <v>73400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>89400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>94100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5620000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5451600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5298900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5231800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>75200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>77500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>69300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5807000</v>
+        <v>5834200</v>
       </c>
       <c r="E46" s="3">
-        <v>6195400</v>
+        <v>5610600</v>
       </c>
       <c r="F46" s="3">
-        <v>5836300</v>
+        <v>5985800</v>
       </c>
       <c r="G46" s="3">
-        <v>5717800</v>
+        <v>5638900</v>
       </c>
       <c r="H46" s="3">
-        <v>5691800</v>
+        <v>5524400</v>
       </c>
       <c r="I46" s="3">
-        <v>5328200</v>
+        <v>5499300</v>
       </c>
       <c r="J46" s="3">
+        <v>5148000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4921700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5538200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7226200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7623100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9165100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13737000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10565400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10451900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10282800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10146200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6590600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6633200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7206000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6875000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>194200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3083,11 +3187,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>187400</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>181100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3095,186 +3199,195 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>175100</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>3098000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2324400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2293800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2390300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2310200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1479900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1880500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1952300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2290100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>844000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2284200</v>
+        <v>2295300</v>
       </c>
       <c r="E48" s="3">
-        <v>2278500</v>
+        <v>2206900</v>
       </c>
       <c r="F48" s="3">
-        <v>2285300</v>
+        <v>2201500</v>
       </c>
       <c r="G48" s="3">
-        <v>2196100</v>
+        <v>2208000</v>
       </c>
       <c r="H48" s="3">
-        <v>2161100</v>
+        <v>2121800</v>
       </c>
       <c r="I48" s="3">
-        <v>2234500</v>
+        <v>2088000</v>
       </c>
       <c r="J48" s="3">
+        <v>2158900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2258200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2421200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2497800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2412800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2539700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2067700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1880700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1888600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1903900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2055500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4525000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4558600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4927700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4918300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4115600</v>
+        <v>4025500</v>
       </c>
       <c r="E49" s="3">
-        <v>4096400</v>
+        <v>3976400</v>
       </c>
       <c r="F49" s="3">
-        <v>4096400</v>
+        <v>3957800</v>
       </c>
       <c r="G49" s="3">
-        <v>4012800</v>
+        <v>3957800</v>
       </c>
       <c r="H49" s="3">
-        <v>3977800</v>
+        <v>3877100</v>
       </c>
       <c r="I49" s="3">
-        <v>4034300</v>
+        <v>3843300</v>
       </c>
       <c r="J49" s="3">
+        <v>3897800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4024100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4231900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4168600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3996200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4077500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4090500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3714900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3720000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3711200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3824900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4703400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4747100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5146000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5180000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,43 +3525,46 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2987600</v>
+        <v>2790500</v>
       </c>
       <c r="E52" s="3">
-        <v>3122000</v>
+        <v>2886500</v>
       </c>
       <c r="F52" s="3">
-        <v>2905200</v>
+        <v>3016400</v>
       </c>
       <c r="G52" s="3">
-        <v>2764000</v>
+        <v>2806900</v>
       </c>
       <c r="H52" s="3">
-        <v>3127600</v>
+        <v>2670500</v>
       </c>
       <c r="I52" s="3">
-        <v>3316200</v>
+        <v>3021800</v>
       </c>
       <c r="J52" s="3">
+        <v>3204000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3667300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2791300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3312400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3459,11 +3578,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>645100</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
@@ -3471,14 +3590,17 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>1193800</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15194300</v>
+        <v>15139600</v>
       </c>
       <c r="E54" s="3">
-        <v>15692200</v>
+        <v>14680400</v>
       </c>
       <c r="F54" s="3">
-        <v>15123200</v>
+        <v>15161500</v>
       </c>
       <c r="G54" s="3">
-        <v>14878200</v>
+        <v>14611600</v>
       </c>
       <c r="H54" s="3">
-        <v>14958300</v>
+        <v>14374900</v>
       </c>
       <c r="I54" s="3">
-        <v>14913200</v>
+        <v>14452400</v>
       </c>
       <c r="J54" s="3">
+        <v>14408700</v>
+      </c>
+      <c r="K54" s="3">
         <v>14871400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15157700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17205000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16979000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18880300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22219600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18454800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18450800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18208100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18151600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17699400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17891300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19569800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19011000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3362500</v>
+        <v>3216000</v>
       </c>
       <c r="E57" s="3">
-        <v>3242800</v>
+        <v>3248700</v>
       </c>
       <c r="F57" s="3">
-        <v>3088100</v>
+        <v>3133100</v>
       </c>
       <c r="G57" s="3">
-        <v>2913100</v>
+        <v>2983600</v>
       </c>
       <c r="H57" s="3">
-        <v>2735800</v>
+        <v>2814500</v>
       </c>
       <c r="I57" s="3">
-        <v>2609400</v>
+        <v>2643300</v>
       </c>
       <c r="J57" s="3">
+        <v>2521100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2620600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2808800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3006100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2999800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3069600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3128800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2872000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2939300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2889900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3134800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3987600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3949400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4215200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4079000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1222800</v>
+        <v>1697500</v>
       </c>
       <c r="E58" s="3">
-        <v>685400</v>
+        <v>1181500</v>
       </c>
       <c r="F58" s="3">
-        <v>159200</v>
+        <v>662200</v>
       </c>
       <c r="G58" s="3">
-        <v>134400</v>
+        <v>153800</v>
       </c>
       <c r="H58" s="3">
-        <v>188600</v>
+        <v>129800</v>
       </c>
       <c r="I58" s="3">
-        <v>207800</v>
+        <v>182200</v>
       </c>
       <c r="J58" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K58" s="3">
         <v>333100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>197300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>857500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>834100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>839900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>708600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1598300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1698600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1585500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1091700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>151500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>344500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>495300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>102100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>390700</v>
+        <v>398200</v>
       </c>
       <c r="E59" s="3">
-        <v>418900</v>
+        <v>377500</v>
       </c>
       <c r="F59" s="3">
-        <v>400800</v>
+        <v>404700</v>
       </c>
       <c r="G59" s="3">
+        <v>387300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>429800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>445100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K59" s="3">
         <v>444900</v>
       </c>
-      <c r="H59" s="3">
-        <v>460700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>450500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>444900</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>498500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>539000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>509400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>508600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>515700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2787800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2813100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2820800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2866700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>570000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>658600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>743000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>764200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4975900</v>
+        <v>5311600</v>
       </c>
       <c r="E60" s="3">
-        <v>4347000</v>
+        <v>4807600</v>
       </c>
       <c r="F60" s="3">
-        <v>3648100</v>
+        <v>4200000</v>
       </c>
       <c r="G60" s="3">
-        <v>3492300</v>
+        <v>3524700</v>
       </c>
       <c r="H60" s="3">
-        <v>3385000</v>
+        <v>3374200</v>
       </c>
       <c r="I60" s="3">
-        <v>3267600</v>
+        <v>3270500</v>
       </c>
       <c r="J60" s="3">
+        <v>3157100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3398600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3504600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4402600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4343300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4418100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4353100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7258100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7451000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7296200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7093200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4709000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4952500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5453500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4945300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2258200</v>
+        <v>2175300</v>
       </c>
       <c r="E61" s="3">
-        <v>3117400</v>
+        <v>2181800</v>
       </c>
       <c r="F61" s="3">
-        <v>3122000</v>
+        <v>3012000</v>
       </c>
       <c r="G61" s="3">
-        <v>3128700</v>
+        <v>3016400</v>
       </c>
       <c r="H61" s="3">
-        <v>3117400</v>
+        <v>3022900</v>
       </c>
       <c r="I61" s="3">
-        <v>3137800</v>
+        <v>3012000</v>
       </c>
       <c r="J61" s="3">
+        <v>3031600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2298800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2383900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2496500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2397500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2442700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2128000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2544200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2524300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2523200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2580600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2964300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2967700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3107100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3103600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1496100</v>
+        <v>1504400</v>
       </c>
       <c r="E62" s="3">
-        <v>1537800</v>
+        <v>1445500</v>
       </c>
       <c r="F62" s="3">
-        <v>1461100</v>
+        <v>1485800</v>
       </c>
       <c r="G62" s="3">
-        <v>1539000</v>
+        <v>1411600</v>
       </c>
       <c r="H62" s="3">
-        <v>1623600</v>
+        <v>1486900</v>
       </c>
       <c r="I62" s="3">
-        <v>1671100</v>
+        <v>1568700</v>
       </c>
       <c r="J62" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1619100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1601700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1707600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1559900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1580400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1498700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1280400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1349400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1401400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2330400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2374100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2616400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2705600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8974100</v>
+        <v>9221500</v>
       </c>
       <c r="E66" s="3">
-        <v>9247300</v>
+        <v>8670600</v>
       </c>
       <c r="F66" s="3">
-        <v>8473900</v>
+        <v>8934600</v>
       </c>
       <c r="G66" s="3">
-        <v>8390300</v>
+        <v>8187300</v>
       </c>
       <c r="H66" s="3">
-        <v>8356500</v>
+        <v>8106600</v>
       </c>
       <c r="I66" s="3">
-        <v>8311300</v>
+        <v>8073800</v>
       </c>
       <c r="J66" s="3">
+        <v>8030200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7558200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7744600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8886100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8557100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8694300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8221200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11554500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11777100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11663000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11571100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10518700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10832800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11756900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11319000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6849100</v>
+        <v>6377500</v>
       </c>
       <c r="E72" s="3">
-        <v>7099800</v>
+        <v>6617500</v>
       </c>
       <c r="F72" s="3">
-        <v>7290600</v>
+        <v>6859600</v>
       </c>
       <c r="G72" s="3">
-        <v>7366200</v>
+        <v>7044000</v>
       </c>
       <c r="H72" s="3">
-        <v>7490400</v>
+        <v>7117100</v>
       </c>
       <c r="I72" s="3">
-        <v>7360600</v>
+        <v>7237100</v>
       </c>
       <c r="J72" s="3">
+        <v>7111600</v>
+      </c>
+      <c r="K72" s="3">
         <v>7988400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7843800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8826100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8991200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10589300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12978800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5989900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5698600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5812800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5750200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6329100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5928600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6400800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6276400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6220200</v>
+        <v>5918200</v>
       </c>
       <c r="E76" s="3">
-        <v>6444900</v>
+        <v>6009800</v>
       </c>
       <c r="F76" s="3">
-        <v>6649300</v>
+        <v>6226900</v>
       </c>
       <c r="G76" s="3">
-        <v>6487800</v>
+        <v>6424400</v>
       </c>
       <c r="H76" s="3">
-        <v>6601800</v>
+        <v>6268400</v>
       </c>
       <c r="I76" s="3">
-        <v>6601800</v>
+        <v>6378600</v>
       </c>
       <c r="J76" s="3">
+        <v>6378600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7313200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7413100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8318900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8421800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10186000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13998400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6900300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6673600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6545200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6580500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7180700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7058400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7812900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7692000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>185200</v>
+        <v>204000</v>
       </c>
       <c r="E81" s="3">
-        <v>294700</v>
+        <v>178900</v>
       </c>
       <c r="F81" s="3">
-        <v>245000</v>
+        <v>284700</v>
       </c>
       <c r="G81" s="3">
-        <v>188600</v>
+        <v>236700</v>
       </c>
       <c r="H81" s="3">
-        <v>248400</v>
+        <v>182200</v>
       </c>
       <c r="I81" s="3">
-        <v>145700</v>
+        <v>240000</v>
       </c>
       <c r="J81" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K81" s="3">
         <v>128700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>94600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>198400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>271700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6918800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>333400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>297600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>277800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>84100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>244600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>337700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>281700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1138600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>94900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>92700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>92700</v>
+      </c>
+      <c r="H83" s="3">
         <v>98200</v>
       </c>
-      <c r="E83" s="3">
-        <v>96000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>96000</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
+        <v>99300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K83" s="3">
         <v>101600</v>
       </c>
-      <c r="H83" s="3">
-        <v>102700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>101600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>101600</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>115600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>104700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>65900</v>
       </c>
       <c r="R83" s="3">
         <v>65900</v>
       </c>
       <c r="S83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="T83" s="3">
         <v>154800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>170500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>178400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>185500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>711300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>327400</v>
+        <v>193100</v>
       </c>
       <c r="E89" s="3">
-        <v>189700</v>
+        <v>316400</v>
       </c>
       <c r="F89" s="3">
-        <v>-35000</v>
+        <v>183300</v>
       </c>
       <c r="G89" s="3">
-        <v>693300</v>
+        <v>-33800</v>
       </c>
       <c r="H89" s="3">
-        <v>514900</v>
+        <v>669800</v>
       </c>
       <c r="I89" s="3">
-        <v>347800</v>
+        <v>497500</v>
       </c>
       <c r="J89" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-181800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>336200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>377300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-856400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>287400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>787500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>593500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>466700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>350100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-338100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1515400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79000</v>
+        <v>-108000</v>
       </c>
       <c r="E91" s="3">
-        <v>-70000</v>
+        <v>-76400</v>
       </c>
       <c r="F91" s="3">
-        <v>-64400</v>
+        <v>-67600</v>
       </c>
       <c r="G91" s="3">
-        <v>-115200</v>
+        <v>-62200</v>
       </c>
       <c r="H91" s="3">
-        <v>-72300</v>
+        <v>-111300</v>
       </c>
       <c r="I91" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-51900</v>
       </c>
-      <c r="J91" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-92200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-95400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-68400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-193700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>247300</v>
+        <v>-140700</v>
       </c>
       <c r="E94" s="3">
-        <v>-61000</v>
+        <v>238900</v>
       </c>
       <c r="F94" s="3">
-        <v>-191900</v>
+        <v>-58900</v>
       </c>
       <c r="G94" s="3">
-        <v>-302600</v>
+        <v>-185500</v>
       </c>
       <c r="H94" s="3">
-        <v>-132100</v>
+        <v>-292400</v>
       </c>
       <c r="I94" s="3">
-        <v>-162600</v>
+        <v>-127600</v>
       </c>
       <c r="J94" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="K94" s="3">
         <v>115200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>637400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>841600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1430500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3031800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4023000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-365500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-239000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-362400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-44600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11300</v>
+        <v>-98200</v>
       </c>
       <c r="E96" s="3">
-        <v>-325200</v>
+        <v>-10900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3400</v>
+        <v>-314200</v>
       </c>
       <c r="G96" s="3">
-        <v>-92600</v>
+        <v>-3300</v>
       </c>
       <c r="H96" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="I96" s="3">
         <v>1100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-321800</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-310900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-95700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-375300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-159700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-334900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-190000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-235600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-394400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-741800</v>
+        <v>33800</v>
       </c>
       <c r="E100" s="3">
-        <v>-121900</v>
+        <v>-716700</v>
       </c>
       <c r="F100" s="3">
-        <v>-271000</v>
+        <v>-117800</v>
       </c>
       <c r="G100" s="3">
-        <v>-249500</v>
+        <v>-261800</v>
       </c>
       <c r="H100" s="3">
-        <v>-39500</v>
+        <v>-241100</v>
       </c>
       <c r="I100" s="3">
-        <v>336500</v>
+        <v>-38200</v>
       </c>
       <c r="J100" s="3">
+        <v>325100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-446000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-923600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-268000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-225100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>241600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-77400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-97600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-325400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>11700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-238300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6800</v>
+        <v>14200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="F101" s="3">
-        <v>18100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>17500</v>
       </c>
       <c r="H101" s="3">
-        <v>-26000</v>
+        <v>-4400</v>
       </c>
       <c r="I101" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>19600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>27200</v>
+      </c>
+      <c r="P101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="R101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="W101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
-        <v>-41800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>19600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>27200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>17700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>17600</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160300</v>
+        <v>100400</v>
       </c>
       <c r="E102" s="3">
-        <v>6800</v>
+        <v>-154900</v>
       </c>
       <c r="F102" s="3">
-        <v>-479900</v>
+        <v>6500</v>
       </c>
       <c r="G102" s="3">
-        <v>136600</v>
+        <v>-463600</v>
       </c>
       <c r="H102" s="3">
-        <v>317300</v>
+        <v>132000</v>
       </c>
       <c r="I102" s="3">
-        <v>519400</v>
+        <v>306500</v>
       </c>
       <c r="J102" s="3">
+        <v>501800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-554400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>117600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-211800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2105600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>127400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-208600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-275600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>276000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>173900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-194100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-459000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>145600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2621500</v>
+        <v>2620700</v>
       </c>
       <c r="E8" s="3">
-        <v>2629100</v>
+        <v>2494100</v>
       </c>
       <c r="F8" s="3">
-        <v>2739300</v>
+        <v>2501300</v>
       </c>
       <c r="G8" s="3">
-        <v>2468700</v>
+        <v>2606200</v>
       </c>
       <c r="H8" s="3">
-        <v>2409800</v>
+        <v>2348800</v>
       </c>
       <c r="I8" s="3">
-        <v>2482900</v>
+        <v>2292700</v>
       </c>
       <c r="J8" s="3">
+        <v>2362300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2167600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2323700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2617300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2937500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2883400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2584600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2730100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2576300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2685700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2389200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2561500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2714100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2842000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2790100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11073700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1629800</v>
+        <v>1602500</v>
       </c>
       <c r="E9" s="3">
-        <v>1617800</v>
+        <v>1550600</v>
       </c>
       <c r="F9" s="3">
-        <v>1611300</v>
+        <v>1539200</v>
       </c>
       <c r="G9" s="3">
-        <v>1394200</v>
+        <v>1533000</v>
       </c>
       <c r="H9" s="3">
-        <v>1346200</v>
+        <v>1312900</v>
       </c>
       <c r="I9" s="3">
-        <v>1373500</v>
+        <v>1280800</v>
       </c>
       <c r="J9" s="3">
+        <v>1306700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1210900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1289400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1489600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1688000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1617600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1504600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1605200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1468700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1526200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1379100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1458600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1539400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1574200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1529500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5984100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>991600</v>
+        <v>1018200</v>
       </c>
       <c r="E10" s="3">
-        <v>1011300</v>
+        <v>943500</v>
       </c>
       <c r="F10" s="3">
-        <v>1128000</v>
+        <v>962100</v>
       </c>
       <c r="G10" s="3">
-        <v>1074500</v>
+        <v>1073200</v>
       </c>
       <c r="H10" s="3">
-        <v>1063600</v>
+        <v>1035800</v>
       </c>
       <c r="I10" s="3">
-        <v>1109500</v>
+        <v>1012000</v>
       </c>
       <c r="J10" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="K10" s="3">
         <v>956700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1034300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1127700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1249500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1265800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1080000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1124900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1107600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1159500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1010200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1102900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1174700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1267800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1260700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5089600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,23 +1196,23 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1200,25 +1220,28 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>29200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>14100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2397800</v>
+        <v>2379900</v>
       </c>
       <c r="E17" s="3">
-        <v>2382500</v>
+        <v>2281300</v>
       </c>
       <c r="F17" s="3">
-        <v>2320400</v>
+        <v>2266800</v>
       </c>
       <c r="G17" s="3">
-        <v>2138200</v>
+        <v>2207600</v>
       </c>
       <c r="H17" s="3">
-        <v>2144700</v>
+        <v>2034300</v>
       </c>
       <c r="I17" s="3">
-        <v>2127300</v>
+        <v>2040500</v>
       </c>
       <c r="J17" s="3">
+        <v>2023900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1941800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2112500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2415400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2635000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2521000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2451000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2649700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2313800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2474900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2270700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2405500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2472900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2546900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2546000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9990300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>223600</v>
+        <v>240800</v>
       </c>
       <c r="E18" s="3">
-        <v>246500</v>
+        <v>212800</v>
       </c>
       <c r="F18" s="3">
-        <v>418900</v>
+        <v>234600</v>
       </c>
       <c r="G18" s="3">
-        <v>330500</v>
+        <v>398600</v>
       </c>
       <c r="H18" s="3">
-        <v>265100</v>
+        <v>314500</v>
       </c>
       <c r="I18" s="3">
-        <v>355600</v>
+        <v>252200</v>
       </c>
       <c r="J18" s="3">
+        <v>338400</v>
+      </c>
+      <c r="K18" s="3">
         <v>225800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>211100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>202000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>302600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>362300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>133700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>80400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>262500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>210800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>118600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>156000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>241200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>295100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>244200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1083400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>16600</v>
       </c>
       <c r="F20" s="3">
-        <v>24000</v>
+        <v>7300</v>
       </c>
       <c r="G20" s="3">
-        <v>17500</v>
+        <v>22800</v>
       </c>
       <c r="H20" s="3">
-        <v>8700</v>
+        <v>16600</v>
       </c>
       <c r="I20" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="J20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>49400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>343600</v>
+        <v>345600</v>
       </c>
       <c r="E21" s="3">
-        <v>349100</v>
+        <v>326900</v>
       </c>
       <c r="F21" s="3">
-        <v>535600</v>
+        <v>332100</v>
       </c>
       <c r="G21" s="3">
-        <v>440700</v>
+        <v>509600</v>
       </c>
       <c r="H21" s="3">
-        <v>372000</v>
+        <v>419300</v>
       </c>
       <c r="I21" s="3">
-        <v>463600</v>
+        <v>353900</v>
       </c>
       <c r="J21" s="3">
+        <v>441100</v>
+      </c>
+      <c r="K21" s="3">
         <v>320700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>322900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>322200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>409100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>475300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>244900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>337800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>276700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>233900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>236700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>313000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>390500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>342800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1820600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20700</v>
+        <v>16600</v>
       </c>
       <c r="E22" s="3">
-        <v>21800</v>
+        <v>19700</v>
       </c>
       <c r="F22" s="3">
-        <v>19600</v>
+        <v>20800</v>
       </c>
       <c r="G22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K22" s="3">
         <v>18500</v>
       </c>
-      <c r="H22" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>18500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>24200</v>
       </c>
       <c r="S22" s="3">
         <v>24200</v>
       </c>
       <c r="T22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="U22" s="3">
         <v>25800</v>
       </c>
       <c r="V22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="W22" s="3">
         <v>24700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>25800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>111500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>220400</v>
+        <v>236600</v>
       </c>
       <c r="E23" s="3">
-        <v>232400</v>
+        <v>209700</v>
       </c>
       <c r="F23" s="3">
-        <v>423300</v>
+        <v>221100</v>
       </c>
       <c r="G23" s="3">
-        <v>329500</v>
+        <v>402700</v>
       </c>
       <c r="H23" s="3">
-        <v>255300</v>
+        <v>313400</v>
       </c>
       <c r="I23" s="3">
-        <v>345800</v>
+        <v>242900</v>
       </c>
       <c r="J23" s="3">
+        <v>329000</v>
+      </c>
+      <c r="K23" s="3">
         <v>204000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>204400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>185600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>276800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>347000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>124200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>244800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>186700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>143800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>141400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>209800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>285000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>231200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>997700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2200</v>
+        <v>64300</v>
       </c>
       <c r="E24" s="3">
-        <v>52400</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="3">
-        <v>134200</v>
+        <v>49800</v>
       </c>
       <c r="G24" s="3">
-        <v>79600</v>
+        <v>127700</v>
       </c>
       <c r="H24" s="3">
-        <v>56700</v>
+        <v>75800</v>
       </c>
       <c r="I24" s="3">
-        <v>89500</v>
+        <v>54000</v>
       </c>
       <c r="J24" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K24" s="3">
         <v>57800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>92200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>62500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>81200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>73100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>90900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>70700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>61000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>274700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>218200</v>
+        <v>172300</v>
       </c>
       <c r="E26" s="3">
-        <v>180000</v>
+        <v>207600</v>
       </c>
       <c r="F26" s="3">
-        <v>289100</v>
+        <v>171300</v>
       </c>
       <c r="G26" s="3">
-        <v>249800</v>
+        <v>275000</v>
       </c>
       <c r="H26" s="3">
-        <v>198500</v>
+        <v>237700</v>
       </c>
       <c r="I26" s="3">
-        <v>256400</v>
+        <v>188900</v>
       </c>
       <c r="J26" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K26" s="3">
         <v>146200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>214400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>265900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>87500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>171700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>135100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>144900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>145900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>214300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>170200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>723100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>202900</v>
+        <v>159800</v>
       </c>
       <c r="E27" s="3">
-        <v>178900</v>
+        <v>193000</v>
       </c>
       <c r="F27" s="3">
-        <v>277100</v>
+        <v>170200</v>
       </c>
       <c r="G27" s="3">
-        <v>238900</v>
+        <v>263600</v>
       </c>
       <c r="H27" s="3">
-        <v>183300</v>
+        <v>227300</v>
       </c>
       <c r="I27" s="3">
-        <v>245500</v>
+        <v>174400</v>
       </c>
       <c r="J27" s="3">
+        <v>233500</v>
+      </c>
+      <c r="K27" s="3">
         <v>140700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>129800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>198400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>252900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>163900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>121900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>135800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>187400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>145600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>626800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,79 +2178,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F29" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-2200</v>
+        <v>7300</v>
       </c>
       <c r="H29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1100</v>
       </c>
-      <c r="I29" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>18800</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>6877400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>169500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>181200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>155900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>52700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>108800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>150300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>136200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>511800</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17500</v>
+        <v>-12500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-16600</v>
       </c>
       <c r="F32" s="3">
-        <v>-24000</v>
+        <v>-7300</v>
       </c>
       <c r="G32" s="3">
-        <v>-17500</v>
+        <v>-22800</v>
       </c>
       <c r="H32" s="3">
-        <v>-8700</v>
+        <v>-16600</v>
       </c>
       <c r="I32" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="J32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-49400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>204000</v>
+        <v>159800</v>
       </c>
       <c r="E33" s="3">
-        <v>178900</v>
+        <v>194100</v>
       </c>
       <c r="F33" s="3">
-        <v>284700</v>
+        <v>170200</v>
       </c>
       <c r="G33" s="3">
-        <v>236700</v>
+        <v>270900</v>
       </c>
       <c r="H33" s="3">
-        <v>182200</v>
+        <v>225200</v>
       </c>
       <c r="I33" s="3">
-        <v>240000</v>
+        <v>173300</v>
       </c>
       <c r="J33" s="3">
+        <v>228300</v>
+      </c>
+      <c r="K33" s="3">
         <v>140700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>128700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>94600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>198400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>271700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6918800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>333400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>297600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>277800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>84100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>244600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>337700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>281700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1138600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>204000</v>
+        <v>159800</v>
       </c>
       <c r="E35" s="3">
-        <v>178900</v>
+        <v>194100</v>
       </c>
       <c r="F35" s="3">
-        <v>284700</v>
+        <v>170200</v>
       </c>
       <c r="G35" s="3">
-        <v>236700</v>
+        <v>270900</v>
       </c>
       <c r="H35" s="3">
-        <v>182200</v>
+        <v>225200</v>
       </c>
       <c r="I35" s="3">
-        <v>240000</v>
+        <v>173300</v>
       </c>
       <c r="J35" s="3">
+        <v>228300</v>
+      </c>
+      <c r="K35" s="3">
         <v>140700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>128700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>94600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>198400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>271700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6918800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>333400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>297600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>277800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>84100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>244600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>337700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>281700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1138600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,123 +2833,127 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1256700</v>
+        <v>1471700</v>
       </c>
       <c r="E41" s="3">
-        <v>1185800</v>
+        <v>1195700</v>
       </c>
       <c r="F41" s="3">
-        <v>1326500</v>
+        <v>1128200</v>
       </c>
       <c r="G41" s="3">
-        <v>1305800</v>
+        <v>1262100</v>
       </c>
       <c r="H41" s="3">
-        <v>1752000</v>
+        <v>1242400</v>
       </c>
       <c r="I41" s="3">
-        <v>1638500</v>
+        <v>1666900</v>
       </c>
       <c r="J41" s="3">
+        <v>1558900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1341800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>939400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1483800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>765600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1362300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1578000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3310900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1151900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1051900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1258300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1483300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1218500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1169100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1488400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1736100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63300</v>
+        <v>1122000</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
+        <v>60200</v>
       </c>
       <c r="F42" s="3">
-        <v>321800</v>
+        <v>13500</v>
       </c>
       <c r="G42" s="3">
-        <v>328400</v>
+        <v>306200</v>
       </c>
       <c r="H42" s="3">
-        <v>272700</v>
+        <v>312400</v>
       </c>
       <c r="I42" s="3">
-        <v>120000</v>
+        <v>259500</v>
       </c>
       <c r="J42" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K42" s="3">
         <v>54500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>161100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1930600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1795200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3195000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2880,8 +2970,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2889,300 +2979,315 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2551600</v>
+        <v>2691300</v>
       </c>
       <c r="E43" s="3">
-        <v>2596400</v>
+        <v>2427600</v>
       </c>
       <c r="F43" s="3">
-        <v>2733800</v>
+        <v>2470200</v>
       </c>
       <c r="G43" s="3">
-        <v>2513500</v>
+        <v>2601000</v>
       </c>
       <c r="H43" s="3">
-        <v>2175300</v>
+        <v>2391300</v>
       </c>
       <c r="I43" s="3">
-        <v>2430500</v>
+        <v>2069600</v>
       </c>
       <c r="J43" s="3">
+        <v>2312400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2390200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2540500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2490100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2944900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2930400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2846100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2532600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2519800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2661600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2446300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2203600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3470300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3574700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3716300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3271400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1800000</v>
+        <v>1922200</v>
       </c>
       <c r="E44" s="3">
-        <v>1706200</v>
+        <v>1712500</v>
       </c>
       <c r="F44" s="3">
-        <v>1527300</v>
+        <v>1623300</v>
       </c>
       <c r="G44" s="3">
-        <v>1421500</v>
+        <v>1453100</v>
       </c>
       <c r="H44" s="3">
-        <v>1264400</v>
+        <v>1352400</v>
       </c>
       <c r="I44" s="3">
-        <v>1237100</v>
+        <v>1202900</v>
       </c>
       <c r="J44" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1285100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1366200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1329700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1495700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1441100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1450200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1347300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1273700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1286900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1279200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1227500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1826600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1827700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1923900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1798300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>162500</v>
+        <v>152600</v>
       </c>
       <c r="E45" s="3">
-        <v>108000</v>
+        <v>154600</v>
       </c>
       <c r="F45" s="3">
+        <v>102800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>72700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>66400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>57100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K45" s="3">
         <v>76400</v>
       </c>
-      <c r="G45" s="3">
-        <v>69800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>60000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>73100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>76400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>89400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>94100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>95800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5620000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5451600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5298900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5231800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>75200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>61700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>77500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>69300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5834200</v>
+        <v>7359700</v>
       </c>
       <c r="E46" s="3">
-        <v>5610600</v>
+        <v>5550700</v>
       </c>
       <c r="F46" s="3">
-        <v>5985800</v>
+        <v>5337900</v>
       </c>
       <c r="G46" s="3">
-        <v>5638900</v>
+        <v>5695000</v>
       </c>
       <c r="H46" s="3">
-        <v>5524400</v>
+        <v>5364900</v>
       </c>
       <c r="I46" s="3">
-        <v>5499300</v>
+        <v>5255900</v>
       </c>
       <c r="J46" s="3">
+        <v>5232100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5148000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4921700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5538200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7226200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7623100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9165100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13737000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10565400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10451900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10282800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10146200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6590600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6633200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7206000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6875000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>194200</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>184700</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -3190,11 +3295,11 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>181100</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>172300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3202,192 +3307,201 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>175100</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>3098000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2324400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2293800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2390300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2310200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1479900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1880500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1952300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2290100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>844000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2295300</v>
+        <v>2177500</v>
       </c>
       <c r="E48" s="3">
-        <v>2206900</v>
+        <v>2183700</v>
       </c>
       <c r="F48" s="3">
-        <v>2201500</v>
+        <v>2099700</v>
       </c>
       <c r="G48" s="3">
-        <v>2208000</v>
+        <v>2094500</v>
       </c>
       <c r="H48" s="3">
-        <v>2121800</v>
+        <v>2100700</v>
       </c>
       <c r="I48" s="3">
-        <v>2088000</v>
+        <v>2018700</v>
       </c>
       <c r="J48" s="3">
+        <v>1986500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2158900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2258200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2421200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2497800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2412800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2539700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2067700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1880700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1888600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1903900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2055500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4525000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4558600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4927700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4918300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4025500</v>
+        <v>3857900</v>
       </c>
       <c r="E49" s="3">
-        <v>3976400</v>
+        <v>3829900</v>
       </c>
       <c r="F49" s="3">
-        <v>3957800</v>
+        <v>3783100</v>
       </c>
       <c r="G49" s="3">
-        <v>3957800</v>
+        <v>3765500</v>
       </c>
       <c r="H49" s="3">
-        <v>3877100</v>
+        <v>3765500</v>
       </c>
       <c r="I49" s="3">
-        <v>3843300</v>
+        <v>3688700</v>
       </c>
       <c r="J49" s="3">
+        <v>3656500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3897800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4024100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4231900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4168600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3996200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4077500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4090500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3714900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3720000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3711200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3824900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4703400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4747100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5146000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5180000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,46 +3645,49 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2790500</v>
+        <v>2849000</v>
       </c>
       <c r="E52" s="3">
-        <v>2886500</v>
+        <v>2654900</v>
       </c>
       <c r="F52" s="3">
-        <v>3016400</v>
+        <v>2746300</v>
       </c>
       <c r="G52" s="3">
-        <v>2806900</v>
+        <v>2869800</v>
       </c>
       <c r="H52" s="3">
         <v>2670500</v>
       </c>
       <c r="I52" s="3">
-        <v>3021800</v>
+        <v>2540800</v>
       </c>
       <c r="J52" s="3">
+        <v>2875000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3204000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3667300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2791300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3312400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -3581,11 +3701,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>645100</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
@@ -3593,14 +3713,17 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15139600</v>
+        <v>16244200</v>
       </c>
       <c r="E54" s="3">
-        <v>14680400</v>
+        <v>14404000</v>
       </c>
       <c r="F54" s="3">
-        <v>15161500</v>
+        <v>13967000</v>
       </c>
       <c r="G54" s="3">
-        <v>14611600</v>
+        <v>14424700</v>
       </c>
       <c r="H54" s="3">
-        <v>14374900</v>
+        <v>13901600</v>
       </c>
       <c r="I54" s="3">
-        <v>14452400</v>
+        <v>13676400</v>
       </c>
       <c r="J54" s="3">
+        <v>13750100</v>
+      </c>
+      <c r="K54" s="3">
         <v>14408700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14871400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15157700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17205000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16979000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18880300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22219600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18454800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18450800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18208100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18151600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17699400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17891300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19569800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19011000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3216000</v>
+        <v>3204000</v>
       </c>
       <c r="E57" s="3">
-        <v>3248700</v>
+        <v>3059700</v>
       </c>
       <c r="F57" s="3">
-        <v>3133100</v>
+        <v>3090900</v>
       </c>
       <c r="G57" s="3">
-        <v>2983600</v>
+        <v>2980800</v>
       </c>
       <c r="H57" s="3">
-        <v>2814500</v>
+        <v>2838700</v>
       </c>
       <c r="I57" s="3">
-        <v>2643300</v>
+        <v>2677800</v>
       </c>
       <c r="J57" s="3">
+        <v>2514800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2521100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2620600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2808800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3006100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2999800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3069600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3128800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2872000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2939300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2889900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3134800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3987600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3949400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4215200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4079000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1697500</v>
+        <v>2084100</v>
       </c>
       <c r="E58" s="3">
-        <v>1181500</v>
+        <v>1615000</v>
       </c>
       <c r="F58" s="3">
-        <v>662200</v>
+        <v>1124000</v>
       </c>
       <c r="G58" s="3">
-        <v>153800</v>
+        <v>630000</v>
       </c>
       <c r="H58" s="3">
-        <v>129800</v>
+        <v>146300</v>
       </c>
       <c r="I58" s="3">
-        <v>182200</v>
+        <v>123500</v>
       </c>
       <c r="J58" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>333100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>197300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>857500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>834100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>839900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>708600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1598300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1698600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1585500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1091700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>151500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>344500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>495300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>102100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>398200</v>
+        <v>389200</v>
       </c>
       <c r="E59" s="3">
-        <v>377500</v>
+        <v>378800</v>
       </c>
       <c r="F59" s="3">
-        <v>404700</v>
+        <v>359100</v>
       </c>
       <c r="G59" s="3">
-        <v>387300</v>
+        <v>385100</v>
       </c>
       <c r="H59" s="3">
-        <v>429800</v>
+        <v>368500</v>
       </c>
       <c r="I59" s="3">
-        <v>445100</v>
+        <v>408900</v>
       </c>
       <c r="J59" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K59" s="3">
         <v>435300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>444900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>498500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>539000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>509400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>508600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>515700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2787800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2813100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2820800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2866700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>570000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>658600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>743000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>764200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5311600</v>
+        <v>5677300</v>
       </c>
       <c r="E60" s="3">
-        <v>4807600</v>
+        <v>5053500</v>
       </c>
       <c r="F60" s="3">
-        <v>4200000</v>
+        <v>4574000</v>
       </c>
       <c r="G60" s="3">
-        <v>3524700</v>
+        <v>3995900</v>
       </c>
       <c r="H60" s="3">
-        <v>3374200</v>
+        <v>3353500</v>
       </c>
       <c r="I60" s="3">
-        <v>3270500</v>
+        <v>3210200</v>
       </c>
       <c r="J60" s="3">
+        <v>3111600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3157100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3398600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3504600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4402600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4343300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4418100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4353100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7258100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7451000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7296200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7093200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4709000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4952500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5453500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4945300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2175300</v>
+        <v>3298400</v>
       </c>
       <c r="E61" s="3">
-        <v>2181800</v>
+        <v>2069600</v>
       </c>
       <c r="F61" s="3">
-        <v>3012000</v>
+        <v>2075800</v>
       </c>
       <c r="G61" s="3">
-        <v>3016400</v>
+        <v>2865600</v>
       </c>
       <c r="H61" s="3">
-        <v>3022900</v>
+        <v>2869800</v>
       </c>
       <c r="I61" s="3">
-        <v>3012000</v>
+        <v>2876000</v>
       </c>
       <c r="J61" s="3">
+        <v>2865600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3031600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2298800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2383900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2496500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2397500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2442700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2128000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2544200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2524300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2523200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2580600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2964300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2967700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3107100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3103600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1504400</v>
+        <v>1391800</v>
       </c>
       <c r="E62" s="3">
-        <v>1445500</v>
+        <v>1431300</v>
       </c>
       <c r="F62" s="3">
-        <v>1485800</v>
+        <v>1375200</v>
       </c>
       <c r="G62" s="3">
-        <v>1411600</v>
+        <v>1413600</v>
       </c>
       <c r="H62" s="3">
-        <v>1486900</v>
+        <v>1343000</v>
       </c>
       <c r="I62" s="3">
-        <v>1568700</v>
+        <v>1414700</v>
       </c>
       <c r="J62" s="3">
+        <v>1492500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1614500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1619100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1601700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1707600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1559900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1580400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1498700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1280400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1349400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1401400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2330400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2374100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2616400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2705600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9221500</v>
+        <v>10589700</v>
       </c>
       <c r="E66" s="3">
-        <v>8670600</v>
+        <v>8773400</v>
       </c>
       <c r="F66" s="3">
-        <v>8934600</v>
+        <v>8249200</v>
       </c>
       <c r="G66" s="3">
-        <v>8187300</v>
+        <v>8500400</v>
       </c>
       <c r="H66" s="3">
-        <v>8106600</v>
+        <v>7789400</v>
       </c>
       <c r="I66" s="3">
-        <v>8073800</v>
+        <v>7712600</v>
       </c>
       <c r="J66" s="3">
+        <v>7681500</v>
+      </c>
+      <c r="K66" s="3">
         <v>8030200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7558200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7744600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8886100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8557100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8694300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8221200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11554500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11777100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11663000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11571100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10518700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10832800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11756900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11319000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6377500</v>
+        <v>6026000</v>
       </c>
       <c r="E72" s="3">
-        <v>6617500</v>
+        <v>6067600</v>
       </c>
       <c r="F72" s="3">
-        <v>6859600</v>
+        <v>6295900</v>
       </c>
       <c r="G72" s="3">
-        <v>7044000</v>
+        <v>6526300</v>
       </c>
       <c r="H72" s="3">
-        <v>7117100</v>
+        <v>6701700</v>
       </c>
       <c r="I72" s="3">
-        <v>7237100</v>
+        <v>6771300</v>
       </c>
       <c r="J72" s="3">
+        <v>6885400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7111600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7988400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7843800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8826100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8991200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10589300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12978800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5989900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5698600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5812800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5750200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6329100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5928600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6400800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6276400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5918200</v>
+        <v>5654500</v>
       </c>
       <c r="E76" s="3">
-        <v>6009800</v>
+        <v>5630600</v>
       </c>
       <c r="F76" s="3">
-        <v>6226900</v>
+        <v>5717800</v>
       </c>
       <c r="G76" s="3">
-        <v>6424400</v>
+        <v>5924300</v>
       </c>
       <c r="H76" s="3">
-        <v>6268400</v>
+        <v>6112200</v>
       </c>
       <c r="I76" s="3">
+        <v>5963800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6068600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6378600</v>
       </c>
-      <c r="J76" s="3">
-        <v>6378600</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7313200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7413100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8318900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8421800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10186000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13998400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6900300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6673600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6545200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6580500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7180700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7058400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7812900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7692000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>204000</v>
+        <v>159800</v>
       </c>
       <c r="E81" s="3">
-        <v>178900</v>
+        <v>194100</v>
       </c>
       <c r="F81" s="3">
-        <v>284700</v>
+        <v>170200</v>
       </c>
       <c r="G81" s="3">
-        <v>236700</v>
+        <v>270900</v>
       </c>
       <c r="H81" s="3">
-        <v>182200</v>
+        <v>225200</v>
       </c>
       <c r="I81" s="3">
-        <v>240000</v>
+        <v>173300</v>
       </c>
       <c r="J81" s="3">
+        <v>228300</v>
+      </c>
+      <c r="K81" s="3">
         <v>140700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>128700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>94600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>198400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>271700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6918800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>333400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>297600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>277800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>84100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>244600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>337700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>281700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1138600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102500</v>
+        <v>92400</v>
       </c>
       <c r="E83" s="3">
-        <v>94900</v>
+        <v>97600</v>
       </c>
       <c r="F83" s="3">
-        <v>92700</v>
+        <v>90300</v>
       </c>
       <c r="G83" s="3">
-        <v>92700</v>
+        <v>88200</v>
       </c>
       <c r="H83" s="3">
+        <v>88200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>93400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K83" s="3">
         <v>98200</v>
       </c>
-      <c r="I83" s="3">
-        <v>99300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>98200</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>101600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>115600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>66500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>65900</v>
       </c>
       <c r="S83" s="3">
         <v>65900</v>
       </c>
       <c r="T83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="U83" s="3">
         <v>154800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>170500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>178400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>185500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>711300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>193100</v>
+        <v>-105900</v>
       </c>
       <c r="E89" s="3">
-        <v>316400</v>
+        <v>183700</v>
       </c>
       <c r="F89" s="3">
-        <v>183300</v>
+        <v>301000</v>
       </c>
       <c r="G89" s="3">
-        <v>-33800</v>
+        <v>174400</v>
       </c>
       <c r="H89" s="3">
-        <v>669800</v>
+        <v>-32200</v>
       </c>
       <c r="I89" s="3">
-        <v>497500</v>
+        <v>637300</v>
       </c>
       <c r="J89" s="3">
+        <v>473300</v>
+      </c>
+      <c r="K89" s="3">
         <v>336000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-181800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>336200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>377300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>177600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-856400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>287400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>787500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>593500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>466700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>350100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-338100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1515400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-108000</v>
+        <v>-59200</v>
       </c>
       <c r="E91" s="3">
-        <v>-76400</v>
+        <v>-102800</v>
       </c>
       <c r="F91" s="3">
-        <v>-67600</v>
+        <v>-72700</v>
       </c>
       <c r="G91" s="3">
-        <v>-62200</v>
+        <v>-64300</v>
       </c>
       <c r="H91" s="3">
-        <v>-111300</v>
+        <v>-59200</v>
       </c>
       <c r="I91" s="3">
-        <v>-69800</v>
+        <v>-105900</v>
       </c>
       <c r="J91" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-51900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-95400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-68400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-193700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-140700</v>
+        <v>-1101200</v>
       </c>
       <c r="E94" s="3">
-        <v>238900</v>
+        <v>-133900</v>
       </c>
       <c r="F94" s="3">
-        <v>-58900</v>
+        <v>227300</v>
       </c>
       <c r="G94" s="3">
-        <v>-185500</v>
+        <v>-56000</v>
       </c>
       <c r="H94" s="3">
-        <v>-292400</v>
+        <v>-176400</v>
       </c>
       <c r="I94" s="3">
-        <v>-127600</v>
+        <v>-278200</v>
       </c>
       <c r="J94" s="3">
+        <v>-121400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-157100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>115200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>637400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>841600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1430500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3031800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4023000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-365500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-239000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-362400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-71800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-44600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98200</v>
+        <v>-7300</v>
       </c>
       <c r="E96" s="3">
-        <v>-10900</v>
+        <v>-93400</v>
       </c>
       <c r="F96" s="3">
-        <v>-314200</v>
+        <v>-10400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3300</v>
+        <v>-298900</v>
       </c>
       <c r="H96" s="3">
-        <v>-89500</v>
+        <v>-3100</v>
       </c>
       <c r="I96" s="3">
-        <v>1100</v>
+        <v>-85100</v>
       </c>
       <c r="J96" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-310900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-95700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-375300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-159700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-334900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-190000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-235600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-394400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>33800</v>
+        <v>1459300</v>
       </c>
       <c r="E100" s="3">
-        <v>-716700</v>
+        <v>32200</v>
       </c>
       <c r="F100" s="3">
-        <v>-117800</v>
+        <v>-681900</v>
       </c>
       <c r="G100" s="3">
-        <v>-261800</v>
+        <v>-112100</v>
       </c>
       <c r="H100" s="3">
-        <v>-241100</v>
+        <v>-249100</v>
       </c>
       <c r="I100" s="3">
-        <v>-38200</v>
+        <v>-229400</v>
       </c>
       <c r="J100" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K100" s="3">
         <v>325100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-446000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-923600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-268000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-225100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>241600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-77400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-97600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-325400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>11700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-238300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14200</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="G101" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>19600</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>27200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="S101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T101" s="3">
         <v>-4400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-41800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>19600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>27200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>17700</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="R101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-19100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-51600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>17600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100400</v>
+        <v>261600</v>
       </c>
       <c r="E102" s="3">
-        <v>-154900</v>
+        <v>95500</v>
       </c>
       <c r="F102" s="3">
-        <v>6500</v>
+        <v>-147400</v>
       </c>
       <c r="G102" s="3">
-        <v>-463600</v>
+        <v>6200</v>
       </c>
       <c r="H102" s="3">
-        <v>132000</v>
+        <v>-441100</v>
       </c>
       <c r="I102" s="3">
-        <v>306500</v>
+        <v>125600</v>
       </c>
       <c r="J102" s="3">
+        <v>291600</v>
+      </c>
+      <c r="K102" s="3">
         <v>501800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-554400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>117600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-211800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2105600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>127400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-208600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-275600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>276000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>173900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-194100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-459000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>145600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2620700</v>
+        <v>2845600</v>
       </c>
       <c r="E8" s="3">
-        <v>2494100</v>
+        <v>2518400</v>
       </c>
       <c r="F8" s="3">
-        <v>2501300</v>
+        <v>2396800</v>
       </c>
       <c r="G8" s="3">
-        <v>2606200</v>
+        <v>2403700</v>
       </c>
       <c r="H8" s="3">
-        <v>2348800</v>
+        <v>2504500</v>
       </c>
       <c r="I8" s="3">
-        <v>2292700</v>
+        <v>2257100</v>
       </c>
       <c r="J8" s="3">
+        <v>2203300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2362300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2167600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2323700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2617300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2937500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2883400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2584600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2730100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2576300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2685700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2389200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2561500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2714100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2842000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2790100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11073700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1602500</v>
+        <v>1815300</v>
       </c>
       <c r="E9" s="3">
-        <v>1550600</v>
+        <v>1540000</v>
       </c>
       <c r="F9" s="3">
-        <v>1539200</v>
+        <v>1490100</v>
       </c>
       <c r="G9" s="3">
-        <v>1533000</v>
+        <v>1479100</v>
       </c>
       <c r="H9" s="3">
-        <v>1312900</v>
+        <v>1473200</v>
       </c>
       <c r="I9" s="3">
-        <v>1280800</v>
+        <v>1261700</v>
       </c>
       <c r="J9" s="3">
+        <v>1230800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1306700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1210900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1289400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1489600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1688000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1617600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1504600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1605200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1468700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1526200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1379100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1458600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1539400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1574200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1529500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5984100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1018200</v>
+        <v>1030300</v>
       </c>
       <c r="E10" s="3">
-        <v>943500</v>
+        <v>978400</v>
       </c>
       <c r="F10" s="3">
-        <v>962100</v>
+        <v>906600</v>
       </c>
       <c r="G10" s="3">
-        <v>1073200</v>
+        <v>924600</v>
       </c>
       <c r="H10" s="3">
-        <v>1035800</v>
+        <v>1031300</v>
       </c>
       <c r="I10" s="3">
-        <v>1012000</v>
+        <v>995400</v>
       </c>
       <c r="J10" s="3">
+        <v>972500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1055500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>956700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1034300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1127700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1249500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1265800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1080000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1124900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1107600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1159500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1010200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1102900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1174700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1267800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1260700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5089600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,23 +1219,23 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1223,25 +1243,28 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>29200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>14100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2379900</v>
+        <v>2641100</v>
       </c>
       <c r="E17" s="3">
-        <v>2281300</v>
+        <v>2287000</v>
       </c>
       <c r="F17" s="3">
-        <v>2266800</v>
+        <v>2192300</v>
       </c>
       <c r="G17" s="3">
-        <v>2207600</v>
+        <v>2178300</v>
       </c>
       <c r="H17" s="3">
-        <v>2034300</v>
+        <v>2121500</v>
       </c>
       <c r="I17" s="3">
-        <v>2040500</v>
+        <v>1954900</v>
       </c>
       <c r="J17" s="3">
+        <v>1960900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2023900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1941800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2112500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2415400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2635000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2521000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2451000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2649700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2313800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2474900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2270700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2405500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2472900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2546900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2546000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9990300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>240800</v>
+        <v>204500</v>
       </c>
       <c r="E18" s="3">
-        <v>212800</v>
+        <v>231400</v>
       </c>
       <c r="F18" s="3">
-        <v>234600</v>
+        <v>204500</v>
       </c>
       <c r="G18" s="3">
-        <v>398600</v>
+        <v>225400</v>
       </c>
       <c r="H18" s="3">
-        <v>314500</v>
+        <v>383000</v>
       </c>
       <c r="I18" s="3">
-        <v>252200</v>
+        <v>302200</v>
       </c>
       <c r="J18" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K18" s="3">
         <v>338400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>225800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>211100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>202000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>302600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>362300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>133700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>262500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>210800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>118600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>156000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>241200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>295100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>244200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1083400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
-        <v>16600</v>
+        <v>12000</v>
       </c>
       <c r="F20" s="3">
-        <v>7300</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="3">
-        <v>22800</v>
+        <v>7000</v>
       </c>
       <c r="H20" s="3">
-        <v>16600</v>
+        <v>21900</v>
       </c>
       <c r="I20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>8200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8900</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>49400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>12900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>345600</v>
+        <v>297200</v>
       </c>
       <c r="E21" s="3">
-        <v>326900</v>
+        <v>332100</v>
       </c>
       <c r="F21" s="3">
-        <v>332100</v>
+        <v>314200</v>
       </c>
       <c r="G21" s="3">
-        <v>509600</v>
+        <v>319200</v>
       </c>
       <c r="H21" s="3">
-        <v>419300</v>
+        <v>489700</v>
       </c>
       <c r="I21" s="3">
-        <v>353900</v>
+        <v>402900</v>
       </c>
       <c r="J21" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K21" s="3">
         <v>441100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>320700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>322900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>322200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>409100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>475300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>244900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>337800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>276700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>233900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>236700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>313000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>390500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>342800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1820600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16600</v>
+        <v>28900</v>
       </c>
       <c r="E22" s="3">
-        <v>19700</v>
+        <v>16000</v>
       </c>
       <c r="F22" s="3">
-        <v>20800</v>
+        <v>19000</v>
       </c>
       <c r="G22" s="3">
-        <v>18700</v>
+        <v>19900</v>
       </c>
       <c r="H22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="I22" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>17600</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>24200</v>
       </c>
       <c r="T22" s="3">
         <v>24200</v>
       </c>
       <c r="U22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="V22" s="3">
         <v>25800</v>
       </c>
       <c r="W22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="X22" s="3">
         <v>24700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>25800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>111500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>236600</v>
+        <v>181500</v>
       </c>
       <c r="E23" s="3">
-        <v>209700</v>
+        <v>227400</v>
       </c>
       <c r="F23" s="3">
-        <v>221100</v>
+        <v>201500</v>
       </c>
       <c r="G23" s="3">
-        <v>402700</v>
+        <v>212400</v>
       </c>
       <c r="H23" s="3">
-        <v>313400</v>
+        <v>387000</v>
       </c>
       <c r="I23" s="3">
-        <v>242900</v>
+        <v>301200</v>
       </c>
       <c r="J23" s="3">
+        <v>233400</v>
+      </c>
+      <c r="K23" s="3">
         <v>329000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>204000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>204400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>276800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>347000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>124200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>244800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>186700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>143800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>141400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>209800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>285000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>231200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>997700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64300</v>
+        <v>66800</v>
       </c>
       <c r="E24" s="3">
-        <v>2100</v>
+        <v>61800</v>
       </c>
       <c r="F24" s="3">
-        <v>49800</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="3">
-        <v>127700</v>
+        <v>47900</v>
       </c>
       <c r="H24" s="3">
-        <v>75800</v>
+        <v>122700</v>
       </c>
       <c r="I24" s="3">
-        <v>54000</v>
+        <v>72800</v>
       </c>
       <c r="J24" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K24" s="3">
         <v>85100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>92200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>62500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>81200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>73100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>90900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>64000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>70700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>61000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>274700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>172300</v>
+        <v>114700</v>
       </c>
       <c r="E26" s="3">
-        <v>207600</v>
+        <v>165600</v>
       </c>
       <c r="F26" s="3">
-        <v>171300</v>
+        <v>199500</v>
       </c>
       <c r="G26" s="3">
-        <v>275000</v>
+        <v>164600</v>
       </c>
       <c r="H26" s="3">
-        <v>237700</v>
+        <v>264300</v>
       </c>
       <c r="I26" s="3">
-        <v>188900</v>
+        <v>228400</v>
       </c>
       <c r="J26" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K26" s="3">
         <v>243900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>146200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>143400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>214400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>265900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>171700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>135100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>144900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>50500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>145900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>214300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>170200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>723100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159800</v>
+        <v>111700</v>
       </c>
       <c r="E27" s="3">
-        <v>193000</v>
+        <v>153600</v>
       </c>
       <c r="F27" s="3">
-        <v>170200</v>
+        <v>185500</v>
       </c>
       <c r="G27" s="3">
-        <v>263600</v>
+        <v>163600</v>
       </c>
       <c r="H27" s="3">
-        <v>227300</v>
+        <v>253300</v>
       </c>
       <c r="I27" s="3">
-        <v>174400</v>
+        <v>218400</v>
       </c>
       <c r="J27" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K27" s="3">
         <v>233500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>140700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>129800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>87600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>198400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>252900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>76900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>163900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>116400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>121900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>135800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>187400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>145600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>626800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,82 +2239,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>1000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-2100</v>
+        <v>7000</v>
       </c>
       <c r="I29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>18800</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>6877400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>169500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>181200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>155900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>52700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>108800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>150300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>136200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>511800</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12500</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
-        <v>-16600</v>
+        <v>-12000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7300</v>
+        <v>-16000</v>
       </c>
       <c r="G32" s="3">
-        <v>-22800</v>
+        <v>-7000</v>
       </c>
       <c r="H32" s="3">
-        <v>-16600</v>
+        <v>-21900</v>
       </c>
       <c r="I32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="R32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8900</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-49400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159800</v>
+        <v>105700</v>
       </c>
       <c r="E33" s="3">
-        <v>194100</v>
+        <v>153600</v>
       </c>
       <c r="F33" s="3">
-        <v>170200</v>
+        <v>186500</v>
       </c>
       <c r="G33" s="3">
-        <v>270900</v>
+        <v>163600</v>
       </c>
       <c r="H33" s="3">
-        <v>225200</v>
+        <v>260300</v>
       </c>
       <c r="I33" s="3">
-        <v>173300</v>
+        <v>216400</v>
       </c>
       <c r="J33" s="3">
+        <v>166600</v>
+      </c>
+      <c r="K33" s="3">
         <v>228300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>140700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>128700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>94600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>198400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>271700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>76900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6918800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>333400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>297600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>277800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>84100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>244600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>337700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>281700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1138600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159800</v>
+        <v>105700</v>
       </c>
       <c r="E35" s="3">
-        <v>194100</v>
+        <v>153600</v>
       </c>
       <c r="F35" s="3">
-        <v>170200</v>
+        <v>186500</v>
       </c>
       <c r="G35" s="3">
-        <v>270900</v>
+        <v>163600</v>
       </c>
       <c r="H35" s="3">
-        <v>225200</v>
+        <v>260300</v>
       </c>
       <c r="I35" s="3">
-        <v>173300</v>
+        <v>216400</v>
       </c>
       <c r="J35" s="3">
+        <v>166600</v>
+      </c>
+      <c r="K35" s="3">
         <v>228300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>140700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>128700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>94600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>198400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>271700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>76900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6918800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>333400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>297600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>277800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>84100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>244600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>337700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>281700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1138600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,129 +2920,133 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1471700</v>
+        <v>1073200</v>
       </c>
       <c r="E41" s="3">
-        <v>1195700</v>
+        <v>1414300</v>
       </c>
       <c r="F41" s="3">
-        <v>1128200</v>
+        <v>1149000</v>
       </c>
       <c r="G41" s="3">
-        <v>1262100</v>
+        <v>1084200</v>
       </c>
       <c r="H41" s="3">
-        <v>1242400</v>
+        <v>1212800</v>
       </c>
       <c r="I41" s="3">
-        <v>1666900</v>
+        <v>1193900</v>
       </c>
       <c r="J41" s="3">
+        <v>1601800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1558900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1341800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>939400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1483800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>765600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1362300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1578000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3310900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1151900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1051900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1258300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1483300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1218500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1169100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1488400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1736100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1122000</v>
+        <v>780000</v>
       </c>
       <c r="E42" s="3">
-        <v>60200</v>
+        <v>1078200</v>
       </c>
       <c r="F42" s="3">
-        <v>13500</v>
+        <v>57800</v>
       </c>
       <c r="G42" s="3">
-        <v>306200</v>
+        <v>13000</v>
       </c>
       <c r="H42" s="3">
-        <v>312400</v>
+        <v>294200</v>
       </c>
       <c r="I42" s="3">
-        <v>259500</v>
+        <v>300200</v>
       </c>
       <c r="J42" s="3">
+        <v>249400</v>
+      </c>
+      <c r="K42" s="3">
         <v>114200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>161100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1930600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1795200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3195000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2973,8 +3063,8 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2982,315 +3072,330 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2691300</v>
+        <v>2896400</v>
       </c>
       <c r="E43" s="3">
-        <v>2427600</v>
+        <v>2586300</v>
       </c>
       <c r="F43" s="3">
-        <v>2470200</v>
+        <v>2332900</v>
       </c>
       <c r="G43" s="3">
-        <v>2601000</v>
+        <v>2373800</v>
       </c>
       <c r="H43" s="3">
-        <v>2391300</v>
+        <v>2499500</v>
       </c>
       <c r="I43" s="3">
-        <v>2069600</v>
+        <v>2298000</v>
       </c>
       <c r="J43" s="3">
+        <v>1988800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2312400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2390200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2540500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2490100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2944900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2930400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2846100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2532600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2519800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2661600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2446300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2203600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3470300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3574700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3716300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3271400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1922200</v>
+        <v>2112500</v>
       </c>
       <c r="E44" s="3">
-        <v>1712500</v>
+        <v>1847200</v>
       </c>
       <c r="F44" s="3">
-        <v>1623300</v>
+        <v>1645700</v>
       </c>
       <c r="G44" s="3">
-        <v>1453100</v>
+        <v>1559900</v>
       </c>
       <c r="H44" s="3">
-        <v>1352400</v>
+        <v>1396400</v>
       </c>
       <c r="I44" s="3">
-        <v>1202900</v>
+        <v>1299600</v>
       </c>
       <c r="J44" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1177000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1285100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1366200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1329700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1495700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1441100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1450200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1347300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1273700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1286900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1279200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1227500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1826600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1827700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1923900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1798300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>152600</v>
+        <v>150600</v>
       </c>
       <c r="E45" s="3">
-        <v>154600</v>
+        <v>146600</v>
       </c>
       <c r="F45" s="3">
-        <v>102800</v>
+        <v>148600</v>
       </c>
       <c r="G45" s="3">
-        <v>72700</v>
+        <v>98700</v>
       </c>
       <c r="H45" s="3">
-        <v>66400</v>
+        <v>69800</v>
       </c>
       <c r="I45" s="3">
-        <v>57100</v>
+        <v>63800</v>
       </c>
       <c r="J45" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K45" s="3">
         <v>69500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>94100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>95800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>87500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5620000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5451600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5298900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5231800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>75200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>61700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>77500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>69300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7359700</v>
+        <v>7012700</v>
       </c>
       <c r="E46" s="3">
-        <v>5550700</v>
+        <v>7072600</v>
       </c>
       <c r="F46" s="3">
-        <v>5337900</v>
+        <v>5334100</v>
       </c>
       <c r="G46" s="3">
-        <v>5695000</v>
+        <v>5129600</v>
       </c>
       <c r="H46" s="3">
-        <v>5364900</v>
+        <v>5472700</v>
       </c>
       <c r="I46" s="3">
-        <v>5255900</v>
+        <v>5155600</v>
       </c>
       <c r="J46" s="3">
+        <v>5050800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5232100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5148000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4921700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5538200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7226200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7623100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9165100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13737000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10565400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10451900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10282800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10146200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6590600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6633200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7206000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6875000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>184700</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>177500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -3298,11 +3403,11 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>172300</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>165600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3310,198 +3415,207 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>175100</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3098000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2324400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2293800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2390300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2310200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1479900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1880500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1952300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2290100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>844000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2177500</v>
+        <v>2250100</v>
       </c>
       <c r="E48" s="3">
-        <v>2183700</v>
+        <v>2092500</v>
       </c>
       <c r="F48" s="3">
-        <v>2099700</v>
+        <v>2098500</v>
       </c>
       <c r="G48" s="3">
-        <v>2094500</v>
+        <v>2017700</v>
       </c>
       <c r="H48" s="3">
-        <v>2100700</v>
+        <v>2012800</v>
       </c>
       <c r="I48" s="3">
         <v>2018700</v>
       </c>
       <c r="J48" s="3">
+        <v>1939900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1986500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2158900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2258200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2421200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2497800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2412800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2539700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2067700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1880700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1888600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1903900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2055500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4525000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4558600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4927700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4918300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3857900</v>
+        <v>4285800</v>
       </c>
       <c r="E49" s="3">
-        <v>3829900</v>
+        <v>3707300</v>
       </c>
       <c r="F49" s="3">
-        <v>3783100</v>
+        <v>3680400</v>
       </c>
       <c r="G49" s="3">
-        <v>3765500</v>
+        <v>3635500</v>
       </c>
       <c r="H49" s="3">
-        <v>3765500</v>
+        <v>3618600</v>
       </c>
       <c r="I49" s="3">
-        <v>3688700</v>
+        <v>3618600</v>
       </c>
       <c r="J49" s="3">
+        <v>3544800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3656500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3897800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4024100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4231900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4168600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3996200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4077500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4090500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3714900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3720000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3711200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3824900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4703400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4747100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5146000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5180000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,49 +3765,52 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2849000</v>
+        <v>2594200</v>
       </c>
       <c r="E52" s="3">
-        <v>2654900</v>
+        <v>2737900</v>
       </c>
       <c r="F52" s="3">
-        <v>2746300</v>
+        <v>2551300</v>
       </c>
       <c r="G52" s="3">
-        <v>2869800</v>
+        <v>2639100</v>
       </c>
       <c r="H52" s="3">
-        <v>2670500</v>
+        <v>2757800</v>
       </c>
       <c r="I52" s="3">
-        <v>2540800</v>
+        <v>2566300</v>
       </c>
       <c r="J52" s="3">
+        <v>2441600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2875000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3204000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3667300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2791300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3312400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
@@ -3704,11 +3824,11 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>645100</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
@@ -3716,14 +3836,17 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16244200</v>
+        <v>16142900</v>
       </c>
       <c r="E54" s="3">
-        <v>14404000</v>
+        <v>15610300</v>
       </c>
       <c r="F54" s="3">
-        <v>13967000</v>
+        <v>13841900</v>
       </c>
       <c r="G54" s="3">
-        <v>14424700</v>
+        <v>13422000</v>
       </c>
       <c r="H54" s="3">
-        <v>13901600</v>
+        <v>13861900</v>
       </c>
       <c r="I54" s="3">
-        <v>13676400</v>
+        <v>13359200</v>
       </c>
       <c r="J54" s="3">
+        <v>13142700</v>
+      </c>
+      <c r="K54" s="3">
         <v>13750100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14408700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14871400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15157700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17205000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16979000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18880300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22219600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18454800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18450800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18208100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18151600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17699400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17891300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19569800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19011000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3204000</v>
+        <v>3283400</v>
       </c>
       <c r="E57" s="3">
-        <v>3059700</v>
+        <v>3079000</v>
       </c>
       <c r="F57" s="3">
-        <v>3090900</v>
+        <v>2940300</v>
       </c>
       <c r="G57" s="3">
-        <v>2980800</v>
+        <v>2970300</v>
       </c>
       <c r="H57" s="3">
-        <v>2838700</v>
+        <v>2864500</v>
       </c>
       <c r="I57" s="3">
-        <v>2677800</v>
+        <v>2727900</v>
       </c>
       <c r="J57" s="3">
+        <v>2573300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2514800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2521100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2620600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2808800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3006100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2999800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3069600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3128800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2872000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2939300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2889900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3134800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3987600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3949400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4215200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4079000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2084100</v>
+        <v>2313000</v>
       </c>
       <c r="E58" s="3">
-        <v>1615000</v>
+        <v>2002800</v>
       </c>
       <c r="F58" s="3">
-        <v>1124000</v>
+        <v>1552000</v>
       </c>
       <c r="G58" s="3">
-        <v>630000</v>
+        <v>1080200</v>
       </c>
       <c r="H58" s="3">
-        <v>146300</v>
+        <v>605400</v>
       </c>
       <c r="I58" s="3">
-        <v>123500</v>
+        <v>140600</v>
       </c>
       <c r="J58" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K58" s="3">
         <v>173300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>333100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>197300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>857500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>834100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>839900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>708600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1598300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1698600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1585500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1091700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>151500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>344500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>495300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>102100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>389200</v>
+        <v>404900</v>
       </c>
       <c r="E59" s="3">
-        <v>378800</v>
+        <v>374000</v>
       </c>
       <c r="F59" s="3">
-        <v>359100</v>
+        <v>364100</v>
       </c>
       <c r="G59" s="3">
-        <v>385100</v>
+        <v>345100</v>
       </c>
       <c r="H59" s="3">
-        <v>368500</v>
+        <v>370000</v>
       </c>
       <c r="I59" s="3">
-        <v>408900</v>
+        <v>354100</v>
       </c>
       <c r="J59" s="3">
+        <v>393000</v>
+      </c>
+      <c r="K59" s="3">
         <v>423500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>435300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>444900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>498500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>539000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>509400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>508600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>515700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2787800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2813100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2820800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2866700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>570000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>658600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>743000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>764200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5677300</v>
+        <v>6001400</v>
       </c>
       <c r="E60" s="3">
-        <v>5053500</v>
+        <v>5455800</v>
       </c>
       <c r="F60" s="3">
-        <v>4574000</v>
+        <v>4856300</v>
       </c>
       <c r="G60" s="3">
-        <v>3995900</v>
+        <v>4395500</v>
       </c>
       <c r="H60" s="3">
-        <v>3353500</v>
+        <v>3840000</v>
       </c>
       <c r="I60" s="3">
-        <v>3210200</v>
+        <v>3222600</v>
       </c>
       <c r="J60" s="3">
+        <v>3085000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3111600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3157100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3398600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3504600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4402600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4343300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4418100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4353100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7258100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7451000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7296200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7093200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4709000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4952500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5453500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4945300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3298400</v>
+        <v>3395100</v>
       </c>
       <c r="E61" s="3">
-        <v>2069600</v>
+        <v>3169700</v>
       </c>
       <c r="F61" s="3">
-        <v>2075800</v>
+        <v>1988800</v>
       </c>
       <c r="G61" s="3">
+        <v>1994800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2753800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2757800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2763800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2865600</v>
       </c>
-      <c r="H61" s="3">
-        <v>2869800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2876000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2865600</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3031600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2298800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2383900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2496500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2397500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2442700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2128000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2544200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2524300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2523200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2580600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2964300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2967700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3107100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3103600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1391800</v>
+        <v>1326500</v>
       </c>
       <c r="E62" s="3">
-        <v>1431300</v>
+        <v>1337500</v>
       </c>
       <c r="F62" s="3">
-        <v>1375200</v>
+        <v>1375400</v>
       </c>
       <c r="G62" s="3">
-        <v>1413600</v>
+        <v>1321600</v>
       </c>
       <c r="H62" s="3">
-        <v>1343000</v>
+        <v>1358500</v>
       </c>
       <c r="I62" s="3">
-        <v>1414700</v>
+        <v>1290600</v>
       </c>
       <c r="J62" s="3">
+        <v>1359500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1492500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1614500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1619100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1601700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1707600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1559900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1580400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1498700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1280400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1300000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1349400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1401400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2330400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2374100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2616400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2705600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10589700</v>
+        <v>10952400</v>
       </c>
       <c r="E66" s="3">
-        <v>8773400</v>
+        <v>10176500</v>
       </c>
       <c r="F66" s="3">
-        <v>8249200</v>
+        <v>8431000</v>
       </c>
       <c r="G66" s="3">
-        <v>8500400</v>
+        <v>7927300</v>
       </c>
       <c r="H66" s="3">
-        <v>7789400</v>
+        <v>8168700</v>
       </c>
       <c r="I66" s="3">
-        <v>7712600</v>
+        <v>7485500</v>
       </c>
       <c r="J66" s="3">
+        <v>7411700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7681500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8030200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7558200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7744600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8886100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8557100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8694300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8221200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11554500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11777100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11663000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11571100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10518700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10832800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11756900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11319000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6026000</v>
+        <v>5476700</v>
       </c>
       <c r="E72" s="3">
-        <v>6067600</v>
+        <v>5790900</v>
       </c>
       <c r="F72" s="3">
-        <v>6295900</v>
+        <v>5830800</v>
       </c>
       <c r="G72" s="3">
-        <v>6526300</v>
+        <v>6050200</v>
       </c>
       <c r="H72" s="3">
-        <v>6701700</v>
+        <v>6271700</v>
       </c>
       <c r="I72" s="3">
-        <v>6771300</v>
+        <v>6440200</v>
       </c>
       <c r="J72" s="3">
+        <v>6507000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6885400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7111600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7988400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7843800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8826100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8991200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10589300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12978800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5989900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5698600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5812800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5750200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6329100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5928600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6400800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6276400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5654500</v>
+        <v>5190500</v>
       </c>
       <c r="E76" s="3">
-        <v>5630600</v>
+        <v>5433800</v>
       </c>
       <c r="F76" s="3">
-        <v>5717800</v>
+        <v>5410900</v>
       </c>
       <c r="G76" s="3">
-        <v>5924300</v>
+        <v>5494700</v>
       </c>
       <c r="H76" s="3">
-        <v>6112200</v>
+        <v>5693200</v>
       </c>
       <c r="I76" s="3">
-        <v>5963800</v>
+        <v>5873700</v>
       </c>
       <c r="J76" s="3">
+        <v>5731100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6068600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6378600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7313200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7413100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8318900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8421800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10186000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13998400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6900300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6673600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6545200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6580500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7180700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7058400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7812900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7692000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159800</v>
+        <v>105700</v>
       </c>
       <c r="E81" s="3">
-        <v>194100</v>
+        <v>153600</v>
       </c>
       <c r="F81" s="3">
-        <v>170200</v>
+        <v>186500</v>
       </c>
       <c r="G81" s="3">
-        <v>270900</v>
+        <v>163600</v>
       </c>
       <c r="H81" s="3">
-        <v>225200</v>
+        <v>260300</v>
       </c>
       <c r="I81" s="3">
-        <v>173300</v>
+        <v>216400</v>
       </c>
       <c r="J81" s="3">
+        <v>166600</v>
+      </c>
+      <c r="K81" s="3">
         <v>228300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>140700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>128700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>94600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>198400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>271700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>76900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6918800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>333400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>297600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>277800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>84100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>244600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>337700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>281700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1138600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>92400</v>
+        <v>86800</v>
       </c>
       <c r="E83" s="3">
-        <v>97600</v>
+        <v>88800</v>
       </c>
       <c r="F83" s="3">
-        <v>90300</v>
+        <v>93800</v>
       </c>
       <c r="G83" s="3">
-        <v>88200</v>
+        <v>86800</v>
       </c>
       <c r="H83" s="3">
-        <v>88200</v>
+        <v>84800</v>
       </c>
       <c r="I83" s="3">
-        <v>93400</v>
+        <v>84800</v>
       </c>
       <c r="J83" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K83" s="3">
         <v>94400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>98200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>101600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>115600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>106600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>66500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>65900</v>
       </c>
       <c r="T83" s="3">
         <v>65900</v>
       </c>
       <c r="U83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="V83" s="3">
         <v>154800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>170500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>178400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>185500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>711300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-105900</v>
+        <v>-51900</v>
       </c>
       <c r="E89" s="3">
-        <v>183700</v>
+        <v>-101700</v>
       </c>
       <c r="F89" s="3">
-        <v>301000</v>
+        <v>176500</v>
       </c>
       <c r="G89" s="3">
-        <v>174400</v>
+        <v>289200</v>
       </c>
       <c r="H89" s="3">
-        <v>-32200</v>
+        <v>167600</v>
       </c>
       <c r="I89" s="3">
-        <v>637300</v>
+        <v>-30900</v>
       </c>
       <c r="J89" s="3">
+        <v>612400</v>
+      </c>
+      <c r="K89" s="3">
         <v>473300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>336000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-181800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>336200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>377300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>177600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-856400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>287400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>787500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>593500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>466700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>350100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-338100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1515400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-59200</v>
+        <v>-66800</v>
       </c>
       <c r="E91" s="3">
-        <v>-102800</v>
+        <v>-56900</v>
       </c>
       <c r="F91" s="3">
-        <v>-72700</v>
+        <v>-98700</v>
       </c>
       <c r="G91" s="3">
-        <v>-64300</v>
+        <v>-69800</v>
       </c>
       <c r="H91" s="3">
-        <v>-59200</v>
+        <v>-61800</v>
       </c>
       <c r="I91" s="3">
-        <v>-105900</v>
+        <v>-56900</v>
       </c>
       <c r="J91" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-66400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-51900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-95400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-68400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-193700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1101200</v>
+        <v>-314200</v>
       </c>
       <c r="E94" s="3">
-        <v>-133900</v>
+        <v>-1058200</v>
       </c>
       <c r="F94" s="3">
-        <v>227300</v>
+        <v>-128700</v>
       </c>
       <c r="G94" s="3">
-        <v>-56000</v>
+        <v>218400</v>
       </c>
       <c r="H94" s="3">
-        <v>-176400</v>
+        <v>-53900</v>
       </c>
       <c r="I94" s="3">
-        <v>-278200</v>
+        <v>-169600</v>
       </c>
       <c r="J94" s="3">
+        <v>-267300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-121400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>115200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>637400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>841600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1430500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3031800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4023000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-365500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-239000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-362400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-71800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-44600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7300</v>
+        <v>-355100</v>
       </c>
       <c r="E96" s="3">
-        <v>-93400</v>
+        <v>-7000</v>
       </c>
       <c r="F96" s="3">
-        <v>-10400</v>
+        <v>-89800</v>
       </c>
       <c r="G96" s="3">
-        <v>-298900</v>
+        <v>-10000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3100</v>
+        <v>-287300</v>
       </c>
       <c r="I96" s="3">
-        <v>-85100</v>
+        <v>-3000</v>
       </c>
       <c r="J96" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="K96" s="3">
         <v>1000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-310900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-95700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-375300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-159700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-334900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-190000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-235600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-394400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1459300</v>
+        <v>-15000</v>
       </c>
       <c r="E100" s="3">
-        <v>32200</v>
+        <v>1402300</v>
       </c>
       <c r="F100" s="3">
-        <v>-681900</v>
+        <v>30900</v>
       </c>
       <c r="G100" s="3">
-        <v>-112100</v>
+        <v>-655300</v>
       </c>
       <c r="H100" s="3">
-        <v>-249100</v>
+        <v>-107700</v>
       </c>
       <c r="I100" s="3">
-        <v>-229400</v>
+        <v>-239400</v>
       </c>
       <c r="J100" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-36300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>325100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-446000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-923600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-268000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-225100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>241600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-77400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-97600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-325400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>11700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-238300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>16000</v>
       </c>
       <c r="E101" s="3">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3">
-        <v>6200</v>
+        <v>13000</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3">
-        <v>16600</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-4200</v>
+        <v>16000</v>
       </c>
       <c r="J101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-23900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-19100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-51600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>17600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>261600</v>
+        <v>-365000</v>
       </c>
       <c r="E102" s="3">
-        <v>95500</v>
+        <v>251300</v>
       </c>
       <c r="F102" s="3">
-        <v>-147400</v>
+        <v>91800</v>
       </c>
       <c r="G102" s="3">
-        <v>6200</v>
+        <v>-141600</v>
       </c>
       <c r="H102" s="3">
-        <v>-441100</v>
+        <v>6000</v>
       </c>
       <c r="I102" s="3">
-        <v>125600</v>
+        <v>-423900</v>
       </c>
       <c r="J102" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K102" s="3">
         <v>291600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>501800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-554400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>117600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-211800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2105600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>127400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-208600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-275600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>276000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>173900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-194100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-459000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>145600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2845600</v>
+        <v>2921500</v>
       </c>
       <c r="E8" s="3">
-        <v>2518400</v>
+        <v>2912300</v>
       </c>
       <c r="F8" s="3">
-        <v>2396800</v>
+        <v>2577500</v>
       </c>
       <c r="G8" s="3">
-        <v>2403700</v>
+        <v>2453000</v>
       </c>
       <c r="H8" s="3">
-        <v>2504500</v>
+        <v>2460100</v>
       </c>
       <c r="I8" s="3">
-        <v>2257100</v>
+        <v>2563200</v>
       </c>
       <c r="J8" s="3">
+        <v>2310100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2203300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2362300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2167600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2323700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2617300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2937500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2883400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2584600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2730100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2576300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2685700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2389200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2561500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2714100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2842000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2790100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11073700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1815300</v>
+        <v>1923200</v>
       </c>
       <c r="E9" s="3">
-        <v>1540000</v>
+        <v>1857900</v>
       </c>
       <c r="F9" s="3">
-        <v>1490100</v>
+        <v>1576100</v>
       </c>
       <c r="G9" s="3">
-        <v>1479100</v>
+        <v>1525100</v>
       </c>
       <c r="H9" s="3">
-        <v>1473200</v>
+        <v>1513800</v>
       </c>
       <c r="I9" s="3">
-        <v>1261700</v>
+        <v>1507700</v>
       </c>
       <c r="J9" s="3">
+        <v>1291300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1230800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1306700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1210900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1289400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1489600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1688000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1617600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1504600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1605200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1468700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1526200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1379100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1458600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1539400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1574200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1529500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5984100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1030300</v>
+        <v>998300</v>
       </c>
       <c r="E10" s="3">
-        <v>978400</v>
+        <v>1054500</v>
       </c>
       <c r="F10" s="3">
-        <v>906600</v>
+        <v>1001400</v>
       </c>
       <c r="G10" s="3">
-        <v>924600</v>
+        <v>927900</v>
       </c>
       <c r="H10" s="3">
-        <v>1031300</v>
+        <v>946300</v>
       </c>
       <c r="I10" s="3">
-        <v>995400</v>
+        <v>1055500</v>
       </c>
       <c r="J10" s="3">
+        <v>1018800</v>
+      </c>
+      <c r="K10" s="3">
         <v>972500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1055500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>956700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1034300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1127700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1249500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1265800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1080000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1124900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1107600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1159500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1010200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1102900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1174700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1267800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1260700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5089600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1222,23 +1242,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1246,25 +1266,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>14100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2641100</v>
+        <v>2750000</v>
       </c>
       <c r="E17" s="3">
-        <v>2287000</v>
+        <v>2703100</v>
       </c>
       <c r="F17" s="3">
-        <v>2192300</v>
+        <v>2340700</v>
       </c>
       <c r="G17" s="3">
-        <v>2178300</v>
+        <v>2243700</v>
       </c>
       <c r="H17" s="3">
-        <v>2121500</v>
+        <v>2229400</v>
       </c>
       <c r="I17" s="3">
-        <v>1954900</v>
+        <v>2171200</v>
       </c>
       <c r="J17" s="3">
+        <v>2000800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1960900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2023900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1941800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2112500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2415400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2635000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2521000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2451000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2649700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2313800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2474900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2270700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2405500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2472900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2546900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2546000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9990300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>204500</v>
+        <v>171500</v>
       </c>
       <c r="E18" s="3">
-        <v>231400</v>
+        <v>209300</v>
       </c>
       <c r="F18" s="3">
-        <v>204500</v>
+        <v>236800</v>
       </c>
       <c r="G18" s="3">
-        <v>225400</v>
+        <v>209300</v>
       </c>
       <c r="H18" s="3">
-        <v>383000</v>
+        <v>230700</v>
       </c>
       <c r="I18" s="3">
-        <v>302200</v>
+        <v>392000</v>
       </c>
       <c r="J18" s="3">
+        <v>309300</v>
+      </c>
+      <c r="K18" s="3">
         <v>242400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>338400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>225800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>211100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>202000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>302600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>362300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>133700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>262500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>210800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>118600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>156000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>241200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>295100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>244200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1083400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>12000</v>
+        <v>6100</v>
       </c>
       <c r="F20" s="3">
-        <v>16000</v>
+        <v>12200</v>
       </c>
       <c r="G20" s="3">
-        <v>7000</v>
+        <v>16300</v>
       </c>
       <c r="H20" s="3">
-        <v>21900</v>
+        <v>7100</v>
       </c>
       <c r="I20" s="3">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="J20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8900</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>49400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>12900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>297200</v>
+        <v>269500</v>
       </c>
       <c r="E21" s="3">
-        <v>332100</v>
+        <v>304200</v>
       </c>
       <c r="F21" s="3">
-        <v>314200</v>
+        <v>339900</v>
       </c>
       <c r="G21" s="3">
-        <v>319200</v>
+        <v>321600</v>
       </c>
       <c r="H21" s="3">
-        <v>489700</v>
+        <v>326700</v>
       </c>
       <c r="I21" s="3">
-        <v>402900</v>
+        <v>501200</v>
       </c>
       <c r="J21" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K21" s="3">
         <v>340100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>441100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>320700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>322900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>322200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>409100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>475300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>244900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>158500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>337800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>276700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>233900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>236700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>313000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>390500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>342800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1820600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28900</v>
+        <v>26500</v>
       </c>
       <c r="E22" s="3">
-        <v>16000</v>
+        <v>29600</v>
       </c>
       <c r="F22" s="3">
-        <v>19000</v>
+        <v>16300</v>
       </c>
       <c r="G22" s="3">
-        <v>19900</v>
+        <v>19400</v>
       </c>
       <c r="H22" s="3">
-        <v>18000</v>
+        <v>20400</v>
       </c>
       <c r="I22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
-        <v>17000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>24200</v>
       </c>
       <c r="U22" s="3">
         <v>24200</v>
       </c>
       <c r="V22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="W22" s="3">
         <v>25800</v>
       </c>
       <c r="X22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>24700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>25800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>111500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181500</v>
+        <v>143900</v>
       </c>
       <c r="E23" s="3">
-        <v>227400</v>
+        <v>185800</v>
       </c>
       <c r="F23" s="3">
-        <v>201500</v>
+        <v>232700</v>
       </c>
       <c r="G23" s="3">
-        <v>212400</v>
+        <v>206200</v>
       </c>
       <c r="H23" s="3">
-        <v>387000</v>
+        <v>217400</v>
       </c>
       <c r="I23" s="3">
-        <v>301200</v>
+        <v>396100</v>
       </c>
       <c r="J23" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K23" s="3">
         <v>233400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>329000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>204000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>204400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>185600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>276800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>347000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>124200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>60300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>244800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>186700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>143800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>141400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>209800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>285000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>231200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>997700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66800</v>
+        <v>52100</v>
       </c>
       <c r="E24" s="3">
-        <v>61800</v>
+        <v>68400</v>
       </c>
       <c r="F24" s="3">
+        <v>63300</v>
+      </c>
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
-        <v>47900</v>
-      </c>
       <c r="H24" s="3">
-        <v>122700</v>
+        <v>49000</v>
       </c>
       <c r="I24" s="3">
-        <v>72800</v>
+        <v>125600</v>
       </c>
       <c r="J24" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K24" s="3">
         <v>51900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>61000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>92200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>62500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>81200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>73100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>90900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>64000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>70700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>61000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>274700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>114700</v>
+        <v>91900</v>
       </c>
       <c r="E26" s="3">
-        <v>165600</v>
+        <v>117400</v>
       </c>
       <c r="F26" s="3">
-        <v>199500</v>
+        <v>169500</v>
       </c>
       <c r="G26" s="3">
-        <v>164600</v>
+        <v>204200</v>
       </c>
       <c r="H26" s="3">
-        <v>264300</v>
+        <v>168400</v>
       </c>
       <c r="I26" s="3">
-        <v>228400</v>
+        <v>270500</v>
       </c>
       <c r="J26" s="3">
+        <v>233800</v>
+      </c>
+      <c r="K26" s="3">
         <v>181500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>243900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>265900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>171700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>135100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>144900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>50500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>145900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>214300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>170200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>723100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>111700</v>
+        <v>89800</v>
       </c>
       <c r="E27" s="3">
-        <v>153600</v>
+        <v>114300</v>
       </c>
       <c r="F27" s="3">
-        <v>185500</v>
+        <v>157200</v>
       </c>
       <c r="G27" s="3">
-        <v>163600</v>
+        <v>189900</v>
       </c>
       <c r="H27" s="3">
-        <v>253300</v>
+        <v>167400</v>
       </c>
       <c r="I27" s="3">
-        <v>218400</v>
+        <v>259300</v>
       </c>
       <c r="J27" s="3">
+        <v>223600</v>
+      </c>
+      <c r="K27" s="3">
         <v>167600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>233500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>140700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>129800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>87600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>198400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>252900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>76900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>163900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>116400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>121900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>31400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>135800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>187400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>145600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>626800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2300,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-6000</v>
+        <v>-4100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>1000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O29" s="3">
         <v>7000</v>
       </c>
-      <c r="I29" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N29" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>18800</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>6877400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>169500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>181200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>155900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>52700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>108800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>150300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>136200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>511800</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>-12000</v>
+        <v>-6100</v>
       </c>
       <c r="F32" s="3">
-        <v>-16000</v>
+        <v>-12200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7000</v>
+        <v>-16300</v>
       </c>
       <c r="H32" s="3">
-        <v>-21900</v>
+        <v>-7100</v>
       </c>
       <c r="I32" s="3">
-        <v>-16000</v>
+        <v>-22500</v>
       </c>
       <c r="J32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8900</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-49400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105700</v>
+        <v>85700</v>
       </c>
       <c r="E33" s="3">
-        <v>153600</v>
+        <v>108200</v>
       </c>
       <c r="F33" s="3">
-        <v>186500</v>
+        <v>157200</v>
       </c>
       <c r="G33" s="3">
-        <v>163600</v>
+        <v>190900</v>
       </c>
       <c r="H33" s="3">
-        <v>260300</v>
+        <v>167400</v>
       </c>
       <c r="I33" s="3">
-        <v>216400</v>
+        <v>266400</v>
       </c>
       <c r="J33" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K33" s="3">
         <v>166600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>128700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>94600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>198400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>271700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>76900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6918800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>333400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>297600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>277800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>84100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>244600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>337700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>281700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1138600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105700</v>
+        <v>85700</v>
       </c>
       <c r="E35" s="3">
-        <v>153600</v>
+        <v>108200</v>
       </c>
       <c r="F35" s="3">
-        <v>186500</v>
+        <v>157200</v>
       </c>
       <c r="G35" s="3">
-        <v>163600</v>
+        <v>190900</v>
       </c>
       <c r="H35" s="3">
-        <v>260300</v>
+        <v>167400</v>
       </c>
       <c r="I35" s="3">
-        <v>216400</v>
+        <v>266400</v>
       </c>
       <c r="J35" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K35" s="3">
         <v>166600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>128700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>94600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>198400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>271700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>76900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6918800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>333400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>297600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>277800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>84100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>244600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>337700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>281700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1138600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,135 +3007,139 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1073200</v>
+        <v>1374000</v>
       </c>
       <c r="E41" s="3">
-        <v>1414300</v>
+        <v>1098400</v>
       </c>
       <c r="F41" s="3">
-        <v>1149000</v>
+        <v>1447500</v>
       </c>
       <c r="G41" s="3">
-        <v>1084200</v>
+        <v>1176000</v>
       </c>
       <c r="H41" s="3">
-        <v>1212800</v>
+        <v>1109600</v>
       </c>
       <c r="I41" s="3">
-        <v>1193900</v>
+        <v>1241300</v>
       </c>
       <c r="J41" s="3">
+        <v>1221900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1601800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1558900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1341800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>939400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1483800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>765600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1362300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1578000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3310900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1151900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1051900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1258300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1483300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1218500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1169100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1488400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1736100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>780000</v>
+        <v>23500</v>
       </c>
       <c r="E42" s="3">
-        <v>1078200</v>
+        <v>798300</v>
       </c>
       <c r="F42" s="3">
-        <v>57800</v>
+        <v>1103500</v>
       </c>
       <c r="G42" s="3">
-        <v>13000</v>
+        <v>59200</v>
       </c>
       <c r="H42" s="3">
-        <v>294200</v>
+        <v>13300</v>
       </c>
       <c r="I42" s="3">
-        <v>300200</v>
+        <v>301100</v>
       </c>
       <c r="J42" s="3">
+        <v>307300</v>
+      </c>
+      <c r="K42" s="3">
         <v>249400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>161100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1930600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1795200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3195000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3066,8 +3156,8 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3075,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2896400</v>
+        <v>2940900</v>
       </c>
       <c r="E43" s="3">
-        <v>2586300</v>
+        <v>2964400</v>
       </c>
       <c r="F43" s="3">
-        <v>2332900</v>
+        <v>2646900</v>
       </c>
       <c r="G43" s="3">
-        <v>2373800</v>
+        <v>2387700</v>
       </c>
       <c r="H43" s="3">
-        <v>2499500</v>
+        <v>2429500</v>
       </c>
       <c r="I43" s="3">
-        <v>2298000</v>
+        <v>2558100</v>
       </c>
       <c r="J43" s="3">
+        <v>2351900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1988800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2312400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2390200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2540500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2490100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2944900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2930400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2846100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2532600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2519800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2661600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2446300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2203600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3470300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3574700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3716300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3271400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2112500</v>
+        <v>2097700</v>
       </c>
       <c r="E44" s="3">
-        <v>1847200</v>
+        <v>2162100</v>
       </c>
       <c r="F44" s="3">
-        <v>1645700</v>
+        <v>1890500</v>
       </c>
       <c r="G44" s="3">
-        <v>1559900</v>
+        <v>1684300</v>
       </c>
       <c r="H44" s="3">
-        <v>1396400</v>
+        <v>1596500</v>
       </c>
       <c r="I44" s="3">
-        <v>1299600</v>
+        <v>1429100</v>
       </c>
       <c r="J44" s="3">
+        <v>1330100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1156000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1177000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1285100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1366200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1329700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1495700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1441100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1450200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1347300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1273700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1286900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1279200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1227500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1826600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1827700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1923900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1798300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150600</v>
+        <v>139800</v>
       </c>
       <c r="E45" s="3">
-        <v>146600</v>
+        <v>154100</v>
       </c>
       <c r="F45" s="3">
-        <v>148600</v>
+        <v>150100</v>
       </c>
       <c r="G45" s="3">
-        <v>98700</v>
+        <v>152100</v>
       </c>
       <c r="H45" s="3">
-        <v>69800</v>
+        <v>101100</v>
       </c>
       <c r="I45" s="3">
-        <v>63800</v>
+        <v>71500</v>
       </c>
       <c r="J45" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K45" s="3">
         <v>54900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>76400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>73500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>94100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>95800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>87500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5620000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5451600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5298900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5231800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>75200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>61700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>77500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>69300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7012700</v>
+        <v>6576000</v>
       </c>
       <c r="E46" s="3">
-        <v>7072600</v>
+        <v>7177200</v>
       </c>
       <c r="F46" s="3">
-        <v>5334100</v>
+        <v>7238500</v>
       </c>
       <c r="G46" s="3">
-        <v>5129600</v>
+        <v>5459200</v>
       </c>
       <c r="H46" s="3">
-        <v>5472700</v>
+        <v>5250000</v>
       </c>
       <c r="I46" s="3">
-        <v>5155600</v>
+        <v>5601100</v>
       </c>
       <c r="J46" s="3">
+        <v>5276500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5050800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5232100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5148000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4921700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5538200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7226200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7623100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9165100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13737000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10565400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10451900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10282800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10146200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6590600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6633200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7206000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6875000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3394,11 +3499,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>177500</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>181700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3406,11 +3511,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>165600</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3418,204 +3523,213 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>175100</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>3098000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2324400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2293800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2390300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2310200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1479900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1880500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1952300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2290100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>844000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2250100</v>
+        <v>2321300</v>
       </c>
       <c r="E48" s="3">
-        <v>2092500</v>
+        <v>2302900</v>
       </c>
       <c r="F48" s="3">
-        <v>2098500</v>
+        <v>2141600</v>
       </c>
       <c r="G48" s="3">
-        <v>2017700</v>
+        <v>2147800</v>
       </c>
       <c r="H48" s="3">
-        <v>2012800</v>
+        <v>2065100</v>
       </c>
       <c r="I48" s="3">
-        <v>2018700</v>
+        <v>2060000</v>
       </c>
       <c r="J48" s="3">
+        <v>2066100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1939900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1986500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2158900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2258200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2421200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2497800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2412800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2539700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2067700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1880700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1888600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1903900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2055500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4525000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4558600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4927700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4918300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4285800</v>
+        <v>4368000</v>
       </c>
       <c r="E49" s="3">
-        <v>3707300</v>
+        <v>4386400</v>
       </c>
       <c r="F49" s="3">
-        <v>3680400</v>
+        <v>3794300</v>
       </c>
       <c r="G49" s="3">
-        <v>3635500</v>
+        <v>3766800</v>
       </c>
       <c r="H49" s="3">
-        <v>3618600</v>
+        <v>3720800</v>
       </c>
       <c r="I49" s="3">
-        <v>3618600</v>
+        <v>3703500</v>
       </c>
       <c r="J49" s="3">
+        <v>3703500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3544800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3656500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3897800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4024100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4231900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4168600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3996200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4077500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4090500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3714900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3720000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3711200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3824900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4703400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4747100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5146000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5180000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,52 +3885,55 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2594200</v>
+        <v>2594900</v>
       </c>
       <c r="E52" s="3">
-        <v>2737900</v>
+        <v>2655100</v>
       </c>
       <c r="F52" s="3">
-        <v>2551300</v>
+        <v>2802100</v>
       </c>
       <c r="G52" s="3">
-        <v>2639100</v>
+        <v>2611200</v>
       </c>
       <c r="H52" s="3">
-        <v>2757800</v>
+        <v>2701000</v>
       </c>
       <c r="I52" s="3">
-        <v>2566300</v>
+        <v>2822500</v>
       </c>
       <c r="J52" s="3">
+        <v>2626500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2441600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2875000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3204000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3667300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2791300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3312400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
@@ -3827,11 +3947,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>645100</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
@@ -3839,14 +3959,17 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1193800</v>
       </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16142900</v>
+        <v>15860200</v>
       </c>
       <c r="E54" s="3">
-        <v>15610300</v>
+        <v>16521600</v>
       </c>
       <c r="F54" s="3">
-        <v>13841900</v>
+        <v>15976500</v>
       </c>
       <c r="G54" s="3">
-        <v>13422000</v>
+        <v>14166700</v>
       </c>
       <c r="H54" s="3">
-        <v>13861900</v>
+        <v>13736900</v>
       </c>
       <c r="I54" s="3">
-        <v>13359200</v>
+        <v>14187100</v>
       </c>
       <c r="J54" s="3">
+        <v>13672600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13142700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13750100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14408700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14871400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15157700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17205000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16979000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18880300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22219600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18454800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18450800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18208100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18151600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17699400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17891300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19569800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19011000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3283400</v>
+        <v>3231900</v>
       </c>
       <c r="E57" s="3">
-        <v>3079000</v>
+        <v>3360500</v>
       </c>
       <c r="F57" s="3">
-        <v>2940300</v>
+        <v>3151200</v>
       </c>
       <c r="G57" s="3">
-        <v>2970300</v>
+        <v>3009300</v>
       </c>
       <c r="H57" s="3">
-        <v>2864500</v>
+        <v>3039900</v>
       </c>
       <c r="I57" s="3">
-        <v>2727900</v>
+        <v>2931700</v>
       </c>
       <c r="J57" s="3">
+        <v>2791900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2573300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2514800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2521100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2620600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2808800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3006100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2999800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3069600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3128800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2872000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2939300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2889900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3134800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3987600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3949400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4215200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4079000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2313000</v>
+        <v>1993600</v>
       </c>
       <c r="E58" s="3">
-        <v>2002800</v>
+        <v>2367200</v>
       </c>
       <c r="F58" s="3">
-        <v>1552000</v>
+        <v>2049800</v>
       </c>
       <c r="G58" s="3">
-        <v>1080200</v>
+        <v>1588400</v>
       </c>
       <c r="H58" s="3">
-        <v>605400</v>
+        <v>1105500</v>
       </c>
       <c r="I58" s="3">
-        <v>140600</v>
+        <v>619600</v>
       </c>
       <c r="J58" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K58" s="3">
         <v>118700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>173300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>333100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>197300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>857500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>834100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>839900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>708600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1598300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1698600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1585500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1091700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>151500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>344500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>495300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>102100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>404900</v>
+        <v>460400</v>
       </c>
       <c r="E59" s="3">
-        <v>374000</v>
+        <v>414400</v>
       </c>
       <c r="F59" s="3">
-        <v>364100</v>
+        <v>382800</v>
       </c>
       <c r="G59" s="3">
-        <v>345100</v>
+        <v>372600</v>
       </c>
       <c r="H59" s="3">
-        <v>370000</v>
+        <v>353200</v>
       </c>
       <c r="I59" s="3">
-        <v>354100</v>
+        <v>378700</v>
       </c>
       <c r="J59" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K59" s="3">
         <v>393000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>423500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>435300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>444900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>498500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>539000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>509400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>508600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>515700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2787800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2813100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2820800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2866700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>570000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>658600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>743000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>764200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6001400</v>
+        <v>5685900</v>
       </c>
       <c r="E60" s="3">
-        <v>5455800</v>
+        <v>6142200</v>
       </c>
       <c r="F60" s="3">
-        <v>4856300</v>
+        <v>5583800</v>
       </c>
       <c r="G60" s="3">
-        <v>4395500</v>
+        <v>4970300</v>
       </c>
       <c r="H60" s="3">
-        <v>3840000</v>
+        <v>4498700</v>
       </c>
       <c r="I60" s="3">
-        <v>3222600</v>
+        <v>3930100</v>
       </c>
       <c r="J60" s="3">
+        <v>3298200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3085000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3111600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3157100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3398600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3504600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4402600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4343300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4418100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4353100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7258100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7451000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7296200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7093200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4709000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4952500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5453500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4945300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3395100</v>
+        <v>3431900</v>
       </c>
       <c r="E61" s="3">
-        <v>3169700</v>
+        <v>3474800</v>
       </c>
       <c r="F61" s="3">
-        <v>1988800</v>
+        <v>3244100</v>
       </c>
       <c r="G61" s="3">
-        <v>1994800</v>
+        <v>2035500</v>
       </c>
       <c r="H61" s="3">
-        <v>2753800</v>
+        <v>2041600</v>
       </c>
       <c r="I61" s="3">
-        <v>2757800</v>
+        <v>2818400</v>
       </c>
       <c r="J61" s="3">
+        <v>2822500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2763800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2865600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3031600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2298800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2383900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2496500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2397500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2442700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2128000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2544200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2524300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2523200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2580600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2964300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2967700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3107100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3103600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1326500</v>
+        <v>1286200</v>
       </c>
       <c r="E62" s="3">
-        <v>1337500</v>
+        <v>1357700</v>
       </c>
       <c r="F62" s="3">
-        <v>1375400</v>
+        <v>1368900</v>
       </c>
       <c r="G62" s="3">
-        <v>1321600</v>
+        <v>1407700</v>
       </c>
       <c r="H62" s="3">
-        <v>1358500</v>
+        <v>1352600</v>
       </c>
       <c r="I62" s="3">
-        <v>1290600</v>
+        <v>1390300</v>
       </c>
       <c r="J62" s="3">
+        <v>1320900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1359500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1492500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1614500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1619100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1601700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1707600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1559900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1580400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1498700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1280400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1300000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1349400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1401400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2330400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2374100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2616400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2705600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10952400</v>
+        <v>10630600</v>
       </c>
       <c r="E66" s="3">
-        <v>10176500</v>
+        <v>11209400</v>
       </c>
       <c r="F66" s="3">
-        <v>8431000</v>
+        <v>10415200</v>
       </c>
       <c r="G66" s="3">
-        <v>7927300</v>
+        <v>8628800</v>
       </c>
       <c r="H66" s="3">
-        <v>8168700</v>
+        <v>8113300</v>
       </c>
       <c r="I66" s="3">
-        <v>7485500</v>
+        <v>8360400</v>
       </c>
       <c r="J66" s="3">
+        <v>7661100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7411700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7681500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8030200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7558200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7744600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8886100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8557100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8694300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8221200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11554500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11777100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11663000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11571100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10518700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10832800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11756900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11319000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5476700</v>
+        <v>5487800</v>
       </c>
       <c r="E72" s="3">
-        <v>5790900</v>
+        <v>5605200</v>
       </c>
       <c r="F72" s="3">
-        <v>5830800</v>
+        <v>5926800</v>
       </c>
       <c r="G72" s="3">
-        <v>6050200</v>
+        <v>5967600</v>
       </c>
       <c r="H72" s="3">
-        <v>6271700</v>
+        <v>6192200</v>
       </c>
       <c r="I72" s="3">
-        <v>6440200</v>
+        <v>6418800</v>
       </c>
       <c r="J72" s="3">
+        <v>6591300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6507000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6885400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7111600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7988400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7843800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8826100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8991200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10589300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12978800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5989900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5698600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5812800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5750200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6329100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5928600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6400800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6276400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5190500</v>
+        <v>5229600</v>
       </c>
       <c r="E76" s="3">
-        <v>5433800</v>
+        <v>5312200</v>
       </c>
       <c r="F76" s="3">
-        <v>5410900</v>
+        <v>5561300</v>
       </c>
       <c r="G76" s="3">
-        <v>5494700</v>
+        <v>5537800</v>
       </c>
       <c r="H76" s="3">
-        <v>5693200</v>
+        <v>5623600</v>
       </c>
       <c r="I76" s="3">
-        <v>5873700</v>
+        <v>5826700</v>
       </c>
       <c r="J76" s="3">
+        <v>6011500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5731100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6068600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6378600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7313200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7413100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8318900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8421800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10186000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13998400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6900300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6673600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6545200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6580500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7180700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7058400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7812900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7692000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105700</v>
+        <v>85700</v>
       </c>
       <c r="E81" s="3">
-        <v>153600</v>
+        <v>108200</v>
       </c>
       <c r="F81" s="3">
-        <v>186500</v>
+        <v>157200</v>
       </c>
       <c r="G81" s="3">
-        <v>163600</v>
+        <v>190900</v>
       </c>
       <c r="H81" s="3">
-        <v>260300</v>
+        <v>167400</v>
       </c>
       <c r="I81" s="3">
-        <v>216400</v>
+        <v>266400</v>
       </c>
       <c r="J81" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K81" s="3">
         <v>166600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>128700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>94600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>198400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>271700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>76900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6918800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>333400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>297600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>277800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>84100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>244600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>337700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>281700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1138600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>86800</v>
+        <v>99000</v>
       </c>
       <c r="E83" s="3">
         <v>88800</v>
       </c>
       <c r="F83" s="3">
-        <v>93800</v>
+        <v>90900</v>
       </c>
       <c r="G83" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>88800</v>
+      </c>
+      <c r="I83" s="3">
         <v>86800</v>
       </c>
-      <c r="H83" s="3">
-        <v>84800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>84800</v>
-      </c>
       <c r="J83" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K83" s="3">
         <v>89800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>94400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>98200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>101600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>115600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>66500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>65900</v>
       </c>
       <c r="U83" s="3">
         <v>65900</v>
       </c>
       <c r="V83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="W83" s="3">
         <v>154800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>170500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>178400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>185500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>711300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-51900</v>
+        <v>119400</v>
       </c>
       <c r="E89" s="3">
-        <v>-101700</v>
+        <v>-53100</v>
       </c>
       <c r="F89" s="3">
-        <v>176500</v>
+        <v>-104100</v>
       </c>
       <c r="G89" s="3">
-        <v>289200</v>
+        <v>180700</v>
       </c>
       <c r="H89" s="3">
-        <v>167600</v>
+        <v>296000</v>
       </c>
       <c r="I89" s="3">
-        <v>-30900</v>
+        <v>171500</v>
       </c>
       <c r="J89" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K89" s="3">
         <v>612400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>473300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>336000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-181800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>336200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>377300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>177600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-856400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>287400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>787500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>593500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>466700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>350100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-338100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1515400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66800</v>
+        <v>-73500</v>
       </c>
       <c r="E91" s="3">
-        <v>-56900</v>
+        <v>-68400</v>
       </c>
       <c r="F91" s="3">
-        <v>-98700</v>
+        <v>-58200</v>
       </c>
       <c r="G91" s="3">
-        <v>-69800</v>
+        <v>-101100</v>
       </c>
       <c r="H91" s="3">
-        <v>-61800</v>
+        <v>-71500</v>
       </c>
       <c r="I91" s="3">
-        <v>-56900</v>
+        <v>-63300</v>
       </c>
       <c r="J91" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-101700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-51900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-95400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-66200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-68400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-193700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-314200</v>
+        <v>715600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1058200</v>
+        <v>-321600</v>
       </c>
       <c r="F94" s="3">
-        <v>-128700</v>
+        <v>-1083100</v>
       </c>
       <c r="G94" s="3">
-        <v>218400</v>
+        <v>-131700</v>
       </c>
       <c r="H94" s="3">
-        <v>-53900</v>
+        <v>223600</v>
       </c>
       <c r="I94" s="3">
-        <v>-169600</v>
+        <v>-55100</v>
       </c>
       <c r="J94" s="3">
+        <v>-173500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-267300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-121400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>115200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>637400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>841600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1430500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3031800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4023000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-365500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-239000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-362400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-71800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-355100</v>
+        <v>75500</v>
       </c>
       <c r="E96" s="3">
-        <v>-7000</v>
+        <v>-363400</v>
       </c>
       <c r="F96" s="3">
-        <v>-89800</v>
+        <v>-7100</v>
       </c>
       <c r="G96" s="3">
-        <v>-10000</v>
+        <v>-91900</v>
       </c>
       <c r="H96" s="3">
-        <v>-287300</v>
+        <v>-10200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3000</v>
+        <v>-294000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-81800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>1000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-310900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-95700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-375300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-159700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-334900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-190000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-14600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-235600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-394400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15000</v>
+        <v>-590000</v>
       </c>
       <c r="E100" s="3">
-        <v>1402300</v>
+        <v>-15300</v>
       </c>
       <c r="F100" s="3">
-        <v>30900</v>
+        <v>1435200</v>
       </c>
       <c r="G100" s="3">
-        <v>-655300</v>
+        <v>31600</v>
       </c>
       <c r="H100" s="3">
-        <v>-107700</v>
+        <v>-670700</v>
       </c>
       <c r="I100" s="3">
-        <v>-239400</v>
+        <v>-110200</v>
       </c>
       <c r="J100" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-220400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>325100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-446000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-923600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-268000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-225100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>241600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-77400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-97600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-325400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>11700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-238300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16000</v>
+        <v>10200</v>
       </c>
       <c r="E101" s="3">
-        <v>9000</v>
+        <v>16300</v>
       </c>
       <c r="F101" s="3">
-        <v>13000</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
+        <v>13300</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="I101" s="3">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-19100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-51600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>17600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-365000</v>
+        <v>255200</v>
       </c>
       <c r="E102" s="3">
-        <v>251300</v>
+        <v>-373600</v>
       </c>
       <c r="F102" s="3">
-        <v>91800</v>
+        <v>257200</v>
       </c>
       <c r="G102" s="3">
-        <v>-141600</v>
+        <v>93900</v>
       </c>
       <c r="H102" s="3">
-        <v>6000</v>
+        <v>-145000</v>
       </c>
       <c r="I102" s="3">
-        <v>-423900</v>
+        <v>6100</v>
       </c>
       <c r="J102" s="3">
+        <v>-433800</v>
+      </c>
+      <c r="K102" s="3">
         <v>120700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>291600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>501800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-554400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>64200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>117600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-211800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2105600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>127400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-208600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-275600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>276000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>173900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-194100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-459000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>145600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2921500</v>
+        <v>2757100</v>
       </c>
       <c r="E8" s="3">
-        <v>2912300</v>
+        <v>3028000</v>
       </c>
       <c r="F8" s="3">
-        <v>2577500</v>
+        <v>3018500</v>
       </c>
       <c r="G8" s="3">
-        <v>2453000</v>
+        <v>2671500</v>
       </c>
       <c r="H8" s="3">
-        <v>2460100</v>
+        <v>2542400</v>
       </c>
       <c r="I8" s="3">
-        <v>2563200</v>
+        <v>2549800</v>
       </c>
       <c r="J8" s="3">
+        <v>2656600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2310100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2203300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2362300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2167600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2323700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2617300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2937500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2883400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2584600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2730100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2576300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2685700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2389200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2561500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2714100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2842000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2790100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11073700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1923200</v>
+        <v>1772200</v>
       </c>
       <c r="E9" s="3">
-        <v>1857900</v>
+        <v>1993300</v>
       </c>
       <c r="F9" s="3">
-        <v>1576100</v>
+        <v>1925600</v>
       </c>
       <c r="G9" s="3">
-        <v>1525100</v>
+        <v>1633600</v>
       </c>
       <c r="H9" s="3">
-        <v>1513800</v>
+        <v>1528800</v>
       </c>
       <c r="I9" s="3">
-        <v>1507700</v>
+        <v>1569000</v>
       </c>
       <c r="J9" s="3">
+        <v>1562700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1291300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1230800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1306700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1210900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1289400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1489600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1688000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1617600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1504600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1605200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1468700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1526200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1379100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1458600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1539400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1574200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1529500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5984100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>998300</v>
+        <v>985000</v>
       </c>
       <c r="E10" s="3">
-        <v>1054500</v>
+        <v>1034700</v>
       </c>
       <c r="F10" s="3">
-        <v>1001400</v>
+        <v>1092900</v>
       </c>
       <c r="G10" s="3">
-        <v>927900</v>
+        <v>1037900</v>
       </c>
       <c r="H10" s="3">
-        <v>946300</v>
+        <v>1013600</v>
       </c>
       <c r="I10" s="3">
+        <v>980800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1018800</v>
+      </c>
+      <c r="L10" s="3">
+        <v>972500</v>
+      </c>
+      <c r="M10" s="3">
         <v>1055500</v>
       </c>
-      <c r="J10" s="3">
-        <v>1018800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>972500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>956700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1034300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1127700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1249500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1265800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1080000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1124900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1107600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1159500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1010200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1102900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1174700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1267800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1260700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5089600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,23 +1264,23 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1269,25 +1288,28 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>14100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2750000</v>
+        <v>2648200</v>
       </c>
       <c r="E17" s="3">
-        <v>2703100</v>
+        <v>2850300</v>
       </c>
       <c r="F17" s="3">
-        <v>2340700</v>
+        <v>2801600</v>
       </c>
       <c r="G17" s="3">
-        <v>2243700</v>
+        <v>2426000</v>
       </c>
       <c r="H17" s="3">
-        <v>2229400</v>
+        <v>2325500</v>
       </c>
       <c r="I17" s="3">
-        <v>2171200</v>
+        <v>2310700</v>
       </c>
       <c r="J17" s="3">
+        <v>2250400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2000800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1960900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2023900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1941800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2112500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2415400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2635000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2521000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2451000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2649700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2313800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2474900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2270700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2405500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2472900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2546900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2546000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9990300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>171500</v>
+        <v>109000</v>
       </c>
       <c r="E18" s="3">
-        <v>209300</v>
+        <v>177700</v>
       </c>
       <c r="F18" s="3">
-        <v>236800</v>
+        <v>216900</v>
       </c>
       <c r="G18" s="3">
-        <v>209300</v>
+        <v>245500</v>
       </c>
       <c r="H18" s="3">
-        <v>230700</v>
+        <v>216900</v>
       </c>
       <c r="I18" s="3">
-        <v>392000</v>
+        <v>239100</v>
       </c>
       <c r="J18" s="3">
+        <v>406300</v>
+      </c>
+      <c r="K18" s="3">
         <v>309300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>242400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>338400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>225800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>211100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>202000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>302600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>362300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>133700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>80400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>262500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>210800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>118600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>156000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>241200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>295100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>244200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1083400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-18000</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>12200</v>
+        <v>6300</v>
       </c>
       <c r="G20" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K20" s="3">
         <v>16300</v>
       </c>
-      <c r="H20" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>22500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>16300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8900</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>49400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>12900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>269500</v>
+        <v>191500</v>
       </c>
       <c r="E21" s="3">
-        <v>304200</v>
+        <v>279300</v>
       </c>
       <c r="F21" s="3">
-        <v>339900</v>
+        <v>315300</v>
       </c>
       <c r="G21" s="3">
-        <v>321600</v>
+        <v>352300</v>
       </c>
       <c r="H21" s="3">
-        <v>326700</v>
+        <v>333300</v>
       </c>
       <c r="I21" s="3">
-        <v>501200</v>
+        <v>338600</v>
       </c>
       <c r="J21" s="3">
+        <v>519500</v>
+      </c>
+      <c r="K21" s="3">
         <v>412400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>340100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>441100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>320700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>322900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>322200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>409100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>475300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>244900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>158500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>337800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>276700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>233900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>236700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>313000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>390500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>342800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1820600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26500</v>
+        <v>37000</v>
       </c>
       <c r="E22" s="3">
-        <v>29600</v>
+        <v>27500</v>
       </c>
       <c r="F22" s="3">
-        <v>16300</v>
+        <v>30700</v>
       </c>
       <c r="G22" s="3">
-        <v>19400</v>
+        <v>16900</v>
       </c>
       <c r="H22" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="I22" s="3">
-        <v>18400</v>
+        <v>21200</v>
       </c>
       <c r="J22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K22" s="3">
         <v>17400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>24200</v>
       </c>
       <c r="V22" s="3">
         <v>24200</v>
       </c>
       <c r="W22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="X22" s="3">
         <v>25800</v>
       </c>
       <c r="Y22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>24700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>25800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>111500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>143900</v>
+        <v>54000</v>
       </c>
       <c r="E23" s="3">
-        <v>185800</v>
+        <v>149200</v>
       </c>
       <c r="F23" s="3">
-        <v>232700</v>
+        <v>192600</v>
       </c>
       <c r="G23" s="3">
-        <v>206200</v>
+        <v>241200</v>
       </c>
       <c r="H23" s="3">
-        <v>217400</v>
+        <v>213700</v>
       </c>
       <c r="I23" s="3">
-        <v>396100</v>
+        <v>225400</v>
       </c>
       <c r="J23" s="3">
+        <v>410500</v>
+      </c>
+      <c r="K23" s="3">
         <v>308300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>233400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>329000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>204000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>204400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>185600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>276800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>347000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>124200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>244800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>186700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>143800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>141400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>209800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>285000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>231200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>997700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52100</v>
+        <v>36000</v>
       </c>
       <c r="E24" s="3">
-        <v>68400</v>
+        <v>54000</v>
       </c>
       <c r="F24" s="3">
-        <v>63300</v>
+        <v>70900</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>65600</v>
       </c>
       <c r="H24" s="3">
-        <v>49000</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
-        <v>125600</v>
+        <v>50800</v>
       </c>
       <c r="J24" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K24" s="3">
         <v>74500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>61000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>92200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>62500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>81200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>73100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>90900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>64000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>70700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>61000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>274700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>91900</v>
+        <v>18000</v>
       </c>
       <c r="E26" s="3">
-        <v>117400</v>
+        <v>95200</v>
       </c>
       <c r="F26" s="3">
-        <v>169500</v>
+        <v>121700</v>
       </c>
       <c r="G26" s="3">
-        <v>204200</v>
+        <v>175600</v>
       </c>
       <c r="H26" s="3">
-        <v>168400</v>
+        <v>211600</v>
       </c>
       <c r="I26" s="3">
-        <v>270500</v>
+        <v>174600</v>
       </c>
       <c r="J26" s="3">
+        <v>280400</v>
+      </c>
+      <c r="K26" s="3">
         <v>233800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>243900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>146200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>143400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>265900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>171700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>135100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>144900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>50500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>145900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>214300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>170200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>723100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>89800</v>
+        <v>8500</v>
       </c>
       <c r="E27" s="3">
-        <v>114300</v>
+        <v>93100</v>
       </c>
       <c r="F27" s="3">
-        <v>157200</v>
+        <v>118500</v>
       </c>
       <c r="G27" s="3">
-        <v>189900</v>
+        <v>162900</v>
       </c>
       <c r="H27" s="3">
-        <v>167400</v>
+        <v>196800</v>
       </c>
       <c r="I27" s="3">
-        <v>259300</v>
+        <v>173500</v>
       </c>
       <c r="J27" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K27" s="3">
         <v>223600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>167600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>233500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>140700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>129800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>87600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>198400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>252900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>163900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>116400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>121900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>31400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>135800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>187400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>145600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>626800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,88 +2360,94 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-4100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-6100</v>
+        <v>-4200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="G29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I29" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>18800</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>6877400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>169500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>181200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>155900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>52700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>108800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>150300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>136200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>511800</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>18000</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>-12200</v>
+        <v>-6300</v>
       </c>
       <c r="G32" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8900</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-49400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85700</v>
+        <v>8500</v>
       </c>
       <c r="E33" s="3">
-        <v>108200</v>
+        <v>88900</v>
       </c>
       <c r="F33" s="3">
-        <v>157200</v>
+        <v>112100</v>
       </c>
       <c r="G33" s="3">
-        <v>190900</v>
+        <v>162900</v>
       </c>
       <c r="H33" s="3">
-        <v>167400</v>
+        <v>197800</v>
       </c>
       <c r="I33" s="3">
-        <v>266400</v>
+        <v>173500</v>
       </c>
       <c r="J33" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K33" s="3">
         <v>221500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>166600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>128700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>94600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>198400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>271700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6918800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>333400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>297600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>277800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>84100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>244600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>337700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>281700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1138600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85700</v>
+        <v>8500</v>
       </c>
       <c r="E35" s="3">
-        <v>108200</v>
+        <v>88900</v>
       </c>
       <c r="F35" s="3">
-        <v>157200</v>
+        <v>112100</v>
       </c>
       <c r="G35" s="3">
-        <v>190900</v>
+        <v>162900</v>
       </c>
       <c r="H35" s="3">
-        <v>167400</v>
+        <v>197800</v>
       </c>
       <c r="I35" s="3">
-        <v>266400</v>
+        <v>173500</v>
       </c>
       <c r="J35" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K35" s="3">
         <v>221500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>166600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>128700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>94600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>198400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>271700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6918800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>333400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>297600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>277800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>84100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>244600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>337700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>281700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1138600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,141 +3093,145 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1374000</v>
+        <v>1534100</v>
       </c>
       <c r="E41" s="3">
-        <v>1098400</v>
+        <v>1424100</v>
       </c>
       <c r="F41" s="3">
-        <v>1447500</v>
+        <v>1138400</v>
       </c>
       <c r="G41" s="3">
-        <v>1176000</v>
+        <v>1500200</v>
       </c>
       <c r="H41" s="3">
-        <v>1109600</v>
+        <v>1218800</v>
       </c>
       <c r="I41" s="3">
-        <v>1241300</v>
+        <v>1150000</v>
       </c>
       <c r="J41" s="3">
+        <v>1286500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1221900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1601800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1558900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1341800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>939400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1483800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>765600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1362300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1578000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3310900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1151900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1051900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1258300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1483300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1218500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1169100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1488400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1736100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23500</v>
+        <v>355500</v>
       </c>
       <c r="E42" s="3">
-        <v>798300</v>
+        <v>24300</v>
       </c>
       <c r="F42" s="3">
-        <v>1103500</v>
+        <v>827400</v>
       </c>
       <c r="G42" s="3">
-        <v>59200</v>
+        <v>1143700</v>
       </c>
       <c r="H42" s="3">
-        <v>13300</v>
+        <v>61400</v>
       </c>
       <c r="I42" s="3">
-        <v>301100</v>
+        <v>13800</v>
       </c>
       <c r="J42" s="3">
+        <v>312100</v>
+      </c>
+      <c r="K42" s="3">
         <v>307300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>249400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>161100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1930600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1795200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3195000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -3159,8 +3248,8 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3168,333 +3257,348 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2940900</v>
+        <v>2588900</v>
       </c>
       <c r="E43" s="3">
-        <v>2964400</v>
+        <v>3048100</v>
       </c>
       <c r="F43" s="3">
-        <v>2646900</v>
+        <v>3072400</v>
       </c>
       <c r="G43" s="3">
-        <v>2387700</v>
+        <v>2743400</v>
       </c>
       <c r="H43" s="3">
-        <v>2429500</v>
+        <v>2474700</v>
       </c>
       <c r="I43" s="3">
-        <v>2558100</v>
+        <v>2518000</v>
       </c>
       <c r="J43" s="3">
+        <v>2651300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2351900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1988800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2312400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2390200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2540500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2490100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2944900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2930400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2846100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2532600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2519800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2661600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2446300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2203600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3470300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3574700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3716300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3271400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2097700</v>
+        <v>1949900</v>
       </c>
       <c r="E44" s="3">
-        <v>2162100</v>
+        <v>2174200</v>
       </c>
       <c r="F44" s="3">
-        <v>1890500</v>
+        <v>2240800</v>
       </c>
       <c r="G44" s="3">
-        <v>1684300</v>
+        <v>1959400</v>
       </c>
       <c r="H44" s="3">
-        <v>1596500</v>
+        <v>1745700</v>
       </c>
       <c r="I44" s="3">
-        <v>1429100</v>
+        <v>1654700</v>
       </c>
       <c r="J44" s="3">
+        <v>1481200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1330100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1156000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1177000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1285100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1366200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1329700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1495700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1441100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1450200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1347300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1273700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1286900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1279200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1227500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1826600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1827700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1923900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1798300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>139800</v>
+        <v>177700</v>
       </c>
       <c r="E45" s="3">
-        <v>154100</v>
+        <v>144900</v>
       </c>
       <c r="F45" s="3">
-        <v>150100</v>
+        <v>159800</v>
       </c>
       <c r="G45" s="3">
-        <v>152100</v>
+        <v>155500</v>
       </c>
       <c r="H45" s="3">
-        <v>101100</v>
+        <v>157600</v>
       </c>
       <c r="I45" s="3">
-        <v>71500</v>
+        <v>104700</v>
       </c>
       <c r="J45" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K45" s="3">
         <v>65300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>76400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>73400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>73500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>89400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>94100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>95800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>87500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5620000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5451600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5298900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5231800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>75200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>61700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>77500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>69300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6576000</v>
+        <v>6606200</v>
       </c>
       <c r="E46" s="3">
-        <v>7177200</v>
+        <v>6815600</v>
       </c>
       <c r="F46" s="3">
-        <v>7238500</v>
+        <v>7438800</v>
       </c>
       <c r="G46" s="3">
-        <v>5459200</v>
+        <v>7502300</v>
       </c>
       <c r="H46" s="3">
-        <v>5250000</v>
+        <v>5658200</v>
       </c>
       <c r="I46" s="3">
-        <v>5601100</v>
+        <v>5441300</v>
       </c>
       <c r="J46" s="3">
+        <v>5805200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5276500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5050800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5232100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5148000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4921700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5538200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7226200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7623100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9165100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13737000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10565400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10451900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10282800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10146200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6590600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6633200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7206000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6875000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>204200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3502,11 +3606,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>181700</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>188300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3514,11 +3618,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>165600</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3526,210 +3630,219 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>175100</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>3098000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2324400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2293800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2390300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2310200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1479900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1880500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1952300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2290100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>844000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2321300</v>
+        <v>2390000</v>
       </c>
       <c r="E48" s="3">
-        <v>2302900</v>
+        <v>2405900</v>
       </c>
       <c r="F48" s="3">
-        <v>2141600</v>
+        <v>2386800</v>
       </c>
       <c r="G48" s="3">
-        <v>2147800</v>
+        <v>2219700</v>
       </c>
       <c r="H48" s="3">
-        <v>2065100</v>
+        <v>2226000</v>
       </c>
       <c r="I48" s="3">
-        <v>2060000</v>
+        <v>2140300</v>
       </c>
       <c r="J48" s="3">
+        <v>2135000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2066100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1939900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1986500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2158900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2258200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2421200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2497800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2412800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2539700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2067700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1880700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1888600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1903900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2055500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4525000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4558600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4927700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4918300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4368000</v>
+        <v>4308200</v>
       </c>
       <c r="E49" s="3">
-        <v>4386400</v>
+        <v>4527200</v>
       </c>
       <c r="F49" s="3">
-        <v>3794300</v>
+        <v>4546200</v>
       </c>
       <c r="G49" s="3">
-        <v>3766800</v>
+        <v>3932600</v>
       </c>
       <c r="H49" s="3">
-        <v>3720800</v>
+        <v>3904000</v>
       </c>
       <c r="I49" s="3">
+        <v>3856400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3838400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3703500</v>
       </c>
-      <c r="J49" s="3">
-        <v>3703500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3544800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3656500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3897800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4024100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4231900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4168600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3996200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4077500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4090500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3714900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3720000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3711200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3824900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4703400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4747100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5146000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5180000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,55 +4004,58 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2594900</v>
+        <v>2087400</v>
       </c>
       <c r="E52" s="3">
-        <v>2655100</v>
+        <v>2689400</v>
       </c>
       <c r="F52" s="3">
-        <v>2802100</v>
+        <v>2751900</v>
       </c>
       <c r="G52" s="3">
-        <v>2611200</v>
+        <v>2904200</v>
       </c>
       <c r="H52" s="3">
-        <v>2701000</v>
+        <v>2706400</v>
       </c>
       <c r="I52" s="3">
-        <v>2822500</v>
+        <v>2799500</v>
       </c>
       <c r="J52" s="3">
+        <v>2925400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2626500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2441600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2875000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3204000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3667300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2791300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3312400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3950,11 +4069,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>645100</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -3962,14 +4081,17 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1193800</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15860200</v>
+        <v>15596000</v>
       </c>
       <c r="E54" s="3">
-        <v>16521600</v>
+        <v>16438100</v>
       </c>
       <c r="F54" s="3">
-        <v>15976500</v>
+        <v>17123700</v>
       </c>
       <c r="G54" s="3">
-        <v>14166700</v>
+        <v>16558800</v>
       </c>
       <c r="H54" s="3">
-        <v>13736900</v>
+        <v>14682900</v>
       </c>
       <c r="I54" s="3">
-        <v>14187100</v>
+        <v>14237500</v>
       </c>
       <c r="J54" s="3">
+        <v>14704100</v>
+      </c>
+      <c r="K54" s="3">
         <v>13672600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13142700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13750100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14408700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14871400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15157700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17205000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16979000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18880300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22219600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18454800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18450800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18208100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18151600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17699400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17891300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19569800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19011000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3231900</v>
+        <v>2963500</v>
       </c>
       <c r="E57" s="3">
-        <v>3360500</v>
+        <v>3349600</v>
       </c>
       <c r="F57" s="3">
-        <v>3151200</v>
+        <v>3482900</v>
       </c>
       <c r="G57" s="3">
-        <v>3009300</v>
+        <v>3266000</v>
       </c>
       <c r="H57" s="3">
-        <v>3039900</v>
+        <v>3119000</v>
       </c>
       <c r="I57" s="3">
-        <v>2931700</v>
+        <v>3150700</v>
       </c>
       <c r="J57" s="3">
+        <v>3038600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2791900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2573300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2514800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2521100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2620600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2808800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3006100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2999800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3069600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3128800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2872000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2939300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2889900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3134800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3987600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3949400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4215200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4079000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1993600</v>
+        <v>2690500</v>
       </c>
       <c r="E58" s="3">
-        <v>2367200</v>
+        <v>2066300</v>
       </c>
       <c r="F58" s="3">
-        <v>2049800</v>
+        <v>2453500</v>
       </c>
       <c r="G58" s="3">
-        <v>1588400</v>
+        <v>2124500</v>
       </c>
       <c r="H58" s="3">
-        <v>1105500</v>
+        <v>1646200</v>
       </c>
       <c r="I58" s="3">
-        <v>619600</v>
+        <v>1145800</v>
       </c>
       <c r="J58" s="3">
+        <v>642200</v>
+      </c>
+      <c r="K58" s="3">
         <v>143900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>118700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>173300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>333100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>197300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>857500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>834100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>839900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>708600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1598300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1698600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1585500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1091700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>151500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>344500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>495300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>102100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>460400</v>
+        <v>425300</v>
       </c>
       <c r="E59" s="3">
-        <v>414400</v>
+        <v>477200</v>
       </c>
       <c r="F59" s="3">
-        <v>382800</v>
+        <v>429500</v>
       </c>
       <c r="G59" s="3">
-        <v>372600</v>
+        <v>396800</v>
       </c>
       <c r="H59" s="3">
-        <v>353200</v>
+        <v>386200</v>
       </c>
       <c r="I59" s="3">
-        <v>378700</v>
+        <v>366100</v>
       </c>
       <c r="J59" s="3">
+        <v>392500</v>
+      </c>
+      <c r="K59" s="3">
         <v>362400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>393000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>423500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>435300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>444900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>498500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>539000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>509400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>508600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>515700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2787800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2813100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2820800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2866700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>570000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>658600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>743000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>764200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5685900</v>
+        <v>6079300</v>
       </c>
       <c r="E60" s="3">
-        <v>6142200</v>
+        <v>5893100</v>
       </c>
       <c r="F60" s="3">
-        <v>5583800</v>
+        <v>6366000</v>
       </c>
       <c r="G60" s="3">
-        <v>4970300</v>
+        <v>5787300</v>
       </c>
       <c r="H60" s="3">
-        <v>4498700</v>
+        <v>5151400</v>
       </c>
       <c r="I60" s="3">
-        <v>3930100</v>
+        <v>4662600</v>
       </c>
       <c r="J60" s="3">
+        <v>4073300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3298200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3085000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3111600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3157100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3398600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3504600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4402600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4343300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4418100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4353100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7258100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7451000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7296200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7093200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4709000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4952500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5453500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4945300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3431900</v>
+        <v>3525300</v>
       </c>
       <c r="E61" s="3">
-        <v>3474800</v>
+        <v>3557000</v>
       </c>
       <c r="F61" s="3">
-        <v>3244100</v>
+        <v>3601400</v>
       </c>
       <c r="G61" s="3">
-        <v>2035500</v>
+        <v>3362300</v>
       </c>
       <c r="H61" s="3">
-        <v>2041600</v>
+        <v>2109700</v>
       </c>
       <c r="I61" s="3">
-        <v>2818400</v>
+        <v>2116000</v>
       </c>
       <c r="J61" s="3">
+        <v>2921100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2822500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2763800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2865600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3031600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2298800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2383900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2496500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2397500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2442700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2128000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2544200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2524300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2523200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2580600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2964300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2967700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3107100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3103600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1286200</v>
+        <v>1179700</v>
       </c>
       <c r="E62" s="3">
-        <v>1357700</v>
+        <v>1333100</v>
       </c>
       <c r="F62" s="3">
-        <v>1368900</v>
+        <v>1407100</v>
       </c>
       <c r="G62" s="3">
-        <v>1407700</v>
+        <v>1418800</v>
       </c>
       <c r="H62" s="3">
-        <v>1352600</v>
+        <v>1459000</v>
       </c>
       <c r="I62" s="3">
-        <v>1390300</v>
+        <v>1401900</v>
       </c>
       <c r="J62" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1320900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1359500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1492500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1614500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1619100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1601700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1707600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1559900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1580400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1498700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1280400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1300000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1349400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1401400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2330400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2374100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2616400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2705600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10630600</v>
+        <v>11011700</v>
       </c>
       <c r="E66" s="3">
-        <v>11209400</v>
+        <v>11018000</v>
       </c>
       <c r="F66" s="3">
-        <v>10415200</v>
+        <v>11617900</v>
       </c>
       <c r="G66" s="3">
-        <v>8628800</v>
+        <v>10794800</v>
       </c>
       <c r="H66" s="3">
-        <v>8113300</v>
+        <v>8943300</v>
       </c>
       <c r="I66" s="3">
-        <v>8360400</v>
+        <v>8409000</v>
       </c>
       <c r="J66" s="3">
+        <v>8665000</v>
+      </c>
+      <c r="K66" s="3">
         <v>7661100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7411700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7681500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8030200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7558200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7744600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8886100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8557100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8694300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8221200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11554500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11777100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11663000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11571100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10518700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10832800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11756900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11319000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5487800</v>
+        <v>5222300</v>
       </c>
       <c r="E72" s="3">
-        <v>5605200</v>
+        <v>5687800</v>
       </c>
       <c r="F72" s="3">
-        <v>5926800</v>
+        <v>5809500</v>
       </c>
       <c r="G72" s="3">
-        <v>5967600</v>
+        <v>6142700</v>
       </c>
       <c r="H72" s="3">
-        <v>6192200</v>
+        <v>6185100</v>
       </c>
       <c r="I72" s="3">
-        <v>6418800</v>
+        <v>6417800</v>
       </c>
       <c r="J72" s="3">
+        <v>6652700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6591300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6507000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6885400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7111600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7988400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7843800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8826100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8991200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10589300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12978800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5989900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5698600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5812800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5750200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6329100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5928600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6400800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6276400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5229600</v>
+        <v>4584300</v>
       </c>
       <c r="E76" s="3">
-        <v>5312200</v>
+        <v>5420100</v>
       </c>
       <c r="F76" s="3">
-        <v>5561300</v>
+        <v>5505800</v>
       </c>
       <c r="G76" s="3">
-        <v>5537800</v>
+        <v>5764000</v>
       </c>
       <c r="H76" s="3">
-        <v>5623600</v>
+        <v>5739700</v>
       </c>
       <c r="I76" s="3">
-        <v>5826700</v>
+        <v>5828500</v>
       </c>
       <c r="J76" s="3">
+        <v>6039100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6011500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5731100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6068600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6378600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7313200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7413100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8318900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8421800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10186000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13998400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6900300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6673600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6545200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6580500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7180700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7058400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7812900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7692000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85700</v>
+        <v>8500</v>
       </c>
       <c r="E81" s="3">
-        <v>108200</v>
+        <v>88900</v>
       </c>
       <c r="F81" s="3">
-        <v>157200</v>
+        <v>112100</v>
       </c>
       <c r="G81" s="3">
-        <v>190900</v>
+        <v>162900</v>
       </c>
       <c r="H81" s="3">
-        <v>167400</v>
+        <v>197800</v>
       </c>
       <c r="I81" s="3">
-        <v>266400</v>
+        <v>173500</v>
       </c>
       <c r="J81" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K81" s="3">
         <v>221500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>166600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>128700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>94600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>198400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>271700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6918800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>333400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>297600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>277800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>84100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>244600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>337700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>281700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1138600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99000</v>
+        <v>100500</v>
       </c>
       <c r="E83" s="3">
-        <v>88800</v>
+        <v>102600</v>
       </c>
       <c r="F83" s="3">
-        <v>90900</v>
+        <v>92000</v>
       </c>
       <c r="G83" s="3">
-        <v>96000</v>
+        <v>94200</v>
       </c>
       <c r="H83" s="3">
-        <v>88800</v>
+        <v>99500</v>
       </c>
       <c r="I83" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K83" s="3">
         <v>86800</v>
       </c>
-      <c r="J83" s="3">
-        <v>86800</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>94400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>98200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>115600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>106600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>104700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>69800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>66500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>65900</v>
       </c>
       <c r="V83" s="3">
         <v>65900</v>
       </c>
       <c r="W83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="X83" s="3">
         <v>154800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>170500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>178400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>185500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>711300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>119400</v>
+        <v>307900</v>
       </c>
       <c r="E89" s="3">
-        <v>-53100</v>
+        <v>123800</v>
       </c>
       <c r="F89" s="3">
-        <v>-104100</v>
+        <v>-55000</v>
       </c>
       <c r="G89" s="3">
-        <v>180700</v>
+        <v>-107900</v>
       </c>
       <c r="H89" s="3">
-        <v>296000</v>
+        <v>187300</v>
       </c>
       <c r="I89" s="3">
-        <v>171500</v>
+        <v>306800</v>
       </c>
       <c r="J89" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-31600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>612400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>473300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>336000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-181800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>336200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>377300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>177600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-856400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>287400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>787500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>593500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>466700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>350100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-338100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1515400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-73500</v>
+        <v>-101600</v>
       </c>
       <c r="E91" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-68400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-101100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-71500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-63300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-101700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-66400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-92200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-63700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-63900</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-39500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-95400</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-66200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-68400</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-193700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>715600</v>
+        <v>-444400</v>
       </c>
       <c r="E94" s="3">
-        <v>-321600</v>
+        <v>741700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1083100</v>
+        <v>-333300</v>
       </c>
       <c r="G94" s="3">
-        <v>-131700</v>
+        <v>-1122500</v>
       </c>
       <c r="H94" s="3">
-        <v>223600</v>
+        <v>-136500</v>
       </c>
       <c r="I94" s="3">
-        <v>-55100</v>
+        <v>231700</v>
       </c>
       <c r="J94" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-173500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-267300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-157100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>115200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>637400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>841600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1430500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3031800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4023000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-365500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-239000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-362400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>75500</v>
+        <v>-95200</v>
       </c>
       <c r="E96" s="3">
-        <v>-363400</v>
+        <v>78300</v>
       </c>
       <c r="F96" s="3">
-        <v>-7100</v>
+        <v>-376600</v>
       </c>
       <c r="G96" s="3">
-        <v>-91900</v>
+        <v>-7400</v>
       </c>
       <c r="H96" s="3">
-        <v>-10200</v>
+        <v>-95200</v>
       </c>
       <c r="I96" s="3">
-        <v>-294000</v>
+        <v>-10600</v>
       </c>
       <c r="J96" s="3">
+        <v>-304700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-81800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>1000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-310900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-95700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-375300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-159700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-334900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-190000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-235600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-394400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-590000</v>
+        <v>347000</v>
       </c>
       <c r="E100" s="3">
-        <v>-15300</v>
+        <v>-611500</v>
       </c>
       <c r="F100" s="3">
-        <v>1435200</v>
+        <v>-15900</v>
       </c>
       <c r="G100" s="3">
-        <v>31600</v>
+        <v>1487500</v>
       </c>
       <c r="H100" s="3">
-        <v>-670700</v>
+        <v>32800</v>
       </c>
       <c r="I100" s="3">
-        <v>-110200</v>
+        <v>-695100</v>
       </c>
       <c r="J100" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-245000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-220400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>325100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-446000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-923600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-268000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-225100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>241600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-77400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-97600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-325400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>11700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-238300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10200</v>
+        <v>-51800</v>
       </c>
       <c r="E101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>16300</v>
       </c>
-      <c r="F101" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>16300</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-23900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-41800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-26600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-51600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>17600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>255200</v>
+        <v>158700</v>
       </c>
       <c r="E102" s="3">
-        <v>-373600</v>
+        <v>264500</v>
       </c>
       <c r="F102" s="3">
-        <v>257200</v>
+        <v>-387200</v>
       </c>
       <c r="G102" s="3">
-        <v>93900</v>
+        <v>266600</v>
       </c>
       <c r="H102" s="3">
-        <v>-145000</v>
+        <v>97300</v>
       </c>
       <c r="I102" s="3">
-        <v>6100</v>
+        <v>-150200</v>
       </c>
       <c r="J102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-433800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>291600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>501800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-554400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>64200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>117600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-211800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2105600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>127400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-208600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-275600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>276000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>173900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-194100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-459000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>145600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2757100</v>
+        <v>2861300</v>
       </c>
       <c r="E8" s="3">
-        <v>3028000</v>
+        <v>2806400</v>
       </c>
       <c r="F8" s="3">
-        <v>3018500</v>
+        <v>3082100</v>
       </c>
       <c r="G8" s="3">
-        <v>2671500</v>
+        <v>3072400</v>
       </c>
       <c r="H8" s="3">
-        <v>2542400</v>
+        <v>2719200</v>
       </c>
       <c r="I8" s="3">
-        <v>2549800</v>
+        <v>2587800</v>
       </c>
       <c r="J8" s="3">
+        <v>2595300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2656600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2310100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2203300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2362300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2167600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2323700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2617300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2937500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2883400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2584600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2730100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2576300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2685700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2389200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2561500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2714100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2842000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2790100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11073700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1772200</v>
+        <v>1803800</v>
       </c>
       <c r="E9" s="3">
-        <v>1993300</v>
+        <v>1803800</v>
       </c>
       <c r="F9" s="3">
-        <v>1925600</v>
+        <v>2028900</v>
       </c>
       <c r="G9" s="3">
-        <v>1633600</v>
+        <v>1960000</v>
       </c>
       <c r="H9" s="3">
-        <v>1528800</v>
+        <v>1662700</v>
       </c>
       <c r="I9" s="3">
-        <v>1569000</v>
+        <v>1556100</v>
       </c>
       <c r="J9" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1562700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1291300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1230800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1306700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1210900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1289400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1489600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1688000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1617600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1504600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1605200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1468700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1526200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1379100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1458600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1539400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1574200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1529500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5984100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>985000</v>
+        <v>1057500</v>
       </c>
       <c r="E10" s="3">
-        <v>1034700</v>
+        <v>1002600</v>
       </c>
       <c r="F10" s="3">
-        <v>1092900</v>
+        <v>1053200</v>
       </c>
       <c r="G10" s="3">
-        <v>1037900</v>
+        <v>1112400</v>
       </c>
       <c r="H10" s="3">
-        <v>1013600</v>
+        <v>1056400</v>
       </c>
       <c r="I10" s="3">
-        <v>980800</v>
+        <v>1031700</v>
       </c>
       <c r="J10" s="3">
+        <v>998300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1094000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1018800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>972500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1055500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>956700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1034300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1127700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1249500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1265800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1080000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1124900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1107600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1159500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1010200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1102900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1174700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1267800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1260700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5089600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1267,23 +1287,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4700</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1291,25 +1311,28 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>4500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>10100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>29200</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>14100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2648200</v>
+        <v>2665300</v>
       </c>
       <c r="E17" s="3">
-        <v>2850300</v>
+        <v>2695500</v>
       </c>
       <c r="F17" s="3">
-        <v>2801600</v>
+        <v>2901200</v>
       </c>
       <c r="G17" s="3">
-        <v>2426000</v>
+        <v>2851600</v>
       </c>
       <c r="H17" s="3">
-        <v>2325500</v>
+        <v>2469300</v>
       </c>
       <c r="I17" s="3">
-        <v>2310700</v>
+        <v>2367000</v>
       </c>
       <c r="J17" s="3">
+        <v>2351900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2250400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1960900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2023900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1941800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2112500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2415400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2635000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2521000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2451000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2649700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2313800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2474900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2270700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2405500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2472900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2546900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2546000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9990300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109000</v>
+        <v>196000</v>
       </c>
       <c r="E18" s="3">
-        <v>177700</v>
+        <v>110900</v>
       </c>
       <c r="F18" s="3">
-        <v>216900</v>
+        <v>180900</v>
       </c>
       <c r="G18" s="3">
-        <v>245500</v>
+        <v>220800</v>
       </c>
       <c r="H18" s="3">
-        <v>216900</v>
+        <v>249800</v>
       </c>
       <c r="I18" s="3">
-        <v>239100</v>
+        <v>220800</v>
       </c>
       <c r="J18" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K18" s="3">
         <v>406300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>309300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>242400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>338400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>225800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>211100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>202000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>302600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>362300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>133700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>80400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>262500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>210800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>118600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>156000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>241200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>295100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>244200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1083400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18000</v>
+        <v>7500</v>
       </c>
       <c r="E20" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>6300</v>
-      </c>
       <c r="G20" s="3">
-        <v>12700</v>
+        <v>6500</v>
       </c>
       <c r="H20" s="3">
-        <v>16900</v>
+        <v>12900</v>
       </c>
       <c r="I20" s="3">
-        <v>7400</v>
+        <v>17200</v>
       </c>
       <c r="J20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K20" s="3">
         <v>23300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>8200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8900</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>49400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>12900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>25800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191500</v>
+        <v>297200</v>
       </c>
       <c r="E21" s="3">
-        <v>279300</v>
+        <v>194900</v>
       </c>
       <c r="F21" s="3">
-        <v>315300</v>
+        <v>284300</v>
       </c>
       <c r="G21" s="3">
-        <v>352300</v>
+        <v>320900</v>
       </c>
       <c r="H21" s="3">
-        <v>333300</v>
+        <v>358600</v>
       </c>
       <c r="I21" s="3">
-        <v>338600</v>
+        <v>339200</v>
       </c>
       <c r="J21" s="3">
+        <v>344600</v>
+      </c>
+      <c r="K21" s="3">
         <v>519500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>412400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>340100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>441100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>320700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>322900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>322200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>409100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>475300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>244900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>158500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>337800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>276700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>233900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>236700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>313000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>390500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>342800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1820600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37000</v>
+        <v>40900</v>
       </c>
       <c r="E22" s="3">
-        <v>27500</v>
+        <v>37700</v>
       </c>
       <c r="F22" s="3">
-        <v>30700</v>
+        <v>28000</v>
       </c>
       <c r="G22" s="3">
+        <v>31200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="P22" s="3">
         <v>16900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="Q22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>25700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="T22" s="3">
         <v>20100</v>
       </c>
-      <c r="I22" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>17000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>17600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>18500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>16900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>21000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>25700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>23500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>20100</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>26600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>24200</v>
       </c>
       <c r="W22" s="3">
         <v>24200</v>
       </c>
       <c r="X22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="Y22" s="3">
         <v>25800</v>
       </c>
       <c r="Z22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>24700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>25800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>111500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54000</v>
+        <v>162600</v>
       </c>
       <c r="E23" s="3">
-        <v>149200</v>
+        <v>54900</v>
       </c>
       <c r="F23" s="3">
-        <v>192600</v>
+        <v>151800</v>
       </c>
       <c r="G23" s="3">
-        <v>241200</v>
+        <v>196000</v>
       </c>
       <c r="H23" s="3">
-        <v>213700</v>
+        <v>245500</v>
       </c>
       <c r="I23" s="3">
-        <v>225400</v>
+        <v>217500</v>
       </c>
       <c r="J23" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K23" s="3">
         <v>410500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>308300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>233400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>329000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>204000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>204400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>185600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>276800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>347000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>124200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>60300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>244800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>186700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>143800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>141400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>209800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>285000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>231200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>997700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36000</v>
+        <v>48500</v>
       </c>
       <c r="E24" s="3">
-        <v>54000</v>
+        <v>36600</v>
       </c>
       <c r="F24" s="3">
-        <v>70900</v>
+        <v>54900</v>
       </c>
       <c r="G24" s="3">
-        <v>65600</v>
+        <v>72200</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>66800</v>
       </c>
       <c r="I24" s="3">
-        <v>50800</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K24" s="3">
         <v>130100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>92200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>62500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>81200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>73100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>51600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>90900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>64000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>70700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>61000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>274700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18000</v>
+        <v>114200</v>
       </c>
       <c r="E26" s="3">
-        <v>95200</v>
+        <v>18300</v>
       </c>
       <c r="F26" s="3">
-        <v>121700</v>
+        <v>96900</v>
       </c>
       <c r="G26" s="3">
-        <v>175600</v>
+        <v>123800</v>
       </c>
       <c r="H26" s="3">
-        <v>211600</v>
+        <v>178800</v>
       </c>
       <c r="I26" s="3">
-        <v>174600</v>
+        <v>215400</v>
       </c>
       <c r="J26" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K26" s="3">
         <v>280400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>233800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>243900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>146200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>214400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>265900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>171700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>135100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>144900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>50500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>145900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>214300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>170200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>723100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8500</v>
+        <v>102300</v>
       </c>
       <c r="E27" s="3">
-        <v>93100</v>
+        <v>8600</v>
       </c>
       <c r="F27" s="3">
-        <v>118500</v>
+        <v>94800</v>
       </c>
       <c r="G27" s="3">
-        <v>162900</v>
+        <v>120600</v>
       </c>
       <c r="H27" s="3">
-        <v>196800</v>
+        <v>165800</v>
       </c>
       <c r="I27" s="3">
-        <v>173500</v>
+        <v>200300</v>
       </c>
       <c r="J27" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K27" s="3">
         <v>268700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>223600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>167600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>233500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>140700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>129800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>87600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>198400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>252900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>41400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>163900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>116400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>121900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>31400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>135800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>187400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>145600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>626800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,91 +2421,97 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-6300</v>
+        <v>-4300</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>7400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>7000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>18800</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>6877400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>169500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>181200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>155900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>52700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>108800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>150300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>136200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>511800</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18000</v>
+        <v>-7500</v>
       </c>
       <c r="E32" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-6300</v>
-      </c>
       <c r="G32" s="3">
-        <v>-12700</v>
+        <v>-6500</v>
       </c>
       <c r="H32" s="3">
-        <v>-16900</v>
+        <v>-12900</v>
       </c>
       <c r="I32" s="3">
-        <v>-7400</v>
+        <v>-17200</v>
       </c>
       <c r="J32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-8200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8900</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-49400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-25800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8500</v>
+        <v>101200</v>
       </c>
       <c r="E33" s="3">
-        <v>88900</v>
+        <v>8600</v>
       </c>
       <c r="F33" s="3">
-        <v>112100</v>
+        <v>90500</v>
       </c>
       <c r="G33" s="3">
-        <v>162900</v>
+        <v>114200</v>
       </c>
       <c r="H33" s="3">
-        <v>197800</v>
+        <v>165800</v>
       </c>
       <c r="I33" s="3">
-        <v>173500</v>
+        <v>201400</v>
       </c>
       <c r="J33" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K33" s="3">
         <v>276100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>221500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>166600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>128700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>94600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>198400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>271700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>76900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6918800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>333400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>297600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>277800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>84100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>244600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>337700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>281700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1138600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8500</v>
+        <v>101200</v>
       </c>
       <c r="E35" s="3">
-        <v>88900</v>
+        <v>8600</v>
       </c>
       <c r="F35" s="3">
-        <v>112100</v>
+        <v>90500</v>
       </c>
       <c r="G35" s="3">
-        <v>162900</v>
+        <v>114200</v>
       </c>
       <c r="H35" s="3">
-        <v>197800</v>
+        <v>165800</v>
       </c>
       <c r="I35" s="3">
-        <v>173500</v>
+        <v>201400</v>
       </c>
       <c r="J35" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K35" s="3">
         <v>276100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>221500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>166600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>128700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>94600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>198400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>271700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>76900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6918800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>333400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>297600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>277800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>84100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>244600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>337700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>281700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1138600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,147 +3180,151 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1534100</v>
+        <v>1300900</v>
       </c>
       <c r="E41" s="3">
-        <v>1424100</v>
+        <v>1561500</v>
       </c>
       <c r="F41" s="3">
-        <v>1138400</v>
+        <v>1449500</v>
       </c>
       <c r="G41" s="3">
-        <v>1500200</v>
+        <v>1158700</v>
       </c>
       <c r="H41" s="3">
-        <v>1218800</v>
+        <v>1527000</v>
       </c>
       <c r="I41" s="3">
-        <v>1150000</v>
+        <v>1240600</v>
       </c>
       <c r="J41" s="3">
+        <v>1170600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1286500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1221900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1601800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1558900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1341800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>939400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1483800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>765600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1362300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1578000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3310900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1151900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1051900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1258300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1483300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1218500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1169100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1488400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1736100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>355500</v>
+        <v>345700</v>
       </c>
       <c r="E42" s="3">
-        <v>24300</v>
+        <v>361800</v>
       </c>
       <c r="F42" s="3">
-        <v>827400</v>
+        <v>24800</v>
       </c>
       <c r="G42" s="3">
-        <v>1143700</v>
+        <v>842100</v>
       </c>
       <c r="H42" s="3">
-        <v>61400</v>
+        <v>1164100</v>
       </c>
       <c r="I42" s="3">
-        <v>13800</v>
+        <v>62500</v>
       </c>
       <c r="J42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K42" s="3">
         <v>312100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>307300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>249400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>161100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1930600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1795200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3195000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -3251,8 +3341,8 @@
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3260,348 +3350,363 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2588900</v>
+        <v>2830100</v>
       </c>
       <c r="E43" s="3">
-        <v>3048100</v>
+        <v>2635200</v>
       </c>
       <c r="F43" s="3">
-        <v>3072400</v>
+        <v>3102500</v>
       </c>
       <c r="G43" s="3">
-        <v>2743400</v>
+        <v>3127300</v>
       </c>
       <c r="H43" s="3">
-        <v>2474700</v>
+        <v>2792400</v>
       </c>
       <c r="I43" s="3">
-        <v>2518000</v>
+        <v>2518900</v>
       </c>
       <c r="J43" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2651300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2351900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1988800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2312400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2390200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2540500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2490100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2944900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2930400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2846100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2532600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2519800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2661600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2446300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2203600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3470300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3574700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3716300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3271400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1949900</v>
+        <v>1980400</v>
       </c>
       <c r="E44" s="3">
-        <v>2174200</v>
+        <v>1984700</v>
       </c>
       <c r="F44" s="3">
-        <v>2240800</v>
+        <v>2213000</v>
       </c>
       <c r="G44" s="3">
-        <v>1959400</v>
+        <v>2280900</v>
       </c>
       <c r="H44" s="3">
-        <v>1745700</v>
+        <v>1994400</v>
       </c>
       <c r="I44" s="3">
-        <v>1654700</v>
+        <v>1776900</v>
       </c>
       <c r="J44" s="3">
+        <v>1684300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1481200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1330100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1156000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1177000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1285100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1366200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1329700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1495700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1441100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1450200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1347300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1273700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1286900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1279200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1227500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1826600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1827700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1923900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1798300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>177700</v>
+        <v>162600</v>
       </c>
       <c r="E45" s="3">
-        <v>144900</v>
+        <v>180900</v>
       </c>
       <c r="F45" s="3">
-        <v>159800</v>
+        <v>147500</v>
       </c>
       <c r="G45" s="3">
-        <v>155500</v>
+        <v>162600</v>
       </c>
       <c r="H45" s="3">
-        <v>157600</v>
+        <v>158300</v>
       </c>
       <c r="I45" s="3">
-        <v>104700</v>
+        <v>160500</v>
       </c>
       <c r="J45" s="3">
+        <v>106600</v>
+      </c>
+      <c r="K45" s="3">
         <v>74100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>76400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>73400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>73500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>89400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>94100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>95800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>87500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5620000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5451600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5298900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5231800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>75200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>61700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>77500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>69300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6606200</v>
+        <v>6619700</v>
       </c>
       <c r="E46" s="3">
-        <v>6815600</v>
+        <v>6724200</v>
       </c>
       <c r="F46" s="3">
-        <v>7438800</v>
+        <v>6937400</v>
       </c>
       <c r="G46" s="3">
-        <v>7502300</v>
+        <v>7571700</v>
       </c>
       <c r="H46" s="3">
-        <v>5658200</v>
+        <v>7636300</v>
       </c>
       <c r="I46" s="3">
-        <v>5441300</v>
+        <v>5759300</v>
       </c>
       <c r="J46" s="3">
+        <v>5538500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5805200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5276500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5050800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5232100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5148000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4921700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5538200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7226200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7623100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9165100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13737000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10565400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10451900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10282800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10146200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6590600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6633200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7206000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6875000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>204200</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>207800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -3609,11 +3714,11 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>188300</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>191700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3621,11 +3726,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>165600</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3633,216 +3738,225 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>175100</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>3098000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2324400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2293800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2390300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2310200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1479900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1880500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1952300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2290100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>844000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2390000</v>
+        <v>2409000</v>
       </c>
       <c r="E48" s="3">
-        <v>2405900</v>
+        <v>2432700</v>
       </c>
       <c r="F48" s="3">
-        <v>2386800</v>
+        <v>2448900</v>
       </c>
       <c r="G48" s="3">
-        <v>2219700</v>
+        <v>2429500</v>
       </c>
       <c r="H48" s="3">
-        <v>2226000</v>
+        <v>2259300</v>
       </c>
       <c r="I48" s="3">
-        <v>2140300</v>
+        <v>2265800</v>
       </c>
       <c r="J48" s="3">
+        <v>2178600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2135000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2066100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1939900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1986500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2158900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2258200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2421200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2497800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2412800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2539700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2067700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1880700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1888600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1903900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2055500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4525000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4558600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4927700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4918300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4308200</v>
+        <v>4357100</v>
       </c>
       <c r="E49" s="3">
-        <v>4527200</v>
+        <v>4385100</v>
       </c>
       <c r="F49" s="3">
-        <v>4546200</v>
+        <v>4608100</v>
       </c>
       <c r="G49" s="3">
-        <v>3932600</v>
+        <v>4627400</v>
       </c>
       <c r="H49" s="3">
-        <v>3904000</v>
+        <v>4002800</v>
       </c>
       <c r="I49" s="3">
-        <v>3856400</v>
+        <v>3973800</v>
       </c>
       <c r="J49" s="3">
+        <v>3925300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3838400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3703500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3544800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3656500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3897800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4024100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4231900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4168600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3996200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4077500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4090500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3714900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3720000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3711200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3824900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4703400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4747100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5146000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5180000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,58 +4124,61 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2087400</v>
+        <v>2407900</v>
       </c>
       <c r="E52" s="3">
-        <v>2689400</v>
+        <v>2124700</v>
       </c>
       <c r="F52" s="3">
-        <v>2751900</v>
+        <v>2737500</v>
       </c>
       <c r="G52" s="3">
-        <v>2904200</v>
+        <v>2801000</v>
       </c>
       <c r="H52" s="3">
-        <v>2706400</v>
+        <v>2956100</v>
       </c>
       <c r="I52" s="3">
-        <v>2799500</v>
+        <v>2754700</v>
       </c>
       <c r="J52" s="3">
+        <v>2849500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2925400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2626500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2441600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2875000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3204000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3667300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2791300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3312400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -4072,11 +4192,11 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>645100</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
@@ -4084,14 +4204,17 @@
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1193800</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15596000</v>
+        <v>15793800</v>
       </c>
       <c r="E54" s="3">
-        <v>16438100</v>
+        <v>15874600</v>
       </c>
       <c r="F54" s="3">
-        <v>17123700</v>
+        <v>16731800</v>
       </c>
       <c r="G54" s="3">
-        <v>16558800</v>
+        <v>17429600</v>
       </c>
       <c r="H54" s="3">
-        <v>14682900</v>
+        <v>16854600</v>
       </c>
       <c r="I54" s="3">
-        <v>14237500</v>
+        <v>14945200</v>
       </c>
       <c r="J54" s="3">
+        <v>14491800</v>
+      </c>
+      <c r="K54" s="3">
         <v>14704100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13672600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13142700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13750100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14408700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14871400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15157700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17205000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16979000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18880300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22219600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18454800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18450800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18208100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18151600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17699400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17891300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19569800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>19011000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2963500</v>
+        <v>2909800</v>
       </c>
       <c r="E57" s="3">
-        <v>3349600</v>
+        <v>3016400</v>
       </c>
       <c r="F57" s="3">
-        <v>3482900</v>
+        <v>3409500</v>
       </c>
       <c r="G57" s="3">
-        <v>3266000</v>
+        <v>3545200</v>
       </c>
       <c r="H57" s="3">
-        <v>3119000</v>
+        <v>3324400</v>
       </c>
       <c r="I57" s="3">
-        <v>3150700</v>
+        <v>3174700</v>
       </c>
       <c r="J57" s="3">
+        <v>3207000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3038600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2791900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2573300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2514800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2521100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2620600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2808800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3006100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2999800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3069600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3128800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2872000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2939300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2889900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3134800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3987600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3949400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4215200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4079000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2690500</v>
+        <v>2659900</v>
       </c>
       <c r="E58" s="3">
-        <v>2066300</v>
+        <v>2738600</v>
       </c>
       <c r="F58" s="3">
-        <v>2453500</v>
+        <v>2103200</v>
       </c>
       <c r="G58" s="3">
-        <v>2124500</v>
+        <v>2497300</v>
       </c>
       <c r="H58" s="3">
-        <v>1646200</v>
+        <v>2162400</v>
       </c>
       <c r="I58" s="3">
-        <v>1145800</v>
+        <v>1675700</v>
       </c>
       <c r="J58" s="3">
+        <v>1166300</v>
+      </c>
+      <c r="K58" s="3">
         <v>642200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>143900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>118700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>173300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>333100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>197300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>857500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>834100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>839900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>708600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1598300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1698600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1585500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1091700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>151500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>344500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>495300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>102100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>425300</v>
+        <v>432900</v>
       </c>
       <c r="E59" s="3">
-        <v>477200</v>
+        <v>432900</v>
       </c>
       <c r="F59" s="3">
-        <v>429500</v>
+        <v>485700</v>
       </c>
       <c r="G59" s="3">
-        <v>396800</v>
+        <v>437200</v>
       </c>
       <c r="H59" s="3">
-        <v>386200</v>
+        <v>403800</v>
       </c>
       <c r="I59" s="3">
-        <v>366100</v>
+        <v>393100</v>
       </c>
       <c r="J59" s="3">
+        <v>372600</v>
+      </c>
+      <c r="K59" s="3">
         <v>392500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>362400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>393000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>423500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>435300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>444900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>498500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>539000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>509400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>508600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>515700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2787800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2813100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2820800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2866700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>570000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>658600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>743000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>764200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6079300</v>
+        <v>6002600</v>
       </c>
       <c r="E60" s="3">
-        <v>5893100</v>
+        <v>6187900</v>
       </c>
       <c r="F60" s="3">
-        <v>6366000</v>
+        <v>5998300</v>
       </c>
       <c r="G60" s="3">
-        <v>5787300</v>
+        <v>6479700</v>
       </c>
       <c r="H60" s="3">
-        <v>5151400</v>
+        <v>5890600</v>
       </c>
       <c r="I60" s="3">
-        <v>4662600</v>
+        <v>5243400</v>
       </c>
       <c r="J60" s="3">
+        <v>4745900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4073300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3298200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3085000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3111600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3157100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3398600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3504600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4402600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4343300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4418100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4353100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7258100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7451000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7296200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7093200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4709000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4952500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5453500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4945300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3525300</v>
+        <v>3579600</v>
       </c>
       <c r="E61" s="3">
-        <v>3557000</v>
+        <v>3588200</v>
       </c>
       <c r="F61" s="3">
-        <v>3601400</v>
+        <v>3620500</v>
       </c>
       <c r="G61" s="3">
-        <v>3362300</v>
+        <v>3665800</v>
       </c>
       <c r="H61" s="3">
-        <v>2109700</v>
+        <v>3422400</v>
       </c>
       <c r="I61" s="3">
-        <v>2116000</v>
+        <v>2147300</v>
       </c>
       <c r="J61" s="3">
+        <v>2153800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2921100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2822500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2763800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2865600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3031600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2298800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2383900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2496500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2397500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2442700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2128000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2544200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2524300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2523200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2580600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2964300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2967700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3107100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3103600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1179700</v>
+        <v>1211500</v>
       </c>
       <c r="E62" s="3">
-        <v>1333100</v>
+        <v>1200700</v>
       </c>
       <c r="F62" s="3">
-        <v>1407100</v>
+        <v>1356900</v>
       </c>
       <c r="G62" s="3">
-        <v>1418800</v>
+        <v>1432300</v>
       </c>
       <c r="H62" s="3">
-        <v>1459000</v>
+        <v>1444100</v>
       </c>
       <c r="I62" s="3">
-        <v>1401900</v>
+        <v>1485000</v>
       </c>
       <c r="J62" s="3">
+        <v>1426900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1441000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1320900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1359500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1492500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1614500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1619100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1601700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1707600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1559900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1580400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1498700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1280400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1300000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1349400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1401400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2330400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2374100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2616400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2705600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11011700</v>
+        <v>11035000</v>
       </c>
       <c r="E66" s="3">
-        <v>11018000</v>
+        <v>11208400</v>
       </c>
       <c r="F66" s="3">
-        <v>11617900</v>
+        <v>11214800</v>
       </c>
       <c r="G66" s="3">
-        <v>10794800</v>
+        <v>11825400</v>
       </c>
       <c r="H66" s="3">
-        <v>8943300</v>
+        <v>10987600</v>
       </c>
       <c r="I66" s="3">
-        <v>8409000</v>
+        <v>9103000</v>
       </c>
       <c r="J66" s="3">
+        <v>8559200</v>
+      </c>
+      <c r="K66" s="3">
         <v>8665000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7661100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7411700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7681500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8030200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7558200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7744600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8886100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8557100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8694300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8221200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11554500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11777100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11663000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11571100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10518700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10832800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11756900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11319000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5222300</v>
+        <v>5454500</v>
       </c>
       <c r="E72" s="3">
-        <v>5687800</v>
+        <v>5315600</v>
       </c>
       <c r="F72" s="3">
-        <v>5809500</v>
+        <v>5789400</v>
       </c>
       <c r="G72" s="3">
-        <v>6142700</v>
+        <v>5913300</v>
       </c>
       <c r="H72" s="3">
-        <v>6185100</v>
+        <v>6252500</v>
       </c>
       <c r="I72" s="3">
-        <v>6417800</v>
+        <v>6295600</v>
       </c>
       <c r="J72" s="3">
+        <v>6532500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6652700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6591300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6507000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6885400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7111600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7988400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7843800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8826100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8991200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10589300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12978800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5989900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5698600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5812800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5750200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6329100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5928600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6400800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6276400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4584300</v>
+        <v>4758800</v>
       </c>
       <c r="E76" s="3">
-        <v>5420100</v>
+        <v>4666200</v>
       </c>
       <c r="F76" s="3">
-        <v>5505800</v>
+        <v>5517000</v>
       </c>
       <c r="G76" s="3">
-        <v>5764000</v>
+        <v>5604200</v>
       </c>
       <c r="H76" s="3">
-        <v>5739700</v>
+        <v>5867000</v>
       </c>
       <c r="I76" s="3">
-        <v>5828500</v>
+        <v>5842200</v>
       </c>
       <c r="J76" s="3">
+        <v>5932600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6039100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6011500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5731100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6068600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6378600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7313200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7413100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8318900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8421800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10186000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13998400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6900300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6673600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6545200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6580500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7180700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7058400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7812900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7692000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8500</v>
+        <v>101200</v>
       </c>
       <c r="E81" s="3">
-        <v>88900</v>
+        <v>8600</v>
       </c>
       <c r="F81" s="3">
-        <v>112100</v>
+        <v>90500</v>
       </c>
       <c r="G81" s="3">
-        <v>162900</v>
+        <v>114200</v>
       </c>
       <c r="H81" s="3">
-        <v>197800</v>
+        <v>165800</v>
       </c>
       <c r="I81" s="3">
-        <v>173500</v>
+        <v>201400</v>
       </c>
       <c r="J81" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K81" s="3">
         <v>276100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>221500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>166600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>128700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>94600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>198400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>271700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>76900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6918800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>333400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>297600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>277800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>84100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>244600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>337700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>281700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1138600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>102300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>104500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>93700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>95800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>101200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>89900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>86800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>89800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>94400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>98200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>101600</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>115600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>106600</v>
+      </c>
+      <c r="S83" s="3">
+        <v>104700</v>
+      </c>
+      <c r="T83" s="3">
         <v>100500</v>
       </c>
-      <c r="E83" s="3">
-        <v>102600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>92000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>94200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>99500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>92000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>89900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>86800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>89800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>94400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>98200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>101600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>115600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>106600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>104700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100500</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>69800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>66500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>65900</v>
       </c>
       <c r="W83" s="3">
         <v>65900</v>
       </c>
       <c r="X83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="Y83" s="3">
         <v>154800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>170500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>178400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>185500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>711300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>307900</v>
+        <v>-54900</v>
       </c>
       <c r="E89" s="3">
-        <v>123800</v>
+        <v>313400</v>
       </c>
       <c r="F89" s="3">
-        <v>-55000</v>
+        <v>126000</v>
       </c>
       <c r="G89" s="3">
-        <v>-107900</v>
+        <v>-56000</v>
       </c>
       <c r="H89" s="3">
-        <v>187300</v>
+        <v>-109800</v>
       </c>
       <c r="I89" s="3">
-        <v>306800</v>
+        <v>190600</v>
       </c>
       <c r="J89" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K89" s="3">
         <v>177700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>612400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>473300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>336000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-181800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>336200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>377300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>177600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-856400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>287400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>787500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>593500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>466700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>350100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-338100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1515400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101600</v>
+        <v>-62000</v>
       </c>
       <c r="E91" s="3">
-        <v>-76200</v>
+        <v>-96000</v>
       </c>
       <c r="F91" s="3">
-        <v>-70900</v>
+        <v>-72000</v>
       </c>
       <c r="G91" s="3">
-        <v>-60300</v>
+        <v>-67000</v>
       </c>
       <c r="H91" s="3">
-        <v>-104700</v>
+        <v>-57000</v>
       </c>
       <c r="I91" s="3">
-        <v>-74100</v>
+        <v>-99000</v>
       </c>
       <c r="J91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-65600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-92200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-63900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-39900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-39500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-37300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-95400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-66200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-68400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-193700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-444400</v>
+        <v>-74300</v>
       </c>
       <c r="E94" s="3">
-        <v>741700</v>
+        <v>-452300</v>
       </c>
       <c r="F94" s="3">
-        <v>-333300</v>
+        <v>754900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1122500</v>
+        <v>-339200</v>
       </c>
       <c r="H94" s="3">
-        <v>-136500</v>
+        <v>-1142600</v>
       </c>
       <c r="I94" s="3">
-        <v>231700</v>
+        <v>-138900</v>
       </c>
       <c r="J94" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-173500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-267300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-121400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-157100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>115200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>637400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>841600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1430500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3031800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4023000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-365500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-239000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-362400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95200</v>
+        <v>-4300</v>
       </c>
       <c r="E96" s="3">
-        <v>78300</v>
+        <v>-96900</v>
       </c>
       <c r="F96" s="3">
-        <v>-376600</v>
+        <v>79700</v>
       </c>
       <c r="G96" s="3">
-        <v>-7400</v>
+        <v>-383400</v>
       </c>
       <c r="H96" s="3">
-        <v>-95200</v>
+        <v>-7500</v>
       </c>
       <c r="I96" s="3">
-        <v>-10600</v>
+        <v>-96900</v>
       </c>
       <c r="J96" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-304700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-81800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>1000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-310900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-95700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-375300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-159700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-334900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-190000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-235600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-394400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>347000</v>
+        <v>-127100</v>
       </c>
       <c r="E100" s="3">
-        <v>-611500</v>
+        <v>353200</v>
       </c>
       <c r="F100" s="3">
-        <v>-15900</v>
+        <v>-622400</v>
       </c>
       <c r="G100" s="3">
-        <v>1487500</v>
+        <v>-16200</v>
       </c>
       <c r="H100" s="3">
-        <v>32800</v>
+        <v>1514100</v>
       </c>
       <c r="I100" s="3">
-        <v>-695100</v>
+        <v>33400</v>
       </c>
       <c r="J100" s="3">
+        <v>-707500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-114300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-245000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-220400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>325100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-446000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-923600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-268000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-225100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>241600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-77400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-97600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-325400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>11700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-238300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51800</v>
+        <v>-16200</v>
       </c>
       <c r="E101" s="3">
-        <v>10600</v>
+        <v>-52800</v>
       </c>
       <c r="F101" s="3">
-        <v>16900</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
-        <v>9500</v>
+        <v>17200</v>
       </c>
       <c r="H101" s="3">
-        <v>13800</v>
+        <v>9700</v>
       </c>
       <c r="I101" s="3">
-        <v>6300</v>
+        <v>14000</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>16300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-23900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-41800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-26600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-51600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>17600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>158700</v>
+        <v>-272500</v>
       </c>
       <c r="E102" s="3">
-        <v>264500</v>
+        <v>161500</v>
       </c>
       <c r="F102" s="3">
-        <v>-387200</v>
+        <v>269200</v>
       </c>
       <c r="G102" s="3">
-        <v>266600</v>
+        <v>-394100</v>
       </c>
       <c r="H102" s="3">
-        <v>97300</v>
+        <v>271400</v>
       </c>
       <c r="I102" s="3">
-        <v>-150200</v>
+        <v>99100</v>
       </c>
       <c r="J102" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-433800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>291600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>501800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-554400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>64200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>117600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-211800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2105600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>127400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-208600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-275600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>276000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>173900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-194100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-459000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>145600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2861300</v>
+        <v>2971500</v>
       </c>
       <c r="E8" s="3">
-        <v>2806400</v>
+        <v>2880500</v>
       </c>
       <c r="F8" s="3">
-        <v>3082100</v>
+        <v>2825200</v>
       </c>
       <c r="G8" s="3">
-        <v>3072400</v>
+        <v>3102700</v>
       </c>
       <c r="H8" s="3">
-        <v>2719200</v>
+        <v>3092900</v>
       </c>
       <c r="I8" s="3">
-        <v>2587800</v>
+        <v>2737400</v>
       </c>
       <c r="J8" s="3">
+        <v>2605100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2595300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2656600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2310100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2203300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2362300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2167600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2323700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2617300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2937500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2883400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2584600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2730100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2576300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2685700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2389200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2561500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2714100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2842000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2790100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11073700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1803800</v>
+        <v>1772500</v>
       </c>
       <c r="E9" s="3">
-        <v>1803800</v>
+        <v>1815900</v>
       </c>
       <c r="F9" s="3">
-        <v>2028900</v>
+        <v>1815900</v>
       </c>
       <c r="G9" s="3">
-        <v>1960000</v>
+        <v>2042400</v>
       </c>
       <c r="H9" s="3">
-        <v>1662700</v>
+        <v>1973100</v>
       </c>
       <c r="I9" s="3">
-        <v>1556100</v>
+        <v>1673900</v>
       </c>
       <c r="J9" s="3">
+        <v>1566500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1597000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1562700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1291300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1230800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1306700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1210900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1289400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1489600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1688000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1617600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1504600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1605200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1468700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1526200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1379100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1458600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1539400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1574200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1529500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5984100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1057500</v>
+        <v>1199000</v>
       </c>
       <c r="E10" s="3">
-        <v>1002600</v>
+        <v>1064600</v>
       </c>
       <c r="F10" s="3">
-        <v>1053200</v>
+        <v>1009300</v>
       </c>
       <c r="G10" s="3">
-        <v>1112400</v>
+        <v>1060200</v>
       </c>
       <c r="H10" s="3">
-        <v>1056400</v>
+        <v>1119900</v>
       </c>
       <c r="I10" s="3">
-        <v>1031700</v>
+        <v>1063500</v>
       </c>
       <c r="J10" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="K10" s="3">
         <v>998300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1094000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1018800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>972500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1055500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>956700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1034300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1127700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1249500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1265800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1080000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1124900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1107600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1159500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1010200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1102900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1174700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1267800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1260700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5089600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,23 +1310,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4700</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1314,25 +1334,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>4500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>29200</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>14100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2665300</v>
+        <v>2669100</v>
       </c>
       <c r="E17" s="3">
-        <v>2695500</v>
+        <v>2683100</v>
       </c>
       <c r="F17" s="3">
-        <v>2901200</v>
+        <v>2713500</v>
       </c>
       <c r="G17" s="3">
-        <v>2851600</v>
+        <v>2920600</v>
       </c>
       <c r="H17" s="3">
-        <v>2469300</v>
+        <v>2870700</v>
       </c>
       <c r="I17" s="3">
-        <v>2367000</v>
+        <v>2485800</v>
       </c>
       <c r="J17" s="3">
+        <v>2382900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2351900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2250400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1960900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2023900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1941800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2112500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2415400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2635000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2521000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2451000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2649700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2313800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2474900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2270700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2405500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2472900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2546900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2546000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9990300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>196000</v>
+        <v>302500</v>
       </c>
       <c r="E18" s="3">
-        <v>110900</v>
+        <v>197300</v>
       </c>
       <c r="F18" s="3">
-        <v>180900</v>
+        <v>111700</v>
       </c>
       <c r="G18" s="3">
-        <v>220800</v>
+        <v>182100</v>
       </c>
       <c r="H18" s="3">
-        <v>249800</v>
+        <v>222200</v>
       </c>
       <c r="I18" s="3">
-        <v>220800</v>
+        <v>251500</v>
       </c>
       <c r="J18" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K18" s="3">
         <v>243400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>406300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>309300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>242400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>338400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>225800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>211100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>202000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>302600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>362300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>133700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>80400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>262500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>210800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>118600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>156000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>241200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>295100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>244200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1083400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
+        <v>23300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="V20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="W20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>49400</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>11200</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="AC20" s="3">
         <v>12900</v>
       </c>
-      <c r="I20" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>23300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>16300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>8000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>8200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>10600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>8900</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>49400</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>11200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>14600</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>12900</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>25800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>297200</v>
+        <v>403300</v>
       </c>
       <c r="E21" s="3">
-        <v>194900</v>
+        <v>299200</v>
       </c>
       <c r="F21" s="3">
-        <v>284300</v>
+        <v>196200</v>
       </c>
       <c r="G21" s="3">
-        <v>320900</v>
+        <v>286200</v>
       </c>
       <c r="H21" s="3">
-        <v>358600</v>
+        <v>323100</v>
       </c>
       <c r="I21" s="3">
-        <v>339200</v>
+        <v>361000</v>
       </c>
       <c r="J21" s="3">
+        <v>341500</v>
+      </c>
+      <c r="K21" s="3">
         <v>344600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>519500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>412400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>340100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>441100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>320700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>322900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>322200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>409100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>475300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>244900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>337800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>276700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>233900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>236700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>313000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>390500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>342800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1820600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40900</v>
+        <v>48800</v>
       </c>
       <c r="E22" s="3">
-        <v>37700</v>
+        <v>41200</v>
       </c>
       <c r="F22" s="3">
-        <v>28000</v>
+        <v>37900</v>
       </c>
       <c r="G22" s="3">
-        <v>31200</v>
+        <v>28200</v>
       </c>
       <c r="H22" s="3">
-        <v>17200</v>
+        <v>31400</v>
       </c>
       <c r="I22" s="3">
-        <v>20500</v>
+        <v>17300</v>
       </c>
       <c r="J22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K22" s="3">
         <v>21500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>26600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>24200</v>
       </c>
       <c r="X22" s="3">
         <v>24200</v>
       </c>
       <c r="Y22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="Z22" s="3">
         <v>25800</v>
       </c>
       <c r="AA22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="AB22" s="3">
         <v>24700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>25800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>111500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>162600</v>
+        <v>259100</v>
       </c>
       <c r="E23" s="3">
-        <v>54900</v>
+        <v>163700</v>
       </c>
       <c r="F23" s="3">
-        <v>151800</v>
+        <v>55300</v>
       </c>
       <c r="G23" s="3">
-        <v>196000</v>
+        <v>152900</v>
       </c>
       <c r="H23" s="3">
-        <v>245500</v>
+        <v>197300</v>
       </c>
       <c r="I23" s="3">
-        <v>217500</v>
+        <v>247200</v>
       </c>
       <c r="J23" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K23" s="3">
         <v>229400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>410500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>308300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>233400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>329000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>204000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>204400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>185600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>276800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>347000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>124200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>60300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>244800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>186700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>143800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>141400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>209800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>285000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>231200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>997700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48500</v>
+        <v>114900</v>
       </c>
       <c r="E24" s="3">
-        <v>36600</v>
+        <v>48800</v>
       </c>
       <c r="F24" s="3">
-        <v>54900</v>
+        <v>36900</v>
       </c>
       <c r="G24" s="3">
-        <v>72200</v>
+        <v>55300</v>
       </c>
       <c r="H24" s="3">
-        <v>66800</v>
+        <v>72600</v>
       </c>
       <c r="I24" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>130100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>92200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>62500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>81200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>73100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>51600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>90900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>64000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>70700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>61000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>274700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>114200</v>
+        <v>144200</v>
       </c>
       <c r="E26" s="3">
-        <v>18300</v>
+        <v>114900</v>
       </c>
       <c r="F26" s="3">
-        <v>96900</v>
+        <v>18400</v>
       </c>
       <c r="G26" s="3">
-        <v>123800</v>
+        <v>97600</v>
       </c>
       <c r="H26" s="3">
-        <v>178800</v>
+        <v>124700</v>
       </c>
       <c r="I26" s="3">
-        <v>215400</v>
+        <v>180000</v>
       </c>
       <c r="J26" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K26" s="3">
         <v>177700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>280400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>233800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>243900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>146200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>214400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>265900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>87500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>171700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>135100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>144900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>50500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>145900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>214300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>170200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>723100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>102300</v>
+        <v>127900</v>
       </c>
       <c r="E27" s="3">
-        <v>8600</v>
+        <v>103000</v>
       </c>
       <c r="F27" s="3">
-        <v>94800</v>
+        <v>8700</v>
       </c>
       <c r="G27" s="3">
-        <v>120600</v>
+        <v>95400</v>
       </c>
       <c r="H27" s="3">
-        <v>165800</v>
+        <v>121400</v>
       </c>
       <c r="I27" s="3">
-        <v>200300</v>
+        <v>167000</v>
       </c>
       <c r="J27" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K27" s="3">
         <v>176600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>268700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>223600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>167600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>233500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>140700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>129800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>87600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>198400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>252900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>41400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>163900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>116400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>121900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>31400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>135800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>187400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>145600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>626800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,94 +2482,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-4300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>7400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>18800</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>6877400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>169500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>181200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>155900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>52700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>108800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>150300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>136200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>511800</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="E32" s="3">
-        <v>18300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-12900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-25800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101200</v>
+        <v>127900</v>
       </c>
       <c r="E33" s="3">
-        <v>8600</v>
+        <v>101900</v>
       </c>
       <c r="F33" s="3">
-        <v>90500</v>
+        <v>8700</v>
       </c>
       <c r="G33" s="3">
-        <v>114200</v>
+        <v>91100</v>
       </c>
       <c r="H33" s="3">
-        <v>165800</v>
+        <v>114900</v>
       </c>
       <c r="I33" s="3">
-        <v>201400</v>
+        <v>167000</v>
       </c>
       <c r="J33" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K33" s="3">
         <v>176600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>276100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>221500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>166600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>228300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>140700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>128700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>94600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>198400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>271700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6918800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>333400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>297600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>277800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>84100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>244600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>337700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>281700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1138600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101200</v>
+        <v>127900</v>
       </c>
       <c r="E35" s="3">
-        <v>8600</v>
+        <v>101900</v>
       </c>
       <c r="F35" s="3">
-        <v>90500</v>
+        <v>8700</v>
       </c>
       <c r="G35" s="3">
-        <v>114200</v>
+        <v>91100</v>
       </c>
       <c r="H35" s="3">
-        <v>165800</v>
+        <v>114900</v>
       </c>
       <c r="I35" s="3">
-        <v>201400</v>
+        <v>167000</v>
       </c>
       <c r="J35" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K35" s="3">
         <v>176600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>276100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>221500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>166600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>228300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>140700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>128700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>94600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>198400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>271700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6918800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>333400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>297600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>277800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>84100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>244600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>337700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>281700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1138600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,153 +3267,157 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300900</v>
+        <v>1624000</v>
       </c>
       <c r="E41" s="3">
-        <v>1561500</v>
+        <v>1309600</v>
       </c>
       <c r="F41" s="3">
-        <v>1449500</v>
+        <v>1571900</v>
       </c>
       <c r="G41" s="3">
-        <v>1158700</v>
+        <v>1459200</v>
       </c>
       <c r="H41" s="3">
-        <v>1527000</v>
+        <v>1166500</v>
       </c>
       <c r="I41" s="3">
-        <v>1240600</v>
+        <v>1537300</v>
       </c>
       <c r="J41" s="3">
+        <v>1248900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1170600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1286500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1221900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1601800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1558900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1341800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>939400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1483800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>765600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1362300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1578000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3310900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1151900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1051900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1258300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1483300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1218500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1169100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1488400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1736100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>345700</v>
+        <v>254800</v>
       </c>
       <c r="E42" s="3">
-        <v>361800</v>
+        <v>348000</v>
       </c>
       <c r="F42" s="3">
-        <v>24800</v>
+        <v>364300</v>
       </c>
       <c r="G42" s="3">
-        <v>842100</v>
+        <v>24900</v>
       </c>
       <c r="H42" s="3">
-        <v>1164100</v>
+        <v>847800</v>
       </c>
       <c r="I42" s="3">
-        <v>62500</v>
+        <v>1171900</v>
       </c>
       <c r="J42" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>312100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>307300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>249400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>54500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>161100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1930600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1795200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3195000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3344,8 +3434,8 @@
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -3353,363 +3443,378 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2830100</v>
+        <v>3026800</v>
       </c>
       <c r="E43" s="3">
-        <v>2635200</v>
+        <v>2849000</v>
       </c>
       <c r="F43" s="3">
-        <v>3102500</v>
+        <v>2652800</v>
       </c>
       <c r="G43" s="3">
-        <v>3127300</v>
+        <v>3123300</v>
       </c>
       <c r="H43" s="3">
-        <v>2792400</v>
+        <v>3148200</v>
       </c>
       <c r="I43" s="3">
-        <v>2518900</v>
+        <v>2811100</v>
       </c>
       <c r="J43" s="3">
+        <v>2535700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2563000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2651300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2351900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1988800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2312400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2390200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2540500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2490100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2944900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2930400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2846100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2532600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2519800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2661600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2446300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2203600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3470300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3574700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3716300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3271400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1980400</v>
+        <v>1904800</v>
       </c>
       <c r="E44" s="3">
-        <v>1984700</v>
+        <v>1993700</v>
       </c>
       <c r="F44" s="3">
-        <v>2213000</v>
+        <v>1998000</v>
       </c>
       <c r="G44" s="3">
-        <v>2280900</v>
+        <v>2227800</v>
       </c>
       <c r="H44" s="3">
-        <v>1994400</v>
+        <v>2296100</v>
       </c>
       <c r="I44" s="3">
-        <v>1776900</v>
+        <v>2007800</v>
       </c>
       <c r="J44" s="3">
+        <v>1788800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1684300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1481200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1330100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1156000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1177000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1285100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1366200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1329700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1495700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1441100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1450200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1347300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1273700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1286900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1279200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1227500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1826600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1827700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1923900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1798300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>162600</v>
+        <v>165900</v>
       </c>
       <c r="E45" s="3">
-        <v>180900</v>
+        <v>163700</v>
       </c>
       <c r="F45" s="3">
-        <v>147500</v>
+        <v>182100</v>
       </c>
       <c r="G45" s="3">
-        <v>162600</v>
+        <v>148500</v>
       </c>
       <c r="H45" s="3">
-        <v>158300</v>
+        <v>163700</v>
       </c>
       <c r="I45" s="3">
-        <v>160500</v>
+        <v>159400</v>
       </c>
       <c r="J45" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K45" s="3">
         <v>106600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>73400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>73500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>89400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>94100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>95800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>87500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5620000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5451600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5298900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5231800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>75200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>61700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>77500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>69300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6619700</v>
+        <v>6976200</v>
       </c>
       <c r="E46" s="3">
-        <v>6724200</v>
+        <v>6664000</v>
       </c>
       <c r="F46" s="3">
-        <v>6937400</v>
+        <v>6769100</v>
       </c>
       <c r="G46" s="3">
-        <v>7571700</v>
+        <v>6983800</v>
       </c>
       <c r="H46" s="3">
-        <v>7636300</v>
+        <v>7622300</v>
       </c>
       <c r="I46" s="3">
-        <v>5759300</v>
+        <v>7687400</v>
       </c>
       <c r="J46" s="3">
+        <v>5797800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5538500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5805200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5276500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5050800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5232100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5148000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4921700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5538200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7226200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7623100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9165100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13737000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10565400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10451900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10282800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10146200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6590600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6633200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7206000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6875000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>207800</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>209200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -3717,11 +3822,11 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>191700</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>193000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3729,11 +3834,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>165600</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3741,222 +3846,231 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>175100</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>3098000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2324400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2293800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2390300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2310200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1479900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1880500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1952300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2290100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>844000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2409000</v>
+        <v>2440300</v>
       </c>
       <c r="E48" s="3">
-        <v>2432700</v>
+        <v>2425100</v>
       </c>
       <c r="F48" s="3">
-        <v>2448900</v>
+        <v>2449000</v>
       </c>
       <c r="G48" s="3">
-        <v>2429500</v>
+        <v>2465200</v>
       </c>
       <c r="H48" s="3">
-        <v>2259300</v>
+        <v>2445700</v>
       </c>
       <c r="I48" s="3">
-        <v>2265800</v>
+        <v>2274400</v>
       </c>
       <c r="J48" s="3">
+        <v>2280900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2178600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2135000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2066100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1939900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1986500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2158900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2258200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2421200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2497800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2412800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2539700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2067700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1880700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1888600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1903900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2055500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4525000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4558600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4927700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4918300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4357100</v>
+        <v>4378700</v>
       </c>
       <c r="E49" s="3">
-        <v>4385100</v>
+        <v>4386300</v>
       </c>
       <c r="F49" s="3">
-        <v>4608100</v>
+        <v>4414500</v>
       </c>
       <c r="G49" s="3">
-        <v>4627400</v>
+        <v>4638900</v>
       </c>
       <c r="H49" s="3">
-        <v>4002800</v>
+        <v>4658400</v>
       </c>
       <c r="I49" s="3">
-        <v>3973800</v>
+        <v>4029600</v>
       </c>
       <c r="J49" s="3">
+        <v>4000300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3925300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3838400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3703500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3544800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3656500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3897800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4024100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4231900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4168600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3996200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4077500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4090500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3714900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3720000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3711200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3824900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4703400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4747100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5146000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5180000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,61 +4244,64 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2407900</v>
+        <v>2318900</v>
       </c>
       <c r="E52" s="3">
-        <v>2124700</v>
+        <v>2424000</v>
       </c>
       <c r="F52" s="3">
-        <v>2737500</v>
+        <v>2138900</v>
       </c>
       <c r="G52" s="3">
-        <v>2801000</v>
+        <v>2755800</v>
       </c>
       <c r="H52" s="3">
-        <v>2956100</v>
+        <v>2819700</v>
       </c>
       <c r="I52" s="3">
-        <v>2754700</v>
+        <v>2975900</v>
       </c>
       <c r="J52" s="3">
+        <v>2773100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2849500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2925400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2626500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2441600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2875000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3204000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3667300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2791300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3312400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
@@ -4195,11 +4315,11 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>645100</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
@@ -4207,14 +4327,17 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1193800</v>
       </c>
-      <c r="AD52" s="3" t="s">
+      <c r="AE52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15793800</v>
+        <v>16114100</v>
       </c>
       <c r="E54" s="3">
-        <v>15874600</v>
+        <v>15899400</v>
       </c>
       <c r="F54" s="3">
-        <v>16731800</v>
+        <v>15980700</v>
       </c>
       <c r="G54" s="3">
-        <v>17429600</v>
+        <v>16843700</v>
       </c>
       <c r="H54" s="3">
-        <v>16854600</v>
+        <v>17546200</v>
       </c>
       <c r="I54" s="3">
-        <v>14945200</v>
+        <v>16967200</v>
       </c>
       <c r="J54" s="3">
+        <v>15045100</v>
+      </c>
+      <c r="K54" s="3">
         <v>14491800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14704100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13672600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13142700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13750100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14408700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14871400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15157700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17205000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16979000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18880300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22219600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18454800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18450800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18208100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18151600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17699400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17891300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>19569800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>19011000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2909800</v>
+        <v>3071300</v>
       </c>
       <c r="E57" s="3">
-        <v>3016400</v>
+        <v>2929200</v>
       </c>
       <c r="F57" s="3">
-        <v>3409500</v>
+        <v>3036600</v>
       </c>
       <c r="G57" s="3">
-        <v>3545200</v>
+        <v>3432300</v>
       </c>
       <c r="H57" s="3">
-        <v>3324400</v>
+        <v>3568900</v>
       </c>
       <c r="I57" s="3">
-        <v>3174700</v>
+        <v>3346600</v>
       </c>
       <c r="J57" s="3">
+        <v>3195900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3207000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3038600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2791900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2573300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2514800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2521100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2620600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2808800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3006100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2999800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3069600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3128800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2872000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2939300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2889900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3134800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3987600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3949400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4215200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4079000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2659900</v>
+        <v>2606200</v>
       </c>
       <c r="E58" s="3">
-        <v>2738600</v>
+        <v>2677700</v>
       </c>
       <c r="F58" s="3">
-        <v>2103200</v>
+        <v>2756900</v>
       </c>
       <c r="G58" s="3">
-        <v>2497300</v>
+        <v>2117200</v>
       </c>
       <c r="H58" s="3">
-        <v>2162400</v>
+        <v>2514000</v>
       </c>
       <c r="I58" s="3">
-        <v>1675700</v>
+        <v>2176900</v>
       </c>
       <c r="J58" s="3">
+        <v>1686900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1166300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>642200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>143900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>118700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>173300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>333100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>197300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>857500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>834100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>839900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>708600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1598300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1698600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1585500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1091700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>151500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>344500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>495300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>102100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>432900</v>
+        <v>485700</v>
       </c>
       <c r="E59" s="3">
-        <v>432900</v>
+        <v>435800</v>
       </c>
       <c r="F59" s="3">
-        <v>485700</v>
+        <v>435800</v>
       </c>
       <c r="G59" s="3">
-        <v>437200</v>
+        <v>488900</v>
       </c>
       <c r="H59" s="3">
-        <v>403800</v>
+        <v>440100</v>
       </c>
       <c r="I59" s="3">
-        <v>393100</v>
+        <v>406500</v>
       </c>
       <c r="J59" s="3">
+        <v>395700</v>
+      </c>
+      <c r="K59" s="3">
         <v>372600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>392500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>393000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>423500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>435300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>444900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>498500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>539000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>509400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>508600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>515700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2787800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2813100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2820800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2866700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>570000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>658600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>743000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>764200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6002600</v>
+        <v>6163100</v>
       </c>
       <c r="E60" s="3">
-        <v>6187900</v>
+        <v>6042800</v>
       </c>
       <c r="F60" s="3">
-        <v>5998300</v>
+        <v>6229200</v>
       </c>
       <c r="G60" s="3">
-        <v>6479700</v>
+        <v>6038400</v>
       </c>
       <c r="H60" s="3">
-        <v>5890600</v>
+        <v>6523000</v>
       </c>
       <c r="I60" s="3">
-        <v>5243400</v>
+        <v>5930000</v>
       </c>
       <c r="J60" s="3">
+        <v>5278500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4745900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4073300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3298200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3085000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3111600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3157100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3398600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3504600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4402600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4343300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4418100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4353100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7258100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7451000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7296200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7093200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4709000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4952500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5453500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4945300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3579600</v>
+        <v>3991700</v>
       </c>
       <c r="E61" s="3">
-        <v>3588200</v>
+        <v>3603500</v>
       </c>
       <c r="F61" s="3">
-        <v>3620500</v>
+        <v>3612200</v>
       </c>
       <c r="G61" s="3">
-        <v>3665800</v>
+        <v>3644700</v>
       </c>
       <c r="H61" s="3">
-        <v>3422400</v>
+        <v>3690300</v>
       </c>
       <c r="I61" s="3">
-        <v>2147300</v>
+        <v>3445300</v>
       </c>
       <c r="J61" s="3">
+        <v>2161700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2153800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2921100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2822500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2763800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2865600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3031600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2298800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2383900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2496500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2397500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2442700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2128000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2544200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2524300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2523200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2580600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2964300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2967700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3107100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3103600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1211500</v>
+        <v>1169700</v>
       </c>
       <c r="E62" s="3">
-        <v>1200700</v>
+        <v>1219600</v>
       </c>
       <c r="F62" s="3">
-        <v>1356900</v>
+        <v>1208800</v>
       </c>
       <c r="G62" s="3">
-        <v>1432300</v>
+        <v>1366000</v>
       </c>
       <c r="H62" s="3">
-        <v>1444100</v>
+        <v>1441900</v>
       </c>
       <c r="I62" s="3">
-        <v>1485000</v>
+        <v>1453800</v>
       </c>
       <c r="J62" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1426900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1441000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1320900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1359500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1492500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1614500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1619100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1601700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1707600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1559900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1580400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1498700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1280400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1300000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1349400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1401400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2330400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2374100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2616400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2705600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11035000</v>
+        <v>11568400</v>
       </c>
       <c r="E66" s="3">
-        <v>11208400</v>
+        <v>11108800</v>
       </c>
       <c r="F66" s="3">
-        <v>11214800</v>
+        <v>11283300</v>
       </c>
       <c r="G66" s="3">
-        <v>11825400</v>
+        <v>11289800</v>
       </c>
       <c r="H66" s="3">
-        <v>10987600</v>
+        <v>11904500</v>
       </c>
       <c r="I66" s="3">
-        <v>9103000</v>
+        <v>11061100</v>
       </c>
       <c r="J66" s="3">
+        <v>9163900</v>
+      </c>
+      <c r="K66" s="3">
         <v>8559200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8665000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7661100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7411700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7681500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8030200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7558200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7744600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8886100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8557100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8694300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8221200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11554500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11777100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11663000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11571100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10518700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10832800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11756900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11319000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5454500</v>
+        <v>5233000</v>
       </c>
       <c r="E72" s="3">
-        <v>5315600</v>
+        <v>5491000</v>
       </c>
       <c r="F72" s="3">
-        <v>5789400</v>
+        <v>5351100</v>
       </c>
       <c r="G72" s="3">
-        <v>5913300</v>
+        <v>5828100</v>
       </c>
       <c r="H72" s="3">
-        <v>6252500</v>
+        <v>5952800</v>
       </c>
       <c r="I72" s="3">
-        <v>6295600</v>
+        <v>6294300</v>
       </c>
       <c r="J72" s="3">
+        <v>6337600</v>
+      </c>
+      <c r="K72" s="3">
         <v>6532500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6652700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6591300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6507000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6885400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7111600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7988400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7843800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8826100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8991200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10589300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12978800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5989900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5698600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5812800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5750200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6329100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5928600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6400800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6276400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4758800</v>
+        <v>4545600</v>
       </c>
       <c r="E76" s="3">
-        <v>4666200</v>
+        <v>4790600</v>
       </c>
       <c r="F76" s="3">
-        <v>5517000</v>
+        <v>4697400</v>
       </c>
       <c r="G76" s="3">
-        <v>5604200</v>
+        <v>5553800</v>
       </c>
       <c r="H76" s="3">
-        <v>5867000</v>
+        <v>5641700</v>
       </c>
       <c r="I76" s="3">
-        <v>5842200</v>
+        <v>5906200</v>
       </c>
       <c r="J76" s="3">
+        <v>5881200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5932600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6039100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6011500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5731100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6068600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6378600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7313200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7413100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8318900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8421800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10186000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13998400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6900300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6673600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6545200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6580500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7180700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7058400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7812900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7692000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101200</v>
+        <v>127900</v>
       </c>
       <c r="E81" s="3">
-        <v>8600</v>
+        <v>101900</v>
       </c>
       <c r="F81" s="3">
-        <v>90500</v>
+        <v>8700</v>
       </c>
       <c r="G81" s="3">
-        <v>114200</v>
+        <v>91100</v>
       </c>
       <c r="H81" s="3">
-        <v>165800</v>
+        <v>114900</v>
       </c>
       <c r="I81" s="3">
-        <v>201400</v>
+        <v>167000</v>
       </c>
       <c r="J81" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K81" s="3">
         <v>176600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>276100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>221500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>166600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>228300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>140700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>128700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>94600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>198400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>271700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6918800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>333400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>297600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>277800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>84100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>244600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>337700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>281700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1138600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>103000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>105200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>94300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K83" s="3">
         <v>93700</v>
       </c>
-      <c r="E83" s="3">
-        <v>102300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>104500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>93700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>95800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>101200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>93700</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>94400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>98200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>101600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>115600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>69800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>66500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>65900</v>
       </c>
       <c r="X83" s="3">
         <v>65900</v>
       </c>
       <c r="Y83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="Z83" s="3">
         <v>154800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>170500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>178400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>185500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>711300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-54900</v>
+        <v>329600</v>
       </c>
       <c r="E89" s="3">
-        <v>313400</v>
+        <v>-55300</v>
       </c>
       <c r="F89" s="3">
-        <v>126000</v>
+        <v>315500</v>
       </c>
       <c r="G89" s="3">
-        <v>-56000</v>
+        <v>126800</v>
       </c>
       <c r="H89" s="3">
-        <v>-109800</v>
+        <v>-56400</v>
       </c>
       <c r="I89" s="3">
-        <v>190600</v>
+        <v>-110600</v>
       </c>
       <c r="J89" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K89" s="3">
         <v>312300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>612400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>473300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>336000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-181800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>336200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>377300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>177600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-856400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>287400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>787500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>593500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>466700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>350100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-338100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1515400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-96000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-99000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-92200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-54100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-63900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-39900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-39500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-37300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-95400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-66200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-68400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-193700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74300</v>
+        <v>45500</v>
       </c>
       <c r="E94" s="3">
-        <v>-452300</v>
+        <v>-74800</v>
       </c>
       <c r="F94" s="3">
-        <v>754900</v>
+        <v>-455300</v>
       </c>
       <c r="G94" s="3">
-        <v>-339200</v>
+        <v>760000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1142600</v>
+        <v>-341500</v>
       </c>
       <c r="I94" s="3">
-        <v>-138900</v>
+        <v>-1150200</v>
       </c>
       <c r="J94" s="3">
+        <v>-139800</v>
+      </c>
+      <c r="K94" s="3">
         <v>235800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-173500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-267300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-121400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-157100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>115200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>637400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>841600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1430500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3031800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4023000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-365500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-239000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-362400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-71800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-290500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4300</v>
       </c>
-      <c r="E96" s="3">
-        <v>-96900</v>
-      </c>
       <c r="F96" s="3">
-        <v>79700</v>
+        <v>-97600</v>
       </c>
       <c r="G96" s="3">
-        <v>-383400</v>
+        <v>80200</v>
       </c>
       <c r="H96" s="3">
-        <v>-7500</v>
+        <v>-385900</v>
       </c>
       <c r="I96" s="3">
-        <v>-96900</v>
+        <v>-7600</v>
       </c>
       <c r="J96" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-10800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-304700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-81800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>1000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-310900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-95700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-375300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-159700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-334900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-190000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-235600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-394400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-127100</v>
+        <v>-26000</v>
       </c>
       <c r="E100" s="3">
-        <v>353200</v>
+        <v>-127900</v>
       </c>
       <c r="F100" s="3">
-        <v>-622400</v>
+        <v>355600</v>
       </c>
       <c r="G100" s="3">
-        <v>-16200</v>
+        <v>-626600</v>
       </c>
       <c r="H100" s="3">
-        <v>1514100</v>
+        <v>-16300</v>
       </c>
       <c r="I100" s="3">
-        <v>33400</v>
+        <v>1524200</v>
       </c>
       <c r="J100" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-707500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-114300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-245000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-220400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>325100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-446000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-923600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-268000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-225100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>241600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-77400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-97600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-325400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>11700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-238300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16200</v>
+        <v>-17300</v>
       </c>
       <c r="E101" s="3">
-        <v>-52800</v>
+        <v>-16300</v>
       </c>
       <c r="F101" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="G101" s="3">
         <v>10800</v>
       </c>
-      <c r="G101" s="3">
-        <v>17200</v>
-      </c>
       <c r="H101" s="3">
-        <v>9700</v>
+        <v>17300</v>
       </c>
       <c r="I101" s="3">
-        <v>14000</v>
+        <v>9800</v>
       </c>
       <c r="J101" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K101" s="3">
         <v>6500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>16300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-23900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-41800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-26600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-19100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-51600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>7000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>17600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-272500</v>
+        <v>331700</v>
       </c>
       <c r="E102" s="3">
-        <v>161500</v>
+        <v>-274300</v>
       </c>
       <c r="F102" s="3">
-        <v>269200</v>
+        <v>162600</v>
       </c>
       <c r="G102" s="3">
-        <v>-394100</v>
+        <v>271000</v>
       </c>
       <c r="H102" s="3">
-        <v>271400</v>
+        <v>-396800</v>
       </c>
       <c r="I102" s="3">
-        <v>99100</v>
+        <v>273200</v>
       </c>
       <c r="J102" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-152900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-433800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>291600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>501800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-554400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>64200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>117600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-211800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2105600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>127400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-208600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-275600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>276000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>173900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-194100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-459000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>145600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>443700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AKZOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>AKZOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2971500</v>
+        <v>2974000</v>
       </c>
       <c r="E8" s="3">
-        <v>2880500</v>
+        <v>2974000</v>
       </c>
       <c r="F8" s="3">
-        <v>2825200</v>
+        <v>2882800</v>
       </c>
       <c r="G8" s="3">
-        <v>3102700</v>
+        <v>2827500</v>
       </c>
       <c r="H8" s="3">
-        <v>3092900</v>
+        <v>3105300</v>
       </c>
       <c r="I8" s="3">
-        <v>2737400</v>
+        <v>3095500</v>
       </c>
       <c r="J8" s="3">
+        <v>2739600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2605100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2595300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2656600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2310100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2203300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2362300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2167600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2323700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2617300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2937500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2883400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2584600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2730100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2576300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2685700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2389200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2561500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2714100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2842000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2790100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11073700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4225700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1772500</v>
+        <v>1756600</v>
       </c>
       <c r="E9" s="3">
-        <v>1815900</v>
+        <v>1774000</v>
       </c>
       <c r="F9" s="3">
-        <v>1815900</v>
+        <v>1817400</v>
       </c>
       <c r="G9" s="3">
-        <v>2042400</v>
+        <v>1817400</v>
       </c>
       <c r="H9" s="3">
-        <v>1973100</v>
+        <v>2044100</v>
       </c>
       <c r="I9" s="3">
-        <v>1673900</v>
+        <v>1974700</v>
       </c>
       <c r="J9" s="3">
+        <v>1675200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1566500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1597000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1562700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1291300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1230800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1306700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1210900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1289400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1489600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1688000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1617600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1504600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1605200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1468700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1526200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1379100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1458600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1539400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1574200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1529500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5984100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2420400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1199000</v>
+        <v>1217400</v>
       </c>
       <c r="E10" s="3">
-        <v>1064600</v>
+        <v>1200000</v>
       </c>
       <c r="F10" s="3">
-        <v>1009300</v>
+        <v>1065500</v>
       </c>
       <c r="G10" s="3">
-        <v>1060200</v>
+        <v>1010100</v>
       </c>
       <c r="H10" s="3">
-        <v>1119900</v>
+        <v>1061100</v>
       </c>
       <c r="I10" s="3">
-        <v>1063500</v>
+        <v>1120800</v>
       </c>
       <c r="J10" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1038600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>998300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1094000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1018800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>972500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1055500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>956700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1034300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1127700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1249500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1265800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1080000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1124900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1107600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1159500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1010200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1102900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1174700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1267800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1260700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>5089600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1805300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,23 +1333,23 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4700</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1337,25 +1357,28 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>4500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>10100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>29200</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>14100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2669100</v>
+        <v>2589900</v>
       </c>
       <c r="E17" s="3">
-        <v>2683100</v>
+        <v>2671300</v>
       </c>
       <c r="F17" s="3">
-        <v>2713500</v>
+        <v>2685400</v>
       </c>
       <c r="G17" s="3">
-        <v>2920600</v>
+        <v>2715800</v>
       </c>
       <c r="H17" s="3">
-        <v>2870700</v>
+        <v>2923000</v>
       </c>
       <c r="I17" s="3">
-        <v>2485800</v>
+        <v>2873100</v>
       </c>
       <c r="J17" s="3">
+        <v>2487900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2382900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2351900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2250400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1960900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2023900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1941800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2112500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2415400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2635000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2521000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2451000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2649700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2313800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2474900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2270700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2405500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2472900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2546900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2546000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9990300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3692800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>302500</v>
+        <v>384100</v>
       </c>
       <c r="E18" s="3">
-        <v>197300</v>
+        <v>302700</v>
       </c>
       <c r="F18" s="3">
-        <v>111700</v>
+        <v>197500</v>
       </c>
       <c r="G18" s="3">
-        <v>182100</v>
+        <v>111800</v>
       </c>
       <c r="H18" s="3">
+        <v>182300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>222400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>251700</v>
+      </c>
+      <c r="K18" s="3">
         <v>222200</v>
       </c>
-      <c r="I18" s="3">
-        <v>251500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>222200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>406300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>309300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>242400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>338400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>225800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>211100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>202000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>302600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>362300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>133700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>80400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>262500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>210800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>118600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>156000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>241200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>295100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>244200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1083400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E20" s="3">
         <v>5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>8200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8900</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>49400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>11200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>14600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>12900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>25800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>403300</v>
+        <v>470900</v>
       </c>
       <c r="E21" s="3">
-        <v>299200</v>
+        <v>403600</v>
       </c>
       <c r="F21" s="3">
-        <v>196200</v>
+        <v>299500</v>
       </c>
       <c r="G21" s="3">
-        <v>286200</v>
+        <v>196400</v>
       </c>
       <c r="H21" s="3">
-        <v>323100</v>
+        <v>286400</v>
       </c>
       <c r="I21" s="3">
-        <v>361000</v>
+        <v>323300</v>
       </c>
       <c r="J21" s="3">
+        <v>361300</v>
+      </c>
+      <c r="K21" s="3">
         <v>341500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>344600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>519500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>412400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>340100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>441100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>320700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>322900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>322200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>409100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>475300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>244900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>158500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>337800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>276700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>233900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>236700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>313000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>390500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>342800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1820600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E22" s="3">
         <v>48800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>41200</v>
       </c>
-      <c r="F22" s="3">
-        <v>37900</v>
-      </c>
       <c r="G22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H22" s="3">
         <v>28200</v>
       </c>
-      <c r="H22" s="3">
-        <v>31400</v>
-      </c>
       <c r="I22" s="3">
-        <v>17300</v>
+        <v>31500</v>
       </c>
       <c r="J22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K22" s="3">
         <v>20600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>28400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>26600</v>
-      </c>
-      <c r="X22" s="3">
-        <v>24200</v>
       </c>
       <c r="Y22" s="3">
         <v>24200</v>
       </c>
       <c r="Z22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="AA22" s="3">
         <v>25800</v>
       </c>
       <c r="AB22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="AC22" s="3">
         <v>24700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>25800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>111500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>259100</v>
+        <v>319000</v>
       </c>
       <c r="E23" s="3">
-        <v>163700</v>
+        <v>259300</v>
       </c>
       <c r="F23" s="3">
+        <v>163800</v>
+      </c>
+      <c r="G23" s="3">
         <v>55300</v>
       </c>
-      <c r="G23" s="3">
-        <v>152900</v>
-      </c>
       <c r="H23" s="3">
-        <v>197300</v>
+        <v>153000</v>
       </c>
       <c r="I23" s="3">
-        <v>247200</v>
+        <v>197500</v>
       </c>
       <c r="J23" s="3">
+        <v>247400</v>
+      </c>
+      <c r="K23" s="3">
         <v>219000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>229400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>410500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>308300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>233400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>329000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>204000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>204400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>185600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>276800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>347000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>124200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>60300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>244800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>186700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>143800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>141400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>209800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>285000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>231200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>997700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>505900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114900</v>
+        <v>104200</v>
       </c>
       <c r="E24" s="3">
+        <v>115000</v>
+      </c>
+      <c r="F24" s="3">
         <v>48800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55300</v>
       </c>
-      <c r="H24" s="3">
-        <v>72600</v>
-      </c>
       <c r="I24" s="3">
-        <v>67200</v>
+        <v>72700</v>
       </c>
       <c r="J24" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>61000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>92200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>62500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>81200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>73100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>51600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>90900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>64000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>70700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>61000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>274700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>153800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>144200</v>
+        <v>214800</v>
       </c>
       <c r="E26" s="3">
-        <v>114900</v>
+        <v>144300</v>
       </c>
       <c r="F26" s="3">
+        <v>115000</v>
+      </c>
+      <c r="G26" s="3">
         <v>18400</v>
       </c>
-      <c r="G26" s="3">
-        <v>97600</v>
-      </c>
       <c r="H26" s="3">
-        <v>124700</v>
+        <v>97700</v>
       </c>
       <c r="I26" s="3">
-        <v>180000</v>
+        <v>124800</v>
       </c>
       <c r="J26" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K26" s="3">
         <v>216800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>177700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>280400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>233800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>243900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>146200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>214400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>265900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>87500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>171700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>135100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>144900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>50500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>145900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>214300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>170200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>723100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>127900</v>
+        <v>206200</v>
       </c>
       <c r="E27" s="3">
-        <v>103000</v>
+        <v>128000</v>
       </c>
       <c r="F27" s="3">
+        <v>103100</v>
+      </c>
+      <c r="G27" s="3">
         <v>8700</v>
       </c>
-      <c r="G27" s="3">
-        <v>95400</v>
-      </c>
       <c r="H27" s="3">
-        <v>121400</v>
+        <v>95500</v>
       </c>
       <c r="I27" s="3">
-        <v>167000</v>
+        <v>121500</v>
       </c>
       <c r="J27" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K27" s="3">
         <v>201600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>176600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>268700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>223600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>167600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>233500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>140700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>129800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>87600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>198400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>252900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>41400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>163900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>116400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>121900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>31400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>135800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>187400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>145600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>626800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,97 +2543,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-4300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>7400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>7000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>18800</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>6877400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>169500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>181200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>155900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>52700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>108800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>150300</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>136200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>511800</v>
       </c>
-      <c r="AE29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-8200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8900</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-49400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-14600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-25800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>127900</v>
+        <v>205100</v>
       </c>
       <c r="E33" s="3">
-        <v>101900</v>
+        <v>128000</v>
       </c>
       <c r="F33" s="3">
+        <v>102000</v>
+      </c>
+      <c r="G33" s="3">
         <v>8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>91100</v>
       </c>
-      <c r="H33" s="3">
-        <v>114900</v>
-      </c>
       <c r="I33" s="3">
-        <v>167000</v>
+        <v>115000</v>
       </c>
       <c r="J33" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K33" s="3">
         <v>202700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>176600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>276100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>221500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>166600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>228300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>140700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>128700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>94600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>198400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>271700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6918800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>333400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>297600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>277800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>84100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>244600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>337700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>281700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1138600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>127900</v>
+        <v>205100</v>
       </c>
       <c r="E35" s="3">
-        <v>101900</v>
+        <v>128000</v>
       </c>
       <c r="F35" s="3">
+        <v>102000</v>
+      </c>
+      <c r="G35" s="3">
         <v>8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>91100</v>
       </c>
-      <c r="H35" s="3">
-        <v>114900</v>
-      </c>
       <c r="I35" s="3">
-        <v>167000</v>
+        <v>115000</v>
       </c>
       <c r="J35" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K35" s="3">
         <v>202700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>176600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>276100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>221500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>166600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>228300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>140700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>128700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>94600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>198400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>271700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6918800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>333400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>297600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>277800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>84100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>244600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>337700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>281700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1138600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,159 +3354,163 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1624000</v>
+        <v>1809800</v>
       </c>
       <c r="E41" s="3">
-        <v>1309600</v>
+        <v>1625300</v>
       </c>
       <c r="F41" s="3">
-        <v>1571900</v>
+        <v>1310700</v>
       </c>
       <c r="G41" s="3">
-        <v>1459200</v>
+        <v>1573300</v>
       </c>
       <c r="H41" s="3">
-        <v>1166500</v>
+        <v>1460400</v>
       </c>
       <c r="I41" s="3">
-        <v>1537300</v>
+        <v>1167500</v>
       </c>
       <c r="J41" s="3">
+        <v>1538500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1248900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1170600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1286500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1221900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1601800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1558900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1341800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>939400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1483800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>765600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1362300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1578000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3310900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1151900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1051900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1258300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1483300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1218500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1169100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1488400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1736100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1974300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>254800</v>
+        <v>255000</v>
       </c>
       <c r="E42" s="3">
-        <v>348000</v>
+        <v>255000</v>
       </c>
       <c r="F42" s="3">
-        <v>364300</v>
+        <v>348300</v>
       </c>
       <c r="G42" s="3">
-        <v>24900</v>
+        <v>364600</v>
       </c>
       <c r="H42" s="3">
-        <v>847800</v>
+        <v>25000</v>
       </c>
       <c r="I42" s="3">
-        <v>1171900</v>
+        <v>848500</v>
       </c>
       <c r="J42" s="3">
+        <v>1172900</v>
+      </c>
+      <c r="K42" s="3">
         <v>62900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>312100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>307300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>249400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>54500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>161100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1930600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1795200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3195000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6458600</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -3437,8 +3527,8 @@
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC42" s="3">
-        <v>0</v>
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD42" s="3">
         <v>0</v>
@@ -3446,364 +3536,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3026800</v>
+        <v>3079200</v>
       </c>
       <c r="E43" s="3">
-        <v>2849000</v>
+        <v>3029300</v>
       </c>
       <c r="F43" s="3">
-        <v>2652800</v>
+        <v>2851400</v>
       </c>
       <c r="G43" s="3">
-        <v>3123300</v>
+        <v>2655000</v>
       </c>
       <c r="H43" s="3">
-        <v>3148200</v>
+        <v>3125900</v>
       </c>
       <c r="I43" s="3">
-        <v>2811100</v>
+        <v>3150800</v>
       </c>
       <c r="J43" s="3">
+        <v>2813400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2535700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2563000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2651300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2351900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1988800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2312400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2390200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2540500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2490100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2944900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2930400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2846100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2532600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2519800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2661600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2446300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2203600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3470300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3574700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3716300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3271400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3458000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1904800</v>
+        <v>1862900</v>
       </c>
       <c r="E44" s="3">
-        <v>1993700</v>
+        <v>1906300</v>
       </c>
       <c r="F44" s="3">
-        <v>1998000</v>
+        <v>1995300</v>
       </c>
       <c r="G44" s="3">
-        <v>2227800</v>
+        <v>1999700</v>
       </c>
       <c r="H44" s="3">
-        <v>2296100</v>
+        <v>2229700</v>
       </c>
       <c r="I44" s="3">
-        <v>2007800</v>
+        <v>2298000</v>
       </c>
       <c r="J44" s="3">
+        <v>2009400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1788800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1684300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1481200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1330100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1156000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1177000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1285100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1366200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1329700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1495700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1441100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1450200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1347300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1273700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1286900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1279200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1227500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1826600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1827700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1923900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1798300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1840500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>165900</v>
+        <v>170300</v>
       </c>
       <c r="E45" s="3">
-        <v>163700</v>
+        <v>166000</v>
       </c>
       <c r="F45" s="3">
-        <v>182100</v>
+        <v>163800</v>
       </c>
       <c r="G45" s="3">
-        <v>148500</v>
+        <v>182300</v>
       </c>
       <c r="H45" s="3">
-        <v>163700</v>
+        <v>148600</v>
       </c>
       <c r="I45" s="3">
-        <v>159400</v>
+        <v>163800</v>
       </c>
       <c r="J45" s="3">
+        <v>159500</v>
+      </c>
+      <c r="K45" s="3">
         <v>161500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>73400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>73500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>94100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>95800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>87500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5620000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5451600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5298900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5231800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>75200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>61700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>77500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>69300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6976200</v>
+        <v>7177300</v>
       </c>
       <c r="E46" s="3">
-        <v>6664000</v>
+        <v>6982000</v>
       </c>
       <c r="F46" s="3">
-        <v>6769100</v>
+        <v>6669500</v>
       </c>
       <c r="G46" s="3">
-        <v>6983800</v>
+        <v>6774700</v>
       </c>
       <c r="H46" s="3">
-        <v>7622300</v>
+        <v>6989600</v>
       </c>
       <c r="I46" s="3">
-        <v>7687400</v>
+        <v>7628600</v>
       </c>
       <c r="J46" s="3">
+        <v>7693700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5797800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5538500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5805200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5276500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5050800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5232100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5148000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4921700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5538200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7226200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7623100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9165100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13737000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10565400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10451900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10282800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10146200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6590600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6633200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7206000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6875000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>7336300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3813,11 +3918,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>209200</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>209400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3825,11 +3930,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>193000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3837,11 +3942,11 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>165600</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3849,228 +3954,237 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>175100</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>3098000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2324400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2293800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2390300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2310200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1479900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1880500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1952300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2290100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>844000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2155100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2440300</v>
+        <v>2447800</v>
       </c>
       <c r="E48" s="3">
-        <v>2425100</v>
+        <v>2442300</v>
       </c>
       <c r="F48" s="3">
-        <v>2449000</v>
+        <v>2427100</v>
       </c>
       <c r="G48" s="3">
-        <v>2465200</v>
+        <v>2451000</v>
       </c>
       <c r="H48" s="3">
-        <v>2445700</v>
+        <v>2467300</v>
       </c>
       <c r="I48" s="3">
-        <v>2274400</v>
+        <v>2447800</v>
       </c>
       <c r="J48" s="3">
+        <v>2276300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2280900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2178600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2135000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2066100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1939900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1986500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2158900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2258200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2421200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2497800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2412800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2539700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2067700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1880700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1888600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1903900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2055500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4525000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4558600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4927700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4918300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4683500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4378700</v>
+        <v>4503800</v>
       </c>
       <c r="E49" s="3">
-        <v>4386300</v>
+        <v>4382300</v>
       </c>
       <c r="F49" s="3">
-        <v>4414500</v>
+        <v>4389900</v>
       </c>
       <c r="G49" s="3">
-        <v>4638900</v>
+        <v>4418100</v>
       </c>
       <c r="H49" s="3">
-        <v>4658400</v>
+        <v>4642700</v>
       </c>
       <c r="I49" s="3">
-        <v>4029600</v>
+        <v>4662200</v>
       </c>
       <c r="J49" s="3">
+        <v>4032900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4000300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3925300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3838400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3703500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3544800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3656500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3897800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4024100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4231900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4168600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3996200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4077500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4090500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3714900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3720000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3711200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3824900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4703400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4747100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5146000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5180000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4658900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,64 +4364,67 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2318900</v>
+        <v>2186300</v>
       </c>
       <c r="E52" s="3">
-        <v>2424000</v>
+        <v>2320800</v>
       </c>
       <c r="F52" s="3">
-        <v>2138900</v>
+        <v>2426100</v>
       </c>
       <c r="G52" s="3">
-        <v>2755800</v>
+        <v>2140700</v>
       </c>
       <c r="H52" s="3">
-        <v>2819700</v>
+        <v>2758100</v>
       </c>
       <c r="I52" s="3">
-        <v>2975900</v>
+        <v>2822100</v>
       </c>
       <c r="J52" s="3">
+        <v>2978300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2773100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2849500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2925400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2626500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2441600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2875000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3667300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2791300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3312400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2946900</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
@@ -4318,11 +4438,11 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
         <v>645100</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
@@ -4330,14 +4450,17 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE52" s="3">
         <v>1193800</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AF52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16114100</v>
+        <v>16315100</v>
       </c>
       <c r="E54" s="3">
-        <v>15899400</v>
+        <v>16127400</v>
       </c>
       <c r="F54" s="3">
-        <v>15980700</v>
+        <v>15912600</v>
       </c>
       <c r="G54" s="3">
-        <v>16843700</v>
+        <v>15994000</v>
       </c>
       <c r="H54" s="3">
-        <v>17546200</v>
+        <v>16857600</v>
       </c>
       <c r="I54" s="3">
-        <v>16967200</v>
+        <v>17560700</v>
       </c>
       <c r="J54" s="3">
+        <v>16981300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15045100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14491800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14704100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13672600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13142700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13750100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14408700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14871400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15157700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17205000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16979000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18880300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22219600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18454800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18450800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18208100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18151600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17699400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>17891300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>19569800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>19011000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>18833800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3071300</v>
+        <v>3209400</v>
       </c>
       <c r="E57" s="3">
-        <v>2929200</v>
+        <v>3073800</v>
       </c>
       <c r="F57" s="3">
-        <v>3036600</v>
+        <v>2931700</v>
       </c>
       <c r="G57" s="3">
-        <v>3432300</v>
+        <v>3039100</v>
       </c>
       <c r="H57" s="3">
-        <v>3568900</v>
+        <v>3435100</v>
       </c>
       <c r="I57" s="3">
-        <v>3346600</v>
+        <v>3571800</v>
       </c>
       <c r="J57" s="3">
+        <v>3349400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3195900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3207000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3038600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2791900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2573300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2514800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2521100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2620600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2808800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3006100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2999800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3069600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3128800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2872000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2939300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2889900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3134800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3987600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3949400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4215200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4079000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3961600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2606200</v>
+        <v>2541100</v>
       </c>
       <c r="E58" s="3">
-        <v>2677700</v>
+        <v>2608300</v>
       </c>
       <c r="F58" s="3">
-        <v>2756900</v>
+        <v>2680000</v>
       </c>
       <c r="G58" s="3">
-        <v>2117200</v>
+        <v>2759200</v>
       </c>
       <c r="H58" s="3">
-        <v>2514000</v>
+        <v>2119000</v>
       </c>
       <c r="I58" s="3">
-        <v>2176900</v>
+        <v>2516100</v>
       </c>
       <c r="J58" s="3">
+        <v>2178700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1686900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1166300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>642200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>143900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>118700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>173300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>333100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>197300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>857500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>834100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>839900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>708600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1598300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1698600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1585500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1091700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>151500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>344500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>495300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>102100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>485700</v>
+        <v>456800</v>
       </c>
       <c r="E59" s="3">
-        <v>435800</v>
+        <v>486100</v>
       </c>
       <c r="F59" s="3">
-        <v>435800</v>
+        <v>436200</v>
       </c>
       <c r="G59" s="3">
-        <v>488900</v>
+        <v>436200</v>
       </c>
       <c r="H59" s="3">
-        <v>440100</v>
+        <v>489300</v>
       </c>
       <c r="I59" s="3">
-        <v>406500</v>
+        <v>440500</v>
       </c>
       <c r="J59" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K59" s="3">
         <v>395700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>372600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>392500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>393000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>423500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>435300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>444900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>498500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>539000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>509400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>508600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>515700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2787800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2813100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2820800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2866700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>570000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>658600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>743000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>764200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>825200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6163100</v>
+        <v>6207300</v>
       </c>
       <c r="E60" s="3">
-        <v>6042800</v>
+        <v>6168200</v>
       </c>
       <c r="F60" s="3">
-        <v>6229200</v>
+        <v>6047800</v>
       </c>
       <c r="G60" s="3">
-        <v>6038400</v>
+        <v>6234400</v>
       </c>
       <c r="H60" s="3">
-        <v>6523000</v>
+        <v>6043500</v>
       </c>
       <c r="I60" s="3">
-        <v>5930000</v>
+        <v>6528400</v>
       </c>
       <c r="J60" s="3">
+        <v>5935000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5278500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4745900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4073300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3298200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3085000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3111600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3157100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3398600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3504600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4402600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4343300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4418100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4353100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7258100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7451000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7296200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7093200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4709000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4952500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5453500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4945300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4978100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3991700</v>
+        <v>3975400</v>
       </c>
       <c r="E61" s="3">
-        <v>3603500</v>
+        <v>3995000</v>
       </c>
       <c r="F61" s="3">
-        <v>3612200</v>
+        <v>3606500</v>
       </c>
       <c r="G61" s="3">
-        <v>3644700</v>
+        <v>3615200</v>
       </c>
       <c r="H61" s="3">
-        <v>3690300</v>
+        <v>3647800</v>
       </c>
       <c r="I61" s="3">
-        <v>3445300</v>
+        <v>3693300</v>
       </c>
       <c r="J61" s="3">
+        <v>3448100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2161700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2153800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2921100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2822500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2763800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2865600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3031600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2298800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2383900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2496500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2397500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2442700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2128000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2544200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2524300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2523200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2580600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2964300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2967700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3107100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3103600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3096500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1169700</v>
+        <v>1126200</v>
       </c>
       <c r="E62" s="3">
-        <v>1219600</v>
+        <v>1170700</v>
       </c>
       <c r="F62" s="3">
-        <v>1208800</v>
+        <v>1220600</v>
       </c>
       <c r="G62" s="3">
-        <v>1366000</v>
+        <v>1209800</v>
       </c>
       <c r="H62" s="3">
-        <v>1441900</v>
+        <v>1367100</v>
       </c>
       <c r="I62" s="3">
-        <v>1453800</v>
+        <v>1443100</v>
       </c>
       <c r="J62" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1495000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1426900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1441000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1320900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1359500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1492500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1614500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1619100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1601700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1707600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1559900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1580400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1498700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1280400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1300000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1349400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1401400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2330400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2374100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2616400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2705600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>2730300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11568400</v>
+        <v>11550900</v>
       </c>
       <c r="E66" s="3">
-        <v>11108800</v>
+        <v>11578000</v>
       </c>
       <c r="F66" s="3">
-        <v>11283300</v>
+        <v>11118000</v>
       </c>
       <c r="G66" s="3">
-        <v>11289800</v>
+        <v>11292700</v>
       </c>
       <c r="H66" s="3">
-        <v>11904500</v>
+        <v>11299200</v>
       </c>
       <c r="I66" s="3">
-        <v>11061100</v>
+        <v>11914400</v>
       </c>
       <c r="J66" s="3">
+        <v>11070300</v>
+      </c>
+      <c r="K66" s="3">
         <v>9163900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8559200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8665000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7661100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7411700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7681500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8030200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7558200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7744600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8886100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8557100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8694300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8221200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11554500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11777100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11663000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11571100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10518700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10832800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11756900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11319000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>11393000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5233000</v>
+        <v>5366400</v>
       </c>
       <c r="E72" s="3">
-        <v>5491000</v>
+        <v>5237300</v>
       </c>
       <c r="F72" s="3">
-        <v>5351100</v>
+        <v>5495500</v>
       </c>
       <c r="G72" s="3">
-        <v>5828100</v>
+        <v>5355600</v>
       </c>
       <c r="H72" s="3">
-        <v>5952800</v>
+        <v>5833000</v>
       </c>
       <c r="I72" s="3">
-        <v>6294300</v>
+        <v>5957700</v>
       </c>
       <c r="J72" s="3">
+        <v>6299500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6337600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6532500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6652700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6591300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6507000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6885400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7111600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7988400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7843800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8826100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8991200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10589300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12978800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5989900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5698600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5812800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5750200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6329100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5928600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6400800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6276400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>6298700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4545600</v>
+        <v>4764200</v>
       </c>
       <c r="E76" s="3">
-        <v>4790600</v>
+        <v>4549400</v>
       </c>
       <c r="F76" s="3">
-        <v>4697400</v>
+        <v>4794600</v>
       </c>
       <c r="G76" s="3">
-        <v>5553800</v>
+        <v>4701300</v>
       </c>
       <c r="H76" s="3">
-        <v>5641700</v>
+        <v>5558500</v>
       </c>
       <c r="I76" s="3">
-        <v>5906200</v>
+        <v>5646300</v>
       </c>
       <c r="J76" s="3">
+        <v>5911100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5881200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5932600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6039100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6011500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5731100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6068600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6378600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7313200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7413100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8318900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8421800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10186000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13998400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6900300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6673600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6545200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6580500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7180700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7058400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7812900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7692000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>7440800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>127900</v>
+        <v>205100</v>
       </c>
       <c r="E81" s="3">
-        <v>101900</v>
+        <v>128000</v>
       </c>
       <c r="F81" s="3">
+        <v>102000</v>
+      </c>
+      <c r="G81" s="3">
         <v>8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>91100</v>
       </c>
-      <c r="H81" s="3">
-        <v>114900</v>
-      </c>
       <c r="I81" s="3">
-        <v>167000</v>
+        <v>115000</v>
       </c>
       <c r="J81" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K81" s="3">
         <v>202700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>176600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>276100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>221500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>166600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>228300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>140700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>128700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>94600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>198400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>271700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6918800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>333400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>297600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>277800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>84100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>244600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>337700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>281700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1138600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>334500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95400</v>
+        <v>96600</v>
       </c>
       <c r="E83" s="3">
-        <v>94300</v>
+        <v>95500</v>
       </c>
       <c r="F83" s="3">
-        <v>103000</v>
+        <v>94400</v>
       </c>
       <c r="G83" s="3">
+        <v>103100</v>
+      </c>
+      <c r="H83" s="3">
         <v>105200</v>
       </c>
-      <c r="H83" s="3">
-        <v>94300</v>
-      </c>
       <c r="I83" s="3">
-        <v>96500</v>
+        <v>94400</v>
       </c>
       <c r="J83" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K83" s="3">
         <v>101900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>94400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>98200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>101600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>115600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>106600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>104700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>69800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>66500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>65900</v>
       </c>
       <c r="Y83" s="3">
         <v>65900</v>
       </c>
       <c r="Z83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="AA83" s="3">
         <v>154800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>170500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>178400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>185500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>711300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>178400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>329600</v>
+        <v>321200</v>
       </c>
       <c r="E89" s="3">
+        <v>329800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-55300</v>
       </c>
-      <c r="F89" s="3">
-        <v>315500</v>
-      </c>
       <c r="G89" s="3">
-        <v>126800</v>
+        <v>315700</v>
       </c>
       <c r="H89" s="3">
+        <v>126900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-56400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-110600</v>
-      </c>
       <c r="J89" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="K89" s="3">
         <v>191900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>312300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>612400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>473300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>336000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-181800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>336200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>377300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>177600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-856400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>287400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>787500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>593500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>466700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>350100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-338100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1515400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>704300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-96000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-99000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-101700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-51900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-92200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-63700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-63900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-39900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-39500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-37300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-95400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-66200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-68400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-193700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1488400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-150200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>45500</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
-        <v>-74800</v>
+        <v>45600</v>
       </c>
       <c r="F94" s="3">
-        <v>-455300</v>
+        <v>-74900</v>
       </c>
       <c r="G94" s="3">
-        <v>760000</v>
+        <v>-455700</v>
       </c>
       <c r="H94" s="3">
-        <v>-341500</v>
+        <v>760600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1150200</v>
+        <v>-341800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1151200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-139800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>235800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-173500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-267300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-121400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-157100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>115200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>637400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>841600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1430500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3031800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4023000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-365500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-239000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-362400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-71800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1149200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-133800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-290500</v>
+        <v>-17400</v>
       </c>
       <c r="E96" s="3">
+        <v>-290800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>80300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-386300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-97600</v>
       </c>
-      <c r="G96" s="3">
-        <v>80200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-385900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-97600</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-10800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-304700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-81800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>1000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-310900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-95700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-375300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1213700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-159700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-334900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-190000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1077100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-235600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-394400</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-127900</v>
-      </c>
       <c r="F100" s="3">
-        <v>355600</v>
+        <v>-128000</v>
       </c>
       <c r="G100" s="3">
-        <v>-626600</v>
+        <v>355900</v>
       </c>
       <c r="H100" s="3">
+        <v>-627100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-16300</v>
       </c>
-      <c r="I100" s="3">
-        <v>1524200</v>
-      </c>
       <c r="J100" s="3">
+        <v>1525500</v>
+      </c>
+      <c r="K100" s="3">
         <v>33600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-707500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-114300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-245000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-220400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>325100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-446000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1092700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-923600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1804600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3968600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2222700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-268000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-225100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>241600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-77400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-97600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-325400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>11700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-238300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17300</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-16300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-53100</v>
-      </c>
       <c r="G101" s="3">
-        <v>10800</v>
+        <v>-53200</v>
       </c>
       <c r="H101" s="3">
-        <v>17300</v>
+        <v>10900</v>
       </c>
       <c r="I101" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J101" s="3">
         <v>9800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>14100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>16300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-23900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-41800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-15300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>27200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>17700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-26600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-19100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-51600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>7000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>17600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>331700</v>
+        <v>172500</v>
       </c>
       <c r="E102" s="3">
-        <v>-274300</v>
+        <v>332000</v>
       </c>
       <c r="F102" s="3">
-        <v>162600</v>
+        <v>-274500</v>
       </c>
       <c r="G102" s="3">
-        <v>271000</v>
+        <v>162800</v>
       </c>
       <c r="H102" s="3">
-        <v>-396800</v>
+        <v>271300</v>
       </c>
       <c r="I102" s="3">
-        <v>273200</v>
+        <v>-397100</v>
       </c>
       <c r="J102" s="3">
+        <v>273400</v>
+      </c>
+      <c r="K102" s="3">
         <v>99700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-152900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-433800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>291600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>501800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-554400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>64200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>117600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-211800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1766100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2105600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>127400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-208600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-275600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>276000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>173900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-194100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-459000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>145600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>443700</v>
       </c>
     </row>
